--- a/prices.xlsx
+++ b/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedemad/Downloads/phone_price_bot test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA58B420-3CA3-9E4F-A122-95657D6BFB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E12598D-E0DB-A24A-A8FD-9FD0EA4B03FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="503">
   <si>
     <t>Blackview Tab 60 Pro 8/128GB (Algae Green)+Giftset</t>
   </si>
@@ -493,9 +493,6 @@
     <t xml:space="preserve">iPhone 16 Pro Max نسخة الشرق الاوسط </t>
   </si>
   <si>
-    <t xml:space="preserve">الذاكره </t>
-  </si>
-  <si>
     <t>iPad Pro 13-inch M4 chip</t>
   </si>
   <si>
@@ -1523,15 +1520,32 @@
   </si>
   <si>
     <t>HUAWEI</t>
+  </si>
+  <si>
+    <t>Trend</t>
+  </si>
+  <si>
+    <t>١- المنصور - شارع ١٤ رمصان - مقابل مطعم الساعه
+٢- شارع الربيعي مجاور الكوخ - مقابل مصرف التنميه</t>
+  </si>
+  <si>
+    <t>الذاكرة</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1579,7 +1593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1587,14 +1601,18 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1900,17 +1918,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K343"/>
+  <dimension ref="A1:K342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D330" sqref="D330:D343"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="38.83203125" customWidth="1"/>
-    <col min="3" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" customWidth="1"/>
     <col min="9" max="9" width="41.83203125" customWidth="1"/>
     <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1920,7 +1941,7 @@
         <v>110</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>157</v>
+        <v>502</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>111</v>
@@ -1937,7 +1958,7 @@
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2">
@@ -1955,7 +1976,7 @@
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2">
@@ -1973,7 +1994,7 @@
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2">
@@ -1991,7 +2012,7 @@
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2">
@@ -2009,7 +2030,7 @@
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2">
@@ -2027,7 +2048,7 @@
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2">
@@ -2045,7 +2066,7 @@
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2">
@@ -2063,7 +2084,7 @@
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2">
@@ -2081,7 +2102,7 @@
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2">
@@ -2099,7 +2120,7 @@
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2">
@@ -2117,7 +2138,7 @@
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2">
@@ -2135,7 +2156,7 @@
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2">
@@ -2153,7 +2174,7 @@
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2">
@@ -2171,7 +2192,7 @@
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2">
@@ -2189,7 +2210,7 @@
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2">
@@ -2207,7 +2228,7 @@
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2">
@@ -2225,7 +2246,7 @@
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2">
@@ -2243,7 +2264,7 @@
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2">
@@ -2261,7 +2282,7 @@
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2">
@@ -2279,7 +2300,7 @@
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2">
@@ -2297,7 +2318,7 @@
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="2">
@@ -2315,7 +2336,7 @@
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2">
@@ -2333,7 +2354,7 @@
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="2">
@@ -3105,7 +3126,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>40</v>
       </c>
@@ -3755,7 +3776,7 @@
     </row>
     <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="2">
@@ -3773,7 +3794,7 @@
     </row>
     <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="2">
@@ -3791,7 +3812,7 @@
     </row>
     <row r="105" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="2">
@@ -3809,7 +3830,7 @@
     </row>
     <row r="106" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="2">
@@ -3827,7 +3848,7 @@
     </row>
     <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="2">
@@ -3845,7 +3866,7 @@
     </row>
     <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="2">
@@ -3863,7 +3884,7 @@
     </row>
     <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="2">
@@ -3881,7 +3902,7 @@
     </row>
     <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="2">
@@ -3899,7 +3920,7 @@
     </row>
     <row r="111" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="2">
@@ -3917,7 +3938,7 @@
     </row>
     <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="2">
@@ -3935,7 +3956,7 @@
     </row>
     <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="2">
@@ -3953,7 +3974,7 @@
     </row>
     <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="2">
@@ -3971,7 +3992,7 @@
     </row>
     <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="2">
@@ -3989,7 +4010,7 @@
     </row>
     <row r="116" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="2">
@@ -4007,7 +4028,7 @@
     </row>
     <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="2">
@@ -4025,7 +4046,7 @@
     </row>
     <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="2">
@@ -4043,7 +4064,7 @@
     </row>
     <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="2">
@@ -4061,7 +4082,7 @@
     </row>
     <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="2">
@@ -4079,7 +4100,7 @@
     </row>
     <row r="121" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="2">
@@ -4097,7 +4118,7 @@
     </row>
     <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="2">
@@ -4115,7 +4136,7 @@
     </row>
     <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="2">
@@ -4133,7 +4154,7 @@
     </row>
     <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="2">
@@ -4151,7 +4172,7 @@
     </row>
     <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="2">
@@ -4707,224 +4728,334 @@
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E157" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+    </row>
+    <row r="158" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J158" s="5"/>
-      <c r="K158" s="5"/>
-    </row>
-    <row r="159" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E158" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E159" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E160" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E161" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>131</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E162" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E163" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E164" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>144</v>
+      <c r="E165" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A166" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A167" s="7" t="s">
-        <v>146</v>
+      <c r="E166" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E167" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E168" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E169" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>154</v>
+      <c r="E170" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A171" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E171" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>160</v>
@@ -4932,112 +5063,154 @@
       <c r="D172" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E172" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F172" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="I172" s="5"/>
+      <c r="J172" s="5"/>
+      <c r="K172" s="5"/>
+    </row>
+    <row r="173" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>161</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>113</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F173" s="9" t="s">
+        <v>501</v>
       </c>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
     </row>
-    <row r="174" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>113</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>501</v>
       </c>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
     </row>
-    <row r="175" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C175" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>113</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>501</v>
       </c>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
     </row>
-    <row r="176" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>131</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>113</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>501</v>
       </c>
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
     </row>
-    <row r="177" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C177" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I177" s="5"/>
-      <c r="J177" s="5"/>
-      <c r="K177" s="5"/>
-    </row>
-    <row r="178" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E177" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F177" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E178" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F178" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>168</v>
@@ -5045,27 +5218,39 @@
       <c r="D179" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E179" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F179" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>131</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E180" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F180" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>171</v>
@@ -5073,125 +5258,179 @@
       <c r="D181" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E181" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F181" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E182" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E183" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F183" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E184" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F184" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B186" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B186" s="5" t="s">
-        <v>180</v>
-      </c>
       <c r="C186" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E186" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F186" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E187" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F187" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E188" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F188" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E189" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F189" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>189</v>
@@ -5199,142 +5438,215 @@
       <c r="D190" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E190" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F190" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="E191" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F191" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="E192" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F192" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="E193" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F193" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="E194" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F194" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
         <v>197</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="E195" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F195" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="E196" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F196" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="J196" s="5"/>
+    </row>
+    <row r="197" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E197" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F197" s="9" t="s">
+        <v>501</v>
+      </c>
       <c r="J197" s="5"/>
     </row>
-    <row r="198" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E198" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F198" s="9" t="s">
+        <v>501</v>
+      </c>
       <c r="J198" s="5"/>
     </row>
-    <row r="199" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C199" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E199" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F199" s="9" t="s">
+        <v>501</v>
+      </c>
       <c r="J199" s="5"/>
     </row>
-    <row r="200" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
         <v>206</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E200" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F200" s="9" t="s">
+        <v>501</v>
+      </c>
       <c r="J200" s="5"/>
     </row>
-    <row r="201" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E201" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F201" s="9" t="s">
+        <v>501</v>
+      </c>
       <c r="J201" s="5"/>
     </row>
-    <row r="202" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>211</v>
@@ -5342,14 +5654,20 @@
       <c r="D202" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E202" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F202" s="9" t="s">
+        <v>501</v>
+      </c>
       <c r="J202" s="5"/>
     </row>
-    <row r="203" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>212</v>
@@ -5357,42 +5675,60 @@
       <c r="D203" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E203" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F203" s="9" t="s">
+        <v>501</v>
+      </c>
       <c r="J203" s="5"/>
     </row>
-    <row r="204" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>213</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C204" s="6"/>
       <c r="D204" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E204" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F204" s="9" t="s">
+        <v>501</v>
+      </c>
       <c r="J204" s="5"/>
     </row>
-    <row r="205" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B205" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C205" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C205" s="6"/>
       <c r="D205" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E205" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F205" s="9" t="s">
+        <v>501</v>
+      </c>
       <c r="J205" s="5"/>
     </row>
-    <row r="206" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>216</v>
@@ -5400,56 +5736,79 @@
       <c r="D206" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="J206" s="5"/>
-    </row>
-    <row r="207" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="E206" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F206" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="E207" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F207" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E208" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F208" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E209" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F209" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>223</v>
@@ -5457,69 +5816,99 @@
       <c r="D210" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E210" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F210" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E211" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F211" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E212" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F212" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E213" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F213" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E214" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F214" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>233</v>
@@ -5527,41 +5916,59 @@
       <c r="D215" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E215" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F215" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E216" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F216" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E217" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F217" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>238</v>
@@ -5569,27 +5976,39 @@
       <c r="D218" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E218" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F218" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E219" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F219" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>241</v>
@@ -5597,27 +6016,39 @@
       <c r="D220" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E220" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F220" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E221" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F221" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>244</v>
@@ -5625,41 +6056,59 @@
       <c r="D222" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E222" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F222" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E223" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F223" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E224" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F224" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>249</v>
@@ -5667,153 +6116,219 @@
       <c r="D225" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E225" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F225" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E226" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F226" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E227" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F227" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E228" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F228" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E229" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F229" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="E230" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F230" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E231" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F231" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A232" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E232" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F232" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E233" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F233" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E234" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F234" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E235" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F235" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>270</v>
@@ -5821,41 +6336,59 @@
       <c r="D236" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E236" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F236" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E237" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F237" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E238" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F238" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>276</v>
@@ -5863,277 +6396,397 @@
       <c r="D239" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E239" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F239" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E240" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F240" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E241" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F241" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>282</v>
+        <v>202</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E242" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F242" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E243" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F243" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E244" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F244" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E245" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F245" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E246" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F246" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E247" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F247" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
         <v>291</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E248" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F248" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E249" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F249" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E250" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F250" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E251" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F251" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E252" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F252" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>226</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="B253" s="5"/>
       <c r="C253" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E253" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F253" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B254" s="5"/>
+        <v>303</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="C254" s="6" t="s">
-        <v>303</v>
+        <v>141</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="E254" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F254" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B255" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B255" s="5" t="s">
-        <v>305</v>
-      </c>
       <c r="C255" s="6" t="s">
-        <v>141</v>
+        <v>306</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E255" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F255" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>305</v>
+        <v>179</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E256" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F256" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="E257" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F257" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E258" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F258" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>313</v>
@@ -6141,307 +6794,439 @@
       <c r="D259" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E259" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F259" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A260" s="5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E260" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F260" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>180</v>
+        <v>316</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E261" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F261" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>317</v>
+        <v>225</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E262" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F262" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>320</v>
+        <v>246</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E263" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F263" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
         <v>321</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>247</v>
+        <v>322</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E264" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F264" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E265" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F265" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E266" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F266" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>253</v>
+        <v>327</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E267" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F267" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+      <c r="E268" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F268" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>305</v>
+        <v>179</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+      <c r="E269" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F269" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A270" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C270" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E270" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F270" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A271" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D270" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A271" s="5" t="s">
-        <v>334</v>
-      </c>
       <c r="B271" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C271" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E271" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F271" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A272" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D271" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A272" s="5" t="s">
-        <v>334</v>
-      </c>
       <c r="B272" s="5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>174</v>
+        <v>336</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+      <c r="E272" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F272" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C273" s="6" t="s">
         <v>337</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+      <c r="E273" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F273" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A274" s="5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C274" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E274" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F274" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A275" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D274" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A275" s="5" t="s">
-        <v>339</v>
-      </c>
       <c r="B275" s="5" t="s">
-        <v>180</v>
+        <v>316</v>
       </c>
       <c r="C275" s="6" t="s">
         <v>340</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+      <c r="E275" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F275" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A276" s="5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>317</v>
+        <v>225</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+      <c r="E276" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F276" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A277" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+      <c r="E277" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F277" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A278" s="5" t="s">
         <v>344</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+      <c r="E278" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F278" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A279" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="E279" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F279" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E280" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F280" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A281" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="C281" s="6" t="s">
         <v>350</v>
@@ -6449,83 +7234,119 @@
       <c r="D281" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E281" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F281" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A282" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E282" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F282" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A283" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="C283" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E283" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F283" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A284" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="D283" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A284" s="5" t="s">
-        <v>354</v>
-      </c>
       <c r="B284" s="5" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E284" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F284" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A285" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>290</v>
+        <v>356</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E285" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F285" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A286" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E286" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F286" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="C287" s="6" t="s">
         <v>359</v>
@@ -6533,358 +7354,532 @@
       <c r="D287" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E287" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F287" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+      <c r="E288" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F288" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D289" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D289" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E289" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F289" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A290" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D290" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E290" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F290" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D291" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E291" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F291" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>368</v>
+        <v>171</v>
       </c>
       <c r="D292" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E292" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F292" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A293" s="5" t="s">
         <v>369</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>172</v>
+        <v>370</v>
       </c>
       <c r="D293" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E293" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F293" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A294" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="C294" s="6" t="s">
         <v>371</v>
       </c>
       <c r="D294" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E294" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F294" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B295" s="5" t="s">
-        <v>248</v>
+        <v>372</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D295" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E295" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F295" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A296" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D296" t="s">
+        <v>499</v>
+      </c>
+      <c r="E296" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F296" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A297" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D297" t="s">
+        <v>499</v>
+      </c>
+      <c r="E297" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F297" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A298" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C298" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C296" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="D296" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A297" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="C297" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="D297" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A298" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="C298" s="6" t="s">
-        <v>378</v>
-      </c>
       <c r="D298" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E298" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F298" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A299" s="5" t="s">
         <v>379</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D299" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E299" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F299" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A300" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D300" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E300" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F300" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C301" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C301" s="6" t="s">
-        <v>383</v>
-      </c>
       <c r="D301" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E301" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F301" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A302" s="5" t="s">
         <v>384</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D302" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E302" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F302" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A303" s="5" t="s">
         <v>385</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>381</v>
+        <v>308</v>
       </c>
       <c r="D303" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E303" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F303" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A304" s="5" t="s">
         <v>386</v>
       </c>
+      <c r="B304" s="5"/>
       <c r="C304" s="6" t="s">
-        <v>309</v>
+        <v>387</v>
       </c>
       <c r="D304" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E304" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F304" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A305" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B305" s="5"/>
       <c r="C305" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D305" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E305" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F305" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A306" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B306" s="5"/>
       <c r="C306" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D306" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E306" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F306" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A307" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B307" s="5"/>
       <c r="C307" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D307" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E307" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F307" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A308" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B308" s="5"/>
       <c r="C308" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D308" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E308" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F308" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B309" s="5"/>
       <c r="C309" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D309" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E309" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F309" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A310" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B310" s="5"/>
       <c r="C310" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D310" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E310" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F310" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A311" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B311" s="5"/>
       <c r="C311" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D311" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E311" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F311" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A312" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B312" s="5"/>
       <c r="C312" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D312" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E312" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F312" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A313" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B313" s="5"/>
       <c r="C313" s="6" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D313" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="E313" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F313" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A314" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B314" s="5"/>
+      <c r="B314" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="C314" s="6" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="D314" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="E314" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F314" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A315" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D315" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E315" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F315" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A316" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="C316" s="6" t="s">
         <v>409</v>
@@ -6892,111 +7887,159 @@
       <c r="D316" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E316" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F316" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A317" s="5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D317" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E317" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F317" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A318" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D318" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E318" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F318" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A319" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D319" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E319" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F319" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>226</v>
+        <v>416</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>416</v>
+        <v>281</v>
       </c>
       <c r="D320" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E320" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F320" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A321" s="5" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>417</v>
+        <v>227</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>282</v>
+        <v>418</v>
       </c>
       <c r="D321" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E321" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F321" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A322" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D322" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E322" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F322" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A323" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D323" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E323" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F323" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A324" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>253</v>
+        <v>327</v>
       </c>
       <c r="C324" s="6" t="s">
         <v>423</v>
@@ -7004,111 +8047,159 @@
       <c r="D324" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E324" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F324" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A325" s="5" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>424</v>
+        <v>255</v>
       </c>
       <c r="D325" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E325" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F325" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A326" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C326" s="6" t="s">
         <v>425</v>
-      </c>
-      <c r="B326" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C326" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="D326" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E326" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F326" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A327" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D327" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E327" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F327" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A328" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D328" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E328" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F328" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A329" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D329" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="E329" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F329" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A330" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D330" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E330" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F330" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A331" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D331" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E331" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F331" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="C332" s="6" t="s">
         <v>436</v>
@@ -7116,83 +8207,119 @@
       <c r="D332" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E332" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F332" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A333" s="5" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D333" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E333" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F333" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A334" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D334" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E334" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F334" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>226</v>
+        <v>416</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D335" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E335" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F335" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A336" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>417</v>
+        <v>252</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D336" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E336" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F336" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A337" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D337" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E337" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F337" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A338" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="C338" s="6" t="s">
         <v>447</v>
@@ -7200,75 +8327,91 @@
       <c r="D338" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E338" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F338" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A339" s="5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D339" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E339" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F339" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A340" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>253</v>
+        <v>327</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>450</v>
+        <v>393</v>
       </c>
       <c r="D340" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E340" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F340" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A341" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>328</v>
+        <v>247</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="D341" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E341" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F341" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A342" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D342" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A343" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B343" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C343" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="D343" t="s">
-        <v>117</v>
+      <c r="E342" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F342" s="9" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>

--- a/prices.xlsx
+++ b/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedemad/Downloads/phone_price_bot test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230EB163-9A79-1A4E-B6DC-5EC322B88803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB6EA45-83CD-C24B-BD15-60ED7075536C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -598,10 +598,6 @@
     <t>Trend</t>
   </si>
   <si>
-    <t>١- المنصور - شارع ١٤ رمصان - مقابل مطعم الساعه
-٢- شارع الربيعي مجاور الكوخ - مقابل مصرف التنميه</t>
-  </si>
-  <si>
     <t xml:space="preserve"> iPhone 16 Plus 256GB (Teal) AR </t>
   </si>
   <si>
@@ -1605,15 +1601,25 @@
   </si>
   <si>
     <t>infinix gt XPad 8GB - 256GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> المنصور - شارع ١٤ رمصان - مقابل مطعم الساعه</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1668,18 +1674,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1989,8 +1998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J342"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J342"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1999,7 +2008,7 @@
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.83203125" customWidth="1"/>
     <col min="10" max="10" width="44.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2023,7 +2032,7 @@
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="1">
         <v>1365000</v>
@@ -2040,7 +2049,7 @@
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" s="1">
         <v>1570750</v>
@@ -2057,7 +2066,7 @@
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="1">
         <v>525000</v>
@@ -2074,7 +2083,7 @@
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B5" s="1">
         <v>525000</v>
@@ -2091,7 +2100,7 @@
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B6" s="1">
         <v>470000</v>
@@ -2108,7 +2117,7 @@
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B7" s="1">
         <v>470000</v>
@@ -2125,7 +2134,7 @@
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8" s="1">
         <v>470000</v>
@@ -2142,7 +2151,7 @@
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" s="1">
         <v>575000</v>
@@ -2159,7 +2168,7 @@
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" s="1">
         <v>575000</v>
@@ -2176,7 +2185,7 @@
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B11" s="1">
         <v>1600000</v>
@@ -2193,7 +2202,7 @@
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="1">
         <v>1600000</v>
@@ -2210,7 +2219,7 @@
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="1">
         <v>1065000</v>
@@ -2227,7 +2236,7 @@
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="1">
         <v>1065000</v>
@@ -2244,7 +2253,7 @@
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B15" s="1">
         <v>1210000</v>
@@ -2261,7 +2270,7 @@
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16" s="1">
         <v>1365000</v>
@@ -2278,7 +2287,7 @@
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B17" s="1">
         <v>2300000</v>
@@ -2295,7 +2304,7 @@
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B18" s="1">
         <v>1615000</v>
@@ -2312,7 +2321,7 @@
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" s="1">
         <v>1615000</v>
@@ -2329,7 +2338,7 @@
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B20" s="1">
         <v>1615000</v>
@@ -2346,7 +2355,7 @@
     </row>
     <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B21" s="1">
         <v>1980000</v>
@@ -2363,7 +2372,7 @@
     </row>
     <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B22" s="1">
         <v>955000</v>
@@ -2380,7 +2389,7 @@
     </row>
     <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B23" s="1">
         <v>1324500</v>
@@ -2397,7 +2406,7 @@
     </row>
     <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B24" s="1">
         <v>768500</v>
@@ -2414,7 +2423,7 @@
     </row>
     <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B25" s="1">
         <v>160000</v>
@@ -2431,7 +2440,7 @@
     </row>
     <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B26" s="1">
         <v>160000</v>
@@ -2448,7 +2457,7 @@
     </row>
     <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B27" s="1">
         <v>115000</v>
@@ -2465,7 +2474,7 @@
     </row>
     <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B28" s="1">
         <v>115000</v>
@@ -2482,7 +2491,7 @@
     </row>
     <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B29" s="1">
         <v>115000</v>
@@ -2499,7 +2508,7 @@
     </row>
     <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B30" s="1">
         <v>430000</v>
@@ -2516,7 +2525,7 @@
     </row>
     <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B31" s="1">
         <v>480000</v>
@@ -2533,7 +2542,7 @@
     </row>
     <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B32" s="1">
         <v>480000</v>
@@ -2550,7 +2559,7 @@
     </row>
     <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B33" s="1">
         <v>480000</v>
@@ -2567,7 +2576,7 @@
     </row>
     <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B34" s="1">
         <v>1295000</v>
@@ -2584,7 +2593,7 @@
     </row>
     <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B35" s="1">
         <v>1295000</v>
@@ -2601,7 +2610,7 @@
     </row>
     <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B36" s="1">
         <v>795000</v>
@@ -2618,7 +2627,7 @@
     </row>
     <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B37" s="1">
         <v>335000</v>
@@ -2635,7 +2644,7 @@
     </row>
     <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B38" s="1">
         <v>115000</v>
@@ -2652,7 +2661,7 @@
     </row>
     <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B39" s="1">
         <v>260000</v>
@@ -2669,7 +2678,7 @@
     </row>
     <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B40" s="1">
         <v>285000</v>
@@ -2686,7 +2695,7 @@
     </row>
     <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B41" s="1">
         <v>130000</v>
@@ -2703,7 +2712,7 @@
     </row>
     <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B42" s="1">
         <v>145000</v>
@@ -2720,7 +2729,7 @@
     </row>
     <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B43" s="1">
         <v>145000</v>
@@ -2737,7 +2746,7 @@
     </row>
     <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B44" s="1">
         <v>145000</v>
@@ -2754,7 +2763,7 @@
     </row>
     <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B45" s="1">
         <v>180000</v>
@@ -2771,7 +2780,7 @@
     </row>
     <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B46" s="1">
         <v>235000</v>
@@ -2788,7 +2797,7 @@
     </row>
     <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B47" s="1">
         <v>235000</v>
@@ -2805,7 +2814,7 @@
     </row>
     <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B48" s="1">
         <v>235000</v>
@@ -2822,7 +2831,7 @@
     </row>
     <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B49" s="1">
         <v>285000</v>
@@ -2839,7 +2848,7 @@
     </row>
     <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B50" s="1">
         <v>350000</v>
@@ -2856,7 +2865,7 @@
     </row>
     <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B51" s="1">
         <v>350000</v>
@@ -2873,7 +2882,7 @@
     </row>
     <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B52" s="1">
         <v>350000</v>
@@ -2890,7 +2899,7 @@
     </row>
     <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B53" s="1">
         <v>350000</v>
@@ -2907,7 +2916,7 @@
     </row>
     <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B54" s="1">
         <v>350000</v>
@@ -2924,7 +2933,7 @@
     </row>
     <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B55" s="1">
         <v>325000</v>
@@ -2941,7 +2950,7 @@
     </row>
     <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B56" s="1">
         <v>325000</v>
@@ -2958,7 +2967,7 @@
     </row>
     <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B57" s="1">
         <v>185000</v>
@@ -2975,7 +2984,7 @@
     </row>
     <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B58" s="1">
         <v>185000</v>
@@ -2992,7 +3001,7 @@
     </row>
     <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B59" s="1">
         <v>430000</v>
@@ -3009,7 +3018,7 @@
     </row>
     <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B60" s="1">
         <v>640000</v>
@@ -3026,7 +3035,7 @@
     </row>
     <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B61" s="1">
         <v>640000</v>
@@ -3043,7 +3052,7 @@
     </row>
     <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B62" s="1">
         <v>1120000</v>
@@ -3060,7 +3069,7 @@
     </row>
     <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B63" s="1">
         <v>1475000</v>
@@ -3077,7 +3086,7 @@
     </row>
     <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B64" s="1">
         <v>270000</v>
@@ -3094,7 +3103,7 @@
     </row>
     <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B65" s="1">
         <v>270000</v>
@@ -3111,7 +3120,7 @@
     </row>
     <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B66" s="1">
         <v>190000</v>
@@ -3128,7 +3137,7 @@
     </row>
     <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B67" s="1">
         <v>310000</v>
@@ -3145,7 +3154,7 @@
     </row>
     <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B68" s="1">
         <v>290000</v>
@@ -3162,7 +3171,7 @@
     </row>
     <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B69" s="1">
         <v>160000</v>
@@ -3179,7 +3188,7 @@
     </row>
     <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B70" s="1">
         <v>685000</v>
@@ -3196,7 +3205,7 @@
     </row>
     <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B71" s="1">
         <v>945000</v>
@@ -3213,7 +3222,7 @@
     </row>
     <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B72" s="1">
         <v>380000</v>
@@ -3230,7 +3239,7 @@
     </row>
     <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B73" s="1">
         <v>420000</v>
@@ -3247,7 +3256,7 @@
     </row>
     <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B74" s="1">
         <v>420000</v>
@@ -3264,7 +3273,7 @@
     </row>
     <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B75" s="1">
         <v>460000</v>
@@ -3281,7 +3290,7 @@
     </row>
     <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B76" s="1">
         <v>460000</v>
@@ -3298,7 +3307,7 @@
     </row>
     <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B77" s="1">
         <v>460000</v>
@@ -3315,7 +3324,7 @@
     </row>
     <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B78" s="1">
         <v>375000</v>
@@ -3332,7 +3341,7 @@
     </row>
     <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B79" s="1">
         <v>375000</v>
@@ -3349,7 +3358,7 @@
     </row>
     <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B80" s="1">
         <v>600000</v>
@@ -3366,7 +3375,7 @@
     </row>
     <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B81" s="1">
         <v>170000</v>
@@ -3383,7 +3392,7 @@
     </row>
     <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B82" s="1">
         <v>235000</v>
@@ -3400,7 +3409,7 @@
     </row>
     <row r="83" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B83" s="1">
         <v>235000</v>
@@ -3417,7 +3426,7 @@
     </row>
     <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B84" s="1">
         <v>205000</v>
@@ -3434,7 +3443,7 @@
     </row>
     <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B85" s="1">
         <v>120000</v>
@@ -3451,7 +3460,7 @@
     </row>
     <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B86" s="1">
         <v>120000</v>
@@ -3468,7 +3477,7 @@
     </row>
     <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B87" s="1">
         <v>105000</v>
@@ -3485,7 +3494,7 @@
     </row>
     <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B88" s="1">
         <v>225000</v>
@@ -3502,7 +3511,7 @@
     </row>
     <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B89" s="1">
         <v>225000</v>
@@ -3519,7 +3528,7 @@
     </row>
     <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B90" s="1">
         <v>360000</v>
@@ -3536,7 +3545,7 @@
     </row>
     <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B91" s="1">
         <v>360000</v>
@@ -3553,7 +3562,7 @@
     </row>
     <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B92" s="1">
         <v>365000</v>
@@ -3570,7 +3579,7 @@
     </row>
     <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B93" s="1">
         <v>425000</v>
@@ -3587,7 +3596,7 @@
     </row>
     <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B94" s="1">
         <v>300000</v>
@@ -3604,7 +3613,7 @@
     </row>
     <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B95" s="1">
         <v>500000</v>
@@ -3621,7 +3630,7 @@
     </row>
     <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B96" s="1">
         <v>245000</v>
@@ -3638,7 +3647,7 @@
     </row>
     <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B97" s="1">
         <v>230000</v>
@@ -3655,7 +3664,7 @@
     </row>
     <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B98" s="1">
         <v>230000</v>
@@ -3672,7 +3681,7 @@
     </row>
     <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B99" s="1">
         <v>230000</v>
@@ -3689,7 +3698,7 @@
     </row>
     <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B100" s="1">
         <v>320000</v>
@@ -3706,7 +3715,7 @@
     </row>
     <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B101" s="1">
         <v>230000</v>
@@ -3723,7 +3732,7 @@
     </row>
     <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B102" s="1">
         <v>230000</v>
@@ -3740,7 +3749,7 @@
     </row>
     <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B103" s="1">
         <v>130000</v>
@@ -3757,7 +3766,7 @@
     </row>
     <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B104" s="1">
         <v>160000</v>
@@ -3774,7 +3783,7 @@
     </row>
     <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B105" s="1">
         <v>160000</v>
@@ -3791,7 +3800,7 @@
     </row>
     <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B106" s="1">
         <v>160000</v>
@@ -3808,7 +3817,7 @@
     </row>
     <row r="107" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B107" s="1">
         <v>340000</v>
@@ -3825,7 +3834,7 @@
     </row>
     <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B108" s="1">
         <v>340000</v>
@@ -3842,7 +3851,7 @@
     </row>
     <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B109" s="1">
         <v>340000</v>
@@ -3859,7 +3868,7 @@
     </row>
     <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B110" s="1">
         <v>535000</v>
@@ -3876,7 +3885,7 @@
     </row>
     <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B111" s="1">
         <v>535000</v>
@@ -3893,7 +3902,7 @@
     </row>
     <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B112" s="1">
         <v>490000</v>
@@ -3910,7 +3919,7 @@
     </row>
     <row r="113" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B113" s="1">
         <v>490000</v>
@@ -3927,7 +3936,7 @@
     </row>
     <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B114" s="1">
         <v>490000</v>
@@ -3944,7 +3953,7 @@
     </row>
     <row r="115" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B115" s="1">
         <v>490000</v>
@@ -3961,7 +3970,7 @@
     </row>
     <row r="116" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B116" s="1">
         <v>1450000</v>
@@ -3978,7 +3987,7 @@
     </row>
     <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B117" s="1">
         <v>245000</v>
@@ -3995,7 +4004,7 @@
     </row>
     <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B118" s="1">
         <v>375000</v>
@@ -4012,7 +4021,7 @@
     </row>
     <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B119" s="1">
         <v>325000</v>
@@ -4029,7 +4038,7 @@
     </row>
     <row r="120" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B120" s="1">
         <v>1875000</v>
@@ -4046,7 +4055,7 @@
     </row>
     <row r="121" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B121" s="1">
         <v>2150000</v>
@@ -4063,7 +4072,7 @@
     </row>
     <row r="122" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B122" s="1">
         <v>2150000</v>
@@ -4080,7 +4089,7 @@
     </row>
     <row r="123" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B123" s="1">
         <v>1550000</v>
@@ -4097,7 +4106,7 @@
     </row>
     <row r="124" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B124" s="1">
         <v>1300000</v>
@@ -4114,7 +4123,7 @@
     </row>
     <row r="125" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B125" s="1">
         <v>1300000</v>
@@ -4131,7 +4140,7 @@
     </row>
     <row r="126" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B126" s="1">
         <v>250000</v>
@@ -4148,7 +4157,7 @@
     </row>
     <row r="127" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B127" s="1">
         <v>250000</v>
@@ -4165,7 +4174,7 @@
     </row>
     <row r="128" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B128" s="1">
         <v>475000</v>
@@ -4182,7 +4191,7 @@
     </row>
     <row r="129" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B129" s="1">
         <v>345000</v>
@@ -4199,7 +4208,7 @@
     </row>
     <row r="130" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B130" s="1">
         <v>345000</v>
@@ -4216,7 +4225,7 @@
     </row>
     <row r="131" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B131" s="1">
         <v>315000</v>
@@ -4233,7 +4242,7 @@
     </row>
     <row r="132" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B132" s="1">
         <v>315000</v>
@@ -4250,7 +4259,7 @@
     </row>
     <row r="133" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B133" s="1">
         <v>230000</v>
@@ -4267,7 +4276,7 @@
     </row>
     <row r="134" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B134" s="1">
         <v>230000</v>
@@ -4284,7 +4293,7 @@
     </row>
     <row r="135" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B135" s="1">
         <v>395000</v>
@@ -4301,7 +4310,7 @@
     </row>
     <row r="136" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B136" s="1">
         <v>395000</v>
@@ -4318,7 +4327,7 @@
     </row>
     <row r="137" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B137" s="1">
         <v>170000</v>
@@ -4335,7 +4344,7 @@
     </row>
     <row r="138" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B138" s="1">
         <v>170000</v>
@@ -4352,7 +4361,7 @@
     </row>
     <row r="139" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B139" s="1">
         <v>145000</v>
@@ -4369,7 +4378,7 @@
     </row>
     <row r="140" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B140" s="1">
         <v>145000</v>
@@ -4386,7 +4395,7 @@
     </row>
     <row r="141" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B141" s="1">
         <v>145000</v>
@@ -4403,7 +4412,7 @@
     </row>
     <row r="142" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B142" s="1">
         <v>145000</v>
@@ -4420,7 +4429,7 @@
     </row>
     <row r="143" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B143" s="1">
         <v>150000</v>
@@ -4437,7 +4446,7 @@
     </row>
     <row r="144" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B144" s="1">
         <v>150000</v>
@@ -4454,7 +4463,7 @@
     </row>
     <row r="145" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B145" s="1">
         <v>150000</v>
@@ -4471,7 +4480,7 @@
     </row>
     <row r="146" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B146" s="1">
         <v>115000</v>
@@ -4488,7 +4497,7 @@
     </row>
     <row r="147" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B147" s="1">
         <v>105000</v>
@@ -4505,7 +4514,7 @@
     </row>
     <row r="148" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B148" s="1">
         <v>30000</v>
@@ -4522,7 +4531,7 @@
     </row>
     <row r="149" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B149" s="1">
         <v>990000</v>
@@ -4539,7 +4548,7 @@
     </row>
     <row r="150" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B150" s="1">
         <v>1400000</v>
@@ -4556,7 +4565,7 @@
     </row>
     <row r="151" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B151" s="1">
         <v>515000</v>
@@ -4573,7 +4582,7 @@
     </row>
     <row r="152" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B152" s="1">
         <v>515000</v>
@@ -4590,7 +4599,7 @@
     </row>
     <row r="153" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B153" s="1">
         <v>465000</v>
@@ -4607,7 +4616,7 @@
     </row>
     <row r="154" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B154" s="1">
         <v>465000</v>
@@ -4624,7 +4633,7 @@
     </row>
     <row r="155" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B155" s="1">
         <v>670000</v>
@@ -4639,9 +4648,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>19</v>
@@ -4652,13 +4661,13 @@
       <c r="D156" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E156" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="E156" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>20</v>
@@ -4669,15 +4678,15 @@
       <c r="D157" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E157" s="7" t="s">
-        <v>188</v>
+      <c r="E157" s="8" t="s">
+        <v>523</v>
       </c>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
     </row>
-    <row r="158" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>21</v>
@@ -4688,13 +4697,13 @@
       <c r="D158" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E158" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="E158" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>22</v>
@@ -4705,13 +4714,13 @@
       <c r="D159" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E159" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="E159" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>23</v>
@@ -4722,13 +4731,13 @@
       <c r="D160" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E160" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="E160" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>24</v>
@@ -4739,13 +4748,13 @@
       <c r="D161" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E161" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="E161" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>25</v>
@@ -4756,13 +4765,13 @@
       <c r="D162" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E162" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="E162" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>26</v>
@@ -4773,13 +4782,13 @@
       <c r="D163" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E163" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="E163" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>27</v>
@@ -4790,13 +4799,13 @@
       <c r="D164" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E164" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="E164" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>28</v>
@@ -4807,13 +4816,13 @@
       <c r="D165" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E165" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>349</v>
+      <c r="E165" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A166" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>29</v>
@@ -4824,13 +4833,13 @@
       <c r="D166" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E166" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="E166" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>30</v>
@@ -4841,13 +4850,13 @@
       <c r="D167" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E167" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="E167" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>31</v>
@@ -4858,13 +4867,13 @@
       <c r="D168" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E168" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="E168" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>32</v>
@@ -4875,13 +4884,13 @@
       <c r="D169" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E169" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="E169" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>33</v>
@@ -4892,13 +4901,13 @@
       <c r="D170" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E170" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="E170" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>34</v>
@@ -4909,13 +4918,13 @@
       <c r="D171" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E171" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="E171" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>35</v>
@@ -4926,15 +4935,15 @@
       <c r="D172" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E172" s="7" t="s">
-        <v>188</v>
+      <c r="E172" s="8" t="s">
+        <v>523</v>
       </c>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>36</v>
@@ -4945,15 +4954,15 @@
       <c r="D173" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E173" s="7" t="s">
-        <v>188</v>
+      <c r="E173" s="8" t="s">
+        <v>523</v>
       </c>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>21</v>
@@ -4964,15 +4973,15 @@
       <c r="D174" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E174" s="7" t="s">
-        <v>188</v>
+      <c r="E174" s="8" t="s">
+        <v>523</v>
       </c>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>37</v>
@@ -4983,15 +4992,15 @@
       <c r="D175" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E175" s="7" t="s">
-        <v>188</v>
+      <c r="E175" s="8" t="s">
+        <v>523</v>
       </c>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>21</v>
@@ -5002,15 +5011,15 @@
       <c r="D176" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E176" s="7" t="s">
-        <v>188</v>
+      <c r="E176" s="8" t="s">
+        <v>523</v>
       </c>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
     </row>
-    <row r="177" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>38</v>
@@ -5021,13 +5030,13 @@
       <c r="D177" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E177" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E177" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>39</v>
@@ -5038,13 +5047,13 @@
       <c r="D178" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E178" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E178" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>40</v>
@@ -5055,13 +5064,13 @@
       <c r="D179" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E179" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E179" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>41</v>
@@ -5072,13 +5081,13 @@
       <c r="D180" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E180" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E180" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>42</v>
@@ -5089,13 +5098,13 @@
       <c r="D181" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E181" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E181" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B182" s="5" t="s">
         <v>43</v>
@@ -5106,13 +5115,13 @@
       <c r="D182" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E182" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E182" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>44</v>
@@ -5123,13 +5132,13 @@
       <c r="D183" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E183" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E183" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>45</v>
@@ -5140,13 +5149,13 @@
       <c r="D184" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E184" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E184" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>46</v>
@@ -5157,13 +5166,13 @@
       <c r="D185" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E185" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E185" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>47</v>
@@ -5174,13 +5183,13 @@
       <c r="D186" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E186" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E186" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B187" s="5" t="s">
         <v>48</v>
@@ -5191,13 +5200,13 @@
       <c r="D187" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E187" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E187" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>49</v>
@@ -5208,13 +5217,13 @@
       <c r="D188" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E188" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E188" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>50</v>
@@ -5225,13 +5234,13 @@
       <c r="D189" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E189" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E189" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B190" s="5" t="s">
         <v>51</v>
@@ -5242,13 +5251,13 @@
       <c r="D190" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E190" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E190" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B191" s="5" t="s">
         <v>52</v>
@@ -5259,13 +5268,13 @@
       <c r="D191" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E191" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E191" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B192" s="5" t="s">
         <v>53</v>
@@ -5276,13 +5285,13 @@
       <c r="D192" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E192" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="E192" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B193" s="5" t="s">
         <v>54</v>
@@ -5293,13 +5302,13 @@
       <c r="D193" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E193" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="E193" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B194" s="5" t="s">
         <v>42</v>
@@ -5310,13 +5319,13 @@
       <c r="D194" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E194" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="E194" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B195" s="5" t="s">
         <v>55</v>
@@ -5327,13 +5336,13 @@
       <c r="D195" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E195" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="E195" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B196" s="5" t="s">
         <v>56</v>
@@ -5344,14 +5353,14 @@
       <c r="D196" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E196" s="7" t="s">
-        <v>188</v>
+      <c r="E196" s="8" t="s">
+        <v>523</v>
       </c>
       <c r="I196" s="4"/>
     </row>
-    <row r="197" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B197" s="5" t="s">
         <v>57</v>
@@ -5362,14 +5371,14 @@
       <c r="D197" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E197" s="7" t="s">
-        <v>188</v>
+      <c r="E197" s="8" t="s">
+        <v>523</v>
       </c>
       <c r="I197" s="4"/>
     </row>
-    <row r="198" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B198" s="5" t="s">
         <v>58</v>
@@ -5380,14 +5389,14 @@
       <c r="D198" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E198" s="7" t="s">
-        <v>188</v>
+      <c r="E198" s="8" t="s">
+        <v>523</v>
       </c>
       <c r="I198" s="4"/>
     </row>
-    <row r="199" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>58</v>
@@ -5398,14 +5407,14 @@
       <c r="D199" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E199" s="7" t="s">
-        <v>188</v>
+      <c r="E199" s="8" t="s">
+        <v>523</v>
       </c>
       <c r="I199" s="4"/>
     </row>
-    <row r="200" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B200" s="5" t="s">
         <v>59</v>
@@ -5416,14 +5425,14 @@
       <c r="D200" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E200" s="7" t="s">
-        <v>188</v>
+      <c r="E200" s="8" t="s">
+        <v>523</v>
       </c>
       <c r="I200" s="4"/>
     </row>
-    <row r="201" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B201" s="5" t="s">
         <v>60</v>
@@ -5434,14 +5443,14 @@
       <c r="D201" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E201" s="7" t="s">
-        <v>188</v>
+      <c r="E201" s="8" t="s">
+        <v>523</v>
       </c>
       <c r="I201" s="4"/>
     </row>
-    <row r="202" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B202" s="5" t="s">
         <v>61</v>
@@ -5452,14 +5461,14 @@
       <c r="D202" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E202" s="7" t="s">
-        <v>188</v>
+      <c r="E202" s="8" t="s">
+        <v>523</v>
       </c>
       <c r="I202" s="4"/>
     </row>
-    <row r="203" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>62</v>
@@ -5470,14 +5479,14 @@
       <c r="D203" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E203" s="7" t="s">
-        <v>188</v>
+      <c r="E203" s="8" t="s">
+        <v>523</v>
       </c>
       <c r="I203" s="4"/>
     </row>
-    <row r="204" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B204" s="5"/>
       <c r="C204" s="1" t="s">
@@ -5486,14 +5495,14 @@
       <c r="D204" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E204" s="7" t="s">
-        <v>188</v>
+      <c r="E204" s="8" t="s">
+        <v>523</v>
       </c>
       <c r="I204" s="4"/>
     </row>
-    <row r="205" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B205" s="5" t="s">
         <v>63</v>
@@ -5504,14 +5513,14 @@
       <c r="D205" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E205" s="7" t="s">
-        <v>188</v>
+      <c r="E205" s="8" t="s">
+        <v>523</v>
       </c>
       <c r="I205" s="4"/>
     </row>
-    <row r="206" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B206" s="5" t="s">
         <v>64</v>
@@ -5522,13 +5531,13 @@
       <c r="D206" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E206" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="E206" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B207" s="5" t="s">
         <v>65</v>
@@ -5539,13 +5548,13 @@
       <c r="D207" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E207" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="E207" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B208" s="5" t="s">
         <v>66</v>
@@ -5556,13 +5565,13 @@
       <c r="D208" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E208" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E208" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B209" s="5" t="s">
         <v>67</v>
@@ -5573,13 +5582,13 @@
       <c r="D209" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E209" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E209" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B210" s="5" t="s">
         <v>68</v>
@@ -5590,13 +5599,13 @@
       <c r="D210" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E210" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E210" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B211" s="5" t="s">
         <v>69</v>
@@ -5607,13 +5616,13 @@
       <c r="D211" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E211" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E211" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B212" s="5" t="s">
         <v>70</v>
@@ -5624,13 +5633,13 @@
       <c r="D212" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E212" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E212" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B213" s="5" t="s">
         <v>71</v>
@@ -5641,13 +5650,13 @@
       <c r="D213" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E213" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E213" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B214" s="5" t="s">
         <v>72</v>
@@ -5658,13 +5667,13 @@
       <c r="D214" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E214" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E214" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B215" s="5" t="s">
         <v>73</v>
@@ -5675,13 +5684,13 @@
       <c r="D215" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E215" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E215" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B216" s="5" t="s">
         <v>74</v>
@@ -5692,13 +5701,13 @@
       <c r="D216" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E216" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E216" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B217" s="5" t="s">
         <v>75</v>
@@ -5709,13 +5718,13 @@
       <c r="D217" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E217" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E217" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B218" s="5" t="s">
         <v>76</v>
@@ -5726,13 +5735,13 @@
       <c r="D218" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E218" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E218" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B219" s="5" t="s">
         <v>77</v>
@@ -5743,13 +5752,13 @@
       <c r="D219" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E219" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E219" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B220" s="5" t="s">
         <v>78</v>
@@ -5760,13 +5769,13 @@
       <c r="D220" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E220" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E220" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B221" s="5" t="s">
         <v>79</v>
@@ -5777,13 +5786,13 @@
       <c r="D221" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E221" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E221" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B222" s="5" t="s">
         <v>80</v>
@@ -5794,13 +5803,13 @@
       <c r="D222" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E222" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E222" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>81</v>
@@ -5811,13 +5820,13 @@
       <c r="D223" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E223" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E223" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B224" s="5" t="s">
         <v>82</v>
@@ -5828,13 +5837,13 @@
       <c r="D224" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E224" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E224" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B225" s="5" t="s">
         <v>83</v>
@@ -5845,13 +5854,13 @@
       <c r="D225" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E225" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E225" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B226" s="5" t="s">
         <v>84</v>
@@ -5862,13 +5871,13 @@
       <c r="D226" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E226" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E226" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B227" s="5" t="s">
         <v>85</v>
@@ -5879,13 +5888,13 @@
       <c r="D227" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E227" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E227" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B228" s="5" t="s">
         <v>86</v>
@@ -5896,13 +5905,13 @@
       <c r="D228" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E228" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E228" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B229" s="5" t="s">
         <v>87</v>
@@ -5913,13 +5922,13 @@
       <c r="D229" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E229" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E229" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B230" s="5" t="s">
         <v>88</v>
@@ -5930,13 +5939,13 @@
       <c r="D230" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E230" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E230" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B231" s="5" t="s">
         <v>89</v>
@@ -5947,13 +5956,13 @@
       <c r="D231" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E231" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E231" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B232" s="5" t="s">
         <v>90</v>
@@ -5964,13 +5973,13 @@
       <c r="D232" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E232" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E232" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B233" s="5" t="s">
         <v>91</v>
@@ -5981,13 +5990,13 @@
       <c r="D233" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E233" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E233" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B234" s="5" t="s">
         <v>92</v>
@@ -5998,13 +6007,13 @@
       <c r="D234" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E234" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E234" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B235" s="5" t="s">
         <v>93</v>
@@ -6015,13 +6024,13 @@
       <c r="D235" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E235" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E235" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B236" s="5" t="s">
         <v>94</v>
@@ -6032,13 +6041,13 @@
       <c r="D236" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E236" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E236" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B237" s="5" t="s">
         <v>95</v>
@@ -6049,13 +6058,13 @@
       <c r="D237" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E237" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E237" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B238" s="5" t="s">
         <v>96</v>
@@ -6066,13 +6075,13 @@
       <c r="D238" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E238" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E238" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B239" s="5" t="s">
         <v>97</v>
@@ -6083,13 +6092,13 @@
       <c r="D239" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E239" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E239" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B240" s="5" t="s">
         <v>98</v>
@@ -6100,13 +6109,13 @@
       <c r="D240" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E240" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E240" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B241" s="5" t="s">
         <v>99</v>
@@ -6117,13 +6126,13 @@
       <c r="D241" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E241" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E241" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B242" s="5" t="s">
         <v>57</v>
@@ -6134,13 +6143,13 @@
       <c r="D242" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E242" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E242" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B243" s="5" t="s">
         <v>100</v>
@@ -6151,13 +6160,13 @@
       <c r="D243" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E243" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E243" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B244" s="5" t="s">
         <v>101</v>
@@ -6168,13 +6177,13 @@
       <c r="D244" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E244" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E244" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B245" s="5" t="s">
         <v>102</v>
@@ -6185,13 +6194,13 @@
       <c r="D245" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E245" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E245" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B246" s="5" t="s">
         <v>103</v>
@@ -6202,13 +6211,13 @@
       <c r="D246" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E246" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E246" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B247" s="5" t="s">
         <v>80</v>
@@ -6219,13 +6228,13 @@
       <c r="D247" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E247" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E247" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B248" s="5" t="s">
         <v>104</v>
@@ -6236,13 +6245,13 @@
       <c r="D248" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E248" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E248" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B249" s="5" t="s">
         <v>105</v>
@@ -6253,13 +6262,13 @@
       <c r="D249" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E249" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E249" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B250" s="5" t="s">
         <v>106</v>
@@ -6270,13 +6279,13 @@
       <c r="D250" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E250" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E250" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B251" s="5" t="s">
         <v>107</v>
@@ -6287,13 +6296,13 @@
       <c r="D251" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E251" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E251" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B252" s="5" t="s">
         <v>108</v>
@@ -6304,13 +6313,13 @@
       <c r="D252" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E252" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E252" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B253" s="5" t="s">
         <v>109</v>
@@ -6321,13 +6330,13 @@
       <c r="D253" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E253" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E253" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B254" s="5" t="s">
         <v>26</v>
@@ -6338,13 +6347,13 @@
       <c r="D254" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E254" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E254" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B255" s="5" t="s">
         <v>110</v>
@@ -6355,13 +6364,13 @@
       <c r="D255" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E255" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E255" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B256" s="5" t="s">
         <v>111</v>
@@ -6372,13 +6381,13 @@
       <c r="D256" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E256" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E256" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B257" s="5" t="s">
         <v>112</v>
@@ -6389,13 +6398,13 @@
       <c r="D257" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E257" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E257" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B258" s="5" t="s">
         <v>113</v>
@@ -6406,13 +6415,13 @@
       <c r="D258" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E258" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E258" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B259" s="5" t="s">
         <v>114</v>
@@ -6423,13 +6432,13 @@
       <c r="D259" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E259" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E259" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B260" s="5" t="s">
         <v>115</v>
@@ -6440,13 +6449,13 @@
       <c r="D260" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E260" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E260" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B261" s="5" t="s">
         <v>116</v>
@@ -6457,13 +6466,13 @@
       <c r="D261" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E261" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E261" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B262" s="5" t="s">
         <v>117</v>
@@ -6474,13 +6483,13 @@
       <c r="D262" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E262" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E262" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B263" s="5" t="s">
         <v>81</v>
@@ -6491,13 +6500,13 @@
       <c r="D263" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E263" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E263" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B264" s="5" t="s">
         <v>118</v>
@@ -6508,13 +6517,13 @@
       <c r="D264" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E264" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E264" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B265" s="5" t="s">
         <v>119</v>
@@ -6525,13 +6534,13 @@
       <c r="D265" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E265" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E265" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B266" s="5" t="s">
         <v>120</v>
@@ -6542,13 +6551,13 @@
       <c r="D266" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E266" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E266" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B267" s="5" t="s">
         <v>121</v>
@@ -6559,13 +6568,13 @@
       <c r="D267" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E267" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E267" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B268" s="5" t="s">
         <v>122</v>
@@ -6576,13 +6585,13 @@
       <c r="D268" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E268" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E268" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B269" s="5" t="s">
         <v>123</v>
@@ -6593,13 +6602,13 @@
       <c r="D269" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E269" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E269" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B270" s="5" t="s">
         <v>124</v>
@@ -6610,13 +6619,13 @@
       <c r="D270" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E270" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E270" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B271" s="5" t="s">
         <v>43</v>
@@ -6627,13 +6636,13 @@
       <c r="D271" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E271" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E271" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B272" s="5" t="s">
         <v>125</v>
@@ -6644,13 +6653,13 @@
       <c r="D272" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E272" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E272" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B273" s="5" t="s">
         <v>126</v>
@@ -6661,13 +6670,13 @@
       <c r="D273" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E273" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E273" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B274" s="5" t="s">
         <v>127</v>
@@ -6678,13 +6687,13 @@
       <c r="D274" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E274" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E274" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B275" s="5" t="s">
         <v>128</v>
@@ -6695,13 +6704,13 @@
       <c r="D275" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E275" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E275" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B276" s="5" t="s">
         <v>129</v>
@@ -6712,13 +6721,13 @@
       <c r="D276" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E276" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E276" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B277" s="5" t="s">
         <v>119</v>
@@ -6729,13 +6738,13 @@
       <c r="D277" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E277" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E277" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B278" s="5" t="s">
         <v>130</v>
@@ -6746,13 +6755,13 @@
       <c r="D278" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E278" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E278" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B279" s="5" t="s">
         <v>131</v>
@@ -6763,13 +6772,13 @@
       <c r="D279" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E279" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E279" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B280" s="5" t="s">
         <v>132</v>
@@ -6780,13 +6789,13 @@
       <c r="D280" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E280" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E280" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B281" s="5" t="s">
         <v>133</v>
@@ -6797,13 +6806,13 @@
       <c r="D281" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E281" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E281" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B282" s="5" t="s">
         <v>134</v>
@@ -6814,13 +6823,13 @@
       <c r="D282" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E282" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E282" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B283" s="5" t="s">
         <v>135</v>
@@ -6831,13 +6840,13 @@
       <c r="D283" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E283" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E283" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B284" s="5" t="s">
         <v>103</v>
@@ -6848,13 +6857,13 @@
       <c r="D284" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E284" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E284" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B285" s="5" t="s">
         <v>136</v>
@@ -6865,13 +6874,13 @@
       <c r="D285" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E285" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E285" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B286" s="5" t="s">
         <v>137</v>
@@ -6882,13 +6891,13 @@
       <c r="D286" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E286" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E286" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B287" s="5" t="s">
         <v>138</v>
@@ -6899,13 +6908,13 @@
       <c r="D287" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E287" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E287" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B288" s="5" t="s">
         <v>139</v>
@@ -6916,13 +6925,13 @@
       <c r="D288" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E288" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E288" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B289" s="5" t="s">
         <v>140</v>
@@ -6933,13 +6942,13 @@
       <c r="D289" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E289" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E289" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B290" s="5" t="s">
         <v>141</v>
@@ -6950,13 +6959,13 @@
       <c r="D290" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E290" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E290" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B291" s="5" t="s">
         <v>142</v>
@@ -6967,13 +6976,13 @@
       <c r="D291" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E291" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E291" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B292" s="5" t="s">
         <v>42</v>
@@ -6984,13 +6993,13 @@
       <c r="D292" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E292" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E292" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B293" s="5" t="s">
         <v>143</v>
@@ -7001,13 +7010,13 @@
       <c r="D293" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E293" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E293" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B294" s="5" t="s">
         <v>144</v>
@@ -7018,13 +7027,13 @@
       <c r="D294" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E294" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E294" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B295" s="5" t="s">
         <v>145</v>
@@ -7035,13 +7044,13 @@
       <c r="D295" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E295" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E295" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B296" s="5" t="s">
         <v>146</v>
@@ -7052,13 +7061,13 @@
       <c r="D296" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E296" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E296" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B297" s="5" t="s">
         <v>147</v>
@@ -7069,13 +7078,13 @@
       <c r="D297" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E297" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E297" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B298" s="5" t="s">
         <v>145</v>
@@ -7086,13 +7095,13 @@
       <c r="D298" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E298" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E298" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B299" s="5" t="s">
         <v>148</v>
@@ -7103,13 +7112,13 @@
       <c r="D299" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E299" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E299" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B300" s="5" t="s">
         <v>149</v>
@@ -7120,13 +7129,13 @@
       <c r="D300" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E300" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E300" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B301" s="5" t="s">
         <v>149</v>
@@ -7137,13 +7146,13 @@
       <c r="D301" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E301" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E301" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B302" s="5" t="s">
         <v>148</v>
@@ -7154,13 +7163,13 @@
       <c r="D302" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E302" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E302" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B303" s="5" t="s">
         <v>111</v>
@@ -7171,13 +7180,13 @@
       <c r="D303" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E303" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E303" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B304" s="5" t="s">
         <v>150</v>
@@ -7188,13 +7197,13 @@
       <c r="D304" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E304" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E304" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B305" s="5" t="s">
         <v>151</v>
@@ -7205,13 +7214,13 @@
       <c r="D305" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E305" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E305" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B306" s="5" t="s">
         <v>152</v>
@@ -7222,13 +7231,13 @@
       <c r="D306" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E306" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E306" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B307" s="5" t="s">
         <v>153</v>
@@ -7239,13 +7248,13 @@
       <c r="D307" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E307" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E307" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B308" s="5" t="s">
         <v>154</v>
@@ -7256,13 +7265,13 @@
       <c r="D308" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E308" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E308" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B309" s="5" t="s">
         <v>155</v>
@@ -7273,13 +7282,13 @@
       <c r="D309" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E309" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E309" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B310" s="5" t="s">
         <v>156</v>
@@ -7290,13 +7299,13 @@
       <c r="D310" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E310" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E310" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B311" s="5" t="s">
         <v>157</v>
@@ -7307,13 +7316,13 @@
       <c r="D311" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E311" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E311" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B312" s="5" t="s">
         <v>158</v>
@@ -7324,13 +7333,13 @@
       <c r="D312" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E312" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E312" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B313" s="5" t="s">
         <v>154</v>
@@ -7341,13 +7350,13 @@
       <c r="D313" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E313" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E313" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B314" s="5" t="s">
         <v>159</v>
@@ -7358,13 +7367,13 @@
       <c r="D314" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E314" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E314" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B315" s="5" t="s">
         <v>160</v>
@@ -7375,13 +7384,13 @@
       <c r="D315" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E315" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E315" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B316" s="5" t="s">
         <v>161</v>
@@ -7392,13 +7401,13 @@
       <c r="D316" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E316" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E316" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B317" s="5" t="s">
         <v>162</v>
@@ -7409,13 +7418,13 @@
       <c r="D317" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E317" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E317" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B318" s="5" t="s">
         <v>163</v>
@@ -7426,13 +7435,13 @@
       <c r="D318" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E318" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E318" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B319" s="5" t="s">
         <v>164</v>
@@ -7443,13 +7452,13 @@
       <c r="D319" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E319" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E319" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B320" s="5" t="s">
         <v>99</v>
@@ -7460,13 +7469,13 @@
       <c r="D320" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E320" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E320" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B321" s="5" t="s">
         <v>165</v>
@@ -7477,13 +7486,13 @@
       <c r="D321" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E321" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E321" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B322" s="5" t="s">
         <v>166</v>
@@ -7494,13 +7503,13 @@
       <c r="D322" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E322" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E322" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B323" s="5" t="s">
         <v>167</v>
@@ -7511,13 +7520,13 @@
       <c r="D323" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E323" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E323" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B324" s="5" t="s">
         <v>168</v>
@@ -7528,13 +7537,13 @@
       <c r="D324" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E324" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E324" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B325" s="5" t="s">
         <v>86</v>
@@ -7545,13 +7554,13 @@
       <c r="D325" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E325" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E325" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B326" s="5" t="s">
         <v>169</v>
@@ -7562,13 +7571,13 @@
       <c r="D326" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E326" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E326" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B327" s="5" t="s">
         <v>170</v>
@@ -7579,13 +7588,13 @@
       <c r="D327" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E327" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E327" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B328" s="5" t="s">
         <v>171</v>
@@ -7596,13 +7605,13 @@
       <c r="D328" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E328" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E328" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B329" s="5" t="s">
         <v>172</v>
@@ -7613,13 +7622,13 @@
       <c r="D329" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E329" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E329" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B330" s="5" t="s">
         <v>173</v>
@@ -7630,13 +7639,13 @@
       <c r="D330" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E330" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E330" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B331" s="5" t="s">
         <v>174</v>
@@ -7647,13 +7656,13 @@
       <c r="D331" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E331" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E331" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B332" s="5" t="s">
         <v>175</v>
@@ -7664,13 +7673,13 @@
       <c r="D332" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E332" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E332" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B333" s="5" t="s">
         <v>176</v>
@@ -7681,13 +7690,13 @@
       <c r="D333" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E333" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E333" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B334" s="5" t="s">
         <v>177</v>
@@ -7698,13 +7707,13 @@
       <c r="D334" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E334" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E334" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B335" s="5" t="s">
         <v>178</v>
@@ -7715,13 +7724,13 @@
       <c r="D335" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E335" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E335" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B336" s="5" t="s">
         <v>179</v>
@@ -7732,13 +7741,13 @@
       <c r="D336" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E336" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E336" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B337" s="5" t="s">
         <v>180</v>
@@ -7749,13 +7758,13 @@
       <c r="D337" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E337" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E337" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B338" s="5" t="s">
         <v>181</v>
@@ -7766,13 +7775,13 @@
       <c r="D338" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E338" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E338" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B339" s="5" t="s">
         <v>182</v>
@@ -7783,13 +7792,13 @@
       <c r="D339" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E339" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E339" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B340" s="5" t="s">
         <v>153</v>
@@ -7800,13 +7809,13 @@
       <c r="D340" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E340" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E340" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B341" s="5" t="s">
         <v>183</v>
@@ -7817,13 +7826,13 @@
       <c r="D341" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E341" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="E341" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B342" s="5" t="s">
         <v>184</v>
@@ -7834,8 +7843,8 @@
       <c r="D342" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E342" s="7" t="s">
-        <v>188</v>
+      <c r="E342" s="8" t="s">
+        <v>523</v>
       </c>
     </row>
   </sheetData>

--- a/prices.xlsx
+++ b/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedemad/Downloads/phone_price_bot test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB6EA45-83CD-C24B-BD15-60ED7075536C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E88362F-D670-BF46-A77E-363DF8889123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="358">
   <si>
     <t>المتجر</t>
   </si>
@@ -89,504 +89,6 @@
   </si>
   <si>
     <t>WiWU</t>
-  </si>
-  <si>
-    <t>2,295,000 IQD</t>
-  </si>
-  <si>
-    <t>1,975,000 IQD</t>
-  </si>
-  <si>
-    <t>1,620,000 IQD</t>
-  </si>
-  <si>
-    <t>2,185,000 IQD</t>
-  </si>
-  <si>
-    <t>1,970,000 IQD</t>
-  </si>
-  <si>
-    <t>1,700,000 IQD</t>
-  </si>
-  <si>
-    <t>1,555,000 IQD</t>
-  </si>
-  <si>
-    <t>1,400,000 IQD</t>
-  </si>
-  <si>
-    <t>1,365,000 IQD</t>
-  </si>
-  <si>
-    <t>1,215,000 IQD</t>
-  </si>
-  <si>
-    <t>1,215,000 |QD</t>
-  </si>
-  <si>
-    <t>1,065,000 IQD</t>
-  </si>
-  <si>
-    <t>895,000 IQD</t>
-  </si>
-  <si>
-    <t>1,080,000 IQD</t>
-  </si>
-  <si>
-    <t>600,000 IQD</t>
-  </si>
-  <si>
-    <t>2,650,000 IQD</t>
-  </si>
-  <si>
-    <t>1,850,000 IQD</t>
-  </si>
-  <si>
-    <t>1,499,000 IQD</t>
-  </si>
-  <si>
-    <t>1,205,000 IQD</t>
-  </si>
-  <si>
-    <t>1,050,000 IQD</t>
-  </si>
-  <si>
-    <t>730,000 IQD</t>
-  </si>
-  <si>
-    <t>860,000 IQD</t>
-  </si>
-  <si>
-    <t>560,000 IQD</t>
-  </si>
-  <si>
-    <t>435,000 IQD</t>
-  </si>
-  <si>
-    <t>495,000 IQD</t>
-  </si>
-  <si>
-    <t>405,000 QD</t>
-  </si>
-  <si>
-    <t>595,000 IQD</t>
-  </si>
-  <si>
-    <t>2,499,000 IQD</t>
-  </si>
-  <si>
-    <t>1,479,000 IQD</t>
-  </si>
-  <si>
-    <t>1,450,000 IQD</t>
-  </si>
-  <si>
-    <t>1,300,000 QD</t>
-  </si>
-  <si>
-    <t>1,250,000 IQD</t>
-  </si>
-  <si>
-    <t>1,150,000 IQD</t>
-  </si>
-  <si>
-    <t>570,000 IQD</t>
-  </si>
-  <si>
-    <t>450,000 QD</t>
-  </si>
-  <si>
-    <t>395,000 IQD</t>
-  </si>
-  <si>
-    <t>210,000 IQD</t>
-  </si>
-  <si>
-    <t>185,000 IQD</t>
-  </si>
-  <si>
-    <t>135,000 IQD</t>
-  </si>
-  <si>
-    <t>70,000 IQD</t>
-  </si>
-  <si>
-    <t>30,000 IQD</t>
-  </si>
-  <si>
-    <t>1,890,000 QD</t>
-  </si>
-  <si>
-    <t>1,650,000 IQD</t>
-  </si>
-  <si>
-    <t>1,440,000 IQD</t>
-  </si>
-  <si>
-    <t>1,520,000 QD</t>
-  </si>
-  <si>
-    <t>1,410,000 IQD</t>
-  </si>
-  <si>
-    <t>1,580,000 |QD</t>
-  </si>
-  <si>
-    <t>1,190,000 IQD</t>
-  </si>
-  <si>
-    <t>395,000 QD</t>
-  </si>
-  <si>
-    <t>1,050,000 QD</t>
-  </si>
-  <si>
-    <t>940,000 QD</t>
-  </si>
-  <si>
-    <t>800,000 QD</t>
-  </si>
-  <si>
-    <t>940,000 IQD</t>
-  </si>
-  <si>
-    <t>640,000 IQD</t>
-  </si>
-  <si>
-    <t>780,000 IQD</t>
-  </si>
-  <si>
-    <t>900,000 QD</t>
-  </si>
-  <si>
-    <t>548,000|QD</t>
-  </si>
-  <si>
-    <t>502,000 IQD</t>
-  </si>
-  <si>
-    <t>423,000 QD</t>
-  </si>
-  <si>
-    <t>387,000 IQD</t>
-  </si>
-  <si>
-    <t>349,000 IQD</t>
-  </si>
-  <si>
-    <t>295,000 IQD</t>
-  </si>
-  <si>
-    <t>222,000 IQD</t>
-  </si>
-  <si>
-    <t>183,000 IQD</t>
-  </si>
-  <si>
-    <t>161,000 IQD</t>
-  </si>
-  <si>
-    <t>132,000 |QD</t>
-  </si>
-  <si>
-    <t>115,000|QD</t>
-  </si>
-  <si>
-    <t>98,000 IQD</t>
-  </si>
-  <si>
-    <t>400,000 QD</t>
-  </si>
-  <si>
-    <t>1,290,000 IQD</t>
-  </si>
-  <si>
-    <t>2,050,000 IQD</t>
-  </si>
-  <si>
-    <t>800,000 IQD</t>
-  </si>
-  <si>
-    <t>480,000 QD</t>
-  </si>
-  <si>
-    <t>270,000 IQD</t>
-  </si>
-  <si>
-    <t>350,000 IQD</t>
-  </si>
-  <si>
-    <t>325,000 IQD</t>
-  </si>
-  <si>
-    <t>325,000 |QD</t>
-  </si>
-  <si>
-    <t>280,000 QD</t>
-  </si>
-  <si>
-    <t>230,000 QD</t>
-  </si>
-  <si>
-    <t>180,000 QD</t>
-  </si>
-  <si>
-    <t>145,000 IQD</t>
-  </si>
-  <si>
-    <t>799,000 IQD</t>
-  </si>
-  <si>
-    <t>398,000 IQD</t>
-  </si>
-  <si>
-    <t>335,000 IQD</t>
-  </si>
-  <si>
-    <t>265,000 IQD</t>
-  </si>
-  <si>
-    <t>210,000 QD</t>
-  </si>
-  <si>
-    <t>182,000 IQD</t>
-  </si>
-  <si>
-    <t>180,000 IQD</t>
-  </si>
-  <si>
-    <t>114,000 QD</t>
-  </si>
-  <si>
-    <t>615,000 QD</t>
-  </si>
-  <si>
-    <t>45,000 QD</t>
-  </si>
-  <si>
-    <t>980,000 IQD</t>
-  </si>
-  <si>
-    <t>745,000 IQD</t>
-  </si>
-  <si>
-    <t>501,000 QD</t>
-  </si>
-  <si>
-    <t>418,000 IQD</t>
-  </si>
-  <si>
-    <t>356,000 IQD</t>
-  </si>
-  <si>
-    <t>347,000 IQD</t>
-  </si>
-  <si>
-    <t>287,000 IQD</t>
-  </si>
-  <si>
-    <t>268,000 QD</t>
-  </si>
-  <si>
-    <t>164,000 QD</t>
-  </si>
-  <si>
-    <t>148,000 IQD</t>
-  </si>
-  <si>
-    <t>103,000 IQD</t>
-  </si>
-  <si>
-    <t>88,000 IQD</t>
-  </si>
-  <si>
-    <t>927,000 QD</t>
-  </si>
-  <si>
-    <t>687,000 IQD</t>
-  </si>
-  <si>
-    <t>559,000 IQD</t>
-  </si>
-  <si>
-    <t>459,000 IQD</t>
-  </si>
-  <si>
-    <t>415,000 IQD</t>
-  </si>
-  <si>
-    <t>360,000 IQD</t>
-  </si>
-  <si>
-    <t>304,000 IQD</t>
-  </si>
-  <si>
-    <t>276,000 QD</t>
-  </si>
-  <si>
-    <t>105,000 QD</t>
-  </si>
-  <si>
-    <t>664,000 IQD</t>
-  </si>
-  <si>
-    <t>507,000 QD</t>
-  </si>
-  <si>
-    <t>461,000 QD</t>
-  </si>
-  <si>
-    <t>710,000 QD</t>
-  </si>
-  <si>
-    <t>321,000 IQD</t>
-  </si>
-  <si>
-    <t>252,000 IQD</t>
-  </si>
-  <si>
-    <t>229,000 IQD</t>
-  </si>
-  <si>
-    <t>192,000 IQD</t>
-  </si>
-  <si>
-    <t>314,000 IQD</t>
-  </si>
-  <si>
-    <t>1,495,000 IQD</t>
-  </si>
-  <si>
-    <t>1,183,000 IQD</t>
-  </si>
-  <si>
-    <t>652,000 IQD</t>
-  </si>
-  <si>
-    <t>283,000 IQD</t>
-  </si>
-  <si>
-    <t>193,000 IQD</t>
-  </si>
-  <si>
-    <t>268,000 IQD</t>
-  </si>
-  <si>
-    <t>170,000 QD</t>
-  </si>
-  <si>
-    <t>237,000 IQD</t>
-  </si>
-  <si>
-    <t>810,000 IQD</t>
-  </si>
-  <si>
-    <t>590,000 IQD</t>
-  </si>
-  <si>
-    <t>223,000 QD</t>
-  </si>
-  <si>
-    <t>169,000 IQD</t>
-  </si>
-  <si>
-    <t>125,000 IQD</t>
-  </si>
-  <si>
-    <t>89,000 QD</t>
-  </si>
-  <si>
-    <t>49,000 IQD</t>
-  </si>
-  <si>
-    <t>35,000 IQD</t>
-  </si>
-  <si>
-    <t>184,000 IQD</t>
-  </si>
-  <si>
-    <t>125,000 QD</t>
-  </si>
-  <si>
-    <t>90,000 IQD</t>
-  </si>
-  <si>
-    <t>470,000 IQD</t>
-  </si>
-  <si>
-    <t>345,000 QD</t>
-  </si>
-  <si>
-    <t>315,000 QD</t>
-  </si>
-  <si>
-    <t>255,000 QD</t>
-  </si>
-  <si>
-    <t>399,000 IQD</t>
-  </si>
-  <si>
-    <t>155,000 IQD</t>
-  </si>
-  <si>
-    <t>146,000 IQD</t>
-  </si>
-  <si>
-    <t>189,000 QD</t>
-  </si>
-  <si>
-    <t>107,000 IQD</t>
-  </si>
-  <si>
-    <t>95,000 QD</t>
-  </si>
-  <si>
-    <t>115,000 IQD</t>
-  </si>
-  <si>
-    <t>215,000 IQD</t>
-  </si>
-  <si>
-    <t>136,000 IQD</t>
-  </si>
-  <si>
-    <t>380,000 QD</t>
-  </si>
-  <si>
-    <t>450,000 IQD</t>
-  </si>
-  <si>
-    <t>310,000 QD</t>
-  </si>
-  <si>
-    <t>293,000 IQD</t>
-  </si>
-  <si>
-    <t>253,000 IQD</t>
-  </si>
-  <si>
-    <t>200,000 IQD</t>
-  </si>
-  <si>
-    <t>145,000 QD</t>
-  </si>
-  <si>
-    <t>138,000 QD</t>
-  </si>
-  <si>
-    <t>158,000 QD</t>
-  </si>
-  <si>
-    <t>143,000 QD</t>
-  </si>
-  <si>
-    <t>102,000 QD</t>
-  </si>
-  <si>
-    <t>127,000 IQD</t>
-  </si>
-  <si>
-    <t>465,000 QD</t>
   </si>
   <si>
     <t>POCO</t>
@@ -1998,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2032,7 +1534,7 @@
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1">
         <v>1365000</v>
@@ -2049,7 +1551,7 @@
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1">
         <v>1570750</v>
@@ -2066,7 +1568,7 @@
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1">
         <v>525000</v>
@@ -2083,7 +1585,7 @@
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1">
         <v>525000</v>
@@ -2100,7 +1602,7 @@
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1">
         <v>470000</v>
@@ -2117,7 +1619,7 @@
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1">
         <v>470000</v>
@@ -2134,7 +1636,7 @@
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1">
         <v>470000</v>
@@ -2151,7 +1653,7 @@
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1">
         <v>575000</v>
@@ -2168,7 +1670,7 @@
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1">
         <v>575000</v>
@@ -2185,7 +1687,7 @@
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1">
         <v>1600000</v>
@@ -2202,7 +1704,7 @@
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1">
         <v>1600000</v>
@@ -2219,7 +1721,7 @@
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1">
         <v>1065000</v>
@@ -2236,7 +1738,7 @@
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>199</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1">
         <v>1065000</v>
@@ -2253,7 +1755,7 @@
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1">
         <v>1210000</v>
@@ -2270,7 +1772,7 @@
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
         <v>1365000</v>
@@ -2287,7 +1789,7 @@
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1">
         <v>2300000</v>
@@ -2304,7 +1806,7 @@
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>203</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1">
         <v>1615000</v>
@@ -2321,7 +1823,7 @@
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1">
         <v>1615000</v>
@@ -2338,7 +1840,7 @@
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1">
         <v>1615000</v>
@@ -2355,7 +1857,7 @@
     </row>
     <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>205</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1">
         <v>1980000</v>
@@ -2372,7 +1874,7 @@
     </row>
     <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1">
         <v>955000</v>
@@ -2389,7 +1891,7 @@
     </row>
     <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>207</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1">
         <v>1324500</v>
@@ -2406,7 +1908,7 @@
     </row>
     <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>208</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1">
         <v>768500</v>
@@ -2423,7 +1925,7 @@
     </row>
     <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1">
         <v>160000</v>
@@ -2440,7 +1942,7 @@
     </row>
     <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1">
         <v>160000</v>
@@ -2457,7 +1959,7 @@
     </row>
     <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1">
         <v>115000</v>
@@ -2474,7 +1976,7 @@
     </row>
     <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1">
         <v>115000</v>
@@ -2491,7 +1993,7 @@
     </row>
     <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>213</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1">
         <v>115000</v>
@@ -2508,7 +2010,7 @@
     </row>
     <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>214</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1">
         <v>430000</v>
@@ -2525,7 +2027,7 @@
     </row>
     <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1">
         <v>480000</v>
@@ -2542,7 +2044,7 @@
     </row>
     <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>216</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1">
         <v>480000</v>
@@ -2559,7 +2061,7 @@
     </row>
     <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>217</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1">
         <v>480000</v>
@@ -2576,7 +2078,7 @@
     </row>
     <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1">
         <v>1295000</v>
@@ -2593,7 +2095,7 @@
     </row>
     <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>219</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1">
         <v>1295000</v>
@@ -2610,7 +2112,7 @@
     </row>
     <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>220</v>
+        <v>54</v>
       </c>
       <c r="B36" s="1">
         <v>795000</v>
@@ -2627,7 +2129,7 @@
     </row>
     <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>221</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1">
         <v>335000</v>
@@ -2644,7 +2146,7 @@
     </row>
     <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>222</v>
+        <v>56</v>
       </c>
       <c r="B38" s="1">
         <v>115000</v>
@@ -2661,7 +2163,7 @@
     </row>
     <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>223</v>
+        <v>57</v>
       </c>
       <c r="B39" s="1">
         <v>260000</v>
@@ -2678,7 +2180,7 @@
     </row>
     <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>224</v>
+        <v>58</v>
       </c>
       <c r="B40" s="1">
         <v>285000</v>
@@ -2695,7 +2197,7 @@
     </row>
     <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>225</v>
+        <v>59</v>
       </c>
       <c r="B41" s="1">
         <v>130000</v>
@@ -2712,7 +2214,7 @@
     </row>
     <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="B42" s="1">
         <v>145000</v>
@@ -2729,7 +2231,7 @@
     </row>
     <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>227</v>
+        <v>61</v>
       </c>
       <c r="B43" s="1">
         <v>145000</v>
@@ -2746,7 +2248,7 @@
     </row>
     <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>228</v>
+        <v>62</v>
       </c>
       <c r="B44" s="1">
         <v>145000</v>
@@ -2763,7 +2265,7 @@
     </row>
     <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>229</v>
+        <v>63</v>
       </c>
       <c r="B45" s="1">
         <v>180000</v>
@@ -2780,7 +2282,7 @@
     </row>
     <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>230</v>
+        <v>64</v>
       </c>
       <c r="B46" s="1">
         <v>235000</v>
@@ -2797,7 +2299,7 @@
     </row>
     <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>230</v>
+        <v>64</v>
       </c>
       <c r="B47" s="1">
         <v>235000</v>
@@ -2814,7 +2316,7 @@
     </row>
     <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>231</v>
+        <v>65</v>
       </c>
       <c r="B48" s="1">
         <v>235000</v>
@@ -2831,7 +2333,7 @@
     </row>
     <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>232</v>
+        <v>66</v>
       </c>
       <c r="B49" s="1">
         <v>285000</v>
@@ -2848,7 +2350,7 @@
     </row>
     <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="B50" s="1">
         <v>350000</v>
@@ -2865,7 +2367,7 @@
     </row>
     <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>234</v>
+        <v>68</v>
       </c>
       <c r="B51" s="1">
         <v>350000</v>
@@ -2882,7 +2384,7 @@
     </row>
     <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>235</v>
+        <v>69</v>
       </c>
       <c r="B52" s="1">
         <v>350000</v>
@@ -2899,7 +2401,7 @@
     </row>
     <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>235</v>
+        <v>69</v>
       </c>
       <c r="B53" s="1">
         <v>350000</v>
@@ -2916,7 +2418,7 @@
     </row>
     <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>236</v>
+        <v>70</v>
       </c>
       <c r="B54" s="1">
         <v>350000</v>
@@ -2933,7 +2435,7 @@
     </row>
     <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>237</v>
+        <v>71</v>
       </c>
       <c r="B55" s="1">
         <v>325000</v>
@@ -2950,7 +2452,7 @@
     </row>
     <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>238</v>
+        <v>72</v>
       </c>
       <c r="B56" s="1">
         <v>325000</v>
@@ -2967,7 +2469,7 @@
     </row>
     <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>239</v>
+        <v>73</v>
       </c>
       <c r="B57" s="1">
         <v>185000</v>
@@ -2984,7 +2486,7 @@
     </row>
     <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>240</v>
+        <v>74</v>
       </c>
       <c r="B58" s="1">
         <v>185000</v>
@@ -3001,7 +2503,7 @@
     </row>
     <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>241</v>
+        <v>75</v>
       </c>
       <c r="B59" s="1">
         <v>430000</v>
@@ -3018,7 +2520,7 @@
     </row>
     <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>242</v>
+        <v>76</v>
       </c>
       <c r="B60" s="1">
         <v>640000</v>
@@ -3035,7 +2537,7 @@
     </row>
     <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="B61" s="1">
         <v>640000</v>
@@ -3052,7 +2554,7 @@
     </row>
     <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="B62" s="1">
         <v>1120000</v>
@@ -3069,7 +2571,7 @@
     </row>
     <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="B63" s="1">
         <v>1475000</v>
@@ -3086,7 +2588,7 @@
     </row>
     <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="B64" s="1">
         <v>270000</v>
@@ -3103,7 +2605,7 @@
     </row>
     <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="B65" s="1">
         <v>270000</v>
@@ -3120,7 +2622,7 @@
     </row>
     <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>248</v>
+        <v>82</v>
       </c>
       <c r="B66" s="1">
         <v>190000</v>
@@ -3137,7 +2639,7 @@
     </row>
     <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>249</v>
+        <v>83</v>
       </c>
       <c r="B67" s="1">
         <v>310000</v>
@@ -3154,7 +2656,7 @@
     </row>
     <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="B68" s="1">
         <v>290000</v>
@@ -3171,7 +2673,7 @@
     </row>
     <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>251</v>
+        <v>85</v>
       </c>
       <c r="B69" s="1">
         <v>160000</v>
@@ -3188,7 +2690,7 @@
     </row>
     <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>252</v>
+        <v>86</v>
       </c>
       <c r="B70" s="1">
         <v>685000</v>
@@ -3205,7 +2707,7 @@
     </row>
     <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>253</v>
+        <v>87</v>
       </c>
       <c r="B71" s="1">
         <v>945000</v>
@@ -3222,7 +2724,7 @@
     </row>
     <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>254</v>
+        <v>88</v>
       </c>
       <c r="B72" s="1">
         <v>380000</v>
@@ -3239,7 +2741,7 @@
     </row>
     <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>255</v>
+        <v>89</v>
       </c>
       <c r="B73" s="1">
         <v>420000</v>
@@ -3256,7 +2758,7 @@
     </row>
     <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>256</v>
+        <v>90</v>
       </c>
       <c r="B74" s="1">
         <v>420000</v>
@@ -3273,7 +2775,7 @@
     </row>
     <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>257</v>
+        <v>91</v>
       </c>
       <c r="B75" s="1">
         <v>460000</v>
@@ -3290,7 +2792,7 @@
     </row>
     <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>258</v>
+        <v>92</v>
       </c>
       <c r="B76" s="1">
         <v>460000</v>
@@ -3307,7 +2809,7 @@
     </row>
     <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>259</v>
+        <v>93</v>
       </c>
       <c r="B77" s="1">
         <v>460000</v>
@@ -3324,7 +2826,7 @@
     </row>
     <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>260</v>
+        <v>94</v>
       </c>
       <c r="B78" s="1">
         <v>375000</v>
@@ -3341,7 +2843,7 @@
     </row>
     <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>261</v>
+        <v>95</v>
       </c>
       <c r="B79" s="1">
         <v>375000</v>
@@ -3358,7 +2860,7 @@
     </row>
     <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>262</v>
+        <v>96</v>
       </c>
       <c r="B80" s="1">
         <v>600000</v>
@@ -3375,7 +2877,7 @@
     </row>
     <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>263</v>
+        <v>97</v>
       </c>
       <c r="B81" s="1">
         <v>170000</v>
@@ -3392,7 +2894,7 @@
     </row>
     <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>264</v>
+        <v>98</v>
       </c>
       <c r="B82" s="1">
         <v>235000</v>
@@ -3409,7 +2911,7 @@
     </row>
     <row r="83" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>265</v>
+        <v>99</v>
       </c>
       <c r="B83" s="1">
         <v>235000</v>
@@ -3426,7 +2928,7 @@
     </row>
     <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>266</v>
+        <v>100</v>
       </c>
       <c r="B84" s="1">
         <v>205000</v>
@@ -3443,7 +2945,7 @@
     </row>
     <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>267</v>
+        <v>101</v>
       </c>
       <c r="B85" s="1">
         <v>120000</v>
@@ -3460,7 +2962,7 @@
     </row>
     <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>268</v>
+        <v>102</v>
       </c>
       <c r="B86" s="1">
         <v>120000</v>
@@ -3477,7 +2979,7 @@
     </row>
     <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>269</v>
+        <v>103</v>
       </c>
       <c r="B87" s="1">
         <v>105000</v>
@@ -3494,7 +2996,7 @@
     </row>
     <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>270</v>
+        <v>104</v>
       </c>
       <c r="B88" s="1">
         <v>225000</v>
@@ -3511,7 +3013,7 @@
     </row>
     <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>271</v>
+        <v>105</v>
       </c>
       <c r="B89" s="1">
         <v>225000</v>
@@ -3528,7 +3030,7 @@
     </row>
     <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>272</v>
+        <v>106</v>
       </c>
       <c r="B90" s="1">
         <v>360000</v>
@@ -3545,7 +3047,7 @@
     </row>
     <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>273</v>
+        <v>107</v>
       </c>
       <c r="B91" s="1">
         <v>360000</v>
@@ -3562,7 +3064,7 @@
     </row>
     <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>274</v>
+        <v>108</v>
       </c>
       <c r="B92" s="1">
         <v>365000</v>
@@ -3579,7 +3081,7 @@
     </row>
     <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>275</v>
+        <v>109</v>
       </c>
       <c r="B93" s="1">
         <v>425000</v>
@@ -3596,7 +3098,7 @@
     </row>
     <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>276</v>
+        <v>110</v>
       </c>
       <c r="B94" s="1">
         <v>300000</v>
@@ -3613,7 +3115,7 @@
     </row>
     <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>277</v>
+        <v>111</v>
       </c>
       <c r="B95" s="1">
         <v>500000</v>
@@ -3630,7 +3132,7 @@
     </row>
     <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B96" s="1">
         <v>245000</v>
@@ -3647,7 +3149,7 @@
     </row>
     <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>279</v>
+        <v>113</v>
       </c>
       <c r="B97" s="1">
         <v>230000</v>
@@ -3664,7 +3166,7 @@
     </row>
     <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>280</v>
+        <v>114</v>
       </c>
       <c r="B98" s="1">
         <v>230000</v>
@@ -3681,7 +3183,7 @@
     </row>
     <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>281</v>
+        <v>115</v>
       </c>
       <c r="B99" s="1">
         <v>230000</v>
@@ -3698,7 +3200,7 @@
     </row>
     <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>282</v>
+        <v>116</v>
       </c>
       <c r="B100" s="1">
         <v>320000</v>
@@ -3715,7 +3217,7 @@
     </row>
     <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>283</v>
+        <v>117</v>
       </c>
       <c r="B101" s="1">
         <v>230000</v>
@@ -3732,7 +3234,7 @@
     </row>
     <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>284</v>
+        <v>118</v>
       </c>
       <c r="B102" s="1">
         <v>230000</v>
@@ -3749,7 +3251,7 @@
     </row>
     <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>285</v>
+        <v>119</v>
       </c>
       <c r="B103" s="1">
         <v>130000</v>
@@ -3766,7 +3268,7 @@
     </row>
     <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>286</v>
+        <v>120</v>
       </c>
       <c r="B104" s="1">
         <v>160000</v>
@@ -3783,7 +3285,7 @@
     </row>
     <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>287</v>
+        <v>121</v>
       </c>
       <c r="B105" s="1">
         <v>160000</v>
@@ -3800,7 +3302,7 @@
     </row>
     <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>288</v>
+        <v>122</v>
       </c>
       <c r="B106" s="1">
         <v>160000</v>
@@ -3817,7 +3319,7 @@
     </row>
     <row r="107" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>289</v>
+        <v>123</v>
       </c>
       <c r="B107" s="1">
         <v>340000</v>
@@ -3834,7 +3336,7 @@
     </row>
     <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>290</v>
+        <v>124</v>
       </c>
       <c r="B108" s="1">
         <v>340000</v>
@@ -3851,7 +3353,7 @@
     </row>
     <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>291</v>
+        <v>125</v>
       </c>
       <c r="B109" s="1">
         <v>340000</v>
@@ -3868,7 +3370,7 @@
     </row>
     <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>292</v>
+        <v>126</v>
       </c>
       <c r="B110" s="1">
         <v>535000</v>
@@ -3885,7 +3387,7 @@
     </row>
     <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="B111" s="1">
         <v>535000</v>
@@ -3902,7 +3404,7 @@
     </row>
     <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>294</v>
+        <v>128</v>
       </c>
       <c r="B112" s="1">
         <v>490000</v>
@@ -3919,7 +3421,7 @@
     </row>
     <row r="113" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>295</v>
+        <v>129</v>
       </c>
       <c r="B113" s="1">
         <v>490000</v>
@@ -3936,7 +3438,7 @@
     </row>
     <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>296</v>
+        <v>130</v>
       </c>
       <c r="B114" s="1">
         <v>490000</v>
@@ -3953,7 +3455,7 @@
     </row>
     <row r="115" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>297</v>
+        <v>131</v>
       </c>
       <c r="B115" s="1">
         <v>490000</v>
@@ -3970,7 +3472,7 @@
     </row>
     <row r="116" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>298</v>
+        <v>132</v>
       </c>
       <c r="B116" s="1">
         <v>1450000</v>
@@ -3987,7 +3489,7 @@
     </row>
     <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>299</v>
+        <v>133</v>
       </c>
       <c r="B117" s="1">
         <v>245000</v>
@@ -4004,7 +3506,7 @@
     </row>
     <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>300</v>
+        <v>134</v>
       </c>
       <c r="B118" s="1">
         <v>375000</v>
@@ -4021,7 +3523,7 @@
     </row>
     <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>301</v>
+        <v>135</v>
       </c>
       <c r="B119" s="1">
         <v>325000</v>
@@ -4038,7 +3540,7 @@
     </row>
     <row r="120" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>302</v>
+        <v>136</v>
       </c>
       <c r="B120" s="1">
         <v>1875000</v>
@@ -4055,7 +3557,7 @@
     </row>
     <row r="121" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>303</v>
+        <v>137</v>
       </c>
       <c r="B121" s="1">
         <v>2150000</v>
@@ -4072,7 +3574,7 @@
     </row>
     <row r="122" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>304</v>
+        <v>138</v>
       </c>
       <c r="B122" s="1">
         <v>2150000</v>
@@ -4089,7 +3591,7 @@
     </row>
     <row r="123" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>305</v>
+        <v>139</v>
       </c>
       <c r="B123" s="1">
         <v>1550000</v>
@@ -4106,7 +3608,7 @@
     </row>
     <row r="124" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>306</v>
+        <v>140</v>
       </c>
       <c r="B124" s="1">
         <v>1300000</v>
@@ -4123,7 +3625,7 @@
     </row>
     <row r="125" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>307</v>
+        <v>141</v>
       </c>
       <c r="B125" s="1">
         <v>1300000</v>
@@ -4140,7 +3642,7 @@
     </row>
     <row r="126" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>308</v>
+        <v>142</v>
       </c>
       <c r="B126" s="1">
         <v>250000</v>
@@ -4157,7 +3659,7 @@
     </row>
     <row r="127" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>309</v>
+        <v>143</v>
       </c>
       <c r="B127" s="1">
         <v>250000</v>
@@ -4174,7 +3676,7 @@
     </row>
     <row r="128" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>310</v>
+        <v>144</v>
       </c>
       <c r="B128" s="1">
         <v>475000</v>
@@ -4191,7 +3693,7 @@
     </row>
     <row r="129" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>311</v>
+        <v>145</v>
       </c>
       <c r="B129" s="1">
         <v>345000</v>
@@ -4208,7 +3710,7 @@
     </row>
     <row r="130" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>312</v>
+        <v>146</v>
       </c>
       <c r="B130" s="1">
         <v>345000</v>
@@ -4225,7 +3727,7 @@
     </row>
     <row r="131" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>313</v>
+        <v>147</v>
       </c>
       <c r="B131" s="1">
         <v>315000</v>
@@ -4242,7 +3744,7 @@
     </row>
     <row r="132" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>314</v>
+        <v>148</v>
       </c>
       <c r="B132" s="1">
         <v>315000</v>
@@ -4259,7 +3761,7 @@
     </row>
     <row r="133" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>315</v>
+        <v>149</v>
       </c>
       <c r="B133" s="1">
         <v>230000</v>
@@ -4276,7 +3778,7 @@
     </row>
     <row r="134" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>316</v>
+        <v>150</v>
       </c>
       <c r="B134" s="1">
         <v>230000</v>
@@ -4293,7 +3795,7 @@
     </row>
     <row r="135" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>317</v>
+        <v>151</v>
       </c>
       <c r="B135" s="1">
         <v>395000</v>
@@ -4310,7 +3812,7 @@
     </row>
     <row r="136" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>318</v>
+        <v>152</v>
       </c>
       <c r="B136" s="1">
         <v>395000</v>
@@ -4327,7 +3829,7 @@
     </row>
     <row r="137" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="B137" s="1">
         <v>170000</v>
@@ -4344,7 +3846,7 @@
     </row>
     <row r="138" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>320</v>
+        <v>154</v>
       </c>
       <c r="B138" s="1">
         <v>170000</v>
@@ -4361,7 +3863,7 @@
     </row>
     <row r="139" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>321</v>
+        <v>155</v>
       </c>
       <c r="B139" s="1">
         <v>145000</v>
@@ -4378,7 +3880,7 @@
     </row>
     <row r="140" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>322</v>
+        <v>156</v>
       </c>
       <c r="B140" s="1">
         <v>145000</v>
@@ -4395,7 +3897,7 @@
     </row>
     <row r="141" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>323</v>
+        <v>157</v>
       </c>
       <c r="B141" s="1">
         <v>145000</v>
@@ -4412,7 +3914,7 @@
     </row>
     <row r="142" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>324</v>
+        <v>158</v>
       </c>
       <c r="B142" s="1">
         <v>145000</v>
@@ -4429,7 +3931,7 @@
     </row>
     <row r="143" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>325</v>
+        <v>159</v>
       </c>
       <c r="B143" s="1">
         <v>150000</v>
@@ -4446,7 +3948,7 @@
     </row>
     <row r="144" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>326</v>
+        <v>160</v>
       </c>
       <c r="B144" s="1">
         <v>150000</v>
@@ -4463,7 +3965,7 @@
     </row>
     <row r="145" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>327</v>
+        <v>161</v>
       </c>
       <c r="B145" s="1">
         <v>150000</v>
@@ -4480,7 +3982,7 @@
     </row>
     <row r="146" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>328</v>
+        <v>162</v>
       </c>
       <c r="B146" s="1">
         <v>115000</v>
@@ -4497,7 +3999,7 @@
     </row>
     <row r="147" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>329</v>
+        <v>163</v>
       </c>
       <c r="B147" s="1">
         <v>105000</v>
@@ -4514,7 +4016,7 @@
     </row>
     <row r="148" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>330</v>
+        <v>164</v>
       </c>
       <c r="B148" s="1">
         <v>30000</v>
@@ -4531,7 +4033,7 @@
     </row>
     <row r="149" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>331</v>
+        <v>165</v>
       </c>
       <c r="B149" s="1">
         <v>990000</v>
@@ -4548,7 +4050,7 @@
     </row>
     <row r="150" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>332</v>
+        <v>166</v>
       </c>
       <c r="B150" s="1">
         <v>1400000</v>
@@ -4565,7 +4067,7 @@
     </row>
     <row r="151" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>333</v>
+        <v>167</v>
       </c>
       <c r="B151" s="1">
         <v>515000</v>
@@ -4582,7 +4084,7 @@
     </row>
     <row r="152" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>334</v>
+        <v>168</v>
       </c>
       <c r="B152" s="1">
         <v>515000</v>
@@ -4599,7 +4101,7 @@
     </row>
     <row r="153" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>335</v>
+        <v>169</v>
       </c>
       <c r="B153" s="1">
         <v>465000</v>
@@ -4616,7 +4118,7 @@
     </row>
     <row r="154" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>336</v>
+        <v>170</v>
       </c>
       <c r="B154" s="1">
         <v>465000</v>
@@ -4633,7 +4135,7 @@
     </row>
     <row r="155" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>337</v>
+        <v>171</v>
       </c>
       <c r="B155" s="1">
         <v>670000</v>
@@ -4650,3201 +4152,3201 @@
     </row>
     <row r="156" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>338</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>19</v>
+        <v>172</v>
+      </c>
+      <c r="B156" s="5">
+        <v>2295000</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>20</v>
+        <v>173</v>
+      </c>
+      <c r="B157" s="5">
+        <v>1975000</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
     </row>
     <row r="158" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>340</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>21</v>
+        <v>174</v>
+      </c>
+      <c r="B158" s="5">
+        <v>1620000</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>341</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>22</v>
+        <v>175</v>
+      </c>
+      <c r="B159" s="5">
+        <v>2185000</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>342</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>23</v>
+        <v>176</v>
+      </c>
+      <c r="B160" s="5">
+        <v>1970000</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>343</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>24</v>
+        <v>177</v>
+      </c>
+      <c r="B161" s="5">
+        <v>1700000</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>344</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>25</v>
+        <v>178</v>
+      </c>
+      <c r="B162" s="5">
+        <v>1555000</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>345</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>26</v>
+        <v>179</v>
+      </c>
+      <c r="B163" s="5">
+        <v>1400000</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>346</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>27</v>
+        <v>180</v>
+      </c>
+      <c r="B164" s="5">
+        <v>1365000</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>347</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>28</v>
+        <v>181</v>
+      </c>
+      <c r="B165" s="5">
+        <v>1215000</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>29</v>
+        <v>182</v>
+      </c>
+      <c r="B166" s="5">
+        <v>1215000</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>349</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>30</v>
+        <v>183</v>
+      </c>
+      <c r="B167" s="5">
+        <v>1065000</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>350</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>31</v>
+        <v>184</v>
+      </c>
+      <c r="B168" s="5">
+        <v>895000</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>351</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>32</v>
+        <v>185</v>
+      </c>
+      <c r="B169" s="5">
+        <v>1080000</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>352</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>33</v>
+        <v>186</v>
+      </c>
+      <c r="B170" s="5">
+        <v>600000</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>353</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>34</v>
+        <v>187</v>
+      </c>
+      <c r="B171" s="5">
+        <v>2650000</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>35</v>
+        <v>188</v>
+      </c>
+      <c r="B172" s="5">
+        <v>1850000</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
     </row>
     <row r="173" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>36</v>
+        <v>189</v>
+      </c>
+      <c r="B173" s="5">
+        <v>1499000</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
     <row r="174" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>21</v>
+        <v>190</v>
+      </c>
+      <c r="B174" s="5">
+        <v>1620000</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
     <row r="175" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>37</v>
+        <v>191</v>
+      </c>
+      <c r="B175" s="5">
+        <v>1205000</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
     </row>
     <row r="176" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>21</v>
+        <v>192</v>
+      </c>
+      <c r="B176" s="5">
+        <v>1620000</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E176" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
     </row>
     <row r="177" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>359</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>38</v>
+        <v>193</v>
+      </c>
+      <c r="B177" s="5">
+        <v>1050000</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>360</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>39</v>
+        <v>194</v>
+      </c>
+      <c r="B178" s="5">
+        <v>730000</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>361</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>40</v>
+        <v>195</v>
+      </c>
+      <c r="B179" s="5">
+        <v>860000</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>362</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>41</v>
+        <v>196</v>
+      </c>
+      <c r="B180" s="5">
+        <v>560000</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>363</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>42</v>
+        <v>197</v>
+      </c>
+      <c r="B181" s="5">
+        <v>435000</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>364</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>43</v>
+        <v>198</v>
+      </c>
+      <c r="B182" s="5">
+        <v>495000</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>365</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>44</v>
+        <v>199</v>
+      </c>
+      <c r="B183" s="5">
+        <v>405000</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>366</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>45</v>
+        <v>200</v>
+      </c>
+      <c r="B184" s="5">
+        <v>595000</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>367</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>46</v>
+        <v>201</v>
+      </c>
+      <c r="B185" s="5">
+        <v>2499000</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>368</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>47</v>
+        <v>202</v>
+      </c>
+      <c r="B186" s="5">
+        <v>1479000</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E186" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>369</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>48</v>
+        <v>203</v>
+      </c>
+      <c r="B187" s="5">
+        <v>1450000</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>370</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>49</v>
+        <v>204</v>
+      </c>
+      <c r="B188" s="5">
+        <v>1300000</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E188" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>371</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>50</v>
+        <v>205</v>
+      </c>
+      <c r="B189" s="5">
+        <v>1250000</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E189" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>372</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>51</v>
+        <v>206</v>
+      </c>
+      <c r="B190" s="5">
+        <v>1150000</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>373</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>52</v>
+        <v>207</v>
+      </c>
+      <c r="B191" s="5">
+        <v>570000</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>374</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>53</v>
+        <v>208</v>
+      </c>
+      <c r="B192" s="5">
+        <v>450000</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>375</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>54</v>
+        <v>209</v>
+      </c>
+      <c r="B193" s="5">
+        <v>395000</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>376</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>42</v>
+        <v>210</v>
+      </c>
+      <c r="B194" s="5">
+        <v>435000</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>377</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>55</v>
+        <v>211</v>
+      </c>
+      <c r="B195" s="5">
+        <v>210000</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>378</v>
-      </c>
-      <c r="B196" s="5" t="s">
-        <v>56</v>
+        <v>212</v>
+      </c>
+      <c r="B196" s="5">
+        <v>185000</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
       <c r="I196" s="4"/>
     </row>
     <row r="197" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>379</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>57</v>
+        <v>213</v>
+      </c>
+      <c r="B197" s="5">
+        <v>135000</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
       <c r="I197" s="4"/>
     </row>
     <row r="198" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>380</v>
-      </c>
-      <c r="B198" s="5" t="s">
-        <v>58</v>
+        <v>214</v>
+      </c>
+      <c r="B198" s="5">
+        <v>70000</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E198" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
       <c r="I198" s="4"/>
     </row>
     <row r="199" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>381</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>58</v>
+        <v>215</v>
+      </c>
+      <c r="B199" s="5">
+        <v>70000</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
       <c r="I199" s="4"/>
     </row>
     <row r="200" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>382</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>59</v>
+        <v>216</v>
+      </c>
+      <c r="B200" s="5">
+        <v>30000</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E200" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
       <c r="I200" s="4"/>
     </row>
     <row r="201" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>383</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>60</v>
+        <v>217</v>
+      </c>
+      <c r="B201" s="5">
+        <v>1890000</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
       <c r="I201" s="4"/>
     </row>
     <row r="202" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>384</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>61</v>
+        <v>218</v>
+      </c>
+      <c r="B202" s="5">
+        <v>1650000</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
       <c r="I202" s="4"/>
     </row>
     <row r="203" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>385</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>62</v>
+        <v>219</v>
+      </c>
+      <c r="B203" s="5">
+        <v>1440000</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
       <c r="I203" s="4"/>
     </row>
     <row r="204" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>386</v>
+        <v>220</v>
       </c>
       <c r="B204" s="5"/>
       <c r="C204" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
       <c r="I204" s="4"/>
     </row>
     <row r="205" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>387</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>63</v>
+        <v>221</v>
+      </c>
+      <c r="B205" s="5">
+        <v>1520000</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E205" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
       <c r="I205" s="4"/>
     </row>
     <row r="206" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>388</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>64</v>
+        <v>222</v>
+      </c>
+      <c r="B206" s="5">
+        <v>1410000</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>389</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>65</v>
+        <v>223</v>
+      </c>
+      <c r="B207" s="5">
+        <v>1580000</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>390</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>66</v>
+        <v>224</v>
+      </c>
+      <c r="B208" s="5">
+        <v>1190000</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>391</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>67</v>
+        <v>225</v>
+      </c>
+      <c r="B209" s="5">
+        <v>395000</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E209" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>392</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>68</v>
+        <v>226</v>
+      </c>
+      <c r="B210" s="5">
+        <v>1050000</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E210" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>393</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>69</v>
+        <v>227</v>
+      </c>
+      <c r="B211" s="5">
+        <v>940000</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>394</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>70</v>
+        <v>228</v>
+      </c>
+      <c r="B212" s="5">
+        <v>800000</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>395</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>71</v>
+        <v>229</v>
+      </c>
+      <c r="B213" s="5">
+        <v>940000</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>396</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>72</v>
+        <v>230</v>
+      </c>
+      <c r="B214" s="5">
+        <v>640000</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E214" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>396</v>
-      </c>
-      <c r="B215" s="5" t="s">
-        <v>73</v>
+        <v>230</v>
+      </c>
+      <c r="B215" s="5">
+        <v>780000</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>397</v>
-      </c>
-      <c r="B216" s="5" t="s">
-        <v>74</v>
+        <v>231</v>
+      </c>
+      <c r="B216" s="5">
+        <v>900000</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E216" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>398</v>
-      </c>
-      <c r="B217" s="5" t="s">
-        <v>75</v>
+        <v>232</v>
+      </c>
+      <c r="B217" s="5">
+        <v>548000</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E217" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>399</v>
-      </c>
-      <c r="B218" s="5" t="s">
-        <v>76</v>
+        <v>233</v>
+      </c>
+      <c r="B218" s="5">
+        <v>502000</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E218" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>400</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>77</v>
+        <v>234</v>
+      </c>
+      <c r="B219" s="5">
+        <v>423000</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E219" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>401</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>78</v>
+        <v>235</v>
+      </c>
+      <c r="B220" s="5">
+        <v>387000</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E220" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>402</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>79</v>
+        <v>236</v>
+      </c>
+      <c r="B221" s="5">
+        <v>349000</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E221" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>403</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>80</v>
+        <v>237</v>
+      </c>
+      <c r="B222" s="5">
+        <v>295000</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E222" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>404</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>81</v>
+        <v>238</v>
+      </c>
+      <c r="B223" s="5">
+        <v>222000</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E223" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>405</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>82</v>
+        <v>239</v>
+      </c>
+      <c r="B224" s="5">
+        <v>183000</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E224" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>405</v>
-      </c>
-      <c r="B225" s="5" t="s">
-        <v>83</v>
+        <v>239</v>
+      </c>
+      <c r="B225" s="5">
+        <v>161000</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E225" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>406</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>84</v>
+        <v>240</v>
+      </c>
+      <c r="B226" s="5">
+        <v>132000</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E226" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>407</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>85</v>
+        <v>241</v>
+      </c>
+      <c r="B227" s="5">
+        <v>115000</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E227" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>408</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>86</v>
+        <v>242</v>
+      </c>
+      <c r="B228" s="5">
+        <v>98000</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E228" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>409</v>
-      </c>
-      <c r="B229" s="5" t="s">
-        <v>87</v>
+        <v>243</v>
+      </c>
+      <c r="B229" s="5">
+        <v>400000</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E229" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>410</v>
-      </c>
-      <c r="B230" s="5" t="s">
-        <v>88</v>
+        <v>244</v>
+      </c>
+      <c r="B230" s="5">
+        <v>1290000</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E230" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>411</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>89</v>
+        <v>245</v>
+      </c>
+      <c r="B231" s="5">
+        <v>2050000</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E231" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>412</v>
-      </c>
-      <c r="B232" s="5" t="s">
-        <v>90</v>
+        <v>246</v>
+      </c>
+      <c r="B232" s="5">
+        <v>800000</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E232" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>413</v>
-      </c>
-      <c r="B233" s="5" t="s">
-        <v>91</v>
+        <v>247</v>
+      </c>
+      <c r="B233" s="5">
+        <v>480000</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>414</v>
-      </c>
-      <c r="B234" s="5" t="s">
-        <v>92</v>
+        <v>248</v>
+      </c>
+      <c r="B234" s="5">
+        <v>270000</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E234" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>415</v>
-      </c>
-      <c r="B235" s="5" t="s">
-        <v>93</v>
+        <v>249</v>
+      </c>
+      <c r="B235" s="5">
+        <v>350000</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E235" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>416</v>
-      </c>
-      <c r="B236" s="5" t="s">
-        <v>94</v>
+        <v>250</v>
+      </c>
+      <c r="B236" s="5">
+        <v>325000</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E236" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>417</v>
-      </c>
-      <c r="B237" s="5" t="s">
-        <v>95</v>
+        <v>251</v>
+      </c>
+      <c r="B237" s="5">
+        <v>325000</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E237" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>418</v>
-      </c>
-      <c r="B238" s="5" t="s">
-        <v>96</v>
+        <v>252</v>
+      </c>
+      <c r="B238" s="5">
+        <v>280000</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E238" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>419</v>
-      </c>
-      <c r="B239" s="5" t="s">
-        <v>97</v>
+        <v>253</v>
+      </c>
+      <c r="B239" s="5">
+        <v>230000</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E239" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>420</v>
-      </c>
-      <c r="B240" s="5" t="s">
-        <v>98</v>
+        <v>254</v>
+      </c>
+      <c r="B240" s="5">
+        <v>180000</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E240" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>421</v>
-      </c>
-      <c r="B241" s="5" t="s">
-        <v>99</v>
+        <v>255</v>
+      </c>
+      <c r="B241" s="5">
+        <v>145000</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E241" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>422</v>
-      </c>
-      <c r="B242" s="5" t="s">
-        <v>57</v>
+        <v>256</v>
+      </c>
+      <c r="B242" s="5">
+        <v>135000</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E242" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>423</v>
-      </c>
-      <c r="B243" s="5" t="s">
-        <v>100</v>
+        <v>257</v>
+      </c>
+      <c r="B243" s="5">
+        <v>799000</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E243" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>424</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>101</v>
+        <v>258</v>
+      </c>
+      <c r="B244" s="5">
+        <v>398000</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E244" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>425</v>
-      </c>
-      <c r="B245" s="5" t="s">
-        <v>102</v>
+        <v>259</v>
+      </c>
+      <c r="B245" s="5">
+        <v>335000</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E245" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>426</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>103</v>
+        <v>260</v>
+      </c>
+      <c r="B246" s="5">
+        <v>265000</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E246" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>427</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>80</v>
+        <v>261</v>
+      </c>
+      <c r="B247" s="5">
+        <v>295000</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E247" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>428</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>104</v>
+        <v>262</v>
+      </c>
+      <c r="B248" s="5">
+        <v>210000</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E248" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>429</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>105</v>
+        <v>263</v>
+      </c>
+      <c r="B249" s="5">
+        <v>182000</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E249" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>430</v>
-      </c>
-      <c r="B250" s="5" t="s">
-        <v>106</v>
+        <v>264</v>
+      </c>
+      <c r="B250" s="5">
+        <v>180000</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E250" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>431</v>
-      </c>
-      <c r="B251" s="5" t="s">
-        <v>107</v>
+        <v>265</v>
+      </c>
+      <c r="B251" s="5">
+        <v>114000</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E251" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>432</v>
-      </c>
-      <c r="B252" s="5" t="s">
-        <v>108</v>
+        <v>266</v>
+      </c>
+      <c r="B252" s="5">
+        <v>615000</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E252" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>433</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>109</v>
+        <v>267</v>
+      </c>
+      <c r="B253" s="5">
+        <v>45000</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E253" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>434</v>
-      </c>
-      <c r="B254" s="5" t="s">
-        <v>26</v>
+        <v>268</v>
+      </c>
+      <c r="B254" s="5">
+        <v>1400000</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>435</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>110</v>
+        <v>269</v>
+      </c>
+      <c r="B255" s="5">
+        <v>980000</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>436</v>
-      </c>
-      <c r="B256" s="5" t="s">
-        <v>111</v>
+        <v>270</v>
+      </c>
+      <c r="B256" s="5">
+        <v>745000</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>437</v>
-      </c>
-      <c r="B257" s="5" t="s">
-        <v>112</v>
+        <v>271</v>
+      </c>
+      <c r="B257" s="5">
+        <v>501000</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E257" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>438</v>
-      </c>
-      <c r="B258" s="5" t="s">
-        <v>113</v>
+        <v>272</v>
+      </c>
+      <c r="B258" s="5">
+        <v>418000</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E258" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>439</v>
-      </c>
-      <c r="B259" s="5" t="s">
-        <v>114</v>
+        <v>273</v>
+      </c>
+      <c r="B259" s="5">
+        <v>356000</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E259" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>440</v>
-      </c>
-      <c r="B260" s="5" t="s">
-        <v>115</v>
+        <v>274</v>
+      </c>
+      <c r="B260" s="5">
+        <v>347000</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E260" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>441</v>
-      </c>
-      <c r="B261" s="5" t="s">
-        <v>116</v>
+        <v>275</v>
+      </c>
+      <c r="B261" s="5">
+        <v>287000</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E261" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>442</v>
-      </c>
-      <c r="B262" s="5" t="s">
-        <v>117</v>
+        <v>276</v>
+      </c>
+      <c r="B262" s="5">
+        <v>268000</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E262" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>443</v>
-      </c>
-      <c r="B263" s="5" t="s">
-        <v>81</v>
+        <v>277</v>
+      </c>
+      <c r="B263" s="5">
+        <v>222000</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E263" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>444</v>
-      </c>
-      <c r="B264" s="5" t="s">
-        <v>118</v>
+        <v>278</v>
+      </c>
+      <c r="B264" s="5">
+        <v>164000</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>445</v>
-      </c>
-      <c r="B265" s="5" t="s">
-        <v>119</v>
+        <v>279</v>
+      </c>
+      <c r="B265" s="5">
+        <v>148000</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E265" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>446</v>
-      </c>
-      <c r="B266" s="5" t="s">
-        <v>120</v>
+        <v>280</v>
+      </c>
+      <c r="B266" s="5">
+        <v>103000</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E266" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>447</v>
-      </c>
-      <c r="B267" s="5" t="s">
-        <v>121</v>
+        <v>281</v>
+      </c>
+      <c r="B267" s="5">
+        <v>88000</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>448</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>122</v>
+        <v>282</v>
+      </c>
+      <c r="B268" s="5">
+        <v>927000</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>449</v>
-      </c>
-      <c r="B269" s="5" t="s">
-        <v>123</v>
+        <v>283</v>
+      </c>
+      <c r="B269" s="5">
+        <v>687000</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E269" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>450</v>
-      </c>
-      <c r="B270" s="5" t="s">
-        <v>124</v>
+        <v>284</v>
+      </c>
+      <c r="B270" s="5">
+        <v>559000</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E270" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>451</v>
-      </c>
-      <c r="B271" s="5" t="s">
-        <v>43</v>
+        <v>285</v>
+      </c>
+      <c r="B271" s="5">
+        <v>495000</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E271" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>452</v>
-      </c>
-      <c r="B272" s="5" t="s">
-        <v>125</v>
+        <v>286</v>
+      </c>
+      <c r="B272" s="5">
+        <v>459000</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E272" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>453</v>
-      </c>
-      <c r="B273" s="5" t="s">
-        <v>126</v>
+        <v>287</v>
+      </c>
+      <c r="B273" s="5">
+        <v>415000</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>454</v>
-      </c>
-      <c r="B274" s="5" t="s">
-        <v>127</v>
+        <v>288</v>
+      </c>
+      <c r="B274" s="5">
+        <v>360000</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E274" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>455</v>
-      </c>
-      <c r="B275" s="5" t="s">
-        <v>128</v>
+        <v>289</v>
+      </c>
+      <c r="B275" s="5">
+        <v>304000</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E275" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>456</v>
-      </c>
-      <c r="B276" s="5" t="s">
-        <v>129</v>
+        <v>290</v>
+      </c>
+      <c r="B276" s="5">
+        <v>276000</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E276" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>457</v>
-      </c>
-      <c r="B277" s="5" t="s">
-        <v>119</v>
+        <v>291</v>
+      </c>
+      <c r="B277" s="5">
+        <v>148000</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E277" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>458</v>
-      </c>
-      <c r="B278" s="5" t="s">
-        <v>130</v>
+        <v>292</v>
+      </c>
+      <c r="B278" s="5">
+        <v>105000</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E278" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>459</v>
-      </c>
-      <c r="B279" s="5" t="s">
-        <v>131</v>
+        <v>293</v>
+      </c>
+      <c r="B279" s="5">
+        <v>664000</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E279" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>460</v>
-      </c>
-      <c r="B280" s="5" t="s">
-        <v>132</v>
+        <v>294</v>
+      </c>
+      <c r="B280" s="5">
+        <v>507000</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E280" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>461</v>
-      </c>
-      <c r="B281" s="5" t="s">
-        <v>133</v>
+        <v>295</v>
+      </c>
+      <c r="B281" s="5">
+        <v>461000</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E281" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>462</v>
-      </c>
-      <c r="B282" s="5" t="s">
-        <v>134</v>
+        <v>296</v>
+      </c>
+      <c r="B282" s="5">
+        <v>710000</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E282" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>463</v>
-      </c>
-      <c r="B283" s="5" t="s">
-        <v>135</v>
+        <v>297</v>
+      </c>
+      <c r="B283" s="5">
+        <v>321000</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E283" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>464</v>
-      </c>
-      <c r="B284" s="5" t="s">
-        <v>103</v>
+        <v>298</v>
+      </c>
+      <c r="B284" s="5">
+        <v>265000</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E284" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>465</v>
-      </c>
-      <c r="B285" s="5" t="s">
-        <v>136</v>
+        <v>299</v>
+      </c>
+      <c r="B285" s="5">
+        <v>252000</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E285" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>466</v>
-      </c>
-      <c r="B286" s="5" t="s">
-        <v>137</v>
+        <v>300</v>
+      </c>
+      <c r="B286" s="5">
+        <v>229000</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E286" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>467</v>
-      </c>
-      <c r="B287" s="5" t="s">
-        <v>138</v>
+        <v>301</v>
+      </c>
+      <c r="B287" s="5">
+        <v>192000</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E287" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>468</v>
-      </c>
-      <c r="B288" s="5" t="s">
-        <v>139</v>
+        <v>302</v>
+      </c>
+      <c r="B288" s="5">
+        <v>314000</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E288" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>469</v>
-      </c>
-      <c r="B289" s="5" t="s">
-        <v>140</v>
+        <v>303</v>
+      </c>
+      <c r="B289" s="5">
+        <v>1495000</v>
       </c>
       <c r="C289" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E289" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>470</v>
-      </c>
-      <c r="B290" s="5" t="s">
-        <v>141</v>
+        <v>304</v>
+      </c>
+      <c r="B290" s="5">
+        <v>1183000</v>
       </c>
       <c r="C290" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E290" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>471</v>
-      </c>
-      <c r="B291" s="5" t="s">
-        <v>142</v>
+        <v>305</v>
+      </c>
+      <c r="B291" s="5">
+        <v>652000</v>
       </c>
       <c r="C291" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E291" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>472</v>
-      </c>
-      <c r="B292" s="5" t="s">
-        <v>42</v>
+        <v>306</v>
+      </c>
+      <c r="B292" s="5">
+        <v>435000</v>
       </c>
       <c r="C292" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E292" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>473</v>
-      </c>
-      <c r="B293" s="5" t="s">
-        <v>143</v>
+        <v>307</v>
+      </c>
+      <c r="B293" s="5">
+        <v>283000</v>
       </c>
       <c r="C293" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E293" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>474</v>
-      </c>
-      <c r="B294" s="5" t="s">
-        <v>144</v>
+        <v>308</v>
+      </c>
+      <c r="B294" s="5">
+        <v>193000</v>
       </c>
       <c r="C294" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E294" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>475</v>
-      </c>
-      <c r="B295" s="5" t="s">
-        <v>145</v>
+        <v>309</v>
+      </c>
+      <c r="B295" s="5">
+        <v>268000</v>
       </c>
       <c r="C295" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E295" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>476</v>
-      </c>
-      <c r="B296" s="5" t="s">
-        <v>146</v>
+        <v>310</v>
+      </c>
+      <c r="B296" s="5">
+        <v>170000</v>
       </c>
       <c r="C296" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E296" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>477</v>
-      </c>
-      <c r="B297" s="5" t="s">
-        <v>147</v>
+        <v>311</v>
+      </c>
+      <c r="B297" s="5">
+        <v>237000</v>
       </c>
       <c r="C297" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E297" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>478</v>
-      </c>
-      <c r="B298" s="5" t="s">
-        <v>145</v>
+        <v>312</v>
+      </c>
+      <c r="B298" s="5">
+        <v>268000</v>
       </c>
       <c r="C298" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E298" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>479</v>
-      </c>
-      <c r="B299" s="5" t="s">
-        <v>148</v>
+        <v>313</v>
+      </c>
+      <c r="B299" s="5">
+        <v>810000</v>
       </c>
       <c r="C299" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E299" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>480</v>
-      </c>
-      <c r="B300" s="5" t="s">
-        <v>149</v>
+        <v>314</v>
+      </c>
+      <c r="B300" s="5">
+        <v>590000</v>
       </c>
       <c r="C300" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E300" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>481</v>
-      </c>
-      <c r="B301" s="5" t="s">
-        <v>149</v>
+        <v>315</v>
+      </c>
+      <c r="B301" s="5">
+        <v>590000</v>
       </c>
       <c r="C301" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E301" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>482</v>
-      </c>
-      <c r="B302" s="5" t="s">
-        <v>148</v>
+        <v>316</v>
+      </c>
+      <c r="B302" s="5">
+        <v>810000</v>
       </c>
       <c r="C302" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E302" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>483</v>
-      </c>
-      <c r="B303" s="5" t="s">
-        <v>111</v>
+        <v>317</v>
+      </c>
+      <c r="B303" s="5">
+        <v>745000</v>
       </c>
       <c r="C303" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E303" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>484</v>
-      </c>
-      <c r="B304" s="5" t="s">
-        <v>150</v>
+        <v>318</v>
+      </c>
+      <c r="B304" s="5">
+        <v>223000</v>
       </c>
       <c r="C304" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E304" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>485</v>
-      </c>
-      <c r="B305" s="5" t="s">
-        <v>151</v>
+        <v>319</v>
+      </c>
+      <c r="B305" s="5">
+        <v>169000</v>
       </c>
       <c r="C305" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E305" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>486</v>
-      </c>
-      <c r="B306" s="5" t="s">
-        <v>152</v>
+        <v>320</v>
+      </c>
+      <c r="B306" s="5">
+        <v>125000</v>
       </c>
       <c r="C306" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E306" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>487</v>
-      </c>
-      <c r="B307" s="5" t="s">
-        <v>153</v>
+        <v>321</v>
+      </c>
+      <c r="B307" s="5">
+        <v>89000</v>
       </c>
       <c r="C307" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E307" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>488</v>
-      </c>
-      <c r="B308" s="5" t="s">
-        <v>154</v>
+        <v>322</v>
+      </c>
+      <c r="B308" s="5">
+        <v>49000</v>
       </c>
       <c r="C308" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E308" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>489</v>
-      </c>
-      <c r="B309" s="5" t="s">
-        <v>155</v>
+        <v>323</v>
+      </c>
+      <c r="B309" s="5">
+        <v>35000</v>
       </c>
       <c r="C309" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E309" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>490</v>
-      </c>
-      <c r="B310" s="5" t="s">
-        <v>156</v>
+        <v>324</v>
+      </c>
+      <c r="B310" s="5">
+        <v>184000</v>
       </c>
       <c r="C310" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E310" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>491</v>
-      </c>
-      <c r="B311" s="5" t="s">
-        <v>157</v>
+        <v>325</v>
+      </c>
+      <c r="B311" s="5">
+        <v>125000</v>
       </c>
       <c r="C311" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E311" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>492</v>
-      </c>
-      <c r="B312" s="5" t="s">
-        <v>158</v>
+        <v>326</v>
+      </c>
+      <c r="B312" s="5">
+        <v>90000</v>
       </c>
       <c r="C312" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E312" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>493</v>
-      </c>
-      <c r="B313" s="5" t="s">
-        <v>154</v>
+        <v>327</v>
+      </c>
+      <c r="B313" s="5">
+        <v>49000</v>
       </c>
       <c r="C313" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E313" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>494</v>
-      </c>
-      <c r="B314" s="5" t="s">
-        <v>159</v>
+        <v>328</v>
+      </c>
+      <c r="B314" s="5">
+        <v>470000</v>
       </c>
       <c r="C314" t="s">
         <v>16</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E314" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>495</v>
-      </c>
-      <c r="B315" s="5" t="s">
-        <v>160</v>
+        <v>329</v>
+      </c>
+      <c r="B315" s="5">
+        <v>345000</v>
       </c>
       <c r="C315" t="s">
         <v>16</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E315" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>496</v>
-      </c>
-      <c r="B316" s="5" t="s">
-        <v>161</v>
+        <v>330</v>
+      </c>
+      <c r="B316" s="5">
+        <v>315000</v>
       </c>
       <c r="C316" t="s">
         <v>16</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E316" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>497</v>
-      </c>
-      <c r="B317" s="5" t="s">
-        <v>162</v>
+        <v>331</v>
+      </c>
+      <c r="B317" s="5">
+        <v>255000</v>
       </c>
       <c r="C317" t="s">
         <v>16</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E317" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>498</v>
-      </c>
-      <c r="B318" s="5" t="s">
-        <v>163</v>
+        <v>332</v>
+      </c>
+      <c r="B318" s="5">
+        <v>399000</v>
       </c>
       <c r="C318" t="s">
         <v>16</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E318" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>499</v>
-      </c>
-      <c r="B319" s="5" t="s">
-        <v>164</v>
+        <v>333</v>
+      </c>
+      <c r="B319" s="5">
+        <v>155000</v>
       </c>
       <c r="C319" t="s">
         <v>16</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E319" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>500</v>
-      </c>
-      <c r="B320" s="5" t="s">
-        <v>99</v>
+        <v>334</v>
+      </c>
+      <c r="B320" s="5">
+        <v>145000</v>
       </c>
       <c r="C320" t="s">
         <v>16</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E320" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>501</v>
-      </c>
-      <c r="B321" s="5" t="s">
-        <v>165</v>
+        <v>335</v>
+      </c>
+      <c r="B321" s="5">
+        <v>146000</v>
       </c>
       <c r="C321" t="s">
         <v>16</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E321" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>502</v>
-      </c>
-      <c r="B322" s="5" t="s">
-        <v>166</v>
+        <v>336</v>
+      </c>
+      <c r="B322" s="5">
+        <v>189000</v>
       </c>
       <c r="C322" t="s">
         <v>16</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E322" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>503</v>
-      </c>
-      <c r="B323" s="5" t="s">
-        <v>167</v>
+        <v>337</v>
+      </c>
+      <c r="B323" s="5">
+        <v>107000</v>
       </c>
       <c r="C323" t="s">
         <v>16</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E323" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>504</v>
-      </c>
-      <c r="B324" s="5" t="s">
-        <v>168</v>
+        <v>338</v>
+      </c>
+      <c r="B324" s="5">
+        <v>95000</v>
       </c>
       <c r="C324" t="s">
         <v>16</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E324" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>505</v>
-      </c>
-      <c r="B325" s="5" t="s">
-        <v>86</v>
+        <v>339</v>
+      </c>
+      <c r="B325" s="5">
+        <v>98000</v>
       </c>
       <c r="C325" t="s">
         <v>16</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E325" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>506</v>
-      </c>
-      <c r="B326" s="5" t="s">
-        <v>169</v>
+        <v>340</v>
+      </c>
+      <c r="B326" s="5">
+        <v>115000</v>
       </c>
       <c r="C326" t="s">
         <v>16</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E326" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>507</v>
-      </c>
-      <c r="B327" s="5" t="s">
-        <v>170</v>
+        <v>341</v>
+      </c>
+      <c r="B327" s="5">
+        <v>215000</v>
       </c>
       <c r="C327" t="s">
         <v>16</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E327" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>508</v>
-      </c>
-      <c r="B328" s="5" t="s">
-        <v>171</v>
+        <v>342</v>
+      </c>
+      <c r="B328" s="5">
+        <v>136000</v>
       </c>
       <c r="C328" t="s">
         <v>16</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E328" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>509</v>
-      </c>
-      <c r="B329" s="5" t="s">
-        <v>172</v>
+        <v>343</v>
+      </c>
+      <c r="B329" s="5">
+        <v>380000</v>
       </c>
       <c r="C329" t="s">
         <v>11</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E329" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>510</v>
-      </c>
-      <c r="B330" s="5" t="s">
-        <v>173</v>
+        <v>344</v>
+      </c>
+      <c r="B330" s="5">
+        <v>450000</v>
       </c>
       <c r="C330" t="s">
         <v>11</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E330" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>511</v>
-      </c>
-      <c r="B331" s="5" t="s">
-        <v>174</v>
+        <v>345</v>
+      </c>
+      <c r="B331" s="5">
+        <v>310000</v>
       </c>
       <c r="C331" t="s">
         <v>11</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E331" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>512</v>
-      </c>
-      <c r="B332" s="5" t="s">
-        <v>175</v>
+        <v>346</v>
+      </c>
+      <c r="B332" s="5">
+        <v>293000</v>
       </c>
       <c r="C332" t="s">
         <v>11</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E332" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>513</v>
-      </c>
-      <c r="B333" s="5" t="s">
-        <v>176</v>
+        <v>347</v>
+      </c>
+      <c r="B333" s="5">
+        <v>253000</v>
       </c>
       <c r="C333" t="s">
         <v>11</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E333" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>514</v>
-      </c>
-      <c r="B334" s="5" t="s">
-        <v>177</v>
+        <v>348</v>
+      </c>
+      <c r="B334" s="5">
+        <v>200000</v>
       </c>
       <c r="C334" t="s">
         <v>11</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E334" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>515</v>
-      </c>
-      <c r="B335" s="5" t="s">
-        <v>178</v>
+        <v>349</v>
+      </c>
+      <c r="B335" s="5">
+        <v>145000</v>
       </c>
       <c r="C335" t="s">
         <v>11</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E335" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>516</v>
-      </c>
-      <c r="B336" s="5" t="s">
-        <v>179</v>
+        <v>350</v>
+      </c>
+      <c r="B336" s="5">
+        <v>138000</v>
       </c>
       <c r="C336" t="s">
         <v>11</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E336" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>517</v>
-      </c>
-      <c r="B337" s="5" t="s">
-        <v>180</v>
+        <v>351</v>
+      </c>
+      <c r="B337" s="5">
+        <v>158000</v>
       </c>
       <c r="C337" t="s">
         <v>11</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E337" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>518</v>
-      </c>
-      <c r="B338" s="5" t="s">
-        <v>181</v>
+        <v>352</v>
+      </c>
+      <c r="B338" s="5">
+        <v>143000</v>
       </c>
       <c r="C338" t="s">
         <v>11</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E338" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>519</v>
-      </c>
-      <c r="B339" s="5" t="s">
-        <v>182</v>
+        <v>353</v>
+      </c>
+      <c r="B339" s="5">
+        <v>102000</v>
       </c>
       <c r="C339" t="s">
         <v>11</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E339" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>520</v>
-      </c>
-      <c r="B340" s="5" t="s">
-        <v>153</v>
+        <v>354</v>
+      </c>
+      <c r="B340" s="5">
+        <v>89000</v>
       </c>
       <c r="C340" t="s">
         <v>11</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E340" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>521</v>
-      </c>
-      <c r="B341" s="5" t="s">
-        <v>183</v>
+        <v>355</v>
+      </c>
+      <c r="B341" s="5">
+        <v>127000</v>
       </c>
       <c r="C341" t="s">
         <v>11</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E341" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>522</v>
-      </c>
-      <c r="B342" s="5" t="s">
-        <v>184</v>
+        <v>356</v>
+      </c>
+      <c r="B342" s="5">
+        <v>465000</v>
       </c>
       <c r="C342" t="s">
         <v>11</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E342" s="8" t="s">
-        <v>523</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/prices.xlsx
+++ b/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedemad/Downloads/phone_price_bot test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E88362F-D670-BF46-A77E-363DF8889123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206D5B25-AE5C-CB40-B5E2-BD884D2EAB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,36 +550,9 @@
     <t xml:space="preserve">Xiaomi Pad 7 Pro 12/512GB(Gray) </t>
   </si>
   <si>
-    <t>iPhone 16 Pro Max نسخة الشرق الاوسط  1TB</t>
-  </si>
-  <si>
-    <t>iPhone 16 ro Max نسخة الشرق الوسط 512GB</t>
-  </si>
-  <si>
-    <t>Phone 16 ro Max نسخة الشرق الاوسط 256GB</t>
-  </si>
-  <si>
-    <t>iPhone 16 Pro Max نسخة الدبل سيم كارت 1TB</t>
-  </si>
-  <si>
-    <t>iPhone 16 Pro Max نسخة الدبل سيم كارت 512GB</t>
-  </si>
-  <si>
-    <t>iPhone 16 Pro Max نسخة الدبل سيم كارت 256GB</t>
-  </si>
-  <si>
-    <t>iPhone 16 Pro نسخة الشرق التوسط 256GB</t>
-  </si>
-  <si>
     <t>iPhone 16 Pro 128GB</t>
   </si>
   <si>
-    <t>iPhone 16 Plus نسخة الشرق اللوسط 256GB</t>
-  </si>
-  <si>
-    <t>iPhone 16 Plus نسخة الشرق التوسط 128GB</t>
-  </si>
-  <si>
     <t>نسخة الشرق الأوسط iPhone 16 256GB</t>
   </si>
   <si>
@@ -1106,6 +1079,33 @@
   </si>
   <si>
     <t xml:space="preserve"> المنصور - شارع ١٤ رمصان - مقابل مطعم الساعه</t>
+  </si>
+  <si>
+    <t>iPhone 16 Pro Max   1TB نسخة الشرق الاوسط</t>
+  </si>
+  <si>
+    <t>iPhone 16 Pro Max  512GB نسخة الشرق الوسط</t>
+  </si>
+  <si>
+    <t>Phone 16 pro Max  256GB نسخة الشرق الاوسط</t>
+  </si>
+  <si>
+    <t>iPhone 16 Pro Max  1TB نسخة الدبل سيم كارت</t>
+  </si>
+  <si>
+    <t>iPhone 16 Pro Max  512GB نسخة الدبل سيم كارت</t>
+  </si>
+  <si>
+    <t>iPhone 16 Pro Max  256GB نسخة الدبل سيم كارت</t>
+  </si>
+  <si>
+    <t>iPhone 16 Pro  256GB نسخة الشرق التوسط</t>
+  </si>
+  <si>
+    <t>iPhone 16 Plus  256GB نسخة الشرق اللوسط</t>
+  </si>
+  <si>
+    <t>iPhone 16 Plus  128GB نسخة الشرق التوسط</t>
   </si>
 </sst>
 </file>
@@ -1500,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J342"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
+    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="156" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>172</v>
+        <v>349</v>
       </c>
       <c r="B156" s="5">
         <v>2295000</v>
@@ -4164,12 +4164,12 @@
         <v>21</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>173</v>
+        <v>350</v>
       </c>
       <c r="B157" s="5">
         <v>1975000</v>
@@ -4181,14 +4181,14 @@
         <v>21</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
     </row>
     <row r="158" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>174</v>
+        <v>351</v>
       </c>
       <c r="B158" s="5">
         <v>1620000</v>
@@ -4200,12 +4200,12 @@
         <v>21</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>175</v>
+        <v>352</v>
       </c>
       <c r="B159" s="5">
         <v>2185000</v>
@@ -4217,12 +4217,12 @@
         <v>21</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>176</v>
+        <v>353</v>
       </c>
       <c r="B160" s="5">
         <v>1970000</v>
@@ -4234,12 +4234,12 @@
         <v>21</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>177</v>
+        <v>354</v>
       </c>
       <c r="B161" s="5">
         <v>1700000</v>
@@ -4251,12 +4251,12 @@
         <v>21</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>178</v>
+        <v>355</v>
       </c>
       <c r="B162" s="5">
         <v>1555000</v>
@@ -4268,12 +4268,12 @@
         <v>21</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B163" s="5">
         <v>1400000</v>
@@ -4285,12 +4285,12 @@
         <v>21</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>180</v>
+        <v>356</v>
       </c>
       <c r="B164" s="5">
         <v>1365000</v>
@@ -4302,12 +4302,12 @@
         <v>21</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>181</v>
+        <v>357</v>
       </c>
       <c r="B165" s="5">
         <v>1215000</v>
@@ -4319,12 +4319,12 @@
         <v>21</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B166" s="5">
         <v>1215000</v>
@@ -4336,12 +4336,12 @@
         <v>21</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B167" s="5">
         <v>1065000</v>
@@ -4353,12 +4353,12 @@
         <v>21</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B168" s="5">
         <v>895000</v>
@@ -4370,12 +4370,12 @@
         <v>21</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B169" s="5">
         <v>1080000</v>
@@ -4387,12 +4387,12 @@
         <v>21</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B170" s="5">
         <v>600000</v>
@@ -4404,12 +4404,12 @@
         <v>21</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B171" s="5">
         <v>2650000</v>
@@ -4421,12 +4421,12 @@
         <v>21</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B172" s="5">
         <v>1850000</v>
@@ -4438,14 +4438,14 @@
         <v>21</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
     </row>
     <row r="173" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B173" s="5">
         <v>1499000</v>
@@ -4457,14 +4457,14 @@
         <v>21</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
     <row r="174" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B174" s="5">
         <v>1620000</v>
@@ -4476,14 +4476,14 @@
         <v>21</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
     <row r="175" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B175" s="5">
         <v>1205000</v>
@@ -4495,14 +4495,14 @@
         <v>21</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
     </row>
     <row r="176" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B176" s="5">
         <v>1620000</v>
@@ -4514,14 +4514,14 @@
         <v>21</v>
       </c>
       <c r="E176" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
     </row>
     <row r="177" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B177" s="5">
         <v>1050000</v>
@@ -4533,12 +4533,12 @@
         <v>21</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B178" s="5">
         <v>730000</v>
@@ -4550,12 +4550,12 @@
         <v>21</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B179" s="5">
         <v>860000</v>
@@ -4567,12 +4567,12 @@
         <v>21</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B180" s="5">
         <v>560000</v>
@@ -4584,12 +4584,12 @@
         <v>21</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B181" s="5">
         <v>435000</v>
@@ -4601,12 +4601,12 @@
         <v>21</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B182" s="5">
         <v>495000</v>
@@ -4618,12 +4618,12 @@
         <v>21</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B183" s="5">
         <v>405000</v>
@@ -4635,12 +4635,12 @@
         <v>21</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B184" s="5">
         <v>595000</v>
@@ -4652,12 +4652,12 @@
         <v>21</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B185" s="5">
         <v>2499000</v>
@@ -4669,12 +4669,12 @@
         <v>21</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B186" s="5">
         <v>1479000</v>
@@ -4686,12 +4686,12 @@
         <v>21</v>
       </c>
       <c r="E186" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B187" s="5">
         <v>1450000</v>
@@ -4703,12 +4703,12 @@
         <v>21</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B188" s="5">
         <v>1300000</v>
@@ -4720,12 +4720,12 @@
         <v>21</v>
       </c>
       <c r="E188" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B189" s="5">
         <v>1250000</v>
@@ -4737,12 +4737,12 @@
         <v>21</v>
       </c>
       <c r="E189" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B190" s="5">
         <v>1150000</v>
@@ -4754,12 +4754,12 @@
         <v>21</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B191" s="5">
         <v>570000</v>
@@ -4771,12 +4771,12 @@
         <v>21</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B192" s="5">
         <v>450000</v>
@@ -4788,12 +4788,12 @@
         <v>21</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B193" s="5">
         <v>395000</v>
@@ -4805,12 +4805,12 @@
         <v>21</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B194" s="5">
         <v>435000</v>
@@ -4822,12 +4822,12 @@
         <v>21</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B195" s="5">
         <v>210000</v>
@@ -4839,12 +4839,12 @@
         <v>21</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B196" s="5">
         <v>185000</v>
@@ -4856,13 +4856,13 @@
         <v>21</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="I196" s="4"/>
     </row>
     <row r="197" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B197" s="5">
         <v>135000</v>
@@ -4874,13 +4874,13 @@
         <v>21</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="I197" s="4"/>
     </row>
     <row r="198" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B198" s="5">
         <v>70000</v>
@@ -4892,13 +4892,13 @@
         <v>21</v>
       </c>
       <c r="E198" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="I198" s="4"/>
     </row>
     <row r="199" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B199" s="5">
         <v>70000</v>
@@ -4910,13 +4910,13 @@
         <v>21</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="I199" s="4"/>
     </row>
     <row r="200" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B200" s="5">
         <v>30000</v>
@@ -4928,13 +4928,13 @@
         <v>21</v>
       </c>
       <c r="E200" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="I200" s="4"/>
     </row>
     <row r="201" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B201" s="5">
         <v>1890000</v>
@@ -4946,13 +4946,13 @@
         <v>21</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="I201" s="4"/>
     </row>
     <row r="202" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B202" s="5">
         <v>1650000</v>
@@ -4964,13 +4964,13 @@
         <v>21</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="I202" s="4"/>
     </row>
     <row r="203" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B203" s="5">
         <v>1440000</v>
@@ -4982,13 +4982,13 @@
         <v>21</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="I203" s="4"/>
     </row>
     <row r="204" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B204" s="5"/>
       <c r="C204" s="1" t="s">
@@ -4998,13 +4998,13 @@
         <v>21</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="I204" s="4"/>
     </row>
     <row r="205" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B205" s="5">
         <v>1520000</v>
@@ -5016,13 +5016,13 @@
         <v>21</v>
       </c>
       <c r="E205" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="I205" s="4"/>
     </row>
     <row r="206" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B206" s="5">
         <v>1410000</v>
@@ -5034,12 +5034,12 @@
         <v>21</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B207" s="5">
         <v>1580000</v>
@@ -5051,12 +5051,12 @@
         <v>21</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B208" s="5">
         <v>1190000</v>
@@ -5068,12 +5068,12 @@
         <v>21</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B209" s="5">
         <v>395000</v>
@@ -5085,12 +5085,12 @@
         <v>21</v>
       </c>
       <c r="E209" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B210" s="5">
         <v>1050000</v>
@@ -5102,12 +5102,12 @@
         <v>21</v>
       </c>
       <c r="E210" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B211" s="5">
         <v>940000</v>
@@ -5119,12 +5119,12 @@
         <v>21</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B212" s="5">
         <v>800000</v>
@@ -5136,12 +5136,12 @@
         <v>21</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B213" s="5">
         <v>940000</v>
@@ -5153,12 +5153,12 @@
         <v>21</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B214" s="5">
         <v>640000</v>
@@ -5170,12 +5170,12 @@
         <v>21</v>
       </c>
       <c r="E214" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B215" s="5">
         <v>780000</v>
@@ -5187,12 +5187,12 @@
         <v>21</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B216" s="5">
         <v>900000</v>
@@ -5204,12 +5204,12 @@
         <v>21</v>
       </c>
       <c r="E216" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B217" s="5">
         <v>548000</v>
@@ -5221,12 +5221,12 @@
         <v>21</v>
       </c>
       <c r="E217" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B218" s="5">
         <v>502000</v>
@@ -5238,12 +5238,12 @@
         <v>21</v>
       </c>
       <c r="E218" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B219" s="5">
         <v>423000</v>
@@ -5255,12 +5255,12 @@
         <v>21</v>
       </c>
       <c r="E219" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B220" s="5">
         <v>387000</v>
@@ -5272,12 +5272,12 @@
         <v>21</v>
       </c>
       <c r="E220" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B221" s="5">
         <v>349000</v>
@@ -5289,12 +5289,12 @@
         <v>21</v>
       </c>
       <c r="E221" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B222" s="5">
         <v>295000</v>
@@ -5306,12 +5306,12 @@
         <v>21</v>
       </c>
       <c r="E222" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B223" s="5">
         <v>222000</v>
@@ -5323,12 +5323,12 @@
         <v>21</v>
       </c>
       <c r="E223" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B224" s="5">
         <v>183000</v>
@@ -5340,12 +5340,12 @@
         <v>21</v>
       </c>
       <c r="E224" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B225" s="5">
         <v>161000</v>
@@ -5357,12 +5357,12 @@
         <v>21</v>
       </c>
       <c r="E225" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B226" s="5">
         <v>132000</v>
@@ -5374,12 +5374,12 @@
         <v>21</v>
       </c>
       <c r="E226" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B227" s="5">
         <v>115000</v>
@@ -5391,12 +5391,12 @@
         <v>21</v>
       </c>
       <c r="E227" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B228" s="5">
         <v>98000</v>
@@ -5408,12 +5408,12 @@
         <v>21</v>
       </c>
       <c r="E228" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B229" s="5">
         <v>400000</v>
@@ -5425,12 +5425,12 @@
         <v>21</v>
       </c>
       <c r="E229" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B230" s="5">
         <v>1290000</v>
@@ -5442,12 +5442,12 @@
         <v>21</v>
       </c>
       <c r="E230" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B231" s="5">
         <v>2050000</v>
@@ -5459,12 +5459,12 @@
         <v>21</v>
       </c>
       <c r="E231" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B232" s="5">
         <v>800000</v>
@@ -5476,12 +5476,12 @@
         <v>21</v>
       </c>
       <c r="E232" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B233" s="5">
         <v>480000</v>
@@ -5493,12 +5493,12 @@
         <v>21</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B234" s="5">
         <v>270000</v>
@@ -5510,12 +5510,12 @@
         <v>21</v>
       </c>
       <c r="E234" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B235" s="5">
         <v>350000</v>
@@ -5527,12 +5527,12 @@
         <v>21</v>
       </c>
       <c r="E235" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B236" s="5">
         <v>325000</v>
@@ -5544,12 +5544,12 @@
         <v>21</v>
       </c>
       <c r="E236" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B237" s="5">
         <v>325000</v>
@@ -5561,12 +5561,12 @@
         <v>21</v>
       </c>
       <c r="E237" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B238" s="5">
         <v>280000</v>
@@ -5578,12 +5578,12 @@
         <v>21</v>
       </c>
       <c r="E238" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B239" s="5">
         <v>230000</v>
@@ -5595,12 +5595,12 @@
         <v>21</v>
       </c>
       <c r="E239" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B240" s="5">
         <v>180000</v>
@@ -5612,12 +5612,12 @@
         <v>21</v>
       </c>
       <c r="E240" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B241" s="5">
         <v>145000</v>
@@ -5629,12 +5629,12 @@
         <v>21</v>
       </c>
       <c r="E241" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B242" s="5">
         <v>135000</v>
@@ -5646,12 +5646,12 @@
         <v>21</v>
       </c>
       <c r="E242" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B243" s="5">
         <v>799000</v>
@@ -5663,12 +5663,12 @@
         <v>21</v>
       </c>
       <c r="E243" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B244" s="5">
         <v>398000</v>
@@ -5680,12 +5680,12 @@
         <v>21</v>
       </c>
       <c r="E244" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B245" s="5">
         <v>335000</v>
@@ -5697,12 +5697,12 @@
         <v>21</v>
       </c>
       <c r="E245" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B246" s="5">
         <v>265000</v>
@@ -5714,12 +5714,12 @@
         <v>21</v>
       </c>
       <c r="E246" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B247" s="5">
         <v>295000</v>
@@ -5731,12 +5731,12 @@
         <v>21</v>
       </c>
       <c r="E247" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B248" s="5">
         <v>210000</v>
@@ -5748,12 +5748,12 @@
         <v>21</v>
       </c>
       <c r="E248" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B249" s="5">
         <v>182000</v>
@@ -5765,12 +5765,12 @@
         <v>21</v>
       </c>
       <c r="E249" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B250" s="5">
         <v>180000</v>
@@ -5782,12 +5782,12 @@
         <v>21</v>
       </c>
       <c r="E250" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B251" s="5">
         <v>114000</v>
@@ -5799,12 +5799,12 @@
         <v>21</v>
       </c>
       <c r="E251" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B252" s="5">
         <v>615000</v>
@@ -5816,12 +5816,12 @@
         <v>21</v>
       </c>
       <c r="E252" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B253" s="5">
         <v>45000</v>
@@ -5833,12 +5833,12 @@
         <v>21</v>
       </c>
       <c r="E253" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B254" s="5">
         <v>1400000</v>
@@ -5850,12 +5850,12 @@
         <v>21</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B255" s="5">
         <v>980000</v>
@@ -5867,12 +5867,12 @@
         <v>21</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B256" s="5">
         <v>745000</v>
@@ -5884,12 +5884,12 @@
         <v>21</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B257" s="5">
         <v>501000</v>
@@ -5901,12 +5901,12 @@
         <v>21</v>
       </c>
       <c r="E257" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B258" s="5">
         <v>418000</v>
@@ -5918,12 +5918,12 @@
         <v>21</v>
       </c>
       <c r="E258" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B259" s="5">
         <v>356000</v>
@@ -5935,12 +5935,12 @@
         <v>21</v>
       </c>
       <c r="E259" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B260" s="5">
         <v>347000</v>
@@ -5952,12 +5952,12 @@
         <v>21</v>
       </c>
       <c r="E260" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B261" s="5">
         <v>287000</v>
@@ -5969,12 +5969,12 @@
         <v>21</v>
       </c>
       <c r="E261" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B262" s="5">
         <v>268000</v>
@@ -5986,12 +5986,12 @@
         <v>21</v>
       </c>
       <c r="E262" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B263" s="5">
         <v>222000</v>
@@ -6003,12 +6003,12 @@
         <v>21</v>
       </c>
       <c r="E263" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B264" s="5">
         <v>164000</v>
@@ -6020,12 +6020,12 @@
         <v>21</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B265" s="5">
         <v>148000</v>
@@ -6037,12 +6037,12 @@
         <v>21</v>
       </c>
       <c r="E265" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B266" s="5">
         <v>103000</v>
@@ -6054,12 +6054,12 @@
         <v>21</v>
       </c>
       <c r="E266" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B267" s="5">
         <v>88000</v>
@@ -6071,12 +6071,12 @@
         <v>21</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B268" s="5">
         <v>927000</v>
@@ -6088,12 +6088,12 @@
         <v>21</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B269" s="5">
         <v>687000</v>
@@ -6105,12 +6105,12 @@
         <v>21</v>
       </c>
       <c r="E269" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B270" s="5">
         <v>559000</v>
@@ -6122,12 +6122,12 @@
         <v>21</v>
       </c>
       <c r="E270" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B271" s="5">
         <v>495000</v>
@@ -6139,12 +6139,12 @@
         <v>21</v>
       </c>
       <c r="E271" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B272" s="5">
         <v>459000</v>
@@ -6156,12 +6156,12 @@
         <v>21</v>
       </c>
       <c r="E272" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B273" s="5">
         <v>415000</v>
@@ -6173,12 +6173,12 @@
         <v>21</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B274" s="5">
         <v>360000</v>
@@ -6190,12 +6190,12 @@
         <v>21</v>
       </c>
       <c r="E274" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B275" s="5">
         <v>304000</v>
@@ -6207,12 +6207,12 @@
         <v>21</v>
       </c>
       <c r="E275" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B276" s="5">
         <v>276000</v>
@@ -6224,12 +6224,12 @@
         <v>21</v>
       </c>
       <c r="E276" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B277" s="5">
         <v>148000</v>
@@ -6241,12 +6241,12 @@
         <v>21</v>
       </c>
       <c r="E277" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B278" s="5">
         <v>105000</v>
@@ -6258,12 +6258,12 @@
         <v>21</v>
       </c>
       <c r="E278" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B279" s="5">
         <v>664000</v>
@@ -6275,12 +6275,12 @@
         <v>21</v>
       </c>
       <c r="E279" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B280" s="5">
         <v>507000</v>
@@ -6292,12 +6292,12 @@
         <v>21</v>
       </c>
       <c r="E280" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B281" s="5">
         <v>461000</v>
@@ -6309,12 +6309,12 @@
         <v>21</v>
       </c>
       <c r="E281" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B282" s="5">
         <v>710000</v>
@@ -6326,12 +6326,12 @@
         <v>21</v>
       </c>
       <c r="E282" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B283" s="5">
         <v>321000</v>
@@ -6343,12 +6343,12 @@
         <v>21</v>
       </c>
       <c r="E283" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B284" s="5">
         <v>265000</v>
@@ -6360,12 +6360,12 @@
         <v>21</v>
       </c>
       <c r="E284" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B285" s="5">
         <v>252000</v>
@@ -6377,12 +6377,12 @@
         <v>21</v>
       </c>
       <c r="E285" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B286" s="5">
         <v>229000</v>
@@ -6394,12 +6394,12 @@
         <v>21</v>
       </c>
       <c r="E286" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B287" s="5">
         <v>192000</v>
@@ -6411,12 +6411,12 @@
         <v>21</v>
       </c>
       <c r="E287" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B288" s="5">
         <v>314000</v>
@@ -6428,12 +6428,12 @@
         <v>21</v>
       </c>
       <c r="E288" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B289" s="5">
         <v>1495000</v>
@@ -6445,12 +6445,12 @@
         <v>21</v>
       </c>
       <c r="E289" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B290" s="5">
         <v>1183000</v>
@@ -6462,12 +6462,12 @@
         <v>21</v>
       </c>
       <c r="E290" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B291" s="5">
         <v>652000</v>
@@ -6479,12 +6479,12 @@
         <v>21</v>
       </c>
       <c r="E291" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B292" s="5">
         <v>435000</v>
@@ -6496,12 +6496,12 @@
         <v>21</v>
       </c>
       <c r="E292" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B293" s="5">
         <v>283000</v>
@@ -6513,12 +6513,12 @@
         <v>21</v>
       </c>
       <c r="E293" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B294" s="5">
         <v>193000</v>
@@ -6530,12 +6530,12 @@
         <v>21</v>
       </c>
       <c r="E294" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B295" s="5">
         <v>268000</v>
@@ -6547,12 +6547,12 @@
         <v>21</v>
       </c>
       <c r="E295" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B296" s="5">
         <v>170000</v>
@@ -6564,12 +6564,12 @@
         <v>21</v>
       </c>
       <c r="E296" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B297" s="5">
         <v>237000</v>
@@ -6581,12 +6581,12 @@
         <v>21</v>
       </c>
       <c r="E297" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B298" s="5">
         <v>268000</v>
@@ -6598,12 +6598,12 @@
         <v>21</v>
       </c>
       <c r="E298" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B299" s="5">
         <v>810000</v>
@@ -6615,12 +6615,12 @@
         <v>21</v>
       </c>
       <c r="E299" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B300" s="5">
         <v>590000</v>
@@ -6632,12 +6632,12 @@
         <v>21</v>
       </c>
       <c r="E300" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B301" s="5">
         <v>590000</v>
@@ -6649,12 +6649,12 @@
         <v>21</v>
       </c>
       <c r="E301" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B302" s="5">
         <v>810000</v>
@@ -6666,12 +6666,12 @@
         <v>21</v>
       </c>
       <c r="E302" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B303" s="5">
         <v>745000</v>
@@ -6683,12 +6683,12 @@
         <v>21</v>
       </c>
       <c r="E303" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B304" s="5">
         <v>223000</v>
@@ -6700,12 +6700,12 @@
         <v>21</v>
       </c>
       <c r="E304" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B305" s="5">
         <v>169000</v>
@@ -6717,12 +6717,12 @@
         <v>21</v>
       </c>
       <c r="E305" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B306" s="5">
         <v>125000</v>
@@ -6734,12 +6734,12 @@
         <v>21</v>
       </c>
       <c r="E306" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B307" s="5">
         <v>89000</v>
@@ -6751,12 +6751,12 @@
         <v>21</v>
       </c>
       <c r="E307" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B308" s="5">
         <v>49000</v>
@@ -6768,12 +6768,12 @@
         <v>21</v>
       </c>
       <c r="E308" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B309" s="5">
         <v>35000</v>
@@ -6785,12 +6785,12 @@
         <v>21</v>
       </c>
       <c r="E309" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B310" s="5">
         <v>184000</v>
@@ -6802,12 +6802,12 @@
         <v>21</v>
       </c>
       <c r="E310" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B311" s="5">
         <v>125000</v>
@@ -6819,12 +6819,12 @@
         <v>21</v>
       </c>
       <c r="E311" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B312" s="5">
         <v>90000</v>
@@ -6836,12 +6836,12 @@
         <v>21</v>
       </c>
       <c r="E312" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B313" s="5">
         <v>49000</v>
@@ -6853,12 +6853,12 @@
         <v>21</v>
       </c>
       <c r="E313" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B314" s="5">
         <v>470000</v>
@@ -6870,12 +6870,12 @@
         <v>21</v>
       </c>
       <c r="E314" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B315" s="5">
         <v>345000</v>
@@ -6887,12 +6887,12 @@
         <v>21</v>
       </c>
       <c r="E315" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B316" s="5">
         <v>315000</v>
@@ -6904,12 +6904,12 @@
         <v>21</v>
       </c>
       <c r="E316" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B317" s="5">
         <v>255000</v>
@@ -6921,12 +6921,12 @@
         <v>21</v>
       </c>
       <c r="E317" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B318" s="5">
         <v>399000</v>
@@ -6938,12 +6938,12 @@
         <v>21</v>
       </c>
       <c r="E318" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B319" s="5">
         <v>155000</v>
@@ -6955,12 +6955,12 @@
         <v>21</v>
       </c>
       <c r="E319" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B320" s="5">
         <v>145000</v>
@@ -6972,12 +6972,12 @@
         <v>21</v>
       </c>
       <c r="E320" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B321" s="5">
         <v>146000</v>
@@ -6989,12 +6989,12 @@
         <v>21</v>
       </c>
       <c r="E321" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B322" s="5">
         <v>189000</v>
@@ -7006,12 +7006,12 @@
         <v>21</v>
       </c>
       <c r="E322" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B323" s="5">
         <v>107000</v>
@@ -7023,12 +7023,12 @@
         <v>21</v>
       </c>
       <c r="E323" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B324" s="5">
         <v>95000</v>
@@ -7040,12 +7040,12 @@
         <v>21</v>
       </c>
       <c r="E324" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B325" s="5">
         <v>98000</v>
@@ -7057,12 +7057,12 @@
         <v>21</v>
       </c>
       <c r="E325" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B326" s="5">
         <v>115000</v>
@@ -7074,12 +7074,12 @@
         <v>21</v>
       </c>
       <c r="E326" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B327" s="5">
         <v>215000</v>
@@ -7091,12 +7091,12 @@
         <v>21</v>
       </c>
       <c r="E327" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B328" s="5">
         <v>136000</v>
@@ -7108,12 +7108,12 @@
         <v>21</v>
       </c>
       <c r="E328" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B329" s="5">
         <v>380000</v>
@@ -7125,12 +7125,12 @@
         <v>21</v>
       </c>
       <c r="E329" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B330" s="5">
         <v>450000</v>
@@ -7142,12 +7142,12 @@
         <v>21</v>
       </c>
       <c r="E330" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B331" s="5">
         <v>310000</v>
@@ -7159,12 +7159,12 @@
         <v>21</v>
       </c>
       <c r="E331" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B332" s="5">
         <v>293000</v>
@@ -7176,12 +7176,12 @@
         <v>21</v>
       </c>
       <c r="E332" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B333" s="5">
         <v>253000</v>
@@ -7193,12 +7193,12 @@
         <v>21</v>
       </c>
       <c r="E333" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B334" s="5">
         <v>200000</v>
@@ -7210,12 +7210,12 @@
         <v>21</v>
       </c>
       <c r="E334" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B335" s="5">
         <v>145000</v>
@@ -7227,12 +7227,12 @@
         <v>21</v>
       </c>
       <c r="E335" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B336" s="5">
         <v>138000</v>
@@ -7244,12 +7244,12 @@
         <v>21</v>
       </c>
       <c r="E336" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B337" s="5">
         <v>158000</v>
@@ -7261,12 +7261,12 @@
         <v>21</v>
       </c>
       <c r="E337" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B338" s="5">
         <v>143000</v>
@@ -7278,12 +7278,12 @@
         <v>21</v>
       </c>
       <c r="E338" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B339" s="5">
         <v>102000</v>
@@ -7295,12 +7295,12 @@
         <v>21</v>
       </c>
       <c r="E339" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B340" s="5">
         <v>89000</v>
@@ -7312,12 +7312,12 @@
         <v>21</v>
       </c>
       <c r="E340" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B341" s="5">
         <v>127000</v>
@@ -7329,12 +7329,12 @@
         <v>21</v>
       </c>
       <c r="E341" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B342" s="5">
         <v>465000</v>
@@ -7346,7 +7346,7 @@
         <v>21</v>
       </c>
       <c r="E342" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/prices.xlsx
+++ b/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedemad/Downloads/phone_price_bot test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206D5B25-AE5C-CB40-B5E2-BD884D2EAB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AD7141-FAB0-4746-AECE-025EDA1BA214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,9 +553,6 @@
     <t>iPhone 16 Pro 128GB</t>
   </si>
   <si>
-    <t>نسخة الشرق الأوسط iPhone 16 256GB</t>
-  </si>
-  <si>
     <t>iPhone 16 128GB</t>
   </si>
   <si>
@@ -1081,31 +1078,34 @@
     <t xml:space="preserve"> المنصور - شارع ١٤ رمصان - مقابل مطعم الساعه</t>
   </si>
   <si>
-    <t>iPhone 16 Pro Max   1TB نسخة الشرق الاوسط</t>
-  </si>
-  <si>
-    <t>iPhone 16 Pro Max  512GB نسخة الشرق الوسط</t>
-  </si>
-  <si>
-    <t>Phone 16 pro Max  256GB نسخة الشرق الاوسط</t>
-  </si>
-  <si>
-    <t>iPhone 16 Pro Max  1TB نسخة الدبل سيم كارت</t>
-  </si>
-  <si>
-    <t>iPhone 16 Pro Max  512GB نسخة الدبل سيم كارت</t>
-  </si>
-  <si>
-    <t>iPhone 16 Pro Max  256GB نسخة الدبل سيم كارت</t>
-  </si>
-  <si>
-    <t>iPhone 16 Pro  256GB نسخة الشرق التوسط</t>
-  </si>
-  <si>
-    <t>iPhone 16 Plus  256GB نسخة الشرق اللوسط</t>
-  </si>
-  <si>
-    <t>iPhone 16 Plus  128GB نسخة الشرق التوسط</t>
+    <t xml:space="preserve">iPhone 16 Pro Max   1TB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone 16 pro Max  256GB </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iPhone 16 256GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPhone 16 Plus  256GB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPhone 16 Plus  128GB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPhone 16 Pro  256GB </t>
+  </si>
+  <si>
+    <t>iPhone 16 Pro Max  512GB DSIM</t>
+  </si>
+  <si>
+    <t>iPhone 16 Pro Max  256GB DSIM</t>
+  </si>
+  <si>
+    <t>iPhone 16 Pro Max  1TB DSIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPhone 16 Pro Max  512GB </t>
   </si>
 </sst>
 </file>
@@ -1500,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="156" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B156" s="5">
         <v>2295000</v>
@@ -4164,12 +4164,12 @@
         <v>21</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B157" s="5">
         <v>1975000</v>
@@ -4181,14 +4181,14 @@
         <v>21</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
     </row>
     <row r="158" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B158" s="5">
         <v>1620000</v>
@@ -4200,12 +4200,12 @@
         <v>21</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B159" s="5">
         <v>2185000</v>
@@ -4217,12 +4217,12 @@
         <v>21</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B160" s="5">
         <v>1970000</v>
@@ -4234,12 +4234,12 @@
         <v>21</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B161" s="5">
         <v>1700000</v>
@@ -4251,12 +4251,12 @@
         <v>21</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B162" s="5">
         <v>1555000</v>
@@ -4268,7 +4268,7 @@
         <v>21</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -4285,12 +4285,12 @@
         <v>21</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B164" s="5">
         <v>1365000</v>
@@ -4302,12 +4302,12 @@
         <v>21</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B165" s="5">
         <v>1215000</v>
@@ -4319,12 +4319,12 @@
         <v>21</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
-        <v>173</v>
+        <v>350</v>
       </c>
       <c r="B166" s="5">
         <v>1215000</v>
@@ -4336,12 +4336,12 @@
         <v>21</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B167" s="5">
         <v>1065000</v>
@@ -4353,12 +4353,12 @@
         <v>21</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B168" s="5">
         <v>895000</v>
@@ -4370,12 +4370,12 @@
         <v>21</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B169" s="5">
         <v>1080000</v>
@@ -4387,12 +4387,12 @@
         <v>21</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B170" s="5">
         <v>600000</v>
@@ -4404,12 +4404,12 @@
         <v>21</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B171" s="5">
         <v>2650000</v>
@@ -4421,12 +4421,12 @@
         <v>21</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B172" s="5">
         <v>1850000</v>
@@ -4438,14 +4438,14 @@
         <v>21</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
     </row>
     <row r="173" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B173" s="5">
         <v>1499000</v>
@@ -4457,14 +4457,14 @@
         <v>21</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
     <row r="174" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B174" s="5">
         <v>1620000</v>
@@ -4476,14 +4476,14 @@
         <v>21</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
     <row r="175" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B175" s="5">
         <v>1205000</v>
@@ -4495,14 +4495,14 @@
         <v>21</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
     </row>
     <row r="176" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B176" s="5">
         <v>1620000</v>
@@ -4514,14 +4514,14 @@
         <v>21</v>
       </c>
       <c r="E176" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
     </row>
     <row r="177" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B177" s="5">
         <v>1050000</v>
@@ -4533,12 +4533,12 @@
         <v>21</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B178" s="5">
         <v>730000</v>
@@ -4550,12 +4550,12 @@
         <v>21</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B179" s="5">
         <v>860000</v>
@@ -4567,12 +4567,12 @@
         <v>21</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B180" s="5">
         <v>560000</v>
@@ -4584,12 +4584,12 @@
         <v>21</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B181" s="5">
         <v>435000</v>
@@ -4601,12 +4601,12 @@
         <v>21</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B182" s="5">
         <v>495000</v>
@@ -4618,12 +4618,12 @@
         <v>21</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B183" s="5">
         <v>405000</v>
@@ -4635,12 +4635,12 @@
         <v>21</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B184" s="5">
         <v>595000</v>
@@ -4652,12 +4652,12 @@
         <v>21</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B185" s="5">
         <v>2499000</v>
@@ -4669,12 +4669,12 @@
         <v>21</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B186" s="5">
         <v>1479000</v>
@@ -4686,12 +4686,12 @@
         <v>21</v>
       </c>
       <c r="E186" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B187" s="5">
         <v>1450000</v>
@@ -4703,12 +4703,12 @@
         <v>21</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B188" s="5">
         <v>1300000</v>
@@ -4720,12 +4720,12 @@
         <v>21</v>
       </c>
       <c r="E188" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B189" s="5">
         <v>1250000</v>
@@ -4737,12 +4737,12 @@
         <v>21</v>
       </c>
       <c r="E189" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B190" s="5">
         <v>1150000</v>
@@ -4754,12 +4754,12 @@
         <v>21</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B191" s="5">
         <v>570000</v>
@@ -4771,12 +4771,12 @@
         <v>21</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B192" s="5">
         <v>450000</v>
@@ -4788,12 +4788,12 @@
         <v>21</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B193" s="5">
         <v>395000</v>
@@ -4805,12 +4805,12 @@
         <v>21</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B194" s="5">
         <v>435000</v>
@@ -4822,12 +4822,12 @@
         <v>21</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B195" s="5">
         <v>210000</v>
@@ -4839,12 +4839,12 @@
         <v>21</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B196" s="5">
         <v>185000</v>
@@ -4856,13 +4856,13 @@
         <v>21</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I196" s="4"/>
     </row>
     <row r="197" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B197" s="5">
         <v>135000</v>
@@ -4874,13 +4874,13 @@
         <v>21</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I197" s="4"/>
     </row>
     <row r="198" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B198" s="5">
         <v>70000</v>
@@ -4892,13 +4892,13 @@
         <v>21</v>
       </c>
       <c r="E198" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I198" s="4"/>
     </row>
     <row r="199" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B199" s="5">
         <v>70000</v>
@@ -4910,13 +4910,13 @@
         <v>21</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I199" s="4"/>
     </row>
     <row r="200" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B200" s="5">
         <v>30000</v>
@@ -4928,13 +4928,13 @@
         <v>21</v>
       </c>
       <c r="E200" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I200" s="4"/>
     </row>
     <row r="201" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B201" s="5">
         <v>1890000</v>
@@ -4946,13 +4946,13 @@
         <v>21</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I201" s="4"/>
     </row>
     <row r="202" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B202" s="5">
         <v>1650000</v>
@@ -4964,13 +4964,13 @@
         <v>21</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I202" s="4"/>
     </row>
     <row r="203" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B203" s="5">
         <v>1440000</v>
@@ -4982,13 +4982,13 @@
         <v>21</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I203" s="4"/>
     </row>
     <row r="204" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B204" s="5"/>
       <c r="C204" s="1" t="s">
@@ -4998,13 +4998,13 @@
         <v>21</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I204" s="4"/>
     </row>
     <row r="205" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B205" s="5">
         <v>1520000</v>
@@ -5016,13 +5016,13 @@
         <v>21</v>
       </c>
       <c r="E205" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I205" s="4"/>
     </row>
     <row r="206" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B206" s="5">
         <v>1410000</v>
@@ -5034,12 +5034,12 @@
         <v>21</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B207" s="5">
         <v>1580000</v>
@@ -5051,12 +5051,12 @@
         <v>21</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B208" s="5">
         <v>1190000</v>
@@ -5068,12 +5068,12 @@
         <v>21</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B209" s="5">
         <v>395000</v>
@@ -5085,12 +5085,12 @@
         <v>21</v>
       </c>
       <c r="E209" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B210" s="5">
         <v>1050000</v>
@@ -5102,12 +5102,12 @@
         <v>21</v>
       </c>
       <c r="E210" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B211" s="5">
         <v>940000</v>
@@ -5119,12 +5119,12 @@
         <v>21</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B212" s="5">
         <v>800000</v>
@@ -5136,12 +5136,12 @@
         <v>21</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B213" s="5">
         <v>940000</v>
@@ -5153,12 +5153,12 @@
         <v>21</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B214" s="5">
         <v>640000</v>
@@ -5170,12 +5170,12 @@
         <v>21</v>
       </c>
       <c r="E214" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B215" s="5">
         <v>780000</v>
@@ -5187,12 +5187,12 @@
         <v>21</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B216" s="5">
         <v>900000</v>
@@ -5204,12 +5204,12 @@
         <v>21</v>
       </c>
       <c r="E216" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B217" s="5">
         <v>548000</v>
@@ -5221,12 +5221,12 @@
         <v>21</v>
       </c>
       <c r="E217" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B218" s="5">
         <v>502000</v>
@@ -5238,12 +5238,12 @@
         <v>21</v>
       </c>
       <c r="E218" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B219" s="5">
         <v>423000</v>
@@ -5255,12 +5255,12 @@
         <v>21</v>
       </c>
       <c r="E219" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B220" s="5">
         <v>387000</v>
@@ -5272,12 +5272,12 @@
         <v>21</v>
       </c>
       <c r="E220" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B221" s="5">
         <v>349000</v>
@@ -5289,12 +5289,12 @@
         <v>21</v>
       </c>
       <c r="E221" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B222" s="5">
         <v>295000</v>
@@ -5306,12 +5306,12 @@
         <v>21</v>
       </c>
       <c r="E222" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B223" s="5">
         <v>222000</v>
@@ -5323,12 +5323,12 @@
         <v>21</v>
       </c>
       <c r="E223" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B224" s="5">
         <v>183000</v>
@@ -5340,12 +5340,12 @@
         <v>21</v>
       </c>
       <c r="E224" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B225" s="5">
         <v>161000</v>
@@ -5357,12 +5357,12 @@
         <v>21</v>
       </c>
       <c r="E225" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B226" s="5">
         <v>132000</v>
@@ -5374,12 +5374,12 @@
         <v>21</v>
       </c>
       <c r="E226" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B227" s="5">
         <v>115000</v>
@@ -5391,12 +5391,12 @@
         <v>21</v>
       </c>
       <c r="E227" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B228" s="5">
         <v>98000</v>
@@ -5408,12 +5408,12 @@
         <v>21</v>
       </c>
       <c r="E228" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B229" s="5">
         <v>400000</v>
@@ -5425,12 +5425,12 @@
         <v>21</v>
       </c>
       <c r="E229" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B230" s="5">
         <v>1290000</v>
@@ -5442,12 +5442,12 @@
         <v>21</v>
       </c>
       <c r="E230" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B231" s="5">
         <v>2050000</v>
@@ -5459,12 +5459,12 @@
         <v>21</v>
       </c>
       <c r="E231" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B232" s="5">
         <v>800000</v>
@@ -5476,12 +5476,12 @@
         <v>21</v>
       </c>
       <c r="E232" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B233" s="5">
         <v>480000</v>
@@ -5493,12 +5493,12 @@
         <v>21</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B234" s="5">
         <v>270000</v>
@@ -5510,12 +5510,12 @@
         <v>21</v>
       </c>
       <c r="E234" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B235" s="5">
         <v>350000</v>
@@ -5527,12 +5527,12 @@
         <v>21</v>
       </c>
       <c r="E235" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B236" s="5">
         <v>325000</v>
@@ -5544,12 +5544,12 @@
         <v>21</v>
       </c>
       <c r="E236" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B237" s="5">
         <v>325000</v>
@@ -5561,12 +5561,12 @@
         <v>21</v>
       </c>
       <c r="E237" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B238" s="5">
         <v>280000</v>
@@ -5578,12 +5578,12 @@
         <v>21</v>
       </c>
       <c r="E238" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B239" s="5">
         <v>230000</v>
@@ -5595,12 +5595,12 @@
         <v>21</v>
       </c>
       <c r="E239" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B240" s="5">
         <v>180000</v>
@@ -5612,12 +5612,12 @@
         <v>21</v>
       </c>
       <c r="E240" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B241" s="5">
         <v>145000</v>
@@ -5629,12 +5629,12 @@
         <v>21</v>
       </c>
       <c r="E241" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B242" s="5">
         <v>135000</v>
@@ -5646,12 +5646,12 @@
         <v>21</v>
       </c>
       <c r="E242" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B243" s="5">
         <v>799000</v>
@@ -5663,12 +5663,12 @@
         <v>21</v>
       </c>
       <c r="E243" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B244" s="5">
         <v>398000</v>
@@ -5680,12 +5680,12 @@
         <v>21</v>
       </c>
       <c r="E244" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B245" s="5">
         <v>335000</v>
@@ -5697,12 +5697,12 @@
         <v>21</v>
       </c>
       <c r="E245" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B246" s="5">
         <v>265000</v>
@@ -5714,12 +5714,12 @@
         <v>21</v>
       </c>
       <c r="E246" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B247" s="5">
         <v>295000</v>
@@ -5731,12 +5731,12 @@
         <v>21</v>
       </c>
       <c r="E247" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B248" s="5">
         <v>210000</v>
@@ -5748,12 +5748,12 @@
         <v>21</v>
       </c>
       <c r="E248" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B249" s="5">
         <v>182000</v>
@@ -5765,12 +5765,12 @@
         <v>21</v>
       </c>
       <c r="E249" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B250" s="5">
         <v>180000</v>
@@ -5782,12 +5782,12 @@
         <v>21</v>
       </c>
       <c r="E250" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B251" s="5">
         <v>114000</v>
@@ -5799,12 +5799,12 @@
         <v>21</v>
       </c>
       <c r="E251" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B252" s="5">
         <v>615000</v>
@@ -5816,12 +5816,12 @@
         <v>21</v>
       </c>
       <c r="E252" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B253" s="5">
         <v>45000</v>
@@ -5833,12 +5833,12 @@
         <v>21</v>
       </c>
       <c r="E253" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B254" s="5">
         <v>1400000</v>
@@ -5850,12 +5850,12 @@
         <v>21</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B255" s="5">
         <v>980000</v>
@@ -5867,12 +5867,12 @@
         <v>21</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B256" s="5">
         <v>745000</v>
@@ -5884,12 +5884,12 @@
         <v>21</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B257" s="5">
         <v>501000</v>
@@ -5901,12 +5901,12 @@
         <v>21</v>
       </c>
       <c r="E257" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B258" s="5">
         <v>418000</v>
@@ -5918,12 +5918,12 @@
         <v>21</v>
       </c>
       <c r="E258" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B259" s="5">
         <v>356000</v>
@@ -5935,12 +5935,12 @@
         <v>21</v>
       </c>
       <c r="E259" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B260" s="5">
         <v>347000</v>
@@ -5952,12 +5952,12 @@
         <v>21</v>
       </c>
       <c r="E260" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B261" s="5">
         <v>287000</v>
@@ -5969,12 +5969,12 @@
         <v>21</v>
       </c>
       <c r="E261" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B262" s="5">
         <v>268000</v>
@@ -5986,12 +5986,12 @@
         <v>21</v>
       </c>
       <c r="E262" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B263" s="5">
         <v>222000</v>
@@ -6003,12 +6003,12 @@
         <v>21</v>
       </c>
       <c r="E263" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B264" s="5">
         <v>164000</v>
@@ -6020,12 +6020,12 @@
         <v>21</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B265" s="5">
         <v>148000</v>
@@ -6037,12 +6037,12 @@
         <v>21</v>
       </c>
       <c r="E265" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B266" s="5">
         <v>103000</v>
@@ -6054,12 +6054,12 @@
         <v>21</v>
       </c>
       <c r="E266" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B267" s="5">
         <v>88000</v>
@@ -6071,12 +6071,12 @@
         <v>21</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B268" s="5">
         <v>927000</v>
@@ -6088,12 +6088,12 @@
         <v>21</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B269" s="5">
         <v>687000</v>
@@ -6105,12 +6105,12 @@
         <v>21</v>
       </c>
       <c r="E269" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B270" s="5">
         <v>559000</v>
@@ -6122,12 +6122,12 @@
         <v>21</v>
       </c>
       <c r="E270" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B271" s="5">
         <v>495000</v>
@@ -6139,12 +6139,12 @@
         <v>21</v>
       </c>
       <c r="E271" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B272" s="5">
         <v>459000</v>
@@ -6156,12 +6156,12 @@
         <v>21</v>
       </c>
       <c r="E272" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B273" s="5">
         <v>415000</v>
@@ -6173,12 +6173,12 @@
         <v>21</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B274" s="5">
         <v>360000</v>
@@ -6190,12 +6190,12 @@
         <v>21</v>
       </c>
       <c r="E274" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B275" s="5">
         <v>304000</v>
@@ -6207,12 +6207,12 @@
         <v>21</v>
       </c>
       <c r="E275" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B276" s="5">
         <v>276000</v>
@@ -6224,12 +6224,12 @@
         <v>21</v>
       </c>
       <c r="E276" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B277" s="5">
         <v>148000</v>
@@ -6241,12 +6241,12 @@
         <v>21</v>
       </c>
       <c r="E277" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B278" s="5">
         <v>105000</v>
@@ -6258,12 +6258,12 @@
         <v>21</v>
       </c>
       <c r="E278" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B279" s="5">
         <v>664000</v>
@@ -6275,12 +6275,12 @@
         <v>21</v>
       </c>
       <c r="E279" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B280" s="5">
         <v>507000</v>
@@ -6292,12 +6292,12 @@
         <v>21</v>
       </c>
       <c r="E280" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B281" s="5">
         <v>461000</v>
@@ -6309,12 +6309,12 @@
         <v>21</v>
       </c>
       <c r="E281" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B282" s="5">
         <v>710000</v>
@@ -6326,12 +6326,12 @@
         <v>21</v>
       </c>
       <c r="E282" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B283" s="5">
         <v>321000</v>
@@ -6343,12 +6343,12 @@
         <v>21</v>
       </c>
       <c r="E283" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B284" s="5">
         <v>265000</v>
@@ -6360,12 +6360,12 @@
         <v>21</v>
       </c>
       <c r="E284" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B285" s="5">
         <v>252000</v>
@@ -6377,12 +6377,12 @@
         <v>21</v>
       </c>
       <c r="E285" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B286" s="5">
         <v>229000</v>
@@ -6394,12 +6394,12 @@
         <v>21</v>
       </c>
       <c r="E286" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B287" s="5">
         <v>192000</v>
@@ -6411,12 +6411,12 @@
         <v>21</v>
       </c>
       <c r="E287" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B288" s="5">
         <v>314000</v>
@@ -6428,12 +6428,12 @@
         <v>21</v>
       </c>
       <c r="E288" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B289" s="5">
         <v>1495000</v>
@@ -6445,12 +6445,12 @@
         <v>21</v>
       </c>
       <c r="E289" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B290" s="5">
         <v>1183000</v>
@@ -6462,12 +6462,12 @@
         <v>21</v>
       </c>
       <c r="E290" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B291" s="5">
         <v>652000</v>
@@ -6479,12 +6479,12 @@
         <v>21</v>
       </c>
       <c r="E291" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B292" s="5">
         <v>435000</v>
@@ -6496,12 +6496,12 @@
         <v>21</v>
       </c>
       <c r="E292" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B293" s="5">
         <v>283000</v>
@@ -6513,12 +6513,12 @@
         <v>21</v>
       </c>
       <c r="E293" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B294" s="5">
         <v>193000</v>
@@ -6530,12 +6530,12 @@
         <v>21</v>
       </c>
       <c r="E294" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B295" s="5">
         <v>268000</v>
@@ -6547,12 +6547,12 @@
         <v>21</v>
       </c>
       <c r="E295" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B296" s="5">
         <v>170000</v>
@@ -6564,12 +6564,12 @@
         <v>21</v>
       </c>
       <c r="E296" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B297" s="5">
         <v>237000</v>
@@ -6581,12 +6581,12 @@
         <v>21</v>
       </c>
       <c r="E297" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B298" s="5">
         <v>268000</v>
@@ -6598,12 +6598,12 @@
         <v>21</v>
       </c>
       <c r="E298" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B299" s="5">
         <v>810000</v>
@@ -6615,12 +6615,12 @@
         <v>21</v>
       </c>
       <c r="E299" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B300" s="5">
         <v>590000</v>
@@ -6632,12 +6632,12 @@
         <v>21</v>
       </c>
       <c r="E300" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B301" s="5">
         <v>590000</v>
@@ -6649,12 +6649,12 @@
         <v>21</v>
       </c>
       <c r="E301" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B302" s="5">
         <v>810000</v>
@@ -6666,12 +6666,12 @@
         <v>21</v>
       </c>
       <c r="E302" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B303" s="5">
         <v>745000</v>
@@ -6683,12 +6683,12 @@
         <v>21</v>
       </c>
       <c r="E303" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B304" s="5">
         <v>223000</v>
@@ -6700,12 +6700,12 @@
         <v>21</v>
       </c>
       <c r="E304" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B305" s="5">
         <v>169000</v>
@@ -6717,12 +6717,12 @@
         <v>21</v>
       </c>
       <c r="E305" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B306" s="5">
         <v>125000</v>
@@ -6734,12 +6734,12 @@
         <v>21</v>
       </c>
       <c r="E306" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B307" s="5">
         <v>89000</v>
@@ -6751,12 +6751,12 @@
         <v>21</v>
       </c>
       <c r="E307" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B308" s="5">
         <v>49000</v>
@@ -6768,12 +6768,12 @@
         <v>21</v>
       </c>
       <c r="E308" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B309" s="5">
         <v>35000</v>
@@ -6785,12 +6785,12 @@
         <v>21</v>
       </c>
       <c r="E309" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B310" s="5">
         <v>184000</v>
@@ -6802,12 +6802,12 @@
         <v>21</v>
       </c>
       <c r="E310" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B311" s="5">
         <v>125000</v>
@@ -6819,12 +6819,12 @@
         <v>21</v>
       </c>
       <c r="E311" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B312" s="5">
         <v>90000</v>
@@ -6836,12 +6836,12 @@
         <v>21</v>
       </c>
       <c r="E312" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B313" s="5">
         <v>49000</v>
@@ -6853,12 +6853,12 @@
         <v>21</v>
       </c>
       <c r="E313" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B314" s="5">
         <v>470000</v>
@@ -6870,12 +6870,12 @@
         <v>21</v>
       </c>
       <c r="E314" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B315" s="5">
         <v>345000</v>
@@ -6887,12 +6887,12 @@
         <v>21</v>
       </c>
       <c r="E315" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B316" s="5">
         <v>315000</v>
@@ -6904,12 +6904,12 @@
         <v>21</v>
       </c>
       <c r="E316" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B317" s="5">
         <v>255000</v>
@@ -6921,12 +6921,12 @@
         <v>21</v>
       </c>
       <c r="E317" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B318" s="5">
         <v>399000</v>
@@ -6938,12 +6938,12 @@
         <v>21</v>
       </c>
       <c r="E318" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B319" s="5">
         <v>155000</v>
@@ -6955,12 +6955,12 @@
         <v>21</v>
       </c>
       <c r="E319" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B320" s="5">
         <v>145000</v>
@@ -6972,12 +6972,12 @@
         <v>21</v>
       </c>
       <c r="E320" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B321" s="5">
         <v>146000</v>
@@ -6989,12 +6989,12 @@
         <v>21</v>
       </c>
       <c r="E321" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B322" s="5">
         <v>189000</v>
@@ -7006,12 +7006,12 @@
         <v>21</v>
       </c>
       <c r="E322" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B323" s="5">
         <v>107000</v>
@@ -7023,12 +7023,12 @@
         <v>21</v>
       </c>
       <c r="E323" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B324" s="5">
         <v>95000</v>
@@ -7040,12 +7040,12 @@
         <v>21</v>
       </c>
       <c r="E324" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B325" s="5">
         <v>98000</v>
@@ -7057,12 +7057,12 @@
         <v>21</v>
       </c>
       <c r="E325" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B326" s="5">
         <v>115000</v>
@@ -7074,12 +7074,12 @@
         <v>21</v>
       </c>
       <c r="E326" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B327" s="5">
         <v>215000</v>
@@ -7091,12 +7091,12 @@
         <v>21</v>
       </c>
       <c r="E327" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B328" s="5">
         <v>136000</v>
@@ -7108,12 +7108,12 @@
         <v>21</v>
       </c>
       <c r="E328" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B329" s="5">
         <v>380000</v>
@@ -7125,12 +7125,12 @@
         <v>21</v>
       </c>
       <c r="E329" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B330" s="5">
         <v>450000</v>
@@ -7142,12 +7142,12 @@
         <v>21</v>
       </c>
       <c r="E330" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B331" s="5">
         <v>310000</v>
@@ -7159,12 +7159,12 @@
         <v>21</v>
       </c>
       <c r="E331" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B332" s="5">
         <v>293000</v>
@@ -7176,12 +7176,12 @@
         <v>21</v>
       </c>
       <c r="E332" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B333" s="5">
         <v>253000</v>
@@ -7193,12 +7193,12 @@
         <v>21</v>
       </c>
       <c r="E333" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B334" s="5">
         <v>200000</v>
@@ -7210,12 +7210,12 @@
         <v>21</v>
       </c>
       <c r="E334" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B335" s="5">
         <v>145000</v>
@@ -7227,12 +7227,12 @@
         <v>21</v>
       </c>
       <c r="E335" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B336" s="5">
         <v>138000</v>
@@ -7244,12 +7244,12 @@
         <v>21</v>
       </c>
       <c r="E336" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B337" s="5">
         <v>158000</v>
@@ -7261,12 +7261,12 @@
         <v>21</v>
       </c>
       <c r="E337" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B338" s="5">
         <v>143000</v>
@@ -7278,12 +7278,12 @@
         <v>21</v>
       </c>
       <c r="E338" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B339" s="5">
         <v>102000</v>
@@ -7295,12 +7295,12 @@
         <v>21</v>
       </c>
       <c r="E339" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B340" s="5">
         <v>89000</v>
@@ -7312,12 +7312,12 @@
         <v>21</v>
       </c>
       <c r="E340" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B341" s="5">
         <v>127000</v>
@@ -7329,12 +7329,12 @@
         <v>21</v>
       </c>
       <c r="E341" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B342" s="5">
         <v>465000</v>
@@ -7346,7 +7346,7 @@
         <v>21</v>
       </c>
       <c r="E342" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/prices.xlsx
+++ b/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedemad/Downloads/phone_price_bot test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AD7141-FAB0-4746-AECE-025EDA1BA214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09042DF0-0B7B-B646-80C0-C00EF98E1F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="357">
   <si>
     <t>المتجر</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Honor</t>
-  </si>
-  <si>
-    <t>Huawei</t>
   </si>
   <si>
     <t>Infinix</t>
@@ -1500,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A157" sqref="A157"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59:C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1534,7 +1531,7 @@
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1365000</v>
@@ -1551,7 +1548,7 @@
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1">
         <v>1570750</v>
@@ -1568,7 +1565,7 @@
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1">
         <v>525000</v>
@@ -1585,7 +1582,7 @@
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1">
         <v>525000</v>
@@ -1602,7 +1599,7 @@
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1">
         <v>470000</v>
@@ -1619,7 +1616,7 @@
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1">
         <v>470000</v>
@@ -1636,7 +1633,7 @@
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>470000</v>
@@ -1653,7 +1650,7 @@
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1">
         <v>575000</v>
@@ -1670,7 +1667,7 @@
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1">
         <v>575000</v>
@@ -1687,7 +1684,7 @@
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1">
         <v>1600000</v>
@@ -1704,7 +1701,7 @@
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>1600000</v>
@@ -1721,7 +1718,7 @@
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1">
         <v>1065000</v>
@@ -1738,7 +1735,7 @@
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1">
         <v>1065000</v>
@@ -1755,7 +1752,7 @@
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1">
         <v>1210000</v>
@@ -1772,7 +1769,7 @@
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1">
         <v>1365000</v>
@@ -1789,7 +1786,7 @@
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1">
         <v>2300000</v>
@@ -1806,7 +1803,7 @@
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1">
         <v>1615000</v>
@@ -1823,7 +1820,7 @@
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1">
         <v>1615000</v>
@@ -1840,7 +1837,7 @@
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1">
         <v>1615000</v>
@@ -1857,7 +1854,7 @@
     </row>
     <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1">
         <v>1980000</v>
@@ -1874,7 +1871,7 @@
     </row>
     <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1">
         <v>955000</v>
@@ -1891,7 +1888,7 @@
     </row>
     <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1">
         <v>1324500</v>
@@ -1908,7 +1905,7 @@
     </row>
     <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1">
         <v>768500</v>
@@ -1925,7 +1922,7 @@
     </row>
     <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1">
         <v>160000</v>
@@ -1942,7 +1939,7 @@
     </row>
     <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1">
         <v>160000</v>
@@ -1959,7 +1956,7 @@
     </row>
     <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="1">
         <v>115000</v>
@@ -1976,7 +1973,7 @@
     </row>
     <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1">
         <v>115000</v>
@@ -1993,7 +1990,7 @@
     </row>
     <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1">
         <v>115000</v>
@@ -2010,7 +2007,7 @@
     </row>
     <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1">
         <v>430000</v>
@@ -2027,7 +2024,7 @@
     </row>
     <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1">
         <v>480000</v>
@@ -2044,7 +2041,7 @@
     </row>
     <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="1">
         <v>480000</v>
@@ -2061,7 +2058,7 @@
     </row>
     <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1">
         <v>480000</v>
@@ -2078,7 +2075,7 @@
     </row>
     <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="1">
         <v>1295000</v>
@@ -2095,7 +2092,7 @@
     </row>
     <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="1">
         <v>1295000</v>
@@ -2112,7 +2109,7 @@
     </row>
     <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="1">
         <v>795000</v>
@@ -2129,7 +2126,7 @@
     </row>
     <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" s="1">
         <v>335000</v>
@@ -2146,7 +2143,7 @@
     </row>
     <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" s="1">
         <v>115000</v>
@@ -2163,7 +2160,7 @@
     </row>
     <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="1">
         <v>260000</v>
@@ -2180,7 +2177,7 @@
     </row>
     <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="1">
         <v>285000</v>
@@ -2197,7 +2194,7 @@
     </row>
     <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="1">
         <v>130000</v>
@@ -2214,7 +2211,7 @@
     </row>
     <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" s="1">
         <v>145000</v>
@@ -2231,7 +2228,7 @@
     </row>
     <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" s="1">
         <v>145000</v>
@@ -2248,7 +2245,7 @@
     </row>
     <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" s="1">
         <v>145000</v>
@@ -2265,7 +2262,7 @@
     </row>
     <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" s="1">
         <v>180000</v>
@@ -2282,7 +2279,7 @@
     </row>
     <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" s="1">
         <v>235000</v>
@@ -2299,7 +2296,7 @@
     </row>
     <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B47" s="1">
         <v>235000</v>
@@ -2316,7 +2313,7 @@
     </row>
     <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48" s="1">
         <v>235000</v>
@@ -2333,7 +2330,7 @@
     </row>
     <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B49" s="1">
         <v>285000</v>
@@ -2350,7 +2347,7 @@
     </row>
     <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50" s="1">
         <v>350000</v>
@@ -2367,7 +2364,7 @@
     </row>
     <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51" s="1">
         <v>350000</v>
@@ -2384,7 +2381,7 @@
     </row>
     <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B52" s="1">
         <v>350000</v>
@@ -2401,7 +2398,7 @@
     </row>
     <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53" s="1">
         <v>350000</v>
@@ -2418,7 +2415,7 @@
     </row>
     <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" s="1">
         <v>350000</v>
@@ -2435,7 +2432,7 @@
     </row>
     <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55" s="1">
         <v>325000</v>
@@ -2452,7 +2449,7 @@
     </row>
     <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" s="1">
         <v>325000</v>
@@ -2469,7 +2466,7 @@
     </row>
     <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57" s="1">
         <v>185000</v>
@@ -2486,7 +2483,7 @@
     </row>
     <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B58" s="1">
         <v>185000</v>
@@ -2503,13 +2500,13 @@
     </row>
     <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B59" s="1">
         <v>430000</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>10</v>
+      <c r="C59" t="s">
+        <v>19</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>2</v>
@@ -2520,13 +2517,13 @@
     </row>
     <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60" s="1">
         <v>640000</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>10</v>
+      <c r="C60" t="s">
+        <v>19</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>2</v>
@@ -2537,13 +2534,13 @@
     </row>
     <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B61" s="1">
         <v>640000</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>10</v>
+      <c r="C61" t="s">
+        <v>19</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>2</v>
@@ -2554,13 +2551,13 @@
     </row>
     <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62" s="1">
         <v>1120000</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>10</v>
+      <c r="C62" t="s">
+        <v>19</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>2</v>
@@ -2571,13 +2568,13 @@
     </row>
     <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B63" s="1">
         <v>1475000</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>10</v>
+      <c r="C63" t="s">
+        <v>19</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>2</v>
@@ -2588,13 +2585,13 @@
     </row>
     <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64" s="1">
         <v>270000</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>10</v>
+      <c r="C64" t="s">
+        <v>19</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>2</v>
@@ -2605,13 +2602,13 @@
     </row>
     <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65" s="1">
         <v>270000</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>10</v>
+      <c r="C65" t="s">
+        <v>19</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>2</v>
@@ -2622,13 +2619,13 @@
     </row>
     <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B66" s="1">
         <v>190000</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>10</v>
+      <c r="C66" t="s">
+        <v>19</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>2</v>
@@ -2639,13 +2636,13 @@
     </row>
     <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B67" s="1">
         <v>310000</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>2</v>
@@ -2656,13 +2653,13 @@
     </row>
     <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B68" s="1">
         <v>290000</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>2</v>
@@ -2673,13 +2670,13 @@
     </row>
     <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B69" s="1">
         <v>160000</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>2</v>
@@ -2690,13 +2687,13 @@
     </row>
     <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B70" s="1">
         <v>685000</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>2</v>
@@ -2707,13 +2704,13 @@
     </row>
     <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B71" s="1">
         <v>945000</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>2</v>
@@ -2724,13 +2721,13 @@
     </row>
     <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B72" s="1">
         <v>380000</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>2</v>
@@ -2741,13 +2738,13 @@
     </row>
     <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B73" s="1">
         <v>420000</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>2</v>
@@ -2758,13 +2755,13 @@
     </row>
     <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B74" s="1">
         <v>420000</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>2</v>
@@ -2775,13 +2772,13 @@
     </row>
     <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B75" s="1">
         <v>460000</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>2</v>
@@ -2792,13 +2789,13 @@
     </row>
     <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B76" s="1">
         <v>460000</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>2</v>
@@ -2809,13 +2806,13 @@
     </row>
     <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B77" s="1">
         <v>460000</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>2</v>
@@ -2826,13 +2823,13 @@
     </row>
     <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B78" s="1">
         <v>375000</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>2</v>
@@ -2843,13 +2840,13 @@
     </row>
     <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B79" s="1">
         <v>375000</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>2</v>
@@ -2860,13 +2857,13 @@
     </row>
     <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B80" s="1">
         <v>600000</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>2</v>
@@ -2877,13 +2874,13 @@
     </row>
     <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B81" s="1">
         <v>170000</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>2</v>
@@ -2894,13 +2891,13 @@
     </row>
     <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B82" s="1">
         <v>235000</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>2</v>
@@ -2911,13 +2908,13 @@
     </row>
     <row r="83" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B83" s="1">
         <v>235000</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>2</v>
@@ -2928,13 +2925,13 @@
     </row>
     <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B84" s="1">
         <v>205000</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>2</v>
@@ -2945,13 +2942,13 @@
     </row>
     <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B85" s="1">
         <v>120000</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>2</v>
@@ -2962,13 +2959,13 @@
     </row>
     <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B86" s="1">
         <v>120000</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>2</v>
@@ -2979,13 +2976,13 @@
     </row>
     <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B87" s="1">
         <v>105000</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>2</v>
@@ -2996,13 +2993,13 @@
     </row>
     <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B88" s="1">
         <v>225000</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>2</v>
@@ -3013,13 +3010,13 @@
     </row>
     <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="1">
         <v>225000</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>2</v>
@@ -3030,13 +3027,13 @@
     </row>
     <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B90" s="1">
         <v>360000</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>2</v>
@@ -3047,13 +3044,13 @@
     </row>
     <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B91" s="1">
         <v>360000</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>2</v>
@@ -3064,13 +3061,13 @@
     </row>
     <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B92" s="1">
         <v>365000</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>2</v>
@@ -3081,13 +3078,13 @@
     </row>
     <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B93" s="1">
         <v>425000</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>2</v>
@@ -3098,13 +3095,13 @@
     </row>
     <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B94" s="1">
         <v>300000</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>2</v>
@@ -3115,13 +3112,13 @@
     </row>
     <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B95" s="1">
         <v>500000</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>2</v>
@@ -3132,13 +3129,13 @@
     </row>
     <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B96" s="1">
         <v>245000</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>2</v>
@@ -3149,13 +3146,13 @@
     </row>
     <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B97" s="1">
         <v>230000</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>2</v>
@@ -3166,13 +3163,13 @@
     </row>
     <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B98" s="1">
         <v>230000</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>2</v>
@@ -3183,13 +3180,13 @@
     </row>
     <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B99" s="1">
         <v>230000</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>2</v>
@@ -3200,13 +3197,13 @@
     </row>
     <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B100" s="1">
         <v>320000</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>2</v>
@@ -3217,13 +3214,13 @@
     </row>
     <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B101" s="1">
         <v>230000</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>2</v>
@@ -3234,13 +3231,13 @@
     </row>
     <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B102" s="1">
         <v>230000</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>2</v>
@@ -3251,13 +3248,13 @@
     </row>
     <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B103" s="1">
         <v>130000</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>2</v>
@@ -3268,13 +3265,13 @@
     </row>
     <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B104" s="1">
         <v>160000</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>2</v>
@@ -3285,13 +3282,13 @@
     </row>
     <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B105" s="1">
         <v>160000</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>2</v>
@@ -3302,13 +3299,13 @@
     </row>
     <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B106" s="1">
         <v>160000</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>2</v>
@@ -3319,13 +3316,13 @@
     </row>
     <row r="107" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B107" s="1">
         <v>340000</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>2</v>
@@ -3336,13 +3333,13 @@
     </row>
     <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B108" s="1">
         <v>340000</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>2</v>
@@ -3353,13 +3350,13 @@
     </row>
     <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B109" s="1">
         <v>340000</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>2</v>
@@ -3370,13 +3367,13 @@
     </row>
     <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B110" s="1">
         <v>535000</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>2</v>
@@ -3387,13 +3384,13 @@
     </row>
     <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B111" s="1">
         <v>535000</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>2</v>
@@ -3404,13 +3401,13 @@
     </row>
     <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B112" s="1">
         <v>490000</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>2</v>
@@ -3421,13 +3418,13 @@
     </row>
     <row r="113" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B113" s="1">
         <v>490000</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>2</v>
@@ -3438,13 +3435,13 @@
     </row>
     <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B114" s="1">
         <v>490000</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>2</v>
@@ -3455,13 +3452,13 @@
     </row>
     <row r="115" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B115" s="1">
         <v>490000</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>2</v>
@@ -3472,13 +3469,13 @@
     </row>
     <row r="116" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B116" s="1">
         <v>1450000</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>2</v>
@@ -3489,13 +3486,13 @@
     </row>
     <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B117" s="1">
         <v>245000</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>2</v>
@@ -3506,13 +3503,13 @@
     </row>
     <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B118" s="1">
         <v>375000</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>2</v>
@@ -3523,13 +3520,13 @@
     </row>
     <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B119" s="1">
         <v>325000</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>2</v>
@@ -3540,13 +3537,13 @@
     </row>
     <row r="120" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B120" s="1">
         <v>1875000</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>2</v>
@@ -3557,13 +3554,13 @@
     </row>
     <row r="121" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B121" s="1">
         <v>2150000</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>2</v>
@@ -3574,13 +3571,13 @@
     </row>
     <row r="122" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B122" s="1">
         <v>2150000</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>2</v>
@@ -3591,13 +3588,13 @@
     </row>
     <row r="123" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B123" s="1">
         <v>1550000</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>2</v>
@@ -3608,13 +3605,13 @@
     </row>
     <row r="124" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B124" s="1">
         <v>1300000</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>2</v>
@@ -3625,13 +3622,13 @@
     </row>
     <row r="125" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B125" s="1">
         <v>1300000</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>2</v>
@@ -3642,13 +3639,13 @@
     </row>
     <row r="126" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B126" s="1">
         <v>250000</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>2</v>
@@ -3659,13 +3656,13 @@
     </row>
     <row r="127" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B127" s="1">
         <v>250000</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>2</v>
@@ -3676,13 +3673,13 @@
     </row>
     <row r="128" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B128" s="1">
         <v>475000</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>2</v>
@@ -3693,13 +3690,13 @@
     </row>
     <row r="129" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B129" s="1">
         <v>345000</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>2</v>
@@ -3710,13 +3707,13 @@
     </row>
     <row r="130" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B130" s="1">
         <v>345000</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>2</v>
@@ -3727,13 +3724,13 @@
     </row>
     <row r="131" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B131" s="1">
         <v>315000</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>2</v>
@@ -3744,13 +3741,13 @@
     </row>
     <row r="132" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B132" s="1">
         <v>315000</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>2</v>
@@ -3761,13 +3758,13 @@
     </row>
     <row r="133" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B133" s="1">
         <v>230000</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>2</v>
@@ -3778,13 +3775,13 @@
     </row>
     <row r="134" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B134" s="1">
         <v>230000</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>2</v>
@@ -3795,13 +3792,13 @@
     </row>
     <row r="135" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B135" s="1">
         <v>395000</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>2</v>
@@ -3812,13 +3809,13 @@
     </row>
     <row r="136" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B136" s="1">
         <v>395000</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>2</v>
@@ -3829,13 +3826,13 @@
     </row>
     <row r="137" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B137" s="1">
         <v>170000</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>2</v>
@@ -3846,13 +3843,13 @@
     </row>
     <row r="138" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B138" s="1">
         <v>170000</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>2</v>
@@ -3863,13 +3860,13 @@
     </row>
     <row r="139" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B139" s="1">
         <v>145000</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>2</v>
@@ -3880,13 +3877,13 @@
     </row>
     <row r="140" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B140" s="1">
         <v>145000</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>2</v>
@@ -3897,13 +3894,13 @@
     </row>
     <row r="141" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B141" s="1">
         <v>145000</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>2</v>
@@ -3914,13 +3911,13 @@
     </row>
     <row r="142" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B142" s="1">
         <v>145000</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>2</v>
@@ -3931,13 +3928,13 @@
     </row>
     <row r="143" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B143" s="1">
         <v>150000</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>2</v>
@@ -3948,13 +3945,13 @@
     </row>
     <row r="144" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B144" s="1">
         <v>150000</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>2</v>
@@ -3965,13 +3962,13 @@
     </row>
     <row r="145" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B145" s="1">
         <v>150000</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>2</v>
@@ -3982,13 +3979,13 @@
     </row>
     <row r="146" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B146" s="1">
         <v>115000</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>2</v>
@@ -3999,13 +3996,13 @@
     </row>
     <row r="147" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B147" s="1">
         <v>105000</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>2</v>
@@ -4016,13 +4013,13 @@
     </row>
     <row r="148" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B148" s="1">
         <v>30000</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>2</v>
@@ -4033,13 +4030,13 @@
     </row>
     <row r="149" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B149" s="1">
         <v>990000</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>2</v>
@@ -4050,13 +4047,13 @@
     </row>
     <row r="150" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B150" s="1">
         <v>1400000</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>2</v>
@@ -4067,13 +4064,13 @@
     </row>
     <row r="151" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B151" s="1">
         <v>515000</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>2</v>
@@ -4084,13 +4081,13 @@
     </row>
     <row r="152" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B152" s="1">
         <v>515000</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>2</v>
@@ -4101,13 +4098,13 @@
     </row>
     <row r="153" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B153" s="1">
         <v>465000</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>2</v>
@@ -4118,13 +4115,13 @@
     </row>
     <row r="154" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B154" s="1">
         <v>465000</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>2</v>
@@ -4135,13 +4132,13 @@
     </row>
     <row r="155" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B155" s="1">
         <v>670000</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>2</v>
@@ -4152,7 +4149,7 @@
     </row>
     <row r="156" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B156" s="5">
         <v>2295000</v>
@@ -4161,15 +4158,15 @@
         <v>7</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B157" s="5">
         <v>1975000</v>
@@ -4178,17 +4175,17 @@
         <v>7</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
     </row>
     <row r="158" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B158" s="5">
         <v>1620000</v>
@@ -4197,15 +4194,15 @@
         <v>7</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B159" s="5">
         <v>2185000</v>
@@ -4214,15 +4211,15 @@
         <v>7</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B160" s="5">
         <v>1970000</v>
@@ -4231,15 +4228,15 @@
         <v>7</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B161" s="5">
         <v>1700000</v>
@@ -4248,15 +4245,15 @@
         <v>7</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B162" s="5">
         <v>1555000</v>
@@ -4265,15 +4262,15 @@
         <v>7</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B163" s="5">
         <v>1400000</v>
@@ -4282,15 +4279,15 @@
         <v>7</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B164" s="5">
         <v>1365000</v>
@@ -4299,15 +4296,15 @@
         <v>7</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B165" s="5">
         <v>1215000</v>
@@ -4316,15 +4313,15 @@
         <v>7</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B166" s="5">
         <v>1215000</v>
@@ -4333,15 +4330,15 @@
         <v>7</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B167" s="5">
         <v>1065000</v>
@@ -4350,15 +4347,15 @@
         <v>7</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B168" s="5">
         <v>895000</v>
@@ -4367,15 +4364,15 @@
         <v>7</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B169" s="5">
         <v>1080000</v>
@@ -4384,15 +4381,15 @@
         <v>7</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B170" s="5">
         <v>600000</v>
@@ -4401,15 +4398,15 @@
         <v>7</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B171" s="5">
         <v>2650000</v>
@@ -4418,15 +4415,15 @@
         <v>7</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B172" s="5">
         <v>1850000</v>
@@ -4435,17 +4432,17 @@
         <v>7</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
     </row>
     <row r="173" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B173" s="5">
         <v>1499000</v>
@@ -4454,17 +4451,17 @@
         <v>7</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
     <row r="174" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B174" s="5">
         <v>1620000</v>
@@ -4473,17 +4470,17 @@
         <v>7</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
     <row r="175" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B175" s="5">
         <v>1205000</v>
@@ -4492,17 +4489,17 @@
         <v>7</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
     </row>
     <row r="176" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B176" s="5">
         <v>1620000</v>
@@ -4511,17 +4508,17 @@
         <v>7</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E176" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
     </row>
     <row r="177" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B177" s="5">
         <v>1050000</v>
@@ -4530,15 +4527,15 @@
         <v>7</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B178" s="5">
         <v>730000</v>
@@ -4547,15 +4544,15 @@
         <v>7</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B179" s="5">
         <v>860000</v>
@@ -4564,15 +4561,15 @@
         <v>7</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B180" s="5">
         <v>560000</v>
@@ -4581,15 +4578,15 @@
         <v>7</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B181" s="5">
         <v>435000</v>
@@ -4598,15 +4595,15 @@
         <v>7</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B182" s="5">
         <v>495000</v>
@@ -4615,15 +4612,15 @@
         <v>7</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B183" s="5">
         <v>405000</v>
@@ -4632,15 +4629,15 @@
         <v>7</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B184" s="5">
         <v>595000</v>
@@ -4649,788 +4646,788 @@
         <v>7</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B185" s="5">
         <v>2499000</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B186" s="5">
         <v>1479000</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E186" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B187" s="5">
         <v>1450000</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B188" s="5">
         <v>1300000</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E188" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B189" s="5">
         <v>1250000</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E189" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B190" s="5">
         <v>1150000</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B191" s="5">
         <v>570000</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B192" s="5">
         <v>450000</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B193" s="5">
         <v>395000</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B194" s="5">
         <v>435000</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B195" s="5">
         <v>210000</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B196" s="5">
         <v>185000</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I196" s="4"/>
     </row>
     <row r="197" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B197" s="5">
         <v>135000</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I197" s="4"/>
     </row>
     <row r="198" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B198" s="5">
         <v>70000</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E198" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I198" s="4"/>
     </row>
     <row r="199" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B199" s="5">
         <v>70000</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I199" s="4"/>
     </row>
     <row r="200" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B200" s="5">
         <v>30000</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E200" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I200" s="4"/>
     </row>
     <row r="201" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B201" s="5">
         <v>1890000</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I201" s="4"/>
     </row>
     <row r="202" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B202" s="5">
         <v>1650000</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I202" s="4"/>
     </row>
     <row r="203" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B203" s="5">
         <v>1440000</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I203" s="4"/>
     </row>
     <row r="204" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B204" s="5"/>
       <c r="C204" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I204" s="4"/>
     </row>
     <row r="205" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B205" s="5">
         <v>1520000</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E205" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I205" s="4"/>
     </row>
     <row r="206" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B206" s="5">
         <v>1410000</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B207" s="5">
         <v>1580000</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B208" s="5">
         <v>1190000</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B209" s="5">
         <v>395000</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E209" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B210" s="5">
         <v>1050000</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E210" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B211" s="5">
         <v>940000</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B212" s="5">
         <v>800000</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B213" s="5">
         <v>940000</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B214" s="5">
         <v>640000</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E214" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B215" s="5">
         <v>780000</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B216" s="5">
         <v>900000</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E216" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B217" s="5">
         <v>548000</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E217" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B218" s="5">
         <v>502000</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E218" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B219" s="5">
         <v>423000</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E219" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B220" s="5">
         <v>387000</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E220" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B221" s="5">
         <v>349000</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E221" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B222" s="5">
         <v>295000</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E222" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B223" s="5">
         <v>222000</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E223" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B224" s="5">
         <v>183000</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E224" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B225" s="5">
         <v>161000</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E225" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B226" s="5">
         <v>132000</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E226" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B227" s="5">
         <v>115000</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E227" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B228" s="5">
         <v>98000</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E228" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B229" s="5">
         <v>400000</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E229" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B230" s="5">
         <v>1290000</v>
@@ -5439,15 +5436,15 @@
         <v>9</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E230" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B231" s="5">
         <v>2050000</v>
@@ -5456,15 +5453,15 @@
         <v>9</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E231" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B232" s="5">
         <v>800000</v>
@@ -5473,15 +5470,15 @@
         <v>9</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E232" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B233" s="5">
         <v>480000</v>
@@ -5490,15 +5487,15 @@
         <v>9</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B234" s="5">
         <v>270000</v>
@@ -5507,15 +5504,15 @@
         <v>9</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E234" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B235" s="5">
         <v>350000</v>
@@ -5524,15 +5521,15 @@
         <v>9</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E235" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B236" s="5">
         <v>325000</v>
@@ -5541,15 +5538,15 @@
         <v>9</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E236" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B237" s="5">
         <v>325000</v>
@@ -5558,15 +5555,15 @@
         <v>9</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E237" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B238" s="5">
         <v>280000</v>
@@ -5575,15 +5572,15 @@
         <v>9</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E238" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B239" s="5">
         <v>230000</v>
@@ -5592,15 +5589,15 @@
         <v>9</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E239" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B240" s="5">
         <v>180000</v>
@@ -5609,15 +5606,15 @@
         <v>9</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E240" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B241" s="5">
         <v>145000</v>
@@ -5626,15 +5623,15 @@
         <v>9</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E241" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B242" s="5">
         <v>135000</v>
@@ -5643,15 +5640,15 @@
         <v>9</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E242" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B243" s="5">
         <v>799000</v>
@@ -5660,15 +5657,15 @@
         <v>9</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E243" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B244" s="5">
         <v>398000</v>
@@ -5677,15 +5674,15 @@
         <v>9</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E244" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B245" s="5">
         <v>335000</v>
@@ -5694,15 +5691,15 @@
         <v>9</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E245" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B246" s="5">
         <v>265000</v>
@@ -5711,15 +5708,15 @@
         <v>9</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E246" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B247" s="5">
         <v>295000</v>
@@ -5728,15 +5725,15 @@
         <v>9</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E247" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B248" s="5">
         <v>210000</v>
@@ -5745,15 +5742,15 @@
         <v>9</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E248" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B249" s="5">
         <v>182000</v>
@@ -5762,15 +5759,15 @@
         <v>9</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E249" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B250" s="5">
         <v>180000</v>
@@ -5779,15 +5776,15 @@
         <v>9</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E250" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B251" s="5">
         <v>114000</v>
@@ -5796,15 +5793,15 @@
         <v>9</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E251" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B252" s="5">
         <v>615000</v>
@@ -5813,15 +5810,15 @@
         <v>9</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E252" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B253" s="5">
         <v>45000</v>
@@ -5830,1523 +5827,1523 @@
         <v>9</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E253" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B254" s="5">
         <v>1400000</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B255" s="5">
         <v>980000</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B256" s="5">
         <v>745000</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B257" s="5">
         <v>501000</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E257" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B258" s="5">
         <v>418000</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E258" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B259" s="5">
         <v>356000</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E259" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B260" s="5">
         <v>347000</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E260" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B261" s="5">
         <v>287000</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E261" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B262" s="5">
         <v>268000</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E262" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B263" s="5">
         <v>222000</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E263" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B264" s="5">
         <v>164000</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B265" s="5">
         <v>148000</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E265" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B266" s="5">
         <v>103000</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E266" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B267" s="5">
         <v>88000</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B268" s="5">
         <v>927000</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B269" s="5">
         <v>687000</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E269" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B270" s="5">
         <v>559000</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E270" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B271" s="5">
         <v>495000</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E271" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B272" s="5">
         <v>459000</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E272" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B273" s="5">
         <v>415000</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B274" s="5">
         <v>360000</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E274" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B275" s="5">
         <v>304000</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E275" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B276" s="5">
         <v>276000</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E276" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B277" s="5">
         <v>148000</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E277" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B278" s="5">
         <v>105000</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E278" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B279" s="5">
         <v>664000</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E279" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B280" s="5">
         <v>507000</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E280" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B281" s="5">
         <v>461000</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E281" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B282" s="5">
         <v>710000</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E282" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B283" s="5">
         <v>321000</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E283" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B284" s="5">
         <v>265000</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E284" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B285" s="5">
         <v>252000</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E285" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B286" s="5">
         <v>229000</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E286" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B287" s="5">
         <v>192000</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E287" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B288" s="5">
         <v>314000</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E288" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B289" s="5">
         <v>1495000</v>
       </c>
       <c r="C289" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E289" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B290" s="5">
         <v>1183000</v>
       </c>
       <c r="C290" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E290" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B291" s="5">
         <v>652000</v>
       </c>
       <c r="C291" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E291" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B292" s="5">
         <v>435000</v>
       </c>
       <c r="C292" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E292" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B293" s="5">
         <v>283000</v>
       </c>
       <c r="C293" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E293" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B294" s="5">
         <v>193000</v>
       </c>
       <c r="C294" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E294" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B295" s="5">
         <v>268000</v>
       </c>
       <c r="C295" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E295" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B296" s="5">
         <v>170000</v>
       </c>
       <c r="C296" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E296" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B297" s="5">
         <v>237000</v>
       </c>
       <c r="C297" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E297" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B298" s="5">
         <v>268000</v>
       </c>
       <c r="C298" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E298" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B299" s="5">
         <v>810000</v>
       </c>
       <c r="C299" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E299" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B300" s="5">
         <v>590000</v>
       </c>
       <c r="C300" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E300" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B301" s="5">
         <v>590000</v>
       </c>
       <c r="C301" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E301" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B302" s="5">
         <v>810000</v>
       </c>
       <c r="C302" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E302" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B303" s="5">
         <v>745000</v>
       </c>
       <c r="C303" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E303" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B304" s="5">
         <v>223000</v>
       </c>
       <c r="C304" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E304" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B305" s="5">
         <v>169000</v>
       </c>
       <c r="C305" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E305" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B306" s="5">
         <v>125000</v>
       </c>
       <c r="C306" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E306" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B307" s="5">
         <v>89000</v>
       </c>
       <c r="C307" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E307" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B308" s="5">
         <v>49000</v>
       </c>
       <c r="C308" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E308" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B309" s="5">
         <v>35000</v>
       </c>
       <c r="C309" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E309" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B310" s="5">
         <v>184000</v>
       </c>
       <c r="C310" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E310" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B311" s="5">
         <v>125000</v>
       </c>
       <c r="C311" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E311" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B312" s="5">
         <v>90000</v>
       </c>
       <c r="C312" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E312" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B313" s="5">
         <v>49000</v>
       </c>
       <c r="C313" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E313" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B314" s="5">
         <v>470000</v>
       </c>
       <c r="C314" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E314" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B315" s="5">
         <v>345000</v>
       </c>
       <c r="C315" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E315" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B316" s="5">
         <v>315000</v>
       </c>
       <c r="C316" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E316" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B317" s="5">
         <v>255000</v>
       </c>
       <c r="C317" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E317" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B318" s="5">
         <v>399000</v>
       </c>
       <c r="C318" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E318" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B319" s="5">
         <v>155000</v>
       </c>
       <c r="C319" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E319" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B320" s="5">
         <v>145000</v>
       </c>
       <c r="C320" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E320" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B321" s="5">
         <v>146000</v>
       </c>
       <c r="C321" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E321" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B322" s="5">
         <v>189000</v>
       </c>
       <c r="C322" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E322" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B323" s="5">
         <v>107000</v>
       </c>
       <c r="C323" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E323" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B324" s="5">
         <v>95000</v>
       </c>
       <c r="C324" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E324" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B325" s="5">
         <v>98000</v>
       </c>
       <c r="C325" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E325" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B326" s="5">
         <v>115000</v>
       </c>
       <c r="C326" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E326" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B327" s="5">
         <v>215000</v>
       </c>
       <c r="C327" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E327" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B328" s="5">
         <v>136000</v>
       </c>
       <c r="C328" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E328" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B329" s="5">
         <v>380000</v>
       </c>
       <c r="C329" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E329" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B330" s="5">
         <v>450000</v>
       </c>
       <c r="C330" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E330" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B331" s="5">
         <v>310000</v>
       </c>
       <c r="C331" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E331" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B332" s="5">
         <v>293000</v>
       </c>
       <c r="C332" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E332" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B333" s="5">
         <v>253000</v>
       </c>
       <c r="C333" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E333" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B334" s="5">
         <v>200000</v>
       </c>
       <c r="C334" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E334" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B335" s="5">
         <v>145000</v>
       </c>
       <c r="C335" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E335" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B336" s="5">
         <v>138000</v>
       </c>
       <c r="C336" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E336" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B337" s="5">
         <v>158000</v>
       </c>
       <c r="C337" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E337" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B338" s="5">
         <v>143000</v>
       </c>
       <c r="C338" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E338" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B339" s="5">
         <v>102000</v>
       </c>
       <c r="C339" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E339" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B340" s="5">
         <v>89000</v>
       </c>
       <c r="C340" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E340" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B341" s="5">
         <v>127000</v>
       </c>
       <c r="C341" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E341" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B342" s="5">
         <v>465000</v>
       </c>
       <c r="C342" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E342" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/prices.xlsx
+++ b/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedemad/Downloads/phone_price_bot test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09042DF0-0B7B-B646-80C0-C00EF98E1F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7083A78C-FB68-A344-A368-5F7985A14B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="356">
   <si>
     <t>المتجر</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Infinix</t>
-  </si>
-  <si>
-    <t>Poco</t>
   </si>
   <si>
     <t>Realme</t>
@@ -1498,7 +1495,7 @@
   <dimension ref="A1:J342"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59:C66"/>
+      <selection activeCell="C69" sqref="C69:C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1531,7 +1528,7 @@
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>1365000</v>
@@ -1548,7 +1545,7 @@
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>1570750</v>
@@ -1565,7 +1562,7 @@
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1">
         <v>525000</v>
@@ -1582,7 +1579,7 @@
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1">
         <v>525000</v>
@@ -1599,7 +1596,7 @@
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1">
         <v>470000</v>
@@ -1616,7 +1613,7 @@
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1">
         <v>470000</v>
@@ -1633,7 +1630,7 @@
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1">
         <v>470000</v>
@@ -1650,7 +1647,7 @@
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
         <v>575000</v>
@@ -1667,7 +1664,7 @@
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1">
         <v>575000</v>
@@ -1684,7 +1681,7 @@
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1">
         <v>1600000</v>
@@ -1701,7 +1698,7 @@
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1">
         <v>1600000</v>
@@ -1718,7 +1715,7 @@
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1">
         <v>1065000</v>
@@ -1735,7 +1732,7 @@
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>1065000</v>
@@ -1752,7 +1749,7 @@
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1">
         <v>1210000</v>
@@ -1769,7 +1766,7 @@
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1">
         <v>1365000</v>
@@ -1786,7 +1783,7 @@
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1">
         <v>2300000</v>
@@ -1803,7 +1800,7 @@
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1">
         <v>1615000</v>
@@ -1820,7 +1817,7 @@
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1">
         <v>1615000</v>
@@ -1837,7 +1834,7 @@
     </row>
     <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1">
         <v>1615000</v>
@@ -1854,7 +1851,7 @@
     </row>
     <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1">
         <v>1980000</v>
@@ -1871,7 +1868,7 @@
     </row>
     <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1">
         <v>955000</v>
@@ -1888,7 +1885,7 @@
     </row>
     <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1">
         <v>1324500</v>
@@ -1905,7 +1902,7 @@
     </row>
     <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1">
         <v>768500</v>
@@ -1922,7 +1919,7 @@
     </row>
     <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1">
         <v>160000</v>
@@ -1939,7 +1936,7 @@
     </row>
     <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1">
         <v>160000</v>
@@ -1956,7 +1953,7 @@
     </row>
     <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1">
         <v>115000</v>
@@ -1973,7 +1970,7 @@
     </row>
     <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1">
         <v>115000</v>
@@ -1990,7 +1987,7 @@
     </row>
     <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1">
         <v>115000</v>
@@ -2007,7 +2004,7 @@
     </row>
     <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" s="1">
         <v>430000</v>
@@ -2024,7 +2021,7 @@
     </row>
     <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1">
         <v>480000</v>
@@ -2041,7 +2038,7 @@
     </row>
     <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="1">
         <v>480000</v>
@@ -2058,7 +2055,7 @@
     </row>
     <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="1">
         <v>480000</v>
@@ -2075,7 +2072,7 @@
     </row>
     <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="1">
         <v>1295000</v>
@@ -2092,7 +2089,7 @@
     </row>
     <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="1">
         <v>1295000</v>
@@ -2109,7 +2106,7 @@
     </row>
     <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="1">
         <v>795000</v>
@@ -2126,7 +2123,7 @@
     </row>
     <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="1">
         <v>335000</v>
@@ -2143,7 +2140,7 @@
     </row>
     <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" s="1">
         <v>115000</v>
@@ -2160,7 +2157,7 @@
     </row>
     <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="1">
         <v>260000</v>
@@ -2177,7 +2174,7 @@
     </row>
     <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" s="1">
         <v>285000</v>
@@ -2194,7 +2191,7 @@
     </row>
     <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" s="1">
         <v>130000</v>
@@ -2211,7 +2208,7 @@
     </row>
     <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" s="1">
         <v>145000</v>
@@ -2228,7 +2225,7 @@
     </row>
     <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B43" s="1">
         <v>145000</v>
@@ -2245,7 +2242,7 @@
     </row>
     <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" s="1">
         <v>145000</v>
@@ -2262,7 +2259,7 @@
     </row>
     <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="1">
         <v>180000</v>
@@ -2279,7 +2276,7 @@
     </row>
     <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46" s="1">
         <v>235000</v>
@@ -2296,7 +2293,7 @@
     </row>
     <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47" s="1">
         <v>235000</v>
@@ -2313,7 +2310,7 @@
     </row>
     <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48" s="1">
         <v>235000</v>
@@ -2330,7 +2327,7 @@
     </row>
     <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" s="1">
         <v>285000</v>
@@ -2347,7 +2344,7 @@
     </row>
     <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B50" s="1">
         <v>350000</v>
@@ -2364,7 +2361,7 @@
     </row>
     <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" s="1">
         <v>350000</v>
@@ -2381,7 +2378,7 @@
     </row>
     <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52" s="1">
         <v>350000</v>
@@ -2398,7 +2395,7 @@
     </row>
     <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53" s="1">
         <v>350000</v>
@@ -2415,7 +2412,7 @@
     </row>
     <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" s="1">
         <v>350000</v>
@@ -2432,7 +2429,7 @@
     </row>
     <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="1">
         <v>325000</v>
@@ -2449,7 +2446,7 @@
     </row>
     <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56" s="1">
         <v>325000</v>
@@ -2466,7 +2463,7 @@
     </row>
     <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B57" s="1">
         <v>185000</v>
@@ -2483,7 +2480,7 @@
     </row>
     <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58" s="1">
         <v>185000</v>
@@ -2500,13 +2497,13 @@
     </row>
     <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59" s="1">
         <v>430000</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>2</v>
@@ -2517,13 +2514,13 @@
     </row>
     <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60" s="1">
         <v>640000</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>2</v>
@@ -2534,13 +2531,13 @@
     </row>
     <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B61" s="1">
         <v>640000</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>2</v>
@@ -2551,13 +2548,13 @@
     </row>
     <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B62" s="1">
         <v>1120000</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>2</v>
@@ -2568,13 +2565,13 @@
     </row>
     <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63" s="1">
         <v>1475000</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>2</v>
@@ -2585,13 +2582,13 @@
     </row>
     <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B64" s="1">
         <v>270000</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>2</v>
@@ -2602,13 +2599,13 @@
     </row>
     <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B65" s="1">
         <v>270000</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>2</v>
@@ -2619,13 +2616,13 @@
     </row>
     <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" s="1">
         <v>190000</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>2</v>
@@ -2636,7 +2633,7 @@
     </row>
     <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B67" s="1">
         <v>310000</v>
@@ -2653,7 +2650,7 @@
     </row>
     <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68" s="1">
         <v>290000</v>
@@ -2670,13 +2667,13 @@
     </row>
     <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B69" s="1">
         <v>160000</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>2</v>
@@ -2687,13 +2684,13 @@
     </row>
     <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B70" s="1">
         <v>685000</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>2</v>
@@ -2704,13 +2701,13 @@
     </row>
     <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B71" s="1">
         <v>945000</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>2</v>
@@ -2721,13 +2718,13 @@
     </row>
     <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B72" s="1">
         <v>380000</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>2</v>
@@ -2738,13 +2735,13 @@
     </row>
     <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B73" s="1">
         <v>420000</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>2</v>
@@ -2755,13 +2752,13 @@
     </row>
     <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B74" s="1">
         <v>420000</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>2</v>
@@ -2772,13 +2769,13 @@
     </row>
     <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B75" s="1">
         <v>460000</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>2</v>
@@ -2789,13 +2786,13 @@
     </row>
     <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B76" s="1">
         <v>460000</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>2</v>
@@ -2806,13 +2803,13 @@
     </row>
     <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B77" s="1">
         <v>460000</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>2</v>
@@ -2823,13 +2820,13 @@
     </row>
     <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B78" s="1">
         <v>375000</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>2</v>
@@ -2840,13 +2837,13 @@
     </row>
     <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B79" s="1">
         <v>375000</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>2</v>
@@ -2857,13 +2854,13 @@
     </row>
     <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B80" s="1">
         <v>600000</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>2</v>
@@ -2874,13 +2871,13 @@
     </row>
     <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B81" s="1">
         <v>170000</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>2</v>
@@ -2891,13 +2888,13 @@
     </row>
     <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B82" s="1">
         <v>235000</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>2</v>
@@ -2908,13 +2905,13 @@
     </row>
     <row r="83" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B83" s="1">
         <v>235000</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>2</v>
@@ -2925,13 +2922,13 @@
     </row>
     <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B84" s="1">
         <v>205000</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>2</v>
@@ -2942,13 +2939,13 @@
     </row>
     <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B85" s="1">
         <v>120000</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>2</v>
@@ -2959,13 +2956,13 @@
     </row>
     <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B86" s="1">
         <v>120000</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>2</v>
@@ -2976,13 +2973,13 @@
     </row>
     <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B87" s="1">
         <v>105000</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>2</v>
@@ -2993,13 +2990,13 @@
     </row>
     <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B88" s="1">
         <v>225000</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>2</v>
@@ -3010,13 +3007,13 @@
     </row>
     <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B89" s="1">
         <v>225000</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>2</v>
@@ -3027,13 +3024,13 @@
     </row>
     <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B90" s="1">
         <v>360000</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>2</v>
@@ -3044,13 +3041,13 @@
     </row>
     <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B91" s="1">
         <v>360000</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>2</v>
@@ -3061,13 +3058,13 @@
     </row>
     <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B92" s="1">
         <v>365000</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>2</v>
@@ -3078,13 +3075,13 @@
     </row>
     <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B93" s="1">
         <v>425000</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>2</v>
@@ -3095,13 +3092,13 @@
     </row>
     <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B94" s="1">
         <v>300000</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>2</v>
@@ -3112,13 +3109,13 @@
     </row>
     <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B95" s="1">
         <v>500000</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>2</v>
@@ -3129,13 +3126,13 @@
     </row>
     <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B96" s="1">
         <v>245000</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>2</v>
@@ -3146,13 +3143,13 @@
     </row>
     <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B97" s="1">
         <v>230000</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>2</v>
@@ -3163,13 +3160,13 @@
     </row>
     <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B98" s="1">
         <v>230000</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>2</v>
@@ -3180,13 +3177,13 @@
     </row>
     <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B99" s="1">
         <v>230000</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>2</v>
@@ -3197,13 +3194,13 @@
     </row>
     <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B100" s="1">
         <v>320000</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>2</v>
@@ -3214,13 +3211,13 @@
     </row>
     <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B101" s="1">
         <v>230000</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>2</v>
@@ -3231,13 +3228,13 @@
     </row>
     <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B102" s="1">
         <v>230000</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>2</v>
@@ -3248,13 +3245,13 @@
     </row>
     <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B103" s="1">
         <v>130000</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>2</v>
@@ -3265,13 +3262,13 @@
     </row>
     <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B104" s="1">
         <v>160000</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>2</v>
@@ -3282,13 +3279,13 @@
     </row>
     <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B105" s="1">
         <v>160000</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>2</v>
@@ -3299,13 +3296,13 @@
     </row>
     <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B106" s="1">
         <v>160000</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>2</v>
@@ -3316,13 +3313,13 @@
     </row>
     <row r="107" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B107" s="1">
         <v>340000</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>2</v>
@@ -3333,13 +3330,13 @@
     </row>
     <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B108" s="1">
         <v>340000</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>2</v>
@@ -3350,13 +3347,13 @@
     </row>
     <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B109" s="1">
         <v>340000</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>2</v>
@@ -3367,13 +3364,13 @@
     </row>
     <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B110" s="1">
         <v>535000</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>2</v>
@@ -3384,13 +3381,13 @@
     </row>
     <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B111" s="1">
         <v>535000</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>2</v>
@@ -3401,13 +3398,13 @@
     </row>
     <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B112" s="1">
         <v>490000</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>2</v>
@@ -3418,13 +3415,13 @@
     </row>
     <row r="113" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B113" s="1">
         <v>490000</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>2</v>
@@ -3435,13 +3432,13 @@
     </row>
     <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B114" s="1">
         <v>490000</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>2</v>
@@ -3452,13 +3449,13 @@
     </row>
     <row r="115" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B115" s="1">
         <v>490000</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>2</v>
@@ -3469,13 +3466,13 @@
     </row>
     <row r="116" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B116" s="1">
         <v>1450000</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>2</v>
@@ -3486,13 +3483,13 @@
     </row>
     <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B117" s="1">
         <v>245000</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>2</v>
@@ -3503,13 +3500,13 @@
     </row>
     <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B118" s="1">
         <v>375000</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>2</v>
@@ -3520,13 +3517,13 @@
     </row>
     <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B119" s="1">
         <v>325000</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>2</v>
@@ -3537,13 +3534,13 @@
     </row>
     <row r="120" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B120" s="1">
         <v>1875000</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>2</v>
@@ -3554,13 +3551,13 @@
     </row>
     <row r="121" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B121" s="1">
         <v>2150000</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>2</v>
@@ -3571,13 +3568,13 @@
     </row>
     <row r="122" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B122" s="1">
         <v>2150000</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>2</v>
@@ -3588,13 +3585,13 @@
     </row>
     <row r="123" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B123" s="1">
         <v>1550000</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>2</v>
@@ -3605,13 +3602,13 @@
     </row>
     <row r="124" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B124" s="1">
         <v>1300000</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>2</v>
@@ -3622,13 +3619,13 @@
     </row>
     <row r="125" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B125" s="1">
         <v>1300000</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>2</v>
@@ -3639,13 +3636,13 @@
     </row>
     <row r="126" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B126" s="1">
         <v>250000</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>2</v>
@@ -3656,13 +3653,13 @@
     </row>
     <row r="127" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B127" s="1">
         <v>250000</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>2</v>
@@ -3673,13 +3670,13 @@
     </row>
     <row r="128" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B128" s="1">
         <v>475000</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>2</v>
@@ -3690,13 +3687,13 @@
     </row>
     <row r="129" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B129" s="1">
         <v>345000</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>2</v>
@@ -3707,13 +3704,13 @@
     </row>
     <row r="130" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B130" s="1">
         <v>345000</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>2</v>
@@ -3724,13 +3721,13 @@
     </row>
     <row r="131" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B131" s="1">
         <v>315000</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>2</v>
@@ -3741,13 +3738,13 @@
     </row>
     <row r="132" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B132" s="1">
         <v>315000</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>2</v>
@@ -3758,13 +3755,13 @@
     </row>
     <row r="133" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B133" s="1">
         <v>230000</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>2</v>
@@ -3775,13 +3772,13 @@
     </row>
     <row r="134" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B134" s="1">
         <v>230000</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>2</v>
@@ -3792,13 +3789,13 @@
     </row>
     <row r="135" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B135" s="1">
         <v>395000</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>2</v>
@@ -3809,13 +3806,13 @@
     </row>
     <row r="136" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B136" s="1">
         <v>395000</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>2</v>
@@ -3826,13 +3823,13 @@
     </row>
     <row r="137" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B137" s="1">
         <v>170000</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>2</v>
@@ -3843,13 +3840,13 @@
     </row>
     <row r="138" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B138" s="1">
         <v>170000</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>2</v>
@@ -3860,13 +3857,13 @@
     </row>
     <row r="139" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B139" s="1">
         <v>145000</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>2</v>
@@ -3877,13 +3874,13 @@
     </row>
     <row r="140" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B140" s="1">
         <v>145000</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>2</v>
@@ -3894,13 +3891,13 @@
     </row>
     <row r="141" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B141" s="1">
         <v>145000</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>2</v>
@@ -3911,13 +3908,13 @@
     </row>
     <row r="142" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B142" s="1">
         <v>145000</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>2</v>
@@ -3928,13 +3925,13 @@
     </row>
     <row r="143" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B143" s="1">
         <v>150000</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>2</v>
@@ -3945,13 +3942,13 @@
     </row>
     <row r="144" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B144" s="1">
         <v>150000</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>2</v>
@@ -3962,13 +3959,13 @@
     </row>
     <row r="145" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B145" s="1">
         <v>150000</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>2</v>
@@ -3979,13 +3976,13 @@
     </row>
     <row r="146" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B146" s="1">
         <v>115000</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>2</v>
@@ -3996,13 +3993,13 @@
     </row>
     <row r="147" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B147" s="1">
         <v>105000</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>2</v>
@@ -4013,13 +4010,13 @@
     </row>
     <row r="148" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B148" s="1">
         <v>30000</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>2</v>
@@ -4030,13 +4027,13 @@
     </row>
     <row r="149" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B149" s="1">
         <v>990000</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>2</v>
@@ -4047,13 +4044,13 @@
     </row>
     <row r="150" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B150" s="1">
         <v>1400000</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>2</v>
@@ -4064,13 +4061,13 @@
     </row>
     <row r="151" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B151" s="1">
         <v>515000</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>2</v>
@@ -4081,13 +4078,13 @@
     </row>
     <row r="152" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B152" s="1">
         <v>515000</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>2</v>
@@ -4098,13 +4095,13 @@
     </row>
     <row r="153" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B153" s="1">
         <v>465000</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>2</v>
@@ -4115,13 +4112,13 @@
     </row>
     <row r="154" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B154" s="1">
         <v>465000</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>2</v>
@@ -4132,13 +4129,13 @@
     </row>
     <row r="155" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B155" s="1">
         <v>670000</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>2</v>
@@ -4149,7 +4146,7 @@
     </row>
     <row r="156" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B156" s="5">
         <v>2295000</v>
@@ -4158,15 +4155,15 @@
         <v>7</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B157" s="5">
         <v>1975000</v>
@@ -4175,17 +4172,17 @@
         <v>7</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
     </row>
     <row r="158" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B158" s="5">
         <v>1620000</v>
@@ -4194,15 +4191,15 @@
         <v>7</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B159" s="5">
         <v>2185000</v>
@@ -4211,15 +4208,15 @@
         <v>7</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B160" s="5">
         <v>1970000</v>
@@ -4228,15 +4225,15 @@
         <v>7</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B161" s="5">
         <v>1700000</v>
@@ -4245,15 +4242,15 @@
         <v>7</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B162" s="5">
         <v>1555000</v>
@@ -4262,15 +4259,15 @@
         <v>7</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B163" s="5">
         <v>1400000</v>
@@ -4279,15 +4276,15 @@
         <v>7</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B164" s="5">
         <v>1365000</v>
@@ -4296,15 +4293,15 @@
         <v>7</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B165" s="5">
         <v>1215000</v>
@@ -4313,15 +4310,15 @@
         <v>7</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B166" s="5">
         <v>1215000</v>
@@ -4330,15 +4327,15 @@
         <v>7</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B167" s="5">
         <v>1065000</v>
@@ -4347,15 +4344,15 @@
         <v>7</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B168" s="5">
         <v>895000</v>
@@ -4364,15 +4361,15 @@
         <v>7</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B169" s="5">
         <v>1080000</v>
@@ -4381,15 +4378,15 @@
         <v>7</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B170" s="5">
         <v>600000</v>
@@ -4398,15 +4395,15 @@
         <v>7</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B171" s="5">
         <v>2650000</v>
@@ -4415,15 +4412,15 @@
         <v>7</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B172" s="5">
         <v>1850000</v>
@@ -4432,17 +4429,17 @@
         <v>7</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
     </row>
     <row r="173" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B173" s="5">
         <v>1499000</v>
@@ -4451,17 +4448,17 @@
         <v>7</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
     <row r="174" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B174" s="5">
         <v>1620000</v>
@@ -4470,17 +4467,17 @@
         <v>7</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
     <row r="175" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B175" s="5">
         <v>1205000</v>
@@ -4489,17 +4486,17 @@
         <v>7</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
     </row>
     <row r="176" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B176" s="5">
         <v>1620000</v>
@@ -4508,17 +4505,17 @@
         <v>7</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E176" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
     </row>
     <row r="177" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B177" s="5">
         <v>1050000</v>
@@ -4527,15 +4524,15 @@
         <v>7</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B178" s="5">
         <v>730000</v>
@@ -4544,15 +4541,15 @@
         <v>7</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B179" s="5">
         <v>860000</v>
@@ -4561,15 +4558,15 @@
         <v>7</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B180" s="5">
         <v>560000</v>
@@ -4578,15 +4575,15 @@
         <v>7</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B181" s="5">
         <v>435000</v>
@@ -4595,15 +4592,15 @@
         <v>7</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B182" s="5">
         <v>495000</v>
@@ -4612,15 +4609,15 @@
         <v>7</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B183" s="5">
         <v>405000</v>
@@ -4629,15 +4626,15 @@
         <v>7</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B184" s="5">
         <v>595000</v>
@@ -4646,788 +4643,788 @@
         <v>7</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B185" s="5">
         <v>2499000</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B186" s="5">
         <v>1479000</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E186" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B187" s="5">
         <v>1450000</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B188" s="5">
         <v>1300000</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E188" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B189" s="5">
         <v>1250000</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E189" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B190" s="5">
         <v>1150000</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B191" s="5">
         <v>570000</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B192" s="5">
         <v>450000</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B193" s="5">
         <v>395000</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B194" s="5">
         <v>435000</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B195" s="5">
         <v>210000</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B196" s="5">
         <v>185000</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I196" s="4"/>
     </row>
     <row r="197" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B197" s="5">
         <v>135000</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I197" s="4"/>
     </row>
     <row r="198" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B198" s="5">
         <v>70000</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E198" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I198" s="4"/>
     </row>
     <row r="199" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B199" s="5">
         <v>70000</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I199" s="4"/>
     </row>
     <row r="200" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B200" s="5">
         <v>30000</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E200" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I200" s="4"/>
     </row>
     <row r="201" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B201" s="5">
         <v>1890000</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I201" s="4"/>
     </row>
     <row r="202" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B202" s="5">
         <v>1650000</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I202" s="4"/>
     </row>
     <row r="203" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B203" s="5">
         <v>1440000</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I203" s="4"/>
     </row>
     <row r="204" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B204" s="5"/>
       <c r="C204" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I204" s="4"/>
     </row>
     <row r="205" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B205" s="5">
         <v>1520000</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E205" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I205" s="4"/>
     </row>
     <row r="206" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B206" s="5">
         <v>1410000</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B207" s="5">
         <v>1580000</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B208" s="5">
         <v>1190000</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B209" s="5">
         <v>395000</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E209" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B210" s="5">
         <v>1050000</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E210" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B211" s="5">
         <v>940000</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B212" s="5">
         <v>800000</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B213" s="5">
         <v>940000</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B214" s="5">
         <v>640000</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E214" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B215" s="5">
         <v>780000</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B216" s="5">
         <v>900000</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E216" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B217" s="5">
         <v>548000</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E217" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B218" s="5">
         <v>502000</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E218" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B219" s="5">
         <v>423000</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E219" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B220" s="5">
         <v>387000</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E220" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B221" s="5">
         <v>349000</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E221" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B222" s="5">
         <v>295000</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E222" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B223" s="5">
         <v>222000</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E223" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B224" s="5">
         <v>183000</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E224" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B225" s="5">
         <v>161000</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E225" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B226" s="5">
         <v>132000</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E226" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B227" s="5">
         <v>115000</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E227" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B228" s="5">
         <v>98000</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E228" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B229" s="5">
         <v>400000</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E229" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B230" s="5">
         <v>1290000</v>
@@ -5436,15 +5433,15 @@
         <v>9</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E230" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B231" s="5">
         <v>2050000</v>
@@ -5453,15 +5450,15 @@
         <v>9</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E231" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B232" s="5">
         <v>800000</v>
@@ -5470,15 +5467,15 @@
         <v>9</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E232" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B233" s="5">
         <v>480000</v>
@@ -5487,15 +5484,15 @@
         <v>9</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B234" s="5">
         <v>270000</v>
@@ -5504,15 +5501,15 @@
         <v>9</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E234" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B235" s="5">
         <v>350000</v>
@@ -5521,15 +5518,15 @@
         <v>9</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E235" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B236" s="5">
         <v>325000</v>
@@ -5538,15 +5535,15 @@
         <v>9</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E236" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B237" s="5">
         <v>325000</v>
@@ -5555,15 +5552,15 @@
         <v>9</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E237" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B238" s="5">
         <v>280000</v>
@@ -5572,15 +5569,15 @@
         <v>9</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E238" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B239" s="5">
         <v>230000</v>
@@ -5589,15 +5586,15 @@
         <v>9</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E239" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B240" s="5">
         <v>180000</v>
@@ -5606,15 +5603,15 @@
         <v>9</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E240" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B241" s="5">
         <v>145000</v>
@@ -5623,15 +5620,15 @@
         <v>9</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E241" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B242" s="5">
         <v>135000</v>
@@ -5640,15 +5637,15 @@
         <v>9</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E242" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B243" s="5">
         <v>799000</v>
@@ -5657,15 +5654,15 @@
         <v>9</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E243" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B244" s="5">
         <v>398000</v>
@@ -5674,15 +5671,15 @@
         <v>9</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E244" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B245" s="5">
         <v>335000</v>
@@ -5691,15 +5688,15 @@
         <v>9</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E245" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B246" s="5">
         <v>265000</v>
@@ -5708,15 +5705,15 @@
         <v>9</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E246" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B247" s="5">
         <v>295000</v>
@@ -5725,15 +5722,15 @@
         <v>9</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E247" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B248" s="5">
         <v>210000</v>
@@ -5742,15 +5739,15 @@
         <v>9</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E248" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B249" s="5">
         <v>182000</v>
@@ -5759,15 +5756,15 @@
         <v>9</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E249" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B250" s="5">
         <v>180000</v>
@@ -5776,15 +5773,15 @@
         <v>9</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E250" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B251" s="5">
         <v>114000</v>
@@ -5793,15 +5790,15 @@
         <v>9</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E251" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B252" s="5">
         <v>615000</v>
@@ -5810,15 +5807,15 @@
         <v>9</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E252" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B253" s="5">
         <v>45000</v>
@@ -5827,1290 +5824,1290 @@
         <v>9</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E253" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B254" s="5">
         <v>1400000</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B255" s="5">
         <v>980000</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B256" s="5">
         <v>745000</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B257" s="5">
         <v>501000</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E257" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B258" s="5">
         <v>418000</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E258" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B259" s="5">
         <v>356000</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E259" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B260" s="5">
         <v>347000</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E260" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B261" s="5">
         <v>287000</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E261" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B262" s="5">
         <v>268000</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E262" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B263" s="5">
         <v>222000</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E263" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B264" s="5">
         <v>164000</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B265" s="5">
         <v>148000</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E265" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B266" s="5">
         <v>103000</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E266" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B267" s="5">
         <v>88000</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B268" s="5">
         <v>927000</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B269" s="5">
         <v>687000</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E269" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B270" s="5">
         <v>559000</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E270" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B271" s="5">
         <v>495000</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E271" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B272" s="5">
         <v>459000</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E272" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B273" s="5">
         <v>415000</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B274" s="5">
         <v>360000</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E274" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B275" s="5">
         <v>304000</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E275" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B276" s="5">
         <v>276000</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E276" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B277" s="5">
         <v>148000</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E277" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B278" s="5">
         <v>105000</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E278" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B279" s="5">
         <v>664000</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E279" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B280" s="5">
         <v>507000</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E280" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B281" s="5">
         <v>461000</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E281" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B282" s="5">
         <v>710000</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E282" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B283" s="5">
         <v>321000</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E283" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B284" s="5">
         <v>265000</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E284" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B285" s="5">
         <v>252000</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E285" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B286" s="5">
         <v>229000</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E286" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B287" s="5">
         <v>192000</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E287" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B288" s="5">
         <v>314000</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E288" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B289" s="5">
         <v>1495000</v>
       </c>
       <c r="C289" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E289" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B290" s="5">
         <v>1183000</v>
       </c>
       <c r="C290" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E290" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B291" s="5">
         <v>652000</v>
       </c>
       <c r="C291" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E291" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B292" s="5">
         <v>435000</v>
       </c>
       <c r="C292" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E292" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B293" s="5">
         <v>283000</v>
       </c>
       <c r="C293" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E293" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B294" s="5">
         <v>193000</v>
       </c>
       <c r="C294" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E294" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B295" s="5">
         <v>268000</v>
       </c>
       <c r="C295" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E295" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B296" s="5">
         <v>170000</v>
       </c>
       <c r="C296" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E296" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B297" s="5">
         <v>237000</v>
       </c>
       <c r="C297" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E297" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B298" s="5">
         <v>268000</v>
       </c>
       <c r="C298" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E298" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B299" s="5">
         <v>810000</v>
       </c>
       <c r="C299" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E299" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B300" s="5">
         <v>590000</v>
       </c>
       <c r="C300" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E300" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B301" s="5">
         <v>590000</v>
       </c>
       <c r="C301" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E301" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B302" s="5">
         <v>810000</v>
       </c>
       <c r="C302" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E302" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B303" s="5">
         <v>745000</v>
       </c>
       <c r="C303" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E303" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B304" s="5">
         <v>223000</v>
       </c>
       <c r="C304" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E304" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B305" s="5">
         <v>169000</v>
       </c>
       <c r="C305" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E305" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B306" s="5">
         <v>125000</v>
       </c>
       <c r="C306" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E306" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B307" s="5">
         <v>89000</v>
       </c>
       <c r="C307" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E307" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B308" s="5">
         <v>49000</v>
       </c>
       <c r="C308" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E308" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B309" s="5">
         <v>35000</v>
       </c>
       <c r="C309" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E309" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B310" s="5">
         <v>184000</v>
       </c>
       <c r="C310" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E310" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B311" s="5">
         <v>125000</v>
       </c>
       <c r="C311" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E311" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B312" s="5">
         <v>90000</v>
       </c>
       <c r="C312" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E312" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B313" s="5">
         <v>49000</v>
       </c>
       <c r="C313" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E313" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B314" s="5">
         <v>470000</v>
       </c>
       <c r="C314" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E314" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B315" s="5">
         <v>345000</v>
       </c>
       <c r="C315" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E315" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B316" s="5">
         <v>315000</v>
       </c>
       <c r="C316" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E316" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B317" s="5">
         <v>255000</v>
       </c>
       <c r="C317" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E317" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B318" s="5">
         <v>399000</v>
       </c>
       <c r="C318" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E318" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B319" s="5">
         <v>155000</v>
       </c>
       <c r="C319" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E319" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B320" s="5">
         <v>145000</v>
       </c>
       <c r="C320" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E320" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B321" s="5">
         <v>146000</v>
       </c>
       <c r="C321" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E321" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B322" s="5">
         <v>189000</v>
       </c>
       <c r="C322" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E322" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B323" s="5">
         <v>107000</v>
       </c>
       <c r="C323" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E323" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B324" s="5">
         <v>95000</v>
       </c>
       <c r="C324" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E324" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B325" s="5">
         <v>98000</v>
       </c>
       <c r="C325" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E325" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B326" s="5">
         <v>115000</v>
       </c>
       <c r="C326" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E326" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B327" s="5">
         <v>215000</v>
       </c>
       <c r="C327" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E327" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B328" s="5">
         <v>136000</v>
       </c>
       <c r="C328" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E328" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B329" s="5">
         <v>380000</v>
@@ -7119,15 +7116,15 @@
         <v>10</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E329" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B330" s="5">
         <v>450000</v>
@@ -7136,15 +7133,15 @@
         <v>10</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E330" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B331" s="5">
         <v>310000</v>
@@ -7153,15 +7150,15 @@
         <v>10</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E331" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B332" s="5">
         <v>293000</v>
@@ -7170,15 +7167,15 @@
         <v>10</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E332" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B333" s="5">
         <v>253000</v>
@@ -7187,15 +7184,15 @@
         <v>10</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E333" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B334" s="5">
         <v>200000</v>
@@ -7204,15 +7201,15 @@
         <v>10</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E334" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B335" s="5">
         <v>145000</v>
@@ -7221,15 +7218,15 @@
         <v>10</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E335" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B336" s="5">
         <v>138000</v>
@@ -7238,15 +7235,15 @@
         <v>10</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E336" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B337" s="5">
         <v>158000</v>
@@ -7255,15 +7252,15 @@
         <v>10</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E337" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B338" s="5">
         <v>143000</v>
@@ -7272,15 +7269,15 @@
         <v>10</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E338" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B339" s="5">
         <v>102000</v>
@@ -7289,15 +7286,15 @@
         <v>10</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E339" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B340" s="5">
         <v>89000</v>
@@ -7306,15 +7303,15 @@
         <v>10</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E340" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B341" s="5">
         <v>127000</v>
@@ -7323,15 +7320,15 @@
         <v>10</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E341" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B342" s="5">
         <v>465000</v>
@@ -7340,10 +7337,10 @@
         <v>10</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E342" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/prices.xlsx
+++ b/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedemad/Downloads/phone_price_bot test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7083A78C-FB68-A344-A368-5F7985A14B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194DCFB9-4A39-8647-80C2-B77E35B5D5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1170,7 +1170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1178,9 +1178,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1188,6 +1185,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1495,13 +1500,13 @@
   <dimension ref="A1:J342"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69:C77"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.83203125" bestFit="1" customWidth="1"/>
@@ -1513,7 +1518,7 @@
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1530,7 +1535,7 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="9">
         <v>1365000</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1547,7 +1552,7 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="9">
         <v>1570750</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1564,7 +1569,7 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="9">
         <v>525000</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1581,7 +1586,7 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="9">
         <v>525000</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1598,7 +1603,7 @@
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="9">
         <v>470000</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1615,7 +1620,7 @@
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="9">
         <v>470000</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1632,7 +1637,7 @@
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="9">
         <v>470000</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1649,7 +1654,7 @@
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="9">
         <v>575000</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1666,7 +1671,7 @@
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="9">
         <v>575000</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1683,7 +1688,7 @@
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="9">
         <v>1600000</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1700,7 +1705,7 @@
       <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="9">
         <v>1600000</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1717,7 +1722,7 @@
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="9">
         <v>1065000</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1734,7 +1739,7 @@
       <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="9">
         <v>1065000</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1751,7 +1756,7 @@
       <c r="A15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="9">
         <v>1210000</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1768,7 +1773,7 @@
       <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="9">
         <v>1365000</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1785,7 +1790,7 @@
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="9">
         <v>2300000</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1802,7 +1807,7 @@
       <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="9">
         <v>1615000</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1819,7 +1824,7 @@
       <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="9">
         <v>1615000</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1836,7 +1841,7 @@
       <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="9">
         <v>1615000</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1853,7 +1858,7 @@
       <c r="A21" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="9">
         <v>1980000</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1870,7 +1875,7 @@
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="9">
         <v>955000</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1887,7 +1892,7 @@
       <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="9">
         <v>1324500</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1904,7 +1909,7 @@
       <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="9">
         <v>768500</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1921,7 +1926,7 @@
       <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="9">
         <v>160000</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1938,7 +1943,7 @@
       <c r="A26" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="9">
         <v>160000</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1955,7 +1960,7 @@
       <c r="A27" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="9">
         <v>115000</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1972,7 +1977,7 @@
       <c r="A28" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="9">
         <v>115000</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1989,7 +1994,7 @@
       <c r="A29" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="9">
         <v>115000</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2006,7 +2011,7 @@
       <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="9">
         <v>430000</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2023,7 +2028,7 @@
       <c r="A31" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="9">
         <v>480000</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2040,7 +2045,7 @@
       <c r="A32" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="9">
         <v>480000</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2057,7 +2062,7 @@
       <c r="A33" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="9">
         <v>480000</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2074,7 +2079,7 @@
       <c r="A34" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="9">
         <v>1295000</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2091,7 +2096,7 @@
       <c r="A35" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="9">
         <v>1295000</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2108,7 +2113,7 @@
       <c r="A36" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="9">
         <v>795000</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2125,7 +2130,7 @@
       <c r="A37" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="9">
         <v>335000</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2142,7 +2147,7 @@
       <c r="A38" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="9">
         <v>115000</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2159,7 +2164,7 @@
       <c r="A39" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="9">
         <v>260000</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -2176,7 +2181,7 @@
       <c r="A40" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="9">
         <v>285000</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -2193,7 +2198,7 @@
       <c r="A41" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="9">
         <v>130000</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -2210,7 +2215,7 @@
       <c r="A42" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="9">
         <v>145000</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2227,7 +2232,7 @@
       <c r="A43" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="9">
         <v>145000</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -2244,7 +2249,7 @@
       <c r="A44" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="9">
         <v>145000</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -2261,7 +2266,7 @@
       <c r="A45" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="9">
         <v>180000</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2278,7 +2283,7 @@
       <c r="A46" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="9">
         <v>235000</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -2295,7 +2300,7 @@
       <c r="A47" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="9">
         <v>235000</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -2312,7 +2317,7 @@
       <c r="A48" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="9">
         <v>235000</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -2329,7 +2334,7 @@
       <c r="A49" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="9">
         <v>285000</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -2346,7 +2351,7 @@
       <c r="A50" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="9">
         <v>350000</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -2363,7 +2368,7 @@
       <c r="A51" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="9">
         <v>350000</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -2380,7 +2385,7 @@
       <c r="A52" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="9">
         <v>350000</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2397,7 +2402,7 @@
       <c r="A53" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="9">
         <v>350000</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -2414,7 +2419,7 @@
       <c r="A54" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="9">
         <v>350000</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -2431,7 +2436,7 @@
       <c r="A55" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="9">
         <v>325000</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -2448,7 +2453,7 @@
       <c r="A56" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="9">
         <v>325000</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -2465,7 +2470,7 @@
       <c r="A57" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="9">
         <v>185000</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -2482,7 +2487,7 @@
       <c r="A58" t="s">
         <v>72</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="9">
         <v>185000</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -2499,7 +2504,7 @@
       <c r="A59" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="9">
         <v>430000</v>
       </c>
       <c r="C59" t="s">
@@ -2516,7 +2521,7 @@
       <c r="A60" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="9">
         <v>640000</v>
       </c>
       <c r="C60" t="s">
@@ -2533,7 +2538,7 @@
       <c r="A61" t="s">
         <v>75</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="9">
         <v>640000</v>
       </c>
       <c r="C61" t="s">
@@ -2550,7 +2555,7 @@
       <c r="A62" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="9">
         <v>1120000</v>
       </c>
       <c r="C62" t="s">
@@ -2567,7 +2572,7 @@
       <c r="A63" t="s">
         <v>77</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="9">
         <v>1475000</v>
       </c>
       <c r="C63" t="s">
@@ -2584,7 +2589,7 @@
       <c r="A64" t="s">
         <v>78</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="9">
         <v>270000</v>
       </c>
       <c r="C64" t="s">
@@ -2601,7 +2606,7 @@
       <c r="A65" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="9">
         <v>270000</v>
       </c>
       <c r="C65" t="s">
@@ -2618,7 +2623,7 @@
       <c r="A66" t="s">
         <v>80</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="9">
         <v>190000</v>
       </c>
       <c r="C66" t="s">
@@ -2635,7 +2640,7 @@
       <c r="A67" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="9">
         <v>310000</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -2652,7 +2657,7 @@
       <c r="A68" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="9">
         <v>290000</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -2669,7 +2674,7 @@
       <c r="A69" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="9">
         <v>160000</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -2686,7 +2691,7 @@
       <c r="A70" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="9">
         <v>685000</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -2703,7 +2708,7 @@
       <c r="A71" t="s">
         <v>85</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="9">
         <v>945000</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -2720,7 +2725,7 @@
       <c r="A72" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="9">
         <v>380000</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -2737,7 +2742,7 @@
       <c r="A73" t="s">
         <v>87</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="9">
         <v>420000</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -2754,7 +2759,7 @@
       <c r="A74" t="s">
         <v>88</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="9">
         <v>420000</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -2771,7 +2776,7 @@
       <c r="A75" t="s">
         <v>89</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="9">
         <v>460000</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -2788,7 +2793,7 @@
       <c r="A76" t="s">
         <v>90</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="9">
         <v>460000</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -2805,7 +2810,7 @@
       <c r="A77" t="s">
         <v>91</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="9">
         <v>460000</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -2822,7 +2827,7 @@
       <c r="A78" t="s">
         <v>92</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="9">
         <v>375000</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -2839,7 +2844,7 @@
       <c r="A79" t="s">
         <v>93</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="9">
         <v>375000</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -2856,7 +2861,7 @@
       <c r="A80" t="s">
         <v>94</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="9">
         <v>600000</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -2873,7 +2878,7 @@
       <c r="A81" t="s">
         <v>95</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="9">
         <v>170000</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -2890,7 +2895,7 @@
       <c r="A82" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="9">
         <v>235000</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -2907,7 +2912,7 @@
       <c r="A83" t="s">
         <v>97</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="9">
         <v>235000</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -2924,7 +2929,7 @@
       <c r="A84" t="s">
         <v>98</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="9">
         <v>205000</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -2941,7 +2946,7 @@
       <c r="A85" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="9">
         <v>120000</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -2958,7 +2963,7 @@
       <c r="A86" t="s">
         <v>100</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="9">
         <v>120000</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -2975,7 +2980,7 @@
       <c r="A87" t="s">
         <v>101</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="9">
         <v>105000</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -2992,7 +2997,7 @@
       <c r="A88" t="s">
         <v>102</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="9">
         <v>225000</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -3009,7 +3014,7 @@
       <c r="A89" t="s">
         <v>103</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="9">
         <v>225000</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -3026,7 +3031,7 @@
       <c r="A90" t="s">
         <v>104</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="9">
         <v>360000</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -3043,7 +3048,7 @@
       <c r="A91" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="9">
         <v>360000</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -3060,7 +3065,7 @@
       <c r="A92" t="s">
         <v>106</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="9">
         <v>365000</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -3077,7 +3082,7 @@
       <c r="A93" t="s">
         <v>107</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="9">
         <v>425000</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -3094,7 +3099,7 @@
       <c r="A94" t="s">
         <v>108</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="9">
         <v>300000</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -3111,7 +3116,7 @@
       <c r="A95" t="s">
         <v>109</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="9">
         <v>500000</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -3128,7 +3133,7 @@
       <c r="A96" t="s">
         <v>110</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="9">
         <v>245000</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -3145,7 +3150,7 @@
       <c r="A97" t="s">
         <v>111</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="9">
         <v>230000</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -3162,7 +3167,7 @@
       <c r="A98" t="s">
         <v>112</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="9">
         <v>230000</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -3179,7 +3184,7 @@
       <c r="A99" t="s">
         <v>113</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="9">
         <v>230000</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -3196,7 +3201,7 @@
       <c r="A100" t="s">
         <v>114</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="9">
         <v>320000</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -3213,7 +3218,7 @@
       <c r="A101" t="s">
         <v>115</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="9">
         <v>230000</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -3230,7 +3235,7 @@
       <c r="A102" t="s">
         <v>116</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="9">
         <v>230000</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -3247,7 +3252,7 @@
       <c r="A103" t="s">
         <v>117</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="9">
         <v>130000</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -3264,7 +3269,7 @@
       <c r="A104" t="s">
         <v>118</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="9">
         <v>160000</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -3281,7 +3286,7 @@
       <c r="A105" t="s">
         <v>119</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="9">
         <v>160000</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -3298,7 +3303,7 @@
       <c r="A106" t="s">
         <v>120</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="9">
         <v>160000</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -3315,7 +3320,7 @@
       <c r="A107" t="s">
         <v>121</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="9">
         <v>340000</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -3332,7 +3337,7 @@
       <c r="A108" t="s">
         <v>122</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="9">
         <v>340000</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -3349,7 +3354,7 @@
       <c r="A109" t="s">
         <v>123</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="9">
         <v>340000</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -3366,7 +3371,7 @@
       <c r="A110" t="s">
         <v>124</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="9">
         <v>535000</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -3383,7 +3388,7 @@
       <c r="A111" t="s">
         <v>125</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="9">
         <v>535000</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -3400,7 +3405,7 @@
       <c r="A112" t="s">
         <v>126</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="9">
         <v>490000</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -3417,7 +3422,7 @@
       <c r="A113" t="s">
         <v>127</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="9">
         <v>490000</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -3434,7 +3439,7 @@
       <c r="A114" t="s">
         <v>128</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="9">
         <v>490000</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -3451,7 +3456,7 @@
       <c r="A115" t="s">
         <v>129</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="9">
         <v>490000</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -3468,7 +3473,7 @@
       <c r="A116" t="s">
         <v>130</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="9">
         <v>1450000</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -3485,7 +3490,7 @@
       <c r="A117" t="s">
         <v>131</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="9">
         <v>245000</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -3502,7 +3507,7 @@
       <c r="A118" t="s">
         <v>132</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="9">
         <v>375000</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -3519,7 +3524,7 @@
       <c r="A119" t="s">
         <v>133</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="9">
         <v>325000</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -3536,7 +3541,7 @@
       <c r="A120" t="s">
         <v>134</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="9">
         <v>1875000</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -3553,7 +3558,7 @@
       <c r="A121" t="s">
         <v>135</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121" s="9">
         <v>2150000</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -3570,7 +3575,7 @@
       <c r="A122" t="s">
         <v>136</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="9">
         <v>2150000</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -3587,7 +3592,7 @@
       <c r="A123" t="s">
         <v>137</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="9">
         <v>1550000</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -3604,7 +3609,7 @@
       <c r="A124" t="s">
         <v>138</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="9">
         <v>1300000</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -3621,7 +3626,7 @@
       <c r="A125" t="s">
         <v>139</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125" s="9">
         <v>1300000</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -3638,7 +3643,7 @@
       <c r="A126" t="s">
         <v>140</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="9">
         <v>250000</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -3655,7 +3660,7 @@
       <c r="A127" t="s">
         <v>141</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="9">
         <v>250000</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -3672,7 +3677,7 @@
       <c r="A128" t="s">
         <v>142</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128" s="9">
         <v>475000</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -3689,7 +3694,7 @@
       <c r="A129" t="s">
         <v>143</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="9">
         <v>345000</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -3706,7 +3711,7 @@
       <c r="A130" t="s">
         <v>144</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130" s="9">
         <v>345000</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -3723,7 +3728,7 @@
       <c r="A131" t="s">
         <v>145</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="9">
         <v>315000</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -3740,7 +3745,7 @@
       <c r="A132" t="s">
         <v>146</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132" s="9">
         <v>315000</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -3757,7 +3762,7 @@
       <c r="A133" t="s">
         <v>147</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="9">
         <v>230000</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -3774,7 +3779,7 @@
       <c r="A134" t="s">
         <v>148</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="9">
         <v>230000</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -3791,7 +3796,7 @@
       <c r="A135" t="s">
         <v>149</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="9">
         <v>395000</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -3808,7 +3813,7 @@
       <c r="A136" t="s">
         <v>150</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="9">
         <v>395000</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -3825,7 +3830,7 @@
       <c r="A137" t="s">
         <v>151</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="9">
         <v>170000</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -3842,7 +3847,7 @@
       <c r="A138" t="s">
         <v>152</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="9">
         <v>170000</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -3859,7 +3864,7 @@
       <c r="A139" t="s">
         <v>153</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="9">
         <v>145000</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -3876,7 +3881,7 @@
       <c r="A140" t="s">
         <v>154</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="9">
         <v>145000</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -3893,7 +3898,7 @@
       <c r="A141" t="s">
         <v>155</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="9">
         <v>145000</v>
       </c>
       <c r="C141" s="1" t="s">
@@ -3910,7 +3915,7 @@
       <c r="A142" t="s">
         <v>156</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="9">
         <v>145000</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -3927,7 +3932,7 @@
       <c r="A143" t="s">
         <v>157</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="9">
         <v>150000</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -3944,7 +3949,7 @@
       <c r="A144" t="s">
         <v>158</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="9">
         <v>150000</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -3961,7 +3966,7 @@
       <c r="A145" t="s">
         <v>159</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="9">
         <v>150000</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -3978,7 +3983,7 @@
       <c r="A146" t="s">
         <v>160</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="9">
         <v>115000</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -3995,7 +4000,7 @@
       <c r="A147" t="s">
         <v>161</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147" s="9">
         <v>105000</v>
       </c>
       <c r="C147" s="1" t="s">
@@ -4012,7 +4017,7 @@
       <c r="A148" t="s">
         <v>162</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148" s="9">
         <v>30000</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -4029,7 +4034,7 @@
       <c r="A149" t="s">
         <v>163</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="9">
         <v>990000</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -4046,7 +4051,7 @@
       <c r="A150" t="s">
         <v>164</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="9">
         <v>1400000</v>
       </c>
       <c r="C150" s="1" t="s">
@@ -4063,7 +4068,7 @@
       <c r="A151" t="s">
         <v>165</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151" s="9">
         <v>515000</v>
       </c>
       <c r="C151" s="1" t="s">
@@ -4080,7 +4085,7 @@
       <c r="A152" t="s">
         <v>166</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152" s="9">
         <v>515000</v>
       </c>
       <c r="C152" s="1" t="s">
@@ -4097,7 +4102,7 @@
       <c r="A153" t="s">
         <v>167</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153" s="9">
         <v>465000</v>
       </c>
       <c r="C153" s="1" t="s">
@@ -4114,7 +4119,7 @@
       <c r="A154" t="s">
         <v>168</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154" s="9">
         <v>465000</v>
       </c>
       <c r="C154" s="1" t="s">
@@ -4131,7 +4136,7 @@
       <c r="A155" t="s">
         <v>169</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155" s="9">
         <v>670000</v>
       </c>
       <c r="C155" s="1" t="s">
@@ -4148,16 +4153,16 @@
       <c r="A156" t="s">
         <v>346</v>
       </c>
-      <c r="B156" s="5">
+      <c r="B156" s="10">
         <v>2295000</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D156" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E156" s="8" t="s">
+      <c r="D156" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E156" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4165,16 +4170,16 @@
       <c r="A157" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B157" s="5">
+      <c r="B157" s="10">
         <v>1975000</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D157" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E157" s="8" t="s">
+      <c r="D157" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E157" s="7" t="s">
         <v>345</v>
       </c>
       <c r="I157" s="4"/>
@@ -4184,16 +4189,16 @@
       <c r="A158" t="s">
         <v>347</v>
       </c>
-      <c r="B158" s="5">
+      <c r="B158" s="10">
         <v>1620000</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D158" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E158" s="8" t="s">
+      <c r="D158" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4201,16 +4206,16 @@
       <c r="A159" t="s">
         <v>354</v>
       </c>
-      <c r="B159" s="5">
+      <c r="B159" s="10">
         <v>2185000</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D159" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E159" s="8" t="s">
+      <c r="D159" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E159" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4218,16 +4223,16 @@
       <c r="A160" t="s">
         <v>352</v>
       </c>
-      <c r="B160" s="5">
+      <c r="B160" s="10">
         <v>1970000</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D160" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E160" s="8" t="s">
+      <c r="D160" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E160" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4235,16 +4240,16 @@
       <c r="A161" t="s">
         <v>353</v>
       </c>
-      <c r="B161" s="5">
+      <c r="B161" s="10">
         <v>1700000</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D161" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E161" s="8" t="s">
+      <c r="D161" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E161" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4252,16 +4257,16 @@
       <c r="A162" t="s">
         <v>351</v>
       </c>
-      <c r="B162" s="5">
+      <c r="B162" s="10">
         <v>1555000</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D162" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E162" s="8" t="s">
+      <c r="D162" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E162" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4269,16 +4274,16 @@
       <c r="A163" t="s">
         <v>170</v>
       </c>
-      <c r="B163" s="5">
+      <c r="B163" s="10">
         <v>1400000</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D163" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E163" s="8" t="s">
+      <c r="D163" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E163" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4286,16 +4291,16 @@
       <c r="A164" t="s">
         <v>349</v>
       </c>
-      <c r="B164" s="5">
+      <c r="B164" s="10">
         <v>1365000</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D164" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E164" s="8" t="s">
+      <c r="D164" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E164" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4303,33 +4308,33 @@
       <c r="A165" t="s">
         <v>350</v>
       </c>
-      <c r="B165" s="5">
+      <c r="B165" s="10">
         <v>1215000</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D165" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E165" s="8" t="s">
+      <c r="D165" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E165" s="7" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A166" s="7" t="s">
+      <c r="A166" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="B166" s="5">
+      <c r="B166" s="10">
         <v>1215000</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D166" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E166" s="8" t="s">
+      <c r="D166" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E166" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4337,16 +4342,16 @@
       <c r="A167" t="s">
         <v>171</v>
       </c>
-      <c r="B167" s="5">
+      <c r="B167" s="10">
         <v>1065000</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D167" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E167" s="8" t="s">
+      <c r="D167" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E167" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4354,16 +4359,16 @@
       <c r="A168" t="s">
         <v>172</v>
       </c>
-      <c r="B168" s="5">
+      <c r="B168" s="10">
         <v>895000</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D168" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E168" s="8" t="s">
+      <c r="D168" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E168" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4371,16 +4376,16 @@
       <c r="A169" t="s">
         <v>173</v>
       </c>
-      <c r="B169" s="5">
+      <c r="B169" s="10">
         <v>1080000</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D169" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E169" s="8" t="s">
+      <c r="D169" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E169" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4388,16 +4393,16 @@
       <c r="A170" t="s">
         <v>174</v>
       </c>
-      <c r="B170" s="5">
+      <c r="B170" s="10">
         <v>600000</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D170" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E170" s="8" t="s">
+      <c r="D170" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E170" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4405,16 +4410,16 @@
       <c r="A171" t="s">
         <v>175</v>
       </c>
-      <c r="B171" s="5">
+      <c r="B171" s="10">
         <v>2650000</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D171" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E171" s="8" t="s">
+      <c r="D171" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E171" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4422,16 +4427,16 @@
       <c r="A172" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B172" s="5">
+      <c r="B172" s="10">
         <v>1850000</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D172" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E172" s="8" t="s">
+      <c r="D172" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E172" s="7" t="s">
         <v>345</v>
       </c>
       <c r="I172" s="4"/>
@@ -4441,16 +4446,16 @@
       <c r="A173" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B173" s="5">
+      <c r="B173" s="10">
         <v>1499000</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D173" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E173" s="8" t="s">
+      <c r="D173" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E173" s="7" t="s">
         <v>345</v>
       </c>
       <c r="I173" s="4"/>
@@ -4460,16 +4465,16 @@
       <c r="A174" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B174" s="5">
+      <c r="B174" s="10">
         <v>1620000</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D174" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E174" s="8" t="s">
+      <c r="D174" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E174" s="7" t="s">
         <v>345</v>
       </c>
       <c r="I174" s="4"/>
@@ -4479,16 +4484,16 @@
       <c r="A175" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B175" s="5">
+      <c r="B175" s="10">
         <v>1205000</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D175" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E175" s="8" t="s">
+      <c r="D175" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E175" s="7" t="s">
         <v>345</v>
       </c>
       <c r="I175" s="4"/>
@@ -4498,16 +4503,16 @@
       <c r="A176" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B176" s="5">
+      <c r="B176" s="10">
         <v>1620000</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D176" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E176" s="8" t="s">
+      <c r="D176" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E176" s="7" t="s">
         <v>345</v>
       </c>
       <c r="I176" s="4"/>
@@ -4517,16 +4522,16 @@
       <c r="A177" t="s">
         <v>181</v>
       </c>
-      <c r="B177" s="5">
+      <c r="B177" s="10">
         <v>1050000</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D177" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E177" s="8" t="s">
+      <c r="D177" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E177" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4534,16 +4539,16 @@
       <c r="A178" t="s">
         <v>182</v>
       </c>
-      <c r="B178" s="5">
+      <c r="B178" s="10">
         <v>730000</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D178" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E178" s="8" t="s">
+      <c r="D178" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E178" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4551,16 +4556,16 @@
       <c r="A179" t="s">
         <v>183</v>
       </c>
-      <c r="B179" s="5">
+      <c r="B179" s="10">
         <v>860000</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D179" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E179" s="8" t="s">
+      <c r="D179" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E179" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4568,16 +4573,16 @@
       <c r="A180" t="s">
         <v>184</v>
       </c>
-      <c r="B180" s="5">
+      <c r="B180" s="10">
         <v>560000</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D180" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E180" s="8" t="s">
+      <c r="D180" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E180" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4585,16 +4590,16 @@
       <c r="A181" t="s">
         <v>185</v>
       </c>
-      <c r="B181" s="5">
+      <c r="B181" s="10">
         <v>435000</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D181" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E181" s="8" t="s">
+      <c r="D181" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E181" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4602,16 +4607,16 @@
       <c r="A182" t="s">
         <v>186</v>
       </c>
-      <c r="B182" s="5">
+      <c r="B182" s="10">
         <v>495000</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D182" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E182" s="8" t="s">
+      <c r="D182" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E182" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4619,16 +4624,16 @@
       <c r="A183" t="s">
         <v>187</v>
       </c>
-      <c r="B183" s="5">
+      <c r="B183" s="10">
         <v>405000</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D183" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E183" s="8" t="s">
+      <c r="D183" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E183" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4636,16 +4641,16 @@
       <c r="A184" t="s">
         <v>188</v>
       </c>
-      <c r="B184" s="5">
+      <c r="B184" s="10">
         <v>595000</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D184" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E184" s="8" t="s">
+      <c r="D184" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E184" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4653,16 +4658,16 @@
       <c r="A185" t="s">
         <v>189</v>
       </c>
-      <c r="B185" s="5">
+      <c r="B185" s="10">
         <v>2499000</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D185" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E185" s="8" t="s">
+      <c r="D185" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E185" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4670,16 +4675,16 @@
       <c r="A186" t="s">
         <v>190</v>
       </c>
-      <c r="B186" s="5">
+      <c r="B186" s="10">
         <v>1479000</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D186" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E186" s="8" t="s">
+      <c r="D186" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E186" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4687,16 +4692,16 @@
       <c r="A187" t="s">
         <v>191</v>
       </c>
-      <c r="B187" s="5">
+      <c r="B187" s="10">
         <v>1450000</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D187" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E187" s="8" t="s">
+      <c r="D187" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E187" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4704,16 +4709,16 @@
       <c r="A188" t="s">
         <v>192</v>
       </c>
-      <c r="B188" s="5">
+      <c r="B188" s="10">
         <v>1300000</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D188" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E188" s="8" t="s">
+      <c r="D188" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E188" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4721,16 +4726,16 @@
       <c r="A189" t="s">
         <v>193</v>
       </c>
-      <c r="B189" s="5">
+      <c r="B189" s="10">
         <v>1250000</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D189" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E189" s="8" t="s">
+      <c r="D189" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E189" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4738,16 +4743,16 @@
       <c r="A190" t="s">
         <v>194</v>
       </c>
-      <c r="B190" s="5">
+      <c r="B190" s="10">
         <v>1150000</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D190" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E190" s="8" t="s">
+      <c r="D190" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E190" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4755,16 +4760,16 @@
       <c r="A191" t="s">
         <v>195</v>
       </c>
-      <c r="B191" s="5">
+      <c r="B191" s="10">
         <v>570000</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D191" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E191" s="8" t="s">
+      <c r="D191" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E191" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4772,16 +4777,16 @@
       <c r="A192" t="s">
         <v>196</v>
       </c>
-      <c r="B192" s="5">
+      <c r="B192" s="10">
         <v>450000</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D192" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E192" s="8" t="s">
+      <c r="D192" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E192" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4789,16 +4794,16 @@
       <c r="A193" t="s">
         <v>197</v>
       </c>
-      <c r="B193" s="5">
+      <c r="B193" s="10">
         <v>395000</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D193" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E193" s="8" t="s">
+      <c r="D193" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E193" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4806,16 +4811,16 @@
       <c r="A194" t="s">
         <v>198</v>
       </c>
-      <c r="B194" s="5">
+      <c r="B194" s="10">
         <v>435000</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D194" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E194" s="8" t="s">
+      <c r="D194" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E194" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4823,16 +4828,16 @@
       <c r="A195" t="s">
         <v>199</v>
       </c>
-      <c r="B195" s="5">
+      <c r="B195" s="10">
         <v>210000</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D195" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E195" s="8" t="s">
+      <c r="D195" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E195" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4840,16 +4845,16 @@
       <c r="A196" t="s">
         <v>200</v>
       </c>
-      <c r="B196" s="5">
+      <c r="B196" s="10">
         <v>185000</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D196" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E196" s="8" t="s">
+      <c r="D196" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E196" s="7" t="s">
         <v>345</v>
       </c>
       <c r="I196" s="4"/>
@@ -4858,16 +4863,16 @@
       <c r="A197" t="s">
         <v>201</v>
       </c>
-      <c r="B197" s="5">
+      <c r="B197" s="10">
         <v>135000</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D197" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E197" s="8" t="s">
+      <c r="D197" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E197" s="7" t="s">
         <v>345</v>
       </c>
       <c r="I197" s="4"/>
@@ -4876,16 +4881,16 @@
       <c r="A198" t="s">
         <v>202</v>
       </c>
-      <c r="B198" s="5">
+      <c r="B198" s="10">
         <v>70000</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D198" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E198" s="8" t="s">
+      <c r="D198" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E198" s="7" t="s">
         <v>345</v>
       </c>
       <c r="I198" s="4"/>
@@ -4894,16 +4899,16 @@
       <c r="A199" t="s">
         <v>203</v>
       </c>
-      <c r="B199" s="5">
+      <c r="B199" s="10">
         <v>70000</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D199" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E199" s="8" t="s">
+      <c r="D199" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E199" s="7" t="s">
         <v>345</v>
       </c>
       <c r="I199" s="4"/>
@@ -4912,16 +4917,16 @@
       <c r="A200" t="s">
         <v>204</v>
       </c>
-      <c r="B200" s="5">
+      <c r="B200" s="10">
         <v>30000</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D200" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E200" s="8" t="s">
+      <c r="D200" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E200" s="7" t="s">
         <v>345</v>
       </c>
       <c r="I200" s="4"/>
@@ -4930,16 +4935,16 @@
       <c r="A201" t="s">
         <v>205</v>
       </c>
-      <c r="B201" s="5">
+      <c r="B201" s="10">
         <v>1890000</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D201" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E201" s="8" t="s">
+      <c r="D201" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E201" s="7" t="s">
         <v>345</v>
       </c>
       <c r="I201" s="4"/>
@@ -4948,16 +4953,16 @@
       <c r="A202" t="s">
         <v>206</v>
       </c>
-      <c r="B202" s="5">
+      <c r="B202" s="10">
         <v>1650000</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D202" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E202" s="8" t="s">
+      <c r="D202" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E202" s="7" t="s">
         <v>345</v>
       </c>
       <c r="I202" s="4"/>
@@ -4966,16 +4971,16 @@
       <c r="A203" t="s">
         <v>207</v>
       </c>
-      <c r="B203" s="5">
+      <c r="B203" s="10">
         <v>1440000</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D203" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E203" s="8" t="s">
+      <c r="D203" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E203" s="7" t="s">
         <v>345</v>
       </c>
       <c r="I203" s="4"/>
@@ -4984,14 +4989,14 @@
       <c r="A204" t="s">
         <v>208</v>
       </c>
-      <c r="B204" s="5"/>
+      <c r="B204" s="10"/>
       <c r="C204" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D204" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E204" s="8" t="s">
+      <c r="D204" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E204" s="7" t="s">
         <v>345</v>
       </c>
       <c r="I204" s="4"/>
@@ -5000,16 +5005,16 @@
       <c r="A205" t="s">
         <v>209</v>
       </c>
-      <c r="B205" s="5">
+      <c r="B205" s="10">
         <v>1520000</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D205" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E205" s="8" t="s">
+      <c r="D205" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E205" s="7" t="s">
         <v>345</v>
       </c>
       <c r="I205" s="4"/>
@@ -5018,16 +5023,16 @@
       <c r="A206" t="s">
         <v>210</v>
       </c>
-      <c r="B206" s="5">
+      <c r="B206" s="10">
         <v>1410000</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D206" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E206" s="8" t="s">
+      <c r="D206" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E206" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5035,16 +5040,16 @@
       <c r="A207" t="s">
         <v>211</v>
       </c>
-      <c r="B207" s="5">
+      <c r="B207" s="10">
         <v>1580000</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D207" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E207" s="8" t="s">
+      <c r="D207" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E207" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5052,16 +5057,16 @@
       <c r="A208" t="s">
         <v>212</v>
       </c>
-      <c r="B208" s="5">
+      <c r="B208" s="10">
         <v>1190000</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D208" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E208" s="8" t="s">
+      <c r="D208" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E208" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5069,16 +5074,16 @@
       <c r="A209" t="s">
         <v>213</v>
       </c>
-      <c r="B209" s="5">
+      <c r="B209" s="10">
         <v>395000</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D209" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E209" s="8" t="s">
+      <c r="D209" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E209" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5086,16 +5091,16 @@
       <c r="A210" t="s">
         <v>214</v>
       </c>
-      <c r="B210" s="5">
+      <c r="B210" s="10">
         <v>1050000</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D210" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E210" s="8" t="s">
+      <c r="D210" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E210" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5103,16 +5108,16 @@
       <c r="A211" t="s">
         <v>215</v>
       </c>
-      <c r="B211" s="5">
+      <c r="B211" s="10">
         <v>940000</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D211" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E211" s="8" t="s">
+      <c r="D211" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E211" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5120,16 +5125,16 @@
       <c r="A212" t="s">
         <v>216</v>
       </c>
-      <c r="B212" s="5">
+      <c r="B212" s="10">
         <v>800000</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D212" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E212" s="8" t="s">
+      <c r="D212" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E212" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5137,16 +5142,16 @@
       <c r="A213" t="s">
         <v>217</v>
       </c>
-      <c r="B213" s="5">
+      <c r="B213" s="10">
         <v>940000</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D213" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E213" s="8" t="s">
+      <c r="D213" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E213" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5154,16 +5159,16 @@
       <c r="A214" t="s">
         <v>218</v>
       </c>
-      <c r="B214" s="5">
+      <c r="B214" s="10">
         <v>640000</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D214" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E214" s="8" t="s">
+      <c r="D214" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E214" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5171,16 +5176,16 @@
       <c r="A215" t="s">
         <v>218</v>
       </c>
-      <c r="B215" s="5">
+      <c r="B215" s="10">
         <v>780000</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D215" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E215" s="8" t="s">
+      <c r="D215" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E215" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5188,16 +5193,16 @@
       <c r="A216" t="s">
         <v>219</v>
       </c>
-      <c r="B216" s="5">
+      <c r="B216" s="10">
         <v>900000</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D216" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E216" s="8" t="s">
+      <c r="D216" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E216" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5205,16 +5210,16 @@
       <c r="A217" t="s">
         <v>220</v>
       </c>
-      <c r="B217" s="5">
+      <c r="B217" s="10">
         <v>548000</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D217" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E217" s="8" t="s">
+      <c r="D217" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E217" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5222,16 +5227,16 @@
       <c r="A218" t="s">
         <v>221</v>
       </c>
-      <c r="B218" s="5">
+      <c r="B218" s="10">
         <v>502000</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D218" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E218" s="8" t="s">
+      <c r="D218" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E218" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5239,16 +5244,16 @@
       <c r="A219" t="s">
         <v>222</v>
       </c>
-      <c r="B219" s="5">
+      <c r="B219" s="10">
         <v>423000</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D219" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E219" s="8" t="s">
+      <c r="D219" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E219" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5256,16 +5261,16 @@
       <c r="A220" t="s">
         <v>223</v>
       </c>
-      <c r="B220" s="5">
+      <c r="B220" s="10">
         <v>387000</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D220" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E220" s="8" t="s">
+      <c r="D220" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E220" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5273,16 +5278,16 @@
       <c r="A221" t="s">
         <v>224</v>
       </c>
-      <c r="B221" s="5">
+      <c r="B221" s="10">
         <v>349000</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D221" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E221" s="8" t="s">
+      <c r="D221" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E221" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5290,16 +5295,16 @@
       <c r="A222" t="s">
         <v>225</v>
       </c>
-      <c r="B222" s="5">
+      <c r="B222" s="10">
         <v>295000</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D222" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E222" s="8" t="s">
+      <c r="D222" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E222" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5307,16 +5312,16 @@
       <c r="A223" t="s">
         <v>226</v>
       </c>
-      <c r="B223" s="5">
+      <c r="B223" s="10">
         <v>222000</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D223" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E223" s="8" t="s">
+      <c r="D223" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E223" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5324,16 +5329,16 @@
       <c r="A224" t="s">
         <v>227</v>
       </c>
-      <c r="B224" s="5">
+      <c r="B224" s="10">
         <v>183000</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D224" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E224" s="8" t="s">
+      <c r="D224" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E224" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5341,16 +5346,16 @@
       <c r="A225" t="s">
         <v>227</v>
       </c>
-      <c r="B225" s="5">
+      <c r="B225" s="10">
         <v>161000</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D225" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E225" s="8" t="s">
+      <c r="D225" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E225" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5358,16 +5363,16 @@
       <c r="A226" t="s">
         <v>228</v>
       </c>
-      <c r="B226" s="5">
+      <c r="B226" s="10">
         <v>132000</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D226" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E226" s="8" t="s">
+      <c r="D226" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E226" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5375,16 +5380,16 @@
       <c r="A227" t="s">
         <v>229</v>
       </c>
-      <c r="B227" s="5">
+      <c r="B227" s="10">
         <v>115000</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D227" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E227" s="8" t="s">
+      <c r="D227" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E227" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5392,16 +5397,16 @@
       <c r="A228" t="s">
         <v>230</v>
       </c>
-      <c r="B228" s="5">
+      <c r="B228" s="10">
         <v>98000</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D228" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E228" s="8" t="s">
+      <c r="D228" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E228" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5409,16 +5414,16 @@
       <c r="A229" t="s">
         <v>231</v>
       </c>
-      <c r="B229" s="5">
+      <c r="B229" s="10">
         <v>400000</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D229" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E229" s="8" t="s">
+      <c r="D229" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E229" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5426,16 +5431,16 @@
       <c r="A230" t="s">
         <v>232</v>
       </c>
-      <c r="B230" s="5">
+      <c r="B230" s="10">
         <v>1290000</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D230" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E230" s="8" t="s">
+      <c r="D230" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E230" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5443,16 +5448,16 @@
       <c r="A231" t="s">
         <v>233</v>
       </c>
-      <c r="B231" s="5">
+      <c r="B231" s="10">
         <v>2050000</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D231" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E231" s="8" t="s">
+      <c r="D231" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E231" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5460,16 +5465,16 @@
       <c r="A232" t="s">
         <v>234</v>
       </c>
-      <c r="B232" s="5">
+      <c r="B232" s="10">
         <v>800000</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D232" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E232" s="8" t="s">
+      <c r="D232" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E232" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5477,16 +5482,16 @@
       <c r="A233" t="s">
         <v>235</v>
       </c>
-      <c r="B233" s="5">
+      <c r="B233" s="10">
         <v>480000</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D233" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E233" s="8" t="s">
+      <c r="D233" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E233" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5494,16 +5499,16 @@
       <c r="A234" t="s">
         <v>236</v>
       </c>
-      <c r="B234" s="5">
+      <c r="B234" s="10">
         <v>270000</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D234" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E234" s="8" t="s">
+      <c r="D234" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E234" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5511,16 +5516,16 @@
       <c r="A235" t="s">
         <v>237</v>
       </c>
-      <c r="B235" s="5">
+      <c r="B235" s="10">
         <v>350000</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D235" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E235" s="8" t="s">
+      <c r="D235" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E235" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5528,16 +5533,16 @@
       <c r="A236" t="s">
         <v>238</v>
       </c>
-      <c r="B236" s="5">
+      <c r="B236" s="10">
         <v>325000</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D236" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E236" s="8" t="s">
+      <c r="D236" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E236" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5545,16 +5550,16 @@
       <c r="A237" t="s">
         <v>239</v>
       </c>
-      <c r="B237" s="5">
+      <c r="B237" s="10">
         <v>325000</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D237" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E237" s="8" t="s">
+      <c r="D237" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E237" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5562,16 +5567,16 @@
       <c r="A238" t="s">
         <v>240</v>
       </c>
-      <c r="B238" s="5">
+      <c r="B238" s="10">
         <v>280000</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D238" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E238" s="8" t="s">
+      <c r="D238" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E238" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5579,16 +5584,16 @@
       <c r="A239" t="s">
         <v>241</v>
       </c>
-      <c r="B239" s="5">
+      <c r="B239" s="10">
         <v>230000</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D239" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E239" s="8" t="s">
+      <c r="D239" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E239" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5596,16 +5601,16 @@
       <c r="A240" t="s">
         <v>242</v>
       </c>
-      <c r="B240" s="5">
+      <c r="B240" s="10">
         <v>180000</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D240" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E240" s="8" t="s">
+      <c r="D240" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E240" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5613,16 +5618,16 @@
       <c r="A241" t="s">
         <v>243</v>
       </c>
-      <c r="B241" s="5">
+      <c r="B241" s="10">
         <v>145000</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D241" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E241" s="8" t="s">
+      <c r="D241" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E241" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5630,16 +5635,16 @@
       <c r="A242" t="s">
         <v>244</v>
       </c>
-      <c r="B242" s="5">
+      <c r="B242" s="10">
         <v>135000</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D242" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E242" s="8" t="s">
+      <c r="D242" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E242" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5647,16 +5652,16 @@
       <c r="A243" t="s">
         <v>245</v>
       </c>
-      <c r="B243" s="5">
+      <c r="B243" s="10">
         <v>799000</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D243" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E243" s="8" t="s">
+      <c r="D243" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E243" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5664,16 +5669,16 @@
       <c r="A244" t="s">
         <v>246</v>
       </c>
-      <c r="B244" s="5">
+      <c r="B244" s="10">
         <v>398000</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D244" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E244" s="8" t="s">
+      <c r="D244" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E244" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5681,16 +5686,16 @@
       <c r="A245" t="s">
         <v>247</v>
       </c>
-      <c r="B245" s="5">
+      <c r="B245" s="10">
         <v>335000</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D245" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E245" s="8" t="s">
+      <c r="D245" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E245" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5698,16 +5703,16 @@
       <c r="A246" t="s">
         <v>248</v>
       </c>
-      <c r="B246" s="5">
+      <c r="B246" s="10">
         <v>265000</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D246" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E246" s="8" t="s">
+      <c r="D246" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E246" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5715,16 +5720,16 @@
       <c r="A247" t="s">
         <v>249</v>
       </c>
-      <c r="B247" s="5">
+      <c r="B247" s="10">
         <v>295000</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D247" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E247" s="8" t="s">
+      <c r="D247" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E247" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5732,16 +5737,16 @@
       <c r="A248" t="s">
         <v>250</v>
       </c>
-      <c r="B248" s="5">
+      <c r="B248" s="10">
         <v>210000</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D248" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E248" s="8" t="s">
+      <c r="D248" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E248" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5749,16 +5754,16 @@
       <c r="A249" t="s">
         <v>251</v>
       </c>
-      <c r="B249" s="5">
+      <c r="B249" s="10">
         <v>182000</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D249" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E249" s="8" t="s">
+      <c r="D249" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E249" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5766,16 +5771,16 @@
       <c r="A250" t="s">
         <v>252</v>
       </c>
-      <c r="B250" s="5">
+      <c r="B250" s="10">
         <v>180000</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D250" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E250" s="8" t="s">
+      <c r="D250" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E250" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5783,16 +5788,16 @@
       <c r="A251" t="s">
         <v>253</v>
       </c>
-      <c r="B251" s="5">
+      <c r="B251" s="10">
         <v>114000</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D251" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E251" s="8" t="s">
+      <c r="D251" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E251" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5800,16 +5805,16 @@
       <c r="A252" t="s">
         <v>254</v>
       </c>
-      <c r="B252" s="5">
+      <c r="B252" s="10">
         <v>615000</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D252" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E252" s="8" t="s">
+      <c r="D252" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E252" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5817,16 +5822,16 @@
       <c r="A253" t="s">
         <v>255</v>
       </c>
-      <c r="B253" s="5">
+      <c r="B253" s="10">
         <v>45000</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D253" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E253" s="8" t="s">
+      <c r="D253" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E253" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5834,16 +5839,16 @@
       <c r="A254" t="s">
         <v>256</v>
       </c>
-      <c r="B254" s="5">
+      <c r="B254" s="10">
         <v>1400000</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D254" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E254" s="8" t="s">
+      <c r="D254" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E254" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5851,16 +5856,16 @@
       <c r="A255" t="s">
         <v>257</v>
       </c>
-      <c r="B255" s="5">
+      <c r="B255" s="10">
         <v>980000</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D255" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E255" s="8" t="s">
+      <c r="D255" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E255" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5868,16 +5873,16 @@
       <c r="A256" t="s">
         <v>258</v>
       </c>
-      <c r="B256" s="5">
+      <c r="B256" s="10">
         <v>745000</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D256" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E256" s="8" t="s">
+      <c r="D256" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E256" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5885,16 +5890,16 @@
       <c r="A257" t="s">
         <v>259</v>
       </c>
-      <c r="B257" s="5">
+      <c r="B257" s="10">
         <v>501000</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D257" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E257" s="8" t="s">
+      <c r="D257" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E257" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5902,16 +5907,16 @@
       <c r="A258" t="s">
         <v>260</v>
       </c>
-      <c r="B258" s="5">
+      <c r="B258" s="10">
         <v>418000</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D258" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E258" s="8" t="s">
+      <c r="D258" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E258" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5919,16 +5924,16 @@
       <c r="A259" t="s">
         <v>261</v>
       </c>
-      <c r="B259" s="5">
+      <c r="B259" s="10">
         <v>356000</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D259" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E259" s="8" t="s">
+      <c r="D259" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E259" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5936,16 +5941,16 @@
       <c r="A260" t="s">
         <v>262</v>
       </c>
-      <c r="B260" s="5">
+      <c r="B260" s="10">
         <v>347000</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D260" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E260" s="8" t="s">
+      <c r="D260" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E260" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5953,16 +5958,16 @@
       <c r="A261" t="s">
         <v>263</v>
       </c>
-      <c r="B261" s="5">
+      <c r="B261" s="10">
         <v>287000</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D261" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E261" s="8" t="s">
+      <c r="D261" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E261" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5970,16 +5975,16 @@
       <c r="A262" t="s">
         <v>264</v>
       </c>
-      <c r="B262" s="5">
+      <c r="B262" s="10">
         <v>268000</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D262" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E262" s="8" t="s">
+      <c r="D262" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E262" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5987,16 +5992,16 @@
       <c r="A263" t="s">
         <v>265</v>
       </c>
-      <c r="B263" s="5">
+      <c r="B263" s="10">
         <v>222000</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D263" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E263" s="8" t="s">
+      <c r="D263" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E263" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6004,16 +6009,16 @@
       <c r="A264" t="s">
         <v>266</v>
       </c>
-      <c r="B264" s="5">
+      <c r="B264" s="10">
         <v>164000</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D264" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E264" s="8" t="s">
+      <c r="D264" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E264" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6021,16 +6026,16 @@
       <c r="A265" t="s">
         <v>267</v>
       </c>
-      <c r="B265" s="5">
+      <c r="B265" s="10">
         <v>148000</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D265" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E265" s="8" t="s">
+      <c r="D265" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E265" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6038,16 +6043,16 @@
       <c r="A266" t="s">
         <v>268</v>
       </c>
-      <c r="B266" s="5">
+      <c r="B266" s="10">
         <v>103000</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D266" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E266" s="8" t="s">
+      <c r="D266" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E266" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6055,16 +6060,16 @@
       <c r="A267" t="s">
         <v>269</v>
       </c>
-      <c r="B267" s="5">
+      <c r="B267" s="10">
         <v>88000</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D267" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E267" s="8" t="s">
+      <c r="D267" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E267" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6072,16 +6077,16 @@
       <c r="A268" t="s">
         <v>270</v>
       </c>
-      <c r="B268" s="5">
+      <c r="B268" s="10">
         <v>927000</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D268" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E268" s="8" t="s">
+      <c r="D268" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E268" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6089,16 +6094,16 @@
       <c r="A269" t="s">
         <v>271</v>
       </c>
-      <c r="B269" s="5">
+      <c r="B269" s="10">
         <v>687000</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D269" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E269" s="8" t="s">
+      <c r="D269" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E269" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6106,16 +6111,16 @@
       <c r="A270" t="s">
         <v>272</v>
       </c>
-      <c r="B270" s="5">
+      <c r="B270" s="10">
         <v>559000</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D270" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E270" s="8" t="s">
+      <c r="D270" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E270" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6123,16 +6128,16 @@
       <c r="A271" t="s">
         <v>273</v>
       </c>
-      <c r="B271" s="5">
+      <c r="B271" s="10">
         <v>495000</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D271" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E271" s="8" t="s">
+      <c r="D271" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E271" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6140,16 +6145,16 @@
       <c r="A272" t="s">
         <v>274</v>
       </c>
-      <c r="B272" s="5">
+      <c r="B272" s="10">
         <v>459000</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D272" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E272" s="8" t="s">
+      <c r="D272" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E272" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6157,16 +6162,16 @@
       <c r="A273" t="s">
         <v>275</v>
       </c>
-      <c r="B273" s="5">
+      <c r="B273" s="10">
         <v>415000</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D273" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E273" s="8" t="s">
+      <c r="D273" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E273" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6174,16 +6179,16 @@
       <c r="A274" t="s">
         <v>276</v>
       </c>
-      <c r="B274" s="5">
+      <c r="B274" s="10">
         <v>360000</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D274" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E274" s="8" t="s">
+      <c r="D274" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E274" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6191,16 +6196,16 @@
       <c r="A275" t="s">
         <v>277</v>
       </c>
-      <c r="B275" s="5">
+      <c r="B275" s="10">
         <v>304000</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D275" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E275" s="8" t="s">
+      <c r="D275" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E275" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6208,16 +6213,16 @@
       <c r="A276" t="s">
         <v>278</v>
       </c>
-      <c r="B276" s="5">
+      <c r="B276" s="10">
         <v>276000</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D276" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E276" s="8" t="s">
+      <c r="D276" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E276" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6225,16 +6230,16 @@
       <c r="A277" t="s">
         <v>279</v>
       </c>
-      <c r="B277" s="5">
+      <c r="B277" s="10">
         <v>148000</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D277" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E277" s="8" t="s">
+      <c r="D277" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E277" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6242,16 +6247,16 @@
       <c r="A278" t="s">
         <v>280</v>
       </c>
-      <c r="B278" s="5">
+      <c r="B278" s="10">
         <v>105000</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D278" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E278" s="8" t="s">
+      <c r="D278" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E278" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6259,16 +6264,16 @@
       <c r="A279" t="s">
         <v>281</v>
       </c>
-      <c r="B279" s="5">
+      <c r="B279" s="10">
         <v>664000</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D279" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E279" s="8" t="s">
+      <c r="D279" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E279" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6276,16 +6281,16 @@
       <c r="A280" t="s">
         <v>282</v>
       </c>
-      <c r="B280" s="5">
+      <c r="B280" s="10">
         <v>507000</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D280" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E280" s="8" t="s">
+      <c r="D280" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E280" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6293,16 +6298,16 @@
       <c r="A281" t="s">
         <v>283</v>
       </c>
-      <c r="B281" s="5">
+      <c r="B281" s="10">
         <v>461000</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D281" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E281" s="8" t="s">
+      <c r="D281" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E281" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6310,16 +6315,16 @@
       <c r="A282" t="s">
         <v>284</v>
       </c>
-      <c r="B282" s="5">
+      <c r="B282" s="10">
         <v>710000</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D282" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E282" s="8" t="s">
+      <c r="D282" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E282" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6327,16 +6332,16 @@
       <c r="A283" t="s">
         <v>285</v>
       </c>
-      <c r="B283" s="5">
+      <c r="B283" s="10">
         <v>321000</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D283" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E283" s="8" t="s">
+      <c r="D283" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E283" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6344,16 +6349,16 @@
       <c r="A284" t="s">
         <v>286</v>
       </c>
-      <c r="B284" s="5">
+      <c r="B284" s="10">
         <v>265000</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D284" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E284" s="8" t="s">
+      <c r="D284" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E284" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6361,16 +6366,16 @@
       <c r="A285" t="s">
         <v>287</v>
       </c>
-      <c r="B285" s="5">
+      <c r="B285" s="10">
         <v>252000</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D285" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E285" s="8" t="s">
+      <c r="D285" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E285" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6378,16 +6383,16 @@
       <c r="A286" t="s">
         <v>288</v>
       </c>
-      <c r="B286" s="5">
+      <c r="B286" s="10">
         <v>229000</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D286" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E286" s="8" t="s">
+      <c r="D286" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E286" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6395,16 +6400,16 @@
       <c r="A287" t="s">
         <v>289</v>
       </c>
-      <c r="B287" s="5">
+      <c r="B287" s="10">
         <v>192000</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D287" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E287" s="8" t="s">
+      <c r="D287" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E287" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6412,16 +6417,16 @@
       <c r="A288" t="s">
         <v>290</v>
       </c>
-      <c r="B288" s="5">
+      <c r="B288" s="10">
         <v>314000</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D288" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E288" s="8" t="s">
+      <c r="D288" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E288" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6429,16 +6434,16 @@
       <c r="A289" t="s">
         <v>291</v>
       </c>
-      <c r="B289" s="5">
+      <c r="B289" s="10">
         <v>1495000</v>
       </c>
       <c r="C289" t="s">
         <v>18</v>
       </c>
-      <c r="D289" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E289" s="8" t="s">
+      <c r="D289" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E289" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6446,16 +6451,16 @@
       <c r="A290" t="s">
         <v>292</v>
       </c>
-      <c r="B290" s="5">
+      <c r="B290" s="10">
         <v>1183000</v>
       </c>
       <c r="C290" t="s">
         <v>18</v>
       </c>
-      <c r="D290" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E290" s="8" t="s">
+      <c r="D290" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E290" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6463,16 +6468,16 @@
       <c r="A291" t="s">
         <v>293</v>
       </c>
-      <c r="B291" s="5">
+      <c r="B291" s="10">
         <v>652000</v>
       </c>
       <c r="C291" t="s">
         <v>18</v>
       </c>
-      <c r="D291" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E291" s="8" t="s">
+      <c r="D291" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E291" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6480,16 +6485,16 @@
       <c r="A292" t="s">
         <v>294</v>
       </c>
-      <c r="B292" s="5">
+      <c r="B292" s="10">
         <v>435000</v>
       </c>
       <c r="C292" t="s">
         <v>18</v>
       </c>
-      <c r="D292" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E292" s="8" t="s">
+      <c r="D292" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E292" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6497,16 +6502,16 @@
       <c r="A293" t="s">
         <v>295</v>
       </c>
-      <c r="B293" s="5">
+      <c r="B293" s="10">
         <v>283000</v>
       </c>
       <c r="C293" t="s">
         <v>18</v>
       </c>
-      <c r="D293" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E293" s="8" t="s">
+      <c r="D293" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E293" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6514,16 +6519,16 @@
       <c r="A294" t="s">
         <v>296</v>
       </c>
-      <c r="B294" s="5">
+      <c r="B294" s="10">
         <v>193000</v>
       </c>
       <c r="C294" t="s">
         <v>18</v>
       </c>
-      <c r="D294" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E294" s="8" t="s">
+      <c r="D294" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E294" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6531,16 +6536,16 @@
       <c r="A295" t="s">
         <v>297</v>
       </c>
-      <c r="B295" s="5">
+      <c r="B295" s="10">
         <v>268000</v>
       </c>
       <c r="C295" t="s">
         <v>18</v>
       </c>
-      <c r="D295" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E295" s="8" t="s">
+      <c r="D295" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E295" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6548,16 +6553,16 @@
       <c r="A296" t="s">
         <v>298</v>
       </c>
-      <c r="B296" s="5">
+      <c r="B296" s="10">
         <v>170000</v>
       </c>
       <c r="C296" t="s">
         <v>18</v>
       </c>
-      <c r="D296" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E296" s="8" t="s">
+      <c r="D296" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E296" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6565,16 +6570,16 @@
       <c r="A297" t="s">
         <v>299</v>
       </c>
-      <c r="B297" s="5">
+      <c r="B297" s="10">
         <v>237000</v>
       </c>
       <c r="C297" t="s">
         <v>18</v>
       </c>
-      <c r="D297" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E297" s="8" t="s">
+      <c r="D297" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E297" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6582,16 +6587,16 @@
       <c r="A298" t="s">
         <v>300</v>
       </c>
-      <c r="B298" s="5">
+      <c r="B298" s="10">
         <v>268000</v>
       </c>
       <c r="C298" t="s">
         <v>18</v>
       </c>
-      <c r="D298" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E298" s="8" t="s">
+      <c r="D298" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E298" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6599,16 +6604,16 @@
       <c r="A299" t="s">
         <v>301</v>
       </c>
-      <c r="B299" s="5">
+      <c r="B299" s="10">
         <v>810000</v>
       </c>
       <c r="C299" t="s">
         <v>18</v>
       </c>
-      <c r="D299" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E299" s="8" t="s">
+      <c r="D299" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E299" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6616,16 +6621,16 @@
       <c r="A300" t="s">
         <v>302</v>
       </c>
-      <c r="B300" s="5">
+      <c r="B300" s="10">
         <v>590000</v>
       </c>
       <c r="C300" t="s">
         <v>18</v>
       </c>
-      <c r="D300" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E300" s="8" t="s">
+      <c r="D300" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E300" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6633,16 +6638,16 @@
       <c r="A301" t="s">
         <v>303</v>
       </c>
-      <c r="B301" s="5">
+      <c r="B301" s="10">
         <v>590000</v>
       </c>
       <c r="C301" t="s">
         <v>18</v>
       </c>
-      <c r="D301" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E301" s="8" t="s">
+      <c r="D301" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E301" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6650,16 +6655,16 @@
       <c r="A302" t="s">
         <v>304</v>
       </c>
-      <c r="B302" s="5">
+      <c r="B302" s="10">
         <v>810000</v>
       </c>
       <c r="C302" t="s">
         <v>18</v>
       </c>
-      <c r="D302" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E302" s="8" t="s">
+      <c r="D302" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E302" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6667,16 +6672,16 @@
       <c r="A303" t="s">
         <v>305</v>
       </c>
-      <c r="B303" s="5">
+      <c r="B303" s="10">
         <v>745000</v>
       </c>
       <c r="C303" t="s">
         <v>18</v>
       </c>
-      <c r="D303" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E303" s="8" t="s">
+      <c r="D303" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E303" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6684,16 +6689,16 @@
       <c r="A304" t="s">
         <v>306</v>
       </c>
-      <c r="B304" s="5">
+      <c r="B304" s="10">
         <v>223000</v>
       </c>
       <c r="C304" t="s">
         <v>18</v>
       </c>
-      <c r="D304" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E304" s="8" t="s">
+      <c r="D304" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E304" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6701,16 +6706,16 @@
       <c r="A305" t="s">
         <v>307</v>
       </c>
-      <c r="B305" s="5">
+      <c r="B305" s="10">
         <v>169000</v>
       </c>
       <c r="C305" t="s">
         <v>18</v>
       </c>
-      <c r="D305" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E305" s="8" t="s">
+      <c r="D305" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E305" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6718,16 +6723,16 @@
       <c r="A306" t="s">
         <v>308</v>
       </c>
-      <c r="B306" s="5">
+      <c r="B306" s="10">
         <v>125000</v>
       </c>
       <c r="C306" t="s">
         <v>18</v>
       </c>
-      <c r="D306" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E306" s="8" t="s">
+      <c r="D306" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E306" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6735,16 +6740,16 @@
       <c r="A307" t="s">
         <v>309</v>
       </c>
-      <c r="B307" s="5">
+      <c r="B307" s="10">
         <v>89000</v>
       </c>
       <c r="C307" t="s">
         <v>18</v>
       </c>
-      <c r="D307" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E307" s="8" t="s">
+      <c r="D307" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E307" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6752,16 +6757,16 @@
       <c r="A308" t="s">
         <v>310</v>
       </c>
-      <c r="B308" s="5">
+      <c r="B308" s="10">
         <v>49000</v>
       </c>
       <c r="C308" t="s">
         <v>18</v>
       </c>
-      <c r="D308" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E308" s="8" t="s">
+      <c r="D308" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E308" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6769,16 +6774,16 @@
       <c r="A309" t="s">
         <v>311</v>
       </c>
-      <c r="B309" s="5">
+      <c r="B309" s="10">
         <v>35000</v>
       </c>
       <c r="C309" t="s">
         <v>18</v>
       </c>
-      <c r="D309" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E309" s="8" t="s">
+      <c r="D309" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E309" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6786,16 +6791,16 @@
       <c r="A310" t="s">
         <v>312</v>
       </c>
-      <c r="B310" s="5">
+      <c r="B310" s="10">
         <v>184000</v>
       </c>
       <c r="C310" t="s">
         <v>18</v>
       </c>
-      <c r="D310" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E310" s="8" t="s">
+      <c r="D310" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E310" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6803,16 +6808,16 @@
       <c r="A311" t="s">
         <v>313</v>
       </c>
-      <c r="B311" s="5">
+      <c r="B311" s="10">
         <v>125000</v>
       </c>
       <c r="C311" t="s">
         <v>18</v>
       </c>
-      <c r="D311" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E311" s="8" t="s">
+      <c r="D311" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E311" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6820,16 +6825,16 @@
       <c r="A312" t="s">
         <v>314</v>
       </c>
-      <c r="B312" s="5">
+      <c r="B312" s="10">
         <v>90000</v>
       </c>
       <c r="C312" t="s">
         <v>18</v>
       </c>
-      <c r="D312" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E312" s="8" t="s">
+      <c r="D312" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E312" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6837,16 +6842,16 @@
       <c r="A313" t="s">
         <v>315</v>
       </c>
-      <c r="B313" s="5">
+      <c r="B313" s="10">
         <v>49000</v>
       </c>
       <c r="C313" t="s">
         <v>18</v>
       </c>
-      <c r="D313" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E313" s="8" t="s">
+      <c r="D313" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E313" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6854,16 +6859,16 @@
       <c r="A314" t="s">
         <v>316</v>
       </c>
-      <c r="B314" s="5">
+      <c r="B314" s="10">
         <v>470000</v>
       </c>
       <c r="C314" t="s">
         <v>14</v>
       </c>
-      <c r="D314" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E314" s="8" t="s">
+      <c r="D314" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E314" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6871,16 +6876,16 @@
       <c r="A315" t="s">
         <v>317</v>
       </c>
-      <c r="B315" s="5">
+      <c r="B315" s="10">
         <v>345000</v>
       </c>
       <c r="C315" t="s">
         <v>14</v>
       </c>
-      <c r="D315" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E315" s="8" t="s">
+      <c r="D315" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E315" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6888,16 +6893,16 @@
       <c r="A316" t="s">
         <v>318</v>
       </c>
-      <c r="B316" s="5">
+      <c r="B316" s="10">
         <v>315000</v>
       </c>
       <c r="C316" t="s">
         <v>14</v>
       </c>
-      <c r="D316" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E316" s="8" t="s">
+      <c r="D316" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E316" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6905,16 +6910,16 @@
       <c r="A317" t="s">
         <v>319</v>
       </c>
-      <c r="B317" s="5">
+      <c r="B317" s="10">
         <v>255000</v>
       </c>
       <c r="C317" t="s">
         <v>14</v>
       </c>
-      <c r="D317" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E317" s="8" t="s">
+      <c r="D317" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E317" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6922,16 +6927,16 @@
       <c r="A318" t="s">
         <v>320</v>
       </c>
-      <c r="B318" s="5">
+      <c r="B318" s="10">
         <v>399000</v>
       </c>
       <c r="C318" t="s">
         <v>14</v>
       </c>
-      <c r="D318" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E318" s="8" t="s">
+      <c r="D318" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E318" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6939,16 +6944,16 @@
       <c r="A319" t="s">
         <v>321</v>
       </c>
-      <c r="B319" s="5">
+      <c r="B319" s="10">
         <v>155000</v>
       </c>
       <c r="C319" t="s">
         <v>14</v>
       </c>
-      <c r="D319" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E319" s="8" t="s">
+      <c r="D319" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E319" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6956,16 +6961,16 @@
       <c r="A320" t="s">
         <v>322</v>
       </c>
-      <c r="B320" s="5">
+      <c r="B320" s="10">
         <v>145000</v>
       </c>
       <c r="C320" t="s">
         <v>14</v>
       </c>
-      <c r="D320" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E320" s="8" t="s">
+      <c r="D320" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E320" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6973,16 +6978,16 @@
       <c r="A321" t="s">
         <v>323</v>
       </c>
-      <c r="B321" s="5">
+      <c r="B321" s="10">
         <v>146000</v>
       </c>
       <c r="C321" t="s">
         <v>14</v>
       </c>
-      <c r="D321" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E321" s="8" t="s">
+      <c r="D321" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E321" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6990,16 +6995,16 @@
       <c r="A322" t="s">
         <v>324</v>
       </c>
-      <c r="B322" s="5">
+      <c r="B322" s="10">
         <v>189000</v>
       </c>
       <c r="C322" t="s">
         <v>14</v>
       </c>
-      <c r="D322" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E322" s="8" t="s">
+      <c r="D322" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E322" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7007,16 +7012,16 @@
       <c r="A323" t="s">
         <v>325</v>
       </c>
-      <c r="B323" s="5">
+      <c r="B323" s="10">
         <v>107000</v>
       </c>
       <c r="C323" t="s">
         <v>14</v>
       </c>
-      <c r="D323" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E323" s="8" t="s">
+      <c r="D323" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E323" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7024,16 +7029,16 @@
       <c r="A324" t="s">
         <v>326</v>
       </c>
-      <c r="B324" s="5">
+      <c r="B324" s="10">
         <v>95000</v>
       </c>
       <c r="C324" t="s">
         <v>14</v>
       </c>
-      <c r="D324" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E324" s="8" t="s">
+      <c r="D324" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E324" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7041,16 +7046,16 @@
       <c r="A325" t="s">
         <v>327</v>
       </c>
-      <c r="B325" s="5">
+      <c r="B325" s="10">
         <v>98000</v>
       </c>
       <c r="C325" t="s">
         <v>14</v>
       </c>
-      <c r="D325" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E325" s="8" t="s">
+      <c r="D325" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E325" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7058,16 +7063,16 @@
       <c r="A326" t="s">
         <v>328</v>
       </c>
-      <c r="B326" s="5">
+      <c r="B326" s="10">
         <v>115000</v>
       </c>
       <c r="C326" t="s">
         <v>14</v>
       </c>
-      <c r="D326" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E326" s="8" t="s">
+      <c r="D326" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E326" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7075,16 +7080,16 @@
       <c r="A327" t="s">
         <v>329</v>
       </c>
-      <c r="B327" s="5">
+      <c r="B327" s="10">
         <v>215000</v>
       </c>
       <c r="C327" t="s">
         <v>14</v>
       </c>
-      <c r="D327" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E327" s="8" t="s">
+      <c r="D327" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E327" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7092,16 +7097,16 @@
       <c r="A328" t="s">
         <v>330</v>
       </c>
-      <c r="B328" s="5">
+      <c r="B328" s="10">
         <v>136000</v>
       </c>
       <c r="C328" t="s">
         <v>14</v>
       </c>
-      <c r="D328" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E328" s="8" t="s">
+      <c r="D328" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E328" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7109,16 +7114,16 @@
       <c r="A329" t="s">
         <v>331</v>
       </c>
-      <c r="B329" s="5">
+      <c r="B329" s="10">
         <v>380000</v>
       </c>
       <c r="C329" t="s">
         <v>10</v>
       </c>
-      <c r="D329" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E329" s="8" t="s">
+      <c r="D329" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E329" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7126,16 +7131,16 @@
       <c r="A330" t="s">
         <v>332</v>
       </c>
-      <c r="B330" s="5">
+      <c r="B330" s="10">
         <v>450000</v>
       </c>
       <c r="C330" t="s">
         <v>10</v>
       </c>
-      <c r="D330" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E330" s="8" t="s">
+      <c r="D330" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E330" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7143,16 +7148,16 @@
       <c r="A331" t="s">
         <v>333</v>
       </c>
-      <c r="B331" s="5">
+      <c r="B331" s="10">
         <v>310000</v>
       </c>
       <c r="C331" t="s">
         <v>10</v>
       </c>
-      <c r="D331" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E331" s="8" t="s">
+      <c r="D331" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E331" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7160,16 +7165,16 @@
       <c r="A332" t="s">
         <v>334</v>
       </c>
-      <c r="B332" s="5">
+      <c r="B332" s="10">
         <v>293000</v>
       </c>
       <c r="C332" t="s">
         <v>10</v>
       </c>
-      <c r="D332" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E332" s="8" t="s">
+      <c r="D332" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E332" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7177,16 +7182,16 @@
       <c r="A333" t="s">
         <v>335</v>
       </c>
-      <c r="B333" s="5">
+      <c r="B333" s="10">
         <v>253000</v>
       </c>
       <c r="C333" t="s">
         <v>10</v>
       </c>
-      <c r="D333" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E333" s="8" t="s">
+      <c r="D333" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E333" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7194,16 +7199,16 @@
       <c r="A334" t="s">
         <v>336</v>
       </c>
-      <c r="B334" s="5">
+      <c r="B334" s="10">
         <v>200000</v>
       </c>
       <c r="C334" t="s">
         <v>10</v>
       </c>
-      <c r="D334" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E334" s="8" t="s">
+      <c r="D334" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E334" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7211,16 +7216,16 @@
       <c r="A335" t="s">
         <v>337</v>
       </c>
-      <c r="B335" s="5">
+      <c r="B335" s="10">
         <v>145000</v>
       </c>
       <c r="C335" t="s">
         <v>10</v>
       </c>
-      <c r="D335" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E335" s="8" t="s">
+      <c r="D335" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E335" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7228,16 +7233,16 @@
       <c r="A336" t="s">
         <v>338</v>
       </c>
-      <c r="B336" s="5">
+      <c r="B336" s="10">
         <v>138000</v>
       </c>
       <c r="C336" t="s">
         <v>10</v>
       </c>
-      <c r="D336" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E336" s="8" t="s">
+      <c r="D336" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E336" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7245,16 +7250,16 @@
       <c r="A337" t="s">
         <v>339</v>
       </c>
-      <c r="B337" s="5">
+      <c r="B337" s="10">
         <v>158000</v>
       </c>
       <c r="C337" t="s">
         <v>10</v>
       </c>
-      <c r="D337" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E337" s="8" t="s">
+      <c r="D337" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E337" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7262,16 +7267,16 @@
       <c r="A338" t="s">
         <v>340</v>
       </c>
-      <c r="B338" s="5">
+      <c r="B338" s="10">
         <v>143000</v>
       </c>
       <c r="C338" t="s">
         <v>10</v>
       </c>
-      <c r="D338" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E338" s="8" t="s">
+      <c r="D338" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E338" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7279,16 +7284,16 @@
       <c r="A339" t="s">
         <v>341</v>
       </c>
-      <c r="B339" s="5">
+      <c r="B339" s="10">
         <v>102000</v>
       </c>
       <c r="C339" t="s">
         <v>10</v>
       </c>
-      <c r="D339" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E339" s="8" t="s">
+      <c r="D339" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E339" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7296,16 +7301,16 @@
       <c r="A340" t="s">
         <v>342</v>
       </c>
-      <c r="B340" s="5">
+      <c r="B340" s="10">
         <v>89000</v>
       </c>
       <c r="C340" t="s">
         <v>10</v>
       </c>
-      <c r="D340" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E340" s="8" t="s">
+      <c r="D340" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E340" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7313,16 +7318,16 @@
       <c r="A341" t="s">
         <v>343</v>
       </c>
-      <c r="B341" s="5">
+      <c r="B341" s="10">
         <v>127000</v>
       </c>
       <c r="C341" t="s">
         <v>10</v>
       </c>
-      <c r="D341" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E341" s="8" t="s">
+      <c r="D341" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E341" s="7" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7330,16 +7335,16 @@
       <c r="A342" t="s">
         <v>344</v>
       </c>
-      <c r="B342" s="5">
+      <c r="B342" s="10">
         <v>465000</v>
       </c>
       <c r="C342" t="s">
         <v>10</v>
       </c>
-      <c r="D342" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E342" s="8" t="s">
+      <c r="D342" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E342" s="7" t="s">
         <v>345</v>
       </c>
     </row>

--- a/prices.xlsx
+++ b/prices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedemad/Downloads/phone_price_bot test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194DCFB9-4A39-8647-80C2-B77E35B5D5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEF8723-9A30-9C4E-B8D3-4ABC70696849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1170,7 +1170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1185,14 +1185,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1497,16 +1498,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J342"/>
+  <dimension ref="A1:J1778"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C230" sqref="C230:C253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.83203125" bestFit="1" customWidth="1"/>
@@ -1515,7 +1516,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -1535,7 +1536,7 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="1">
         <v>1365000</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1552,7 +1553,7 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="1">
         <v>1570750</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1569,7 +1570,7 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="1">
         <v>525000</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1586,7 +1587,7 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="1">
         <v>525000</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1603,7 +1604,7 @@
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="1">
         <v>470000</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1620,7 +1621,7 @@
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="1">
         <v>470000</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1637,7 +1638,7 @@
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="1">
         <v>470000</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1654,7 +1655,7 @@
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="1">
         <v>575000</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1671,7 +1672,7 @@
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="1">
         <v>575000</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1688,7 +1689,7 @@
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="1">
         <v>1600000</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1705,7 +1706,7 @@
       <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="1">
         <v>1600000</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1722,7 +1723,7 @@
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="1">
         <v>1065000</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1739,7 +1740,7 @@
       <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="1">
         <v>1065000</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1756,7 +1757,7 @@
       <c r="A15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="1">
         <v>1210000</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1773,7 +1774,7 @@
       <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="1">
         <v>1365000</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1790,7 +1791,7 @@
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="1">
         <v>2300000</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1807,7 +1808,7 @@
       <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="1">
         <v>1615000</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1824,7 +1825,7 @@
       <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="1">
         <v>1615000</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1841,7 +1842,7 @@
       <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="1">
         <v>1615000</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1858,7 +1859,7 @@
       <c r="A21" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="1">
         <v>1980000</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1875,7 +1876,7 @@
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="1">
         <v>955000</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1892,7 +1893,7 @@
       <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="1">
         <v>1324500</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1909,7 +1910,7 @@
       <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="1">
         <v>768500</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1926,7 +1927,7 @@
       <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="1">
         <v>160000</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1943,7 +1944,7 @@
       <c r="A26" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="1">
         <v>160000</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1960,7 +1961,7 @@
       <c r="A27" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="1">
         <v>115000</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1977,7 +1978,7 @@
       <c r="A28" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="1">
         <v>115000</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1994,7 +1995,7 @@
       <c r="A29" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="1">
         <v>115000</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2011,7 +2012,7 @@
       <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="1">
         <v>430000</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2028,7 +2029,7 @@
       <c r="A31" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="1">
         <v>480000</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2045,7 +2046,7 @@
       <c r="A32" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="1">
         <v>480000</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2062,7 +2063,7 @@
       <c r="A33" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="1">
         <v>480000</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2079,7 +2080,7 @@
       <c r="A34" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="1">
         <v>1295000</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2096,7 +2097,7 @@
       <c r="A35" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="1">
         <v>1295000</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2113,7 +2114,7 @@
       <c r="A36" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="1">
         <v>795000</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2130,7 +2131,7 @@
       <c r="A37" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="1">
         <v>335000</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2147,7 +2148,7 @@
       <c r="A38" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="1">
         <v>115000</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2164,7 +2165,7 @@
       <c r="A39" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="1">
         <v>260000</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -2181,7 +2182,7 @@
       <c r="A40" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="1">
         <v>285000</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -2198,7 +2199,7 @@
       <c r="A41" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="1">
         <v>130000</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -2215,7 +2216,7 @@
       <c r="A42" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="1">
         <v>145000</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2232,7 +2233,7 @@
       <c r="A43" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="1">
         <v>145000</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -2249,7 +2250,7 @@
       <c r="A44" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="1">
         <v>145000</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -2266,7 +2267,7 @@
       <c r="A45" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="1">
         <v>180000</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2283,7 +2284,7 @@
       <c r="A46" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="1">
         <v>235000</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -2300,7 +2301,7 @@
       <c r="A47" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="1">
         <v>235000</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -2317,7 +2318,7 @@
       <c r="A48" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="1">
         <v>235000</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -2334,7 +2335,7 @@
       <c r="A49" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="1">
         <v>285000</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -2351,7 +2352,7 @@
       <c r="A50" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="1">
         <v>350000</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -2368,7 +2369,7 @@
       <c r="A51" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="1">
         <v>350000</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -2385,7 +2386,7 @@
       <c r="A52" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="1">
         <v>350000</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2402,7 +2403,7 @@
       <c r="A53" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="1">
         <v>350000</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -2419,7 +2420,7 @@
       <c r="A54" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="1">
         <v>350000</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -2436,7 +2437,7 @@
       <c r="A55" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="1">
         <v>325000</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -2453,7 +2454,7 @@
       <c r="A56" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="1">
         <v>325000</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -2470,7 +2471,7 @@
       <c r="A57" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="1">
         <v>185000</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -2487,7 +2488,7 @@
       <c r="A58" t="s">
         <v>72</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="1">
         <v>185000</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -2504,7 +2505,7 @@
       <c r="A59" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="1">
         <v>430000</v>
       </c>
       <c r="C59" t="s">
@@ -2521,7 +2522,7 @@
       <c r="A60" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="1">
         <v>640000</v>
       </c>
       <c r="C60" t="s">
@@ -2538,7 +2539,7 @@
       <c r="A61" t="s">
         <v>75</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="1">
         <v>640000</v>
       </c>
       <c r="C61" t="s">
@@ -2555,7 +2556,7 @@
       <c r="A62" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="1">
         <v>1120000</v>
       </c>
       <c r="C62" t="s">
@@ -2572,7 +2573,7 @@
       <c r="A63" t="s">
         <v>77</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="1">
         <v>1475000</v>
       </c>
       <c r="C63" t="s">
@@ -2589,7 +2590,7 @@
       <c r="A64" t="s">
         <v>78</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="1">
         <v>270000</v>
       </c>
       <c r="C64" t="s">
@@ -2606,7 +2607,7 @@
       <c r="A65" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="1">
         <v>270000</v>
       </c>
       <c r="C65" t="s">
@@ -2623,7 +2624,7 @@
       <c r="A66" t="s">
         <v>80</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="1">
         <v>190000</v>
       </c>
       <c r="C66" t="s">
@@ -2640,7 +2641,7 @@
       <c r="A67" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="1">
         <v>310000</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -2657,7 +2658,7 @@
       <c r="A68" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="1">
         <v>290000</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -2674,7 +2675,7 @@
       <c r="A69" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="1">
         <v>160000</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -2691,7 +2692,7 @@
       <c r="A70" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="1">
         <v>685000</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -2708,7 +2709,7 @@
       <c r="A71" t="s">
         <v>85</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="1">
         <v>945000</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -2725,7 +2726,7 @@
       <c r="A72" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="1">
         <v>380000</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -2742,7 +2743,7 @@
       <c r="A73" t="s">
         <v>87</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="1">
         <v>420000</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -2759,7 +2760,7 @@
       <c r="A74" t="s">
         <v>88</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="1">
         <v>420000</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -2776,7 +2777,7 @@
       <c r="A75" t="s">
         <v>89</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="1">
         <v>460000</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -2793,7 +2794,7 @@
       <c r="A76" t="s">
         <v>90</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="1">
         <v>460000</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -2810,7 +2811,7 @@
       <c r="A77" t="s">
         <v>91</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="1">
         <v>460000</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -2827,7 +2828,7 @@
       <c r="A78" t="s">
         <v>92</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="1">
         <v>375000</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -2844,7 +2845,7 @@
       <c r="A79" t="s">
         <v>93</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79" s="1">
         <v>375000</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -2861,7 +2862,7 @@
       <c r="A80" t="s">
         <v>94</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B80" s="1">
         <v>600000</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -2878,7 +2879,7 @@
       <c r="A81" t="s">
         <v>95</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B81" s="1">
         <v>170000</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -2895,7 +2896,7 @@
       <c r="A82" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="9">
+      <c r="B82" s="1">
         <v>235000</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -2912,7 +2913,7 @@
       <c r="A83" t="s">
         <v>97</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B83" s="1">
         <v>235000</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -2929,7 +2930,7 @@
       <c r="A84" t="s">
         <v>98</v>
       </c>
-      <c r="B84" s="9">
+      <c r="B84" s="1">
         <v>205000</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -2946,7 +2947,7 @@
       <c r="A85" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="9">
+      <c r="B85" s="1">
         <v>120000</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -2963,7 +2964,7 @@
       <c r="A86" t="s">
         <v>100</v>
       </c>
-      <c r="B86" s="9">
+      <c r="B86" s="1">
         <v>120000</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -2980,7 +2981,7 @@
       <c r="A87" t="s">
         <v>101</v>
       </c>
-      <c r="B87" s="9">
+      <c r="B87" s="1">
         <v>105000</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -2997,7 +2998,7 @@
       <c r="A88" t="s">
         <v>102</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88" s="1">
         <v>225000</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -3014,7 +3015,7 @@
       <c r="A89" t="s">
         <v>103</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B89" s="1">
         <v>225000</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -3031,7 +3032,7 @@
       <c r="A90" t="s">
         <v>104</v>
       </c>
-      <c r="B90" s="9">
+      <c r="B90" s="1">
         <v>360000</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -3048,7 +3049,7 @@
       <c r="A91" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="9">
+      <c r="B91" s="1">
         <v>360000</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -3065,7 +3066,7 @@
       <c r="A92" t="s">
         <v>106</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B92" s="1">
         <v>365000</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -3082,7 +3083,7 @@
       <c r="A93" t="s">
         <v>107</v>
       </c>
-      <c r="B93" s="9">
+      <c r="B93" s="1">
         <v>425000</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -3099,7 +3100,7 @@
       <c r="A94" t="s">
         <v>108</v>
       </c>
-      <c r="B94" s="9">
+      <c r="B94" s="1">
         <v>300000</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -3116,7 +3117,7 @@
       <c r="A95" t="s">
         <v>109</v>
       </c>
-      <c r="B95" s="9">
+      <c r="B95" s="1">
         <v>500000</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -3133,7 +3134,7 @@
       <c r="A96" t="s">
         <v>110</v>
       </c>
-      <c r="B96" s="9">
+      <c r="B96" s="1">
         <v>245000</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -3150,7 +3151,7 @@
       <c r="A97" t="s">
         <v>111</v>
       </c>
-      <c r="B97" s="9">
+      <c r="B97" s="1">
         <v>230000</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -3167,7 +3168,7 @@
       <c r="A98" t="s">
         <v>112</v>
       </c>
-      <c r="B98" s="9">
+      <c r="B98" s="1">
         <v>230000</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -3184,7 +3185,7 @@
       <c r="A99" t="s">
         <v>113</v>
       </c>
-      <c r="B99" s="9">
+      <c r="B99" s="1">
         <v>230000</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -3201,7 +3202,7 @@
       <c r="A100" t="s">
         <v>114</v>
       </c>
-      <c r="B100" s="9">
+      <c r="B100" s="1">
         <v>320000</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -3218,7 +3219,7 @@
       <c r="A101" t="s">
         <v>115</v>
       </c>
-      <c r="B101" s="9">
+      <c r="B101" s="1">
         <v>230000</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -3235,7 +3236,7 @@
       <c r="A102" t="s">
         <v>116</v>
       </c>
-      <c r="B102" s="9">
+      <c r="B102" s="1">
         <v>230000</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -3252,7 +3253,7 @@
       <c r="A103" t="s">
         <v>117</v>
       </c>
-      <c r="B103" s="9">
+      <c r="B103" s="1">
         <v>130000</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -3269,7 +3270,7 @@
       <c r="A104" t="s">
         <v>118</v>
       </c>
-      <c r="B104" s="9">
+      <c r="B104" s="1">
         <v>160000</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -3286,7 +3287,7 @@
       <c r="A105" t="s">
         <v>119</v>
       </c>
-      <c r="B105" s="9">
+      <c r="B105" s="1">
         <v>160000</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -3303,7 +3304,7 @@
       <c r="A106" t="s">
         <v>120</v>
       </c>
-      <c r="B106" s="9">
+      <c r="B106" s="1">
         <v>160000</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -3320,7 +3321,7 @@
       <c r="A107" t="s">
         <v>121</v>
       </c>
-      <c r="B107" s="9">
+      <c r="B107" s="1">
         <v>340000</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -3337,7 +3338,7 @@
       <c r="A108" t="s">
         <v>122</v>
       </c>
-      <c r="B108" s="9">
+      <c r="B108" s="1">
         <v>340000</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -3354,7 +3355,7 @@
       <c r="A109" t="s">
         <v>123</v>
       </c>
-      <c r="B109" s="9">
+      <c r="B109" s="1">
         <v>340000</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -3371,7 +3372,7 @@
       <c r="A110" t="s">
         <v>124</v>
       </c>
-      <c r="B110" s="9">
+      <c r="B110" s="1">
         <v>535000</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -3388,7 +3389,7 @@
       <c r="A111" t="s">
         <v>125</v>
       </c>
-      <c r="B111" s="9">
+      <c r="B111" s="1">
         <v>535000</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -3405,7 +3406,7 @@
       <c r="A112" t="s">
         <v>126</v>
       </c>
-      <c r="B112" s="9">
+      <c r="B112" s="1">
         <v>490000</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -3422,7 +3423,7 @@
       <c r="A113" t="s">
         <v>127</v>
       </c>
-      <c r="B113" s="9">
+      <c r="B113" s="1">
         <v>490000</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -3439,7 +3440,7 @@
       <c r="A114" t="s">
         <v>128</v>
       </c>
-      <c r="B114" s="9">
+      <c r="B114" s="1">
         <v>490000</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -3456,7 +3457,7 @@
       <c r="A115" t="s">
         <v>129</v>
       </c>
-      <c r="B115" s="9">
+      <c r="B115" s="1">
         <v>490000</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -3473,7 +3474,7 @@
       <c r="A116" t="s">
         <v>130</v>
       </c>
-      <c r="B116" s="9">
+      <c r="B116" s="1">
         <v>1450000</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -3490,7 +3491,7 @@
       <c r="A117" t="s">
         <v>131</v>
       </c>
-      <c r="B117" s="9">
+      <c r="B117" s="1">
         <v>245000</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -3507,7 +3508,7 @@
       <c r="A118" t="s">
         <v>132</v>
       </c>
-      <c r="B118" s="9">
+      <c r="B118" s="1">
         <v>375000</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -3524,7 +3525,7 @@
       <c r="A119" t="s">
         <v>133</v>
       </c>
-      <c r="B119" s="9">
+      <c r="B119" s="1">
         <v>325000</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -3541,7 +3542,7 @@
       <c r="A120" t="s">
         <v>134</v>
       </c>
-      <c r="B120" s="9">
+      <c r="B120" s="1">
         <v>1875000</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -3558,7 +3559,7 @@
       <c r="A121" t="s">
         <v>135</v>
       </c>
-      <c r="B121" s="9">
+      <c r="B121" s="1">
         <v>2150000</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -3575,7 +3576,7 @@
       <c r="A122" t="s">
         <v>136</v>
       </c>
-      <c r="B122" s="9">
+      <c r="B122" s="1">
         <v>2150000</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -3592,7 +3593,7 @@
       <c r="A123" t="s">
         <v>137</v>
       </c>
-      <c r="B123" s="9">
+      <c r="B123" s="1">
         <v>1550000</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -3609,7 +3610,7 @@
       <c r="A124" t="s">
         <v>138</v>
       </c>
-      <c r="B124" s="9">
+      <c r="B124" s="1">
         <v>1300000</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -3626,7 +3627,7 @@
       <c r="A125" t="s">
         <v>139</v>
       </c>
-      <c r="B125" s="9">
+      <c r="B125" s="1">
         <v>1300000</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -3643,7 +3644,7 @@
       <c r="A126" t="s">
         <v>140</v>
       </c>
-      <c r="B126" s="9">
+      <c r="B126" s="1">
         <v>250000</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -3660,7 +3661,7 @@
       <c r="A127" t="s">
         <v>141</v>
       </c>
-      <c r="B127" s="9">
+      <c r="B127" s="1">
         <v>250000</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -3677,7 +3678,7 @@
       <c r="A128" t="s">
         <v>142</v>
       </c>
-      <c r="B128" s="9">
+      <c r="B128" s="1">
         <v>475000</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -3694,7 +3695,7 @@
       <c r="A129" t="s">
         <v>143</v>
       </c>
-      <c r="B129" s="9">
+      <c r="B129" s="1">
         <v>345000</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -3711,7 +3712,7 @@
       <c r="A130" t="s">
         <v>144</v>
       </c>
-      <c r="B130" s="9">
+      <c r="B130" s="1">
         <v>345000</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -3728,7 +3729,7 @@
       <c r="A131" t="s">
         <v>145</v>
       </c>
-      <c r="B131" s="9">
+      <c r="B131" s="1">
         <v>315000</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -3745,7 +3746,7 @@
       <c r="A132" t="s">
         <v>146</v>
       </c>
-      <c r="B132" s="9">
+      <c r="B132" s="1">
         <v>315000</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -3762,7 +3763,7 @@
       <c r="A133" t="s">
         <v>147</v>
       </c>
-      <c r="B133" s="9">
+      <c r="B133" s="1">
         <v>230000</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -3779,7 +3780,7 @@
       <c r="A134" t="s">
         <v>148</v>
       </c>
-      <c r="B134" s="9">
+      <c r="B134" s="1">
         <v>230000</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -3796,7 +3797,7 @@
       <c r="A135" t="s">
         <v>149</v>
       </c>
-      <c r="B135" s="9">
+      <c r="B135" s="1">
         <v>395000</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -3813,7 +3814,7 @@
       <c r="A136" t="s">
         <v>150</v>
       </c>
-      <c r="B136" s="9">
+      <c r="B136" s="1">
         <v>395000</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -3830,7 +3831,7 @@
       <c r="A137" t="s">
         <v>151</v>
       </c>
-      <c r="B137" s="9">
+      <c r="B137" s="1">
         <v>170000</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -3847,7 +3848,7 @@
       <c r="A138" t="s">
         <v>152</v>
       </c>
-      <c r="B138" s="9">
+      <c r="B138" s="1">
         <v>170000</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -3864,7 +3865,7 @@
       <c r="A139" t="s">
         <v>153</v>
       </c>
-      <c r="B139" s="9">
+      <c r="B139" s="1">
         <v>145000</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -3881,7 +3882,7 @@
       <c r="A140" t="s">
         <v>154</v>
       </c>
-      <c r="B140" s="9">
+      <c r="B140" s="1">
         <v>145000</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -3898,7 +3899,7 @@
       <c r="A141" t="s">
         <v>155</v>
       </c>
-      <c r="B141" s="9">
+      <c r="B141" s="1">
         <v>145000</v>
       </c>
       <c r="C141" s="1" t="s">
@@ -3915,7 +3916,7 @@
       <c r="A142" t="s">
         <v>156</v>
       </c>
-      <c r="B142" s="9">
+      <c r="B142" s="1">
         <v>145000</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -3932,7 +3933,7 @@
       <c r="A143" t="s">
         <v>157</v>
       </c>
-      <c r="B143" s="9">
+      <c r="B143" s="1">
         <v>150000</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -3949,7 +3950,7 @@
       <c r="A144" t="s">
         <v>158</v>
       </c>
-      <c r="B144" s="9">
+      <c r="B144" s="1">
         <v>150000</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -3966,7 +3967,7 @@
       <c r="A145" t="s">
         <v>159</v>
       </c>
-      <c r="B145" s="9">
+      <c r="B145" s="1">
         <v>150000</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -3983,7 +3984,7 @@
       <c r="A146" t="s">
         <v>160</v>
       </c>
-      <c r="B146" s="9">
+      <c r="B146" s="1">
         <v>115000</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -4000,7 +4001,7 @@
       <c r="A147" t="s">
         <v>161</v>
       </c>
-      <c r="B147" s="9">
+      <c r="B147" s="1">
         <v>105000</v>
       </c>
       <c r="C147" s="1" t="s">
@@ -4017,7 +4018,7 @@
       <c r="A148" t="s">
         <v>162</v>
       </c>
-      <c r="B148" s="9">
+      <c r="B148" s="1">
         <v>30000</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -4034,7 +4035,7 @@
       <c r="A149" t="s">
         <v>163</v>
       </c>
-      <c r="B149" s="9">
+      <c r="B149" s="1">
         <v>990000</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -4051,7 +4052,7 @@
       <c r="A150" t="s">
         <v>164</v>
       </c>
-      <c r="B150" s="9">
+      <c r="B150" s="1">
         <v>1400000</v>
       </c>
       <c r="C150" s="1" t="s">
@@ -4068,7 +4069,7 @@
       <c r="A151" t="s">
         <v>165</v>
       </c>
-      <c r="B151" s="9">
+      <c r="B151" s="1">
         <v>515000</v>
       </c>
       <c r="C151" s="1" t="s">
@@ -4085,7 +4086,7 @@
       <c r="A152" t="s">
         <v>166</v>
       </c>
-      <c r="B152" s="9">
+      <c r="B152" s="1">
         <v>515000</v>
       </c>
       <c r="C152" s="1" t="s">
@@ -4102,7 +4103,7 @@
       <c r="A153" t="s">
         <v>167</v>
       </c>
-      <c r="B153" s="9">
+      <c r="B153" s="1">
         <v>465000</v>
       </c>
       <c r="C153" s="1" t="s">
@@ -4119,7 +4120,7 @@
       <c r="A154" t="s">
         <v>168</v>
       </c>
-      <c r="B154" s="9">
+      <c r="B154" s="1">
         <v>465000</v>
       </c>
       <c r="C154" s="1" t="s">
@@ -4136,7 +4137,7 @@
       <c r="A155" t="s">
         <v>169</v>
       </c>
-      <c r="B155" s="9">
+      <c r="B155" s="1">
         <v>670000</v>
       </c>
       <c r="C155" s="1" t="s">
@@ -4153,7 +4154,7 @@
       <c r="A156" t="s">
         <v>346</v>
       </c>
-      <c r="B156" s="10">
+      <c r="B156" s="1">
         <v>2295000</v>
       </c>
       <c r="C156" s="1" t="s">
@@ -4170,7 +4171,7 @@
       <c r="A157" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B157" s="10">
+      <c r="B157" s="1">
         <v>1975000</v>
       </c>
       <c r="C157" s="1" t="s">
@@ -4189,7 +4190,7 @@
       <c r="A158" t="s">
         <v>347</v>
       </c>
-      <c r="B158" s="10">
+      <c r="B158" s="1">
         <v>1620000</v>
       </c>
       <c r="C158" s="1" t="s">
@@ -4206,7 +4207,7 @@
       <c r="A159" t="s">
         <v>354</v>
       </c>
-      <c r="B159" s="10">
+      <c r="B159" s="1">
         <v>2185000</v>
       </c>
       <c r="C159" s="1" t="s">
@@ -4223,7 +4224,7 @@
       <c r="A160" t="s">
         <v>352</v>
       </c>
-      <c r="B160" s="10">
+      <c r="B160" s="1">
         <v>1970000</v>
       </c>
       <c r="C160" s="1" t="s">
@@ -4240,7 +4241,7 @@
       <c r="A161" t="s">
         <v>353</v>
       </c>
-      <c r="B161" s="10">
+      <c r="B161" s="1">
         <v>1700000</v>
       </c>
       <c r="C161" s="1" t="s">
@@ -4257,7 +4258,7 @@
       <c r="A162" t="s">
         <v>351</v>
       </c>
-      <c r="B162" s="10">
+      <c r="B162" s="1">
         <v>1555000</v>
       </c>
       <c r="C162" s="1" t="s">
@@ -4274,7 +4275,7 @@
       <c r="A163" t="s">
         <v>170</v>
       </c>
-      <c r="B163" s="10">
+      <c r="B163" s="1">
         <v>1400000</v>
       </c>
       <c r="C163" s="1" t="s">
@@ -4291,7 +4292,7 @@
       <c r="A164" t="s">
         <v>349</v>
       </c>
-      <c r="B164" s="10">
+      <c r="B164" s="1">
         <v>1365000</v>
       </c>
       <c r="C164" s="1" t="s">
@@ -4308,7 +4309,7 @@
       <c r="A165" t="s">
         <v>350</v>
       </c>
-      <c r="B165" s="10">
+      <c r="B165" s="1">
         <v>1215000</v>
       </c>
       <c r="C165" s="1" t="s">
@@ -4325,7 +4326,7 @@
       <c r="A166" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="B166" s="10">
+      <c r="B166" s="1">
         <v>1215000</v>
       </c>
       <c r="C166" s="1" t="s">
@@ -4342,7 +4343,7 @@
       <c r="A167" t="s">
         <v>171</v>
       </c>
-      <c r="B167" s="10">
+      <c r="B167" s="1">
         <v>1065000</v>
       </c>
       <c r="C167" s="1" t="s">
@@ -4359,7 +4360,7 @@
       <c r="A168" t="s">
         <v>172</v>
       </c>
-      <c r="B168" s="10">
+      <c r="B168" s="1">
         <v>895000</v>
       </c>
       <c r="C168" s="1" t="s">
@@ -4376,7 +4377,7 @@
       <c r="A169" t="s">
         <v>173</v>
       </c>
-      <c r="B169" s="10">
+      <c r="B169" s="1">
         <v>1080000</v>
       </c>
       <c r="C169" s="1" t="s">
@@ -4393,7 +4394,7 @@
       <c r="A170" t="s">
         <v>174</v>
       </c>
-      <c r="B170" s="10">
+      <c r="B170" s="1">
         <v>600000</v>
       </c>
       <c r="C170" s="1" t="s">
@@ -4410,7 +4411,7 @@
       <c r="A171" t="s">
         <v>175</v>
       </c>
-      <c r="B171" s="10">
+      <c r="B171" s="1">
         <v>2650000</v>
       </c>
       <c r="C171" s="1" t="s">
@@ -4427,7 +4428,7 @@
       <c r="A172" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B172" s="10">
+      <c r="B172" s="1">
         <v>1850000</v>
       </c>
       <c r="C172" s="1" t="s">
@@ -4446,7 +4447,7 @@
       <c r="A173" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B173" s="10">
+      <c r="B173" s="1">
         <v>1499000</v>
       </c>
       <c r="C173" s="1" t="s">
@@ -4465,7 +4466,7 @@
       <c r="A174" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B174" s="10">
+      <c r="B174" s="1">
         <v>1620000</v>
       </c>
       <c r="C174" s="1" t="s">
@@ -4484,7 +4485,7 @@
       <c r="A175" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B175" s="10">
+      <c r="B175" s="1">
         <v>1205000</v>
       </c>
       <c r="C175" s="1" t="s">
@@ -4503,7 +4504,7 @@
       <c r="A176" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B176" s="10">
+      <c r="B176" s="1">
         <v>1620000</v>
       </c>
       <c r="C176" s="1" t="s">
@@ -4522,7 +4523,7 @@
       <c r="A177" t="s">
         <v>181</v>
       </c>
-      <c r="B177" s="10">
+      <c r="B177" s="1">
         <v>1050000</v>
       </c>
       <c r="C177" s="1" t="s">
@@ -4539,7 +4540,7 @@
       <c r="A178" t="s">
         <v>182</v>
       </c>
-      <c r="B178" s="10">
+      <c r="B178" s="1">
         <v>730000</v>
       </c>
       <c r="C178" s="1" t="s">
@@ -4556,7 +4557,7 @@
       <c r="A179" t="s">
         <v>183</v>
       </c>
-      <c r="B179" s="10">
+      <c r="B179" s="1">
         <v>860000</v>
       </c>
       <c r="C179" s="1" t="s">
@@ -4573,7 +4574,7 @@
       <c r="A180" t="s">
         <v>184</v>
       </c>
-      <c r="B180" s="10">
+      <c r="B180" s="1">
         <v>560000</v>
       </c>
       <c r="C180" s="1" t="s">
@@ -4590,7 +4591,7 @@
       <c r="A181" t="s">
         <v>185</v>
       </c>
-      <c r="B181" s="10">
+      <c r="B181" s="1">
         <v>435000</v>
       </c>
       <c r="C181" s="1" t="s">
@@ -4607,7 +4608,7 @@
       <c r="A182" t="s">
         <v>186</v>
       </c>
-      <c r="B182" s="10">
+      <c r="B182" s="1">
         <v>495000</v>
       </c>
       <c r="C182" s="1" t="s">
@@ -4624,7 +4625,7 @@
       <c r="A183" t="s">
         <v>187</v>
       </c>
-      <c r="B183" s="10">
+      <c r="B183" s="1">
         <v>405000</v>
       </c>
       <c r="C183" s="1" t="s">
@@ -4641,7 +4642,7 @@
       <c r="A184" t="s">
         <v>188</v>
       </c>
-      <c r="B184" s="10">
+      <c r="B184" s="1">
         <v>595000</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -4658,7 +4659,7 @@
       <c r="A185" t="s">
         <v>189</v>
       </c>
-      <c r="B185" s="10">
+      <c r="B185" s="1">
         <v>2499000</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -4675,7 +4676,7 @@
       <c r="A186" t="s">
         <v>190</v>
       </c>
-      <c r="B186" s="10">
+      <c r="B186" s="1">
         <v>1479000</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -4692,7 +4693,7 @@
       <c r="A187" t="s">
         <v>191</v>
       </c>
-      <c r="B187" s="10">
+      <c r="B187" s="1">
         <v>1450000</v>
       </c>
       <c r="C187" s="1" t="s">
@@ -4709,7 +4710,7 @@
       <c r="A188" t="s">
         <v>192</v>
       </c>
-      <c r="B188" s="10">
+      <c r="B188" s="1">
         <v>1300000</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -4726,7 +4727,7 @@
       <c r="A189" t="s">
         <v>193</v>
       </c>
-      <c r="B189" s="10">
+      <c r="B189" s="1">
         <v>1250000</v>
       </c>
       <c r="C189" s="1" t="s">
@@ -4743,7 +4744,7 @@
       <c r="A190" t="s">
         <v>194</v>
       </c>
-      <c r="B190" s="10">
+      <c r="B190" s="1">
         <v>1150000</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -4760,7 +4761,7 @@
       <c r="A191" t="s">
         <v>195</v>
       </c>
-      <c r="B191" s="10">
+      <c r="B191" s="1">
         <v>570000</v>
       </c>
       <c r="C191" s="1" t="s">
@@ -4777,7 +4778,7 @@
       <c r="A192" t="s">
         <v>196</v>
       </c>
-      <c r="B192" s="10">
+      <c r="B192" s="1">
         <v>450000</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -4794,7 +4795,7 @@
       <c r="A193" t="s">
         <v>197</v>
       </c>
-      <c r="B193" s="10">
+      <c r="B193" s="1">
         <v>395000</v>
       </c>
       <c r="C193" s="1" t="s">
@@ -4811,7 +4812,7 @@
       <c r="A194" t="s">
         <v>198</v>
       </c>
-      <c r="B194" s="10">
+      <c r="B194" s="1">
         <v>435000</v>
       </c>
       <c r="C194" s="1" t="s">
@@ -4828,7 +4829,7 @@
       <c r="A195" t="s">
         <v>199</v>
       </c>
-      <c r="B195" s="10">
+      <c r="B195" s="1">
         <v>210000</v>
       </c>
       <c r="C195" s="1" t="s">
@@ -4845,7 +4846,7 @@
       <c r="A196" t="s">
         <v>200</v>
       </c>
-      <c r="B196" s="10">
+      <c r="B196" s="1">
         <v>185000</v>
       </c>
       <c r="C196" s="1" t="s">
@@ -4863,7 +4864,7 @@
       <c r="A197" t="s">
         <v>201</v>
       </c>
-      <c r="B197" s="10">
+      <c r="B197" s="1">
         <v>135000</v>
       </c>
       <c r="C197" s="1" t="s">
@@ -4881,7 +4882,7 @@
       <c r="A198" t="s">
         <v>202</v>
       </c>
-      <c r="B198" s="10">
+      <c r="B198" s="1">
         <v>70000</v>
       </c>
       <c r="C198" s="1" t="s">
@@ -4899,7 +4900,7 @@
       <c r="A199" t="s">
         <v>203</v>
       </c>
-      <c r="B199" s="10">
+      <c r="B199" s="1">
         <v>70000</v>
       </c>
       <c r="C199" s="1" t="s">
@@ -4917,7 +4918,7 @@
       <c r="A200" t="s">
         <v>204</v>
       </c>
-      <c r="B200" s="10">
+      <c r="B200" s="1">
         <v>30000</v>
       </c>
       <c r="C200" s="1" t="s">
@@ -4935,7 +4936,7 @@
       <c r="A201" t="s">
         <v>205</v>
       </c>
-      <c r="B201" s="10">
+      <c r="B201" s="1">
         <v>1890000</v>
       </c>
       <c r="C201" s="1" t="s">
@@ -4953,7 +4954,7 @@
       <c r="A202" t="s">
         <v>206</v>
       </c>
-      <c r="B202" s="10">
+      <c r="B202" s="1">
         <v>1650000</v>
       </c>
       <c r="C202" s="1" t="s">
@@ -4971,7 +4972,7 @@
       <c r="A203" t="s">
         <v>207</v>
       </c>
-      <c r="B203" s="10">
+      <c r="B203" s="1">
         <v>1440000</v>
       </c>
       <c r="C203" s="1" t="s">
@@ -4989,7 +4990,7 @@
       <c r="A204" t="s">
         <v>208</v>
       </c>
-      <c r="B204" s="10"/>
+      <c r="B204" s="1"/>
       <c r="C204" s="1" t="s">
         <v>13</v>
       </c>
@@ -5005,7 +5006,7 @@
       <c r="A205" t="s">
         <v>209</v>
       </c>
-      <c r="B205" s="10">
+      <c r="B205" s="1">
         <v>1520000</v>
       </c>
       <c r="C205" s="1" t="s">
@@ -5023,7 +5024,7 @@
       <c r="A206" t="s">
         <v>210</v>
       </c>
-      <c r="B206" s="10">
+      <c r="B206" s="1">
         <v>1410000</v>
       </c>
       <c r="C206" s="1" t="s">
@@ -5040,7 +5041,7 @@
       <c r="A207" t="s">
         <v>211</v>
       </c>
-      <c r="B207" s="10">
+      <c r="B207" s="1">
         <v>1580000</v>
       </c>
       <c r="C207" s="1" t="s">
@@ -5057,7 +5058,7 @@
       <c r="A208" t="s">
         <v>212</v>
       </c>
-      <c r="B208" s="10">
+      <c r="B208" s="1">
         <v>1190000</v>
       </c>
       <c r="C208" s="1" t="s">
@@ -5074,7 +5075,7 @@
       <c r="A209" t="s">
         <v>213</v>
       </c>
-      <c r="B209" s="10">
+      <c r="B209" s="1">
         <v>395000</v>
       </c>
       <c r="C209" s="1" t="s">
@@ -5091,7 +5092,7 @@
       <c r="A210" t="s">
         <v>214</v>
       </c>
-      <c r="B210" s="10">
+      <c r="B210" s="1">
         <v>1050000</v>
       </c>
       <c r="C210" s="1" t="s">
@@ -5108,7 +5109,7 @@
       <c r="A211" t="s">
         <v>215</v>
       </c>
-      <c r="B211" s="10">
+      <c r="B211" s="1">
         <v>940000</v>
       </c>
       <c r="C211" s="1" t="s">
@@ -5125,7 +5126,7 @@
       <c r="A212" t="s">
         <v>216</v>
       </c>
-      <c r="B212" s="10">
+      <c r="B212" s="1">
         <v>800000</v>
       </c>
       <c r="C212" s="1" t="s">
@@ -5142,7 +5143,7 @@
       <c r="A213" t="s">
         <v>217</v>
       </c>
-      <c r="B213" s="10">
+      <c r="B213" s="1">
         <v>940000</v>
       </c>
       <c r="C213" s="1" t="s">
@@ -5159,7 +5160,7 @@
       <c r="A214" t="s">
         <v>218</v>
       </c>
-      <c r="B214" s="10">
+      <c r="B214" s="1">
         <v>640000</v>
       </c>
       <c r="C214" s="1" t="s">
@@ -5176,7 +5177,7 @@
       <c r="A215" t="s">
         <v>218</v>
       </c>
-      <c r="B215" s="10">
+      <c r="B215" s="1">
         <v>780000</v>
       </c>
       <c r="C215" s="1" t="s">
@@ -5193,7 +5194,7 @@
       <c r="A216" t="s">
         <v>219</v>
       </c>
-      <c r="B216" s="10">
+      <c r="B216" s="1">
         <v>900000</v>
       </c>
       <c r="C216" s="1" t="s">
@@ -5210,7 +5211,7 @@
       <c r="A217" t="s">
         <v>220</v>
       </c>
-      <c r="B217" s="10">
+      <c r="B217" s="1">
         <v>548000</v>
       </c>
       <c r="C217" s="1" t="s">
@@ -5227,7 +5228,7 @@
       <c r="A218" t="s">
         <v>221</v>
       </c>
-      <c r="B218" s="10">
+      <c r="B218" s="1">
         <v>502000</v>
       </c>
       <c r="C218" s="1" t="s">
@@ -5244,7 +5245,7 @@
       <c r="A219" t="s">
         <v>222</v>
       </c>
-      <c r="B219" s="10">
+      <c r="B219" s="1">
         <v>423000</v>
       </c>
       <c r="C219" s="1" t="s">
@@ -5261,7 +5262,7 @@
       <c r="A220" t="s">
         <v>223</v>
       </c>
-      <c r="B220" s="10">
+      <c r="B220" s="1">
         <v>387000</v>
       </c>
       <c r="C220" s="1" t="s">
@@ -5278,7 +5279,7 @@
       <c r="A221" t="s">
         <v>224</v>
       </c>
-      <c r="B221" s="10">
+      <c r="B221" s="1">
         <v>349000</v>
       </c>
       <c r="C221" s="1" t="s">
@@ -5295,7 +5296,7 @@
       <c r="A222" t="s">
         <v>225</v>
       </c>
-      <c r="B222" s="10">
+      <c r="B222" s="1">
         <v>295000</v>
       </c>
       <c r="C222" s="1" t="s">
@@ -5312,7 +5313,7 @@
       <c r="A223" t="s">
         <v>226</v>
       </c>
-      <c r="B223" s="10">
+      <c r="B223" s="1">
         <v>222000</v>
       </c>
       <c r="C223" s="1" t="s">
@@ -5329,7 +5330,7 @@
       <c r="A224" t="s">
         <v>227</v>
       </c>
-      <c r="B224" s="10">
+      <c r="B224" s="1">
         <v>183000</v>
       </c>
       <c r="C224" s="1" t="s">
@@ -5346,7 +5347,7 @@
       <c r="A225" t="s">
         <v>227</v>
       </c>
-      <c r="B225" s="10">
+      <c r="B225" s="1">
         <v>161000</v>
       </c>
       <c r="C225" s="1" t="s">
@@ -5363,7 +5364,7 @@
       <c r="A226" t="s">
         <v>228</v>
       </c>
-      <c r="B226" s="10">
+      <c r="B226" s="1">
         <v>132000</v>
       </c>
       <c r="C226" s="1" t="s">
@@ -5380,7 +5381,7 @@
       <c r="A227" t="s">
         <v>229</v>
       </c>
-      <c r="B227" s="10">
+      <c r="B227" s="1">
         <v>115000</v>
       </c>
       <c r="C227" s="1" t="s">
@@ -5397,7 +5398,7 @@
       <c r="A228" t="s">
         <v>230</v>
       </c>
-      <c r="B228" s="10">
+      <c r="B228" s="1">
         <v>98000</v>
       </c>
       <c r="C228" s="1" t="s">
@@ -5414,7 +5415,7 @@
       <c r="A229" t="s">
         <v>231</v>
       </c>
-      <c r="B229" s="10">
+      <c r="B229" s="1">
         <v>400000</v>
       </c>
       <c r="C229" s="1" t="s">
@@ -5431,7 +5432,7 @@
       <c r="A230" t="s">
         <v>232</v>
       </c>
-      <c r="B230" s="10">
+      <c r="B230" s="1">
         <v>1290000</v>
       </c>
       <c r="C230" s="1" t="s">
@@ -5448,7 +5449,7 @@
       <c r="A231" t="s">
         <v>233</v>
       </c>
-      <c r="B231" s="10">
+      <c r="B231" s="1">
         <v>2050000</v>
       </c>
       <c r="C231" s="1" t="s">
@@ -5465,7 +5466,7 @@
       <c r="A232" t="s">
         <v>234</v>
       </c>
-      <c r="B232" s="10">
+      <c r="B232" s="1">
         <v>800000</v>
       </c>
       <c r="C232" s="1" t="s">
@@ -5482,7 +5483,7 @@
       <c r="A233" t="s">
         <v>235</v>
       </c>
-      <c r="B233" s="10">
+      <c r="B233" s="1">
         <v>480000</v>
       </c>
       <c r="C233" s="1" t="s">
@@ -5499,7 +5500,7 @@
       <c r="A234" t="s">
         <v>236</v>
       </c>
-      <c r="B234" s="10">
+      <c r="B234" s="1">
         <v>270000</v>
       </c>
       <c r="C234" s="1" t="s">
@@ -5516,7 +5517,7 @@
       <c r="A235" t="s">
         <v>237</v>
       </c>
-      <c r="B235" s="10">
+      <c r="B235" s="1">
         <v>350000</v>
       </c>
       <c r="C235" s="1" t="s">
@@ -5533,7 +5534,7 @@
       <c r="A236" t="s">
         <v>238</v>
       </c>
-      <c r="B236" s="10">
+      <c r="B236" s="1">
         <v>325000</v>
       </c>
       <c r="C236" s="1" t="s">
@@ -5550,7 +5551,7 @@
       <c r="A237" t="s">
         <v>239</v>
       </c>
-      <c r="B237" s="10">
+      <c r="B237" s="1">
         <v>325000</v>
       </c>
       <c r="C237" s="1" t="s">
@@ -5567,7 +5568,7 @@
       <c r="A238" t="s">
         <v>240</v>
       </c>
-      <c r="B238" s="10">
+      <c r="B238" s="1">
         <v>280000</v>
       </c>
       <c r="C238" s="1" t="s">
@@ -5584,7 +5585,7 @@
       <c r="A239" t="s">
         <v>241</v>
       </c>
-      <c r="B239" s="10">
+      <c r="B239" s="1">
         <v>230000</v>
       </c>
       <c r="C239" s="1" t="s">
@@ -5601,7 +5602,7 @@
       <c r="A240" t="s">
         <v>242</v>
       </c>
-      <c r="B240" s="10">
+      <c r="B240" s="1">
         <v>180000</v>
       </c>
       <c r="C240" s="1" t="s">
@@ -5618,7 +5619,7 @@
       <c r="A241" t="s">
         <v>243</v>
       </c>
-      <c r="B241" s="10">
+      <c r="B241" s="1">
         <v>145000</v>
       </c>
       <c r="C241" s="1" t="s">
@@ -5635,7 +5636,7 @@
       <c r="A242" t="s">
         <v>244</v>
       </c>
-      <c r="B242" s="10">
+      <c r="B242" s="1">
         <v>135000</v>
       </c>
       <c r="C242" s="1" t="s">
@@ -5652,7 +5653,7 @@
       <c r="A243" t="s">
         <v>245</v>
       </c>
-      <c r="B243" s="10">
+      <c r="B243" s="1">
         <v>799000</v>
       </c>
       <c r="C243" s="1" t="s">
@@ -5669,7 +5670,7 @@
       <c r="A244" t="s">
         <v>246</v>
       </c>
-      <c r="B244" s="10">
+      <c r="B244" s="1">
         <v>398000</v>
       </c>
       <c r="C244" s="1" t="s">
@@ -5686,7 +5687,7 @@
       <c r="A245" t="s">
         <v>247</v>
       </c>
-      <c r="B245" s="10">
+      <c r="B245" s="1">
         <v>335000</v>
       </c>
       <c r="C245" s="1" t="s">
@@ -5703,7 +5704,7 @@
       <c r="A246" t="s">
         <v>248</v>
       </c>
-      <c r="B246" s="10">
+      <c r="B246" s="1">
         <v>265000</v>
       </c>
       <c r="C246" s="1" t="s">
@@ -5720,7 +5721,7 @@
       <c r="A247" t="s">
         <v>249</v>
       </c>
-      <c r="B247" s="10">
+      <c r="B247" s="1">
         <v>295000</v>
       </c>
       <c r="C247" s="1" t="s">
@@ -5737,7 +5738,7 @@
       <c r="A248" t="s">
         <v>250</v>
       </c>
-      <c r="B248" s="10">
+      <c r="B248" s="1">
         <v>210000</v>
       </c>
       <c r="C248" s="1" t="s">
@@ -5754,7 +5755,7 @@
       <c r="A249" t="s">
         <v>251</v>
       </c>
-      <c r="B249" s="10">
+      <c r="B249" s="1">
         <v>182000</v>
       </c>
       <c r="C249" s="1" t="s">
@@ -5771,7 +5772,7 @@
       <c r="A250" t="s">
         <v>252</v>
       </c>
-      <c r="B250" s="10">
+      <c r="B250" s="1">
         <v>180000</v>
       </c>
       <c r="C250" s="1" t="s">
@@ -5788,7 +5789,7 @@
       <c r="A251" t="s">
         <v>253</v>
       </c>
-      <c r="B251" s="10">
+      <c r="B251" s="1">
         <v>114000</v>
       </c>
       <c r="C251" s="1" t="s">
@@ -5805,7 +5806,7 @@
       <c r="A252" t="s">
         <v>254</v>
       </c>
-      <c r="B252" s="10">
+      <c r="B252" s="1">
         <v>615000</v>
       </c>
       <c r="C252" s="1" t="s">
@@ -5822,7 +5823,7 @@
       <c r="A253" t="s">
         <v>255</v>
       </c>
-      <c r="B253" s="10">
+      <c r="B253" s="1">
         <v>45000</v>
       </c>
       <c r="C253" s="1" t="s">
@@ -5839,7 +5840,7 @@
       <c r="A254" t="s">
         <v>256</v>
       </c>
-      <c r="B254" s="10">
+      <c r="B254" s="1">
         <v>1400000</v>
       </c>
       <c r="C254" s="1" t="s">
@@ -5856,7 +5857,7 @@
       <c r="A255" t="s">
         <v>257</v>
       </c>
-      <c r="B255" s="10">
+      <c r="B255" s="1">
         <v>980000</v>
       </c>
       <c r="C255" s="1" t="s">
@@ -5873,7 +5874,7 @@
       <c r="A256" t="s">
         <v>258</v>
       </c>
-      <c r="B256" s="10">
+      <c r="B256" s="1">
         <v>745000</v>
       </c>
       <c r="C256" s="1" t="s">
@@ -5890,7 +5891,7 @@
       <c r="A257" t="s">
         <v>259</v>
       </c>
-      <c r="B257" s="10">
+      <c r="B257" s="1">
         <v>501000</v>
       </c>
       <c r="C257" s="1" t="s">
@@ -5907,7 +5908,7 @@
       <c r="A258" t="s">
         <v>260</v>
       </c>
-      <c r="B258" s="10">
+      <c r="B258" s="1">
         <v>418000</v>
       </c>
       <c r="C258" s="1" t="s">
@@ -5924,7 +5925,7 @@
       <c r="A259" t="s">
         <v>261</v>
       </c>
-      <c r="B259" s="10">
+      <c r="B259" s="1">
         <v>356000</v>
       </c>
       <c r="C259" s="1" t="s">
@@ -5941,7 +5942,7 @@
       <c r="A260" t="s">
         <v>262</v>
       </c>
-      <c r="B260" s="10">
+      <c r="B260" s="1">
         <v>347000</v>
       </c>
       <c r="C260" s="1" t="s">
@@ -5958,7 +5959,7 @@
       <c r="A261" t="s">
         <v>263</v>
       </c>
-      <c r="B261" s="10">
+      <c r="B261" s="1">
         <v>287000</v>
       </c>
       <c r="C261" s="1" t="s">
@@ -5975,7 +5976,7 @@
       <c r="A262" t="s">
         <v>264</v>
       </c>
-      <c r="B262" s="10">
+      <c r="B262" s="1">
         <v>268000</v>
       </c>
       <c r="C262" s="1" t="s">
@@ -5992,7 +5993,7 @@
       <c r="A263" t="s">
         <v>265</v>
       </c>
-      <c r="B263" s="10">
+      <c r="B263" s="1">
         <v>222000</v>
       </c>
       <c r="C263" s="1" t="s">
@@ -6009,7 +6010,7 @@
       <c r="A264" t="s">
         <v>266</v>
       </c>
-      <c r="B264" s="10">
+      <c r="B264" s="1">
         <v>164000</v>
       </c>
       <c r="C264" s="1" t="s">
@@ -6026,7 +6027,7 @@
       <c r="A265" t="s">
         <v>267</v>
       </c>
-      <c r="B265" s="10">
+      <c r="B265" s="1">
         <v>148000</v>
       </c>
       <c r="C265" s="1" t="s">
@@ -6043,7 +6044,7 @@
       <c r="A266" t="s">
         <v>268</v>
       </c>
-      <c r="B266" s="10">
+      <c r="B266" s="1">
         <v>103000</v>
       </c>
       <c r="C266" s="1" t="s">
@@ -6060,7 +6061,7 @@
       <c r="A267" t="s">
         <v>269</v>
       </c>
-      <c r="B267" s="10">
+      <c r="B267" s="1">
         <v>88000</v>
       </c>
       <c r="C267" s="1" t="s">
@@ -6077,7 +6078,7 @@
       <c r="A268" t="s">
         <v>270</v>
       </c>
-      <c r="B268" s="10">
+      <c r="B268" s="1">
         <v>927000</v>
       </c>
       <c r="C268" s="1" t="s">
@@ -6094,7 +6095,7 @@
       <c r="A269" t="s">
         <v>271</v>
       </c>
-      <c r="B269" s="10">
+      <c r="B269" s="1">
         <v>687000</v>
       </c>
       <c r="C269" s="1" t="s">
@@ -6111,7 +6112,7 @@
       <c r="A270" t="s">
         <v>272</v>
       </c>
-      <c r="B270" s="10">
+      <c r="B270" s="1">
         <v>559000</v>
       </c>
       <c r="C270" s="1" t="s">
@@ -6128,7 +6129,7 @@
       <c r="A271" t="s">
         <v>273</v>
       </c>
-      <c r="B271" s="10">
+      <c r="B271" s="1">
         <v>495000</v>
       </c>
       <c r="C271" s="1" t="s">
@@ -6145,7 +6146,7 @@
       <c r="A272" t="s">
         <v>274</v>
       </c>
-      <c r="B272" s="10">
+      <c r="B272" s="1">
         <v>459000</v>
       </c>
       <c r="C272" s="1" t="s">
@@ -6162,7 +6163,7 @@
       <c r="A273" t="s">
         <v>275</v>
       </c>
-      <c r="B273" s="10">
+      <c r="B273" s="1">
         <v>415000</v>
       </c>
       <c r="C273" s="1" t="s">
@@ -6179,7 +6180,7 @@
       <c r="A274" t="s">
         <v>276</v>
       </c>
-      <c r="B274" s="10">
+      <c r="B274" s="1">
         <v>360000</v>
       </c>
       <c r="C274" s="1" t="s">
@@ -6196,7 +6197,7 @@
       <c r="A275" t="s">
         <v>277</v>
       </c>
-      <c r="B275" s="10">
+      <c r="B275" s="1">
         <v>304000</v>
       </c>
       <c r="C275" s="1" t="s">
@@ -6213,7 +6214,7 @@
       <c r="A276" t="s">
         <v>278</v>
       </c>
-      <c r="B276" s="10">
+      <c r="B276" s="1">
         <v>276000</v>
       </c>
       <c r="C276" s="1" t="s">
@@ -6230,7 +6231,7 @@
       <c r="A277" t="s">
         <v>279</v>
       </c>
-      <c r="B277" s="10">
+      <c r="B277" s="1">
         <v>148000</v>
       </c>
       <c r="C277" s="1" t="s">
@@ -6247,7 +6248,7 @@
       <c r="A278" t="s">
         <v>280</v>
       </c>
-      <c r="B278" s="10">
+      <c r="B278" s="1">
         <v>105000</v>
       </c>
       <c r="C278" s="1" t="s">
@@ -6264,7 +6265,7 @@
       <c r="A279" t="s">
         <v>281</v>
       </c>
-      <c r="B279" s="10">
+      <c r="B279" s="1">
         <v>664000</v>
       </c>
       <c r="C279" s="1" t="s">
@@ -6281,7 +6282,7 @@
       <c r="A280" t="s">
         <v>282</v>
       </c>
-      <c r="B280" s="10">
+      <c r="B280" s="1">
         <v>507000</v>
       </c>
       <c r="C280" s="1" t="s">
@@ -6298,7 +6299,7 @@
       <c r="A281" t="s">
         <v>283</v>
       </c>
-      <c r="B281" s="10">
+      <c r="B281" s="1">
         <v>461000</v>
       </c>
       <c r="C281" s="1" t="s">
@@ -6315,7 +6316,7 @@
       <c r="A282" t="s">
         <v>284</v>
       </c>
-      <c r="B282" s="10">
+      <c r="B282" s="1">
         <v>710000</v>
       </c>
       <c r="C282" s="1" t="s">
@@ -6332,7 +6333,7 @@
       <c r="A283" t="s">
         <v>285</v>
       </c>
-      <c r="B283" s="10">
+      <c r="B283" s="1">
         <v>321000</v>
       </c>
       <c r="C283" s="1" t="s">
@@ -6349,7 +6350,7 @@
       <c r="A284" t="s">
         <v>286</v>
       </c>
-      <c r="B284" s="10">
+      <c r="B284" s="1">
         <v>265000</v>
       </c>
       <c r="C284" s="1" t="s">
@@ -6366,7 +6367,7 @@
       <c r="A285" t="s">
         <v>287</v>
       </c>
-      <c r="B285" s="10">
+      <c r="B285" s="1">
         <v>252000</v>
       </c>
       <c r="C285" s="1" t="s">
@@ -6383,7 +6384,7 @@
       <c r="A286" t="s">
         <v>288</v>
       </c>
-      <c r="B286" s="10">
+      <c r="B286" s="1">
         <v>229000</v>
       </c>
       <c r="C286" s="1" t="s">
@@ -6400,7 +6401,7 @@
       <c r="A287" t="s">
         <v>289</v>
       </c>
-      <c r="B287" s="10">
+      <c r="B287" s="1">
         <v>192000</v>
       </c>
       <c r="C287" s="1" t="s">
@@ -6417,7 +6418,7 @@
       <c r="A288" t="s">
         <v>290</v>
       </c>
-      <c r="B288" s="10">
+      <c r="B288" s="1">
         <v>314000</v>
       </c>
       <c r="C288" s="1" t="s">
@@ -6434,7 +6435,7 @@
       <c r="A289" t="s">
         <v>291</v>
       </c>
-      <c r="B289" s="10">
+      <c r="B289" s="1">
         <v>1495000</v>
       </c>
       <c r="C289" t="s">
@@ -6451,7 +6452,7 @@
       <c r="A290" t="s">
         <v>292</v>
       </c>
-      <c r="B290" s="10">
+      <c r="B290" s="1">
         <v>1183000</v>
       </c>
       <c r="C290" t="s">
@@ -6468,7 +6469,7 @@
       <c r="A291" t="s">
         <v>293</v>
       </c>
-      <c r="B291" s="10">
+      <c r="B291" s="1">
         <v>652000</v>
       </c>
       <c r="C291" t="s">
@@ -6485,7 +6486,7 @@
       <c r="A292" t="s">
         <v>294</v>
       </c>
-      <c r="B292" s="10">
+      <c r="B292" s="1">
         <v>435000</v>
       </c>
       <c r="C292" t="s">
@@ -6502,7 +6503,7 @@
       <c r="A293" t="s">
         <v>295</v>
       </c>
-      <c r="B293" s="10">
+      <c r="B293" s="1">
         <v>283000</v>
       </c>
       <c r="C293" t="s">
@@ -6519,7 +6520,7 @@
       <c r="A294" t="s">
         <v>296</v>
       </c>
-      <c r="B294" s="10">
+      <c r="B294" s="1">
         <v>193000</v>
       </c>
       <c r="C294" t="s">
@@ -6536,7 +6537,7 @@
       <c r="A295" t="s">
         <v>297</v>
       </c>
-      <c r="B295" s="10">
+      <c r="B295" s="1">
         <v>268000</v>
       </c>
       <c r="C295" t="s">
@@ -6553,7 +6554,7 @@
       <c r="A296" t="s">
         <v>298</v>
       </c>
-      <c r="B296" s="10">
+      <c r="B296" s="1">
         <v>170000</v>
       </c>
       <c r="C296" t="s">
@@ -6570,7 +6571,7 @@
       <c r="A297" t="s">
         <v>299</v>
       </c>
-      <c r="B297" s="10">
+      <c r="B297" s="1">
         <v>237000</v>
       </c>
       <c r="C297" t="s">
@@ -6587,7 +6588,7 @@
       <c r="A298" t="s">
         <v>300</v>
       </c>
-      <c r="B298" s="10">
+      <c r="B298" s="1">
         <v>268000</v>
       </c>
       <c r="C298" t="s">
@@ -6604,7 +6605,7 @@
       <c r="A299" t="s">
         <v>301</v>
       </c>
-      <c r="B299" s="10">
+      <c r="B299" s="1">
         <v>810000</v>
       </c>
       <c r="C299" t="s">
@@ -6621,7 +6622,7 @@
       <c r="A300" t="s">
         <v>302</v>
       </c>
-      <c r="B300" s="10">
+      <c r="B300" s="1">
         <v>590000</v>
       </c>
       <c r="C300" t="s">
@@ -6638,7 +6639,7 @@
       <c r="A301" t="s">
         <v>303</v>
       </c>
-      <c r="B301" s="10">
+      <c r="B301" s="1">
         <v>590000</v>
       </c>
       <c r="C301" t="s">
@@ -6655,7 +6656,7 @@
       <c r="A302" t="s">
         <v>304</v>
       </c>
-      <c r="B302" s="10">
+      <c r="B302" s="1">
         <v>810000</v>
       </c>
       <c r="C302" t="s">
@@ -6672,7 +6673,7 @@
       <c r="A303" t="s">
         <v>305</v>
       </c>
-      <c r="B303" s="10">
+      <c r="B303" s="1">
         <v>745000</v>
       </c>
       <c r="C303" t="s">
@@ -6689,7 +6690,7 @@
       <c r="A304" t="s">
         <v>306</v>
       </c>
-      <c r="B304" s="10">
+      <c r="B304" s="1">
         <v>223000</v>
       </c>
       <c r="C304" t="s">
@@ -6706,7 +6707,7 @@
       <c r="A305" t="s">
         <v>307</v>
       </c>
-      <c r="B305" s="10">
+      <c r="B305" s="1">
         <v>169000</v>
       </c>
       <c r="C305" t="s">
@@ -6723,7 +6724,7 @@
       <c r="A306" t="s">
         <v>308</v>
       </c>
-      <c r="B306" s="10">
+      <c r="B306" s="1">
         <v>125000</v>
       </c>
       <c r="C306" t="s">
@@ -6740,7 +6741,7 @@
       <c r="A307" t="s">
         <v>309</v>
       </c>
-      <c r="B307" s="10">
+      <c r="B307" s="1">
         <v>89000</v>
       </c>
       <c r="C307" t="s">
@@ -6757,7 +6758,7 @@
       <c r="A308" t="s">
         <v>310</v>
       </c>
-      <c r="B308" s="10">
+      <c r="B308" s="1">
         <v>49000</v>
       </c>
       <c r="C308" t="s">
@@ -6774,7 +6775,7 @@
       <c r="A309" t="s">
         <v>311</v>
       </c>
-      <c r="B309" s="10">
+      <c r="B309" s="1">
         <v>35000</v>
       </c>
       <c r="C309" t="s">
@@ -6791,7 +6792,7 @@
       <c r="A310" t="s">
         <v>312</v>
       </c>
-      <c r="B310" s="10">
+      <c r="B310" s="1">
         <v>184000</v>
       </c>
       <c r="C310" t="s">
@@ -6808,7 +6809,7 @@
       <c r="A311" t="s">
         <v>313</v>
       </c>
-      <c r="B311" s="10">
+      <c r="B311" s="1">
         <v>125000</v>
       </c>
       <c r="C311" t="s">
@@ -6825,7 +6826,7 @@
       <c r="A312" t="s">
         <v>314</v>
       </c>
-      <c r="B312" s="10">
+      <c r="B312" s="1">
         <v>90000</v>
       </c>
       <c r="C312" t="s">
@@ -6842,7 +6843,7 @@
       <c r="A313" t="s">
         <v>315</v>
       </c>
-      <c r="B313" s="10">
+      <c r="B313" s="1">
         <v>49000</v>
       </c>
       <c r="C313" t="s">
@@ -6859,7 +6860,7 @@
       <c r="A314" t="s">
         <v>316</v>
       </c>
-      <c r="B314" s="10">
+      <c r="B314" s="1">
         <v>470000</v>
       </c>
       <c r="C314" t="s">
@@ -6876,7 +6877,7 @@
       <c r="A315" t="s">
         <v>317</v>
       </c>
-      <c r="B315" s="10">
+      <c r="B315" s="1">
         <v>345000</v>
       </c>
       <c r="C315" t="s">
@@ -6893,7 +6894,7 @@
       <c r="A316" t="s">
         <v>318</v>
       </c>
-      <c r="B316" s="10">
+      <c r="B316" s="1">
         <v>315000</v>
       </c>
       <c r="C316" t="s">
@@ -6910,7 +6911,7 @@
       <c r="A317" t="s">
         <v>319</v>
       </c>
-      <c r="B317" s="10">
+      <c r="B317" s="1">
         <v>255000</v>
       </c>
       <c r="C317" t="s">
@@ -6927,7 +6928,7 @@
       <c r="A318" t="s">
         <v>320</v>
       </c>
-      <c r="B318" s="10">
+      <c r="B318" s="1">
         <v>399000</v>
       </c>
       <c r="C318" t="s">
@@ -6944,7 +6945,7 @@
       <c r="A319" t="s">
         <v>321</v>
       </c>
-      <c r="B319" s="10">
+      <c r="B319" s="1">
         <v>155000</v>
       </c>
       <c r="C319" t="s">
@@ -6961,7 +6962,7 @@
       <c r="A320" t="s">
         <v>322</v>
       </c>
-      <c r="B320" s="10">
+      <c r="B320" s="1">
         <v>145000</v>
       </c>
       <c r="C320" t="s">
@@ -6978,7 +6979,7 @@
       <c r="A321" t="s">
         <v>323</v>
       </c>
-      <c r="B321" s="10">
+      <c r="B321" s="1">
         <v>146000</v>
       </c>
       <c r="C321" t="s">
@@ -6995,7 +6996,7 @@
       <c r="A322" t="s">
         <v>324</v>
       </c>
-      <c r="B322" s="10">
+      <c r="B322" s="1">
         <v>189000</v>
       </c>
       <c r="C322" t="s">
@@ -7012,7 +7013,7 @@
       <c r="A323" t="s">
         <v>325</v>
       </c>
-      <c r="B323" s="10">
+      <c r="B323" s="1">
         <v>107000</v>
       </c>
       <c r="C323" t="s">
@@ -7029,7 +7030,7 @@
       <c r="A324" t="s">
         <v>326</v>
       </c>
-      <c r="B324" s="10">
+      <c r="B324" s="1">
         <v>95000</v>
       </c>
       <c r="C324" t="s">
@@ -7046,7 +7047,7 @@
       <c r="A325" t="s">
         <v>327</v>
       </c>
-      <c r="B325" s="10">
+      <c r="B325" s="1">
         <v>98000</v>
       </c>
       <c r="C325" t="s">
@@ -7063,7 +7064,7 @@
       <c r="A326" t="s">
         <v>328</v>
       </c>
-      <c r="B326" s="10">
+      <c r="B326" s="1">
         <v>115000</v>
       </c>
       <c r="C326" t="s">
@@ -7080,7 +7081,7 @@
       <c r="A327" t="s">
         <v>329</v>
       </c>
-      <c r="B327" s="10">
+      <c r="B327" s="1">
         <v>215000</v>
       </c>
       <c r="C327" t="s">
@@ -7097,7 +7098,7 @@
       <c r="A328" t="s">
         <v>330</v>
       </c>
-      <c r="B328" s="10">
+      <c r="B328" s="1">
         <v>136000</v>
       </c>
       <c r="C328" t="s">
@@ -7114,7 +7115,7 @@
       <c r="A329" t="s">
         <v>331</v>
       </c>
-      <c r="B329" s="10">
+      <c r="B329" s="1">
         <v>380000</v>
       </c>
       <c r="C329" t="s">
@@ -7131,7 +7132,7 @@
       <c r="A330" t="s">
         <v>332</v>
       </c>
-      <c r="B330" s="10">
+      <c r="B330" s="1">
         <v>450000</v>
       </c>
       <c r="C330" t="s">
@@ -7148,7 +7149,7 @@
       <c r="A331" t="s">
         <v>333</v>
       </c>
-      <c r="B331" s="10">
+      <c r="B331" s="1">
         <v>310000</v>
       </c>
       <c r="C331" t="s">
@@ -7165,7 +7166,7 @@
       <c r="A332" t="s">
         <v>334</v>
       </c>
-      <c r="B332" s="10">
+      <c r="B332" s="1">
         <v>293000</v>
       </c>
       <c r="C332" t="s">
@@ -7182,7 +7183,7 @@
       <c r="A333" t="s">
         <v>335</v>
       </c>
-      <c r="B333" s="10">
+      <c r="B333" s="1">
         <v>253000</v>
       </c>
       <c r="C333" t="s">
@@ -7199,7 +7200,7 @@
       <c r="A334" t="s">
         <v>336</v>
       </c>
-      <c r="B334" s="10">
+      <c r="B334" s="1">
         <v>200000</v>
       </c>
       <c r="C334" t="s">
@@ -7216,7 +7217,7 @@
       <c r="A335" t="s">
         <v>337</v>
       </c>
-      <c r="B335" s="10">
+      <c r="B335" s="1">
         <v>145000</v>
       </c>
       <c r="C335" t="s">
@@ -7233,7 +7234,7 @@
       <c r="A336" t="s">
         <v>338</v>
       </c>
-      <c r="B336" s="10">
+      <c r="B336" s="1">
         <v>138000</v>
       </c>
       <c r="C336" t="s">
@@ -7250,7 +7251,7 @@
       <c r="A337" t="s">
         <v>339</v>
       </c>
-      <c r="B337" s="10">
+      <c r="B337" s="1">
         <v>158000</v>
       </c>
       <c r="C337" t="s">
@@ -7267,7 +7268,7 @@
       <c r="A338" t="s">
         <v>340</v>
       </c>
-      <c r="B338" s="10">
+      <c r="B338" s="1">
         <v>143000</v>
       </c>
       <c r="C338" t="s">
@@ -7284,7 +7285,7 @@
       <c r="A339" t="s">
         <v>341</v>
       </c>
-      <c r="B339" s="10">
+      <c r="B339" s="1">
         <v>102000</v>
       </c>
       <c r="C339" t="s">
@@ -7301,7 +7302,7 @@
       <c r="A340" t="s">
         <v>342</v>
       </c>
-      <c r="B340" s="10">
+      <c r="B340" s="1">
         <v>89000</v>
       </c>
       <c r="C340" t="s">
@@ -7318,7 +7319,7 @@
       <c r="A341" t="s">
         <v>343</v>
       </c>
-      <c r="B341" s="10">
+      <c r="B341" s="1">
         <v>127000</v>
       </c>
       <c r="C341" t="s">
@@ -7335,7 +7336,7 @@
       <c r="A342" t="s">
         <v>344</v>
       </c>
-      <c r="B342" s="10">
+      <c r="B342" s="1">
         <v>465000</v>
       </c>
       <c r="C342" t="s">
@@ -7347,6 +7348,4314 @@
       <c r="E342" s="7" t="s">
         <v>345</v>
       </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B343" s="1"/>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B344" s="1"/>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B345" s="1"/>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B346" s="1"/>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B347" s="1"/>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B348" s="1"/>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B349" s="1"/>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B350" s="1"/>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B351" s="1"/>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B352" s="1"/>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B353" s="1"/>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B354" s="1"/>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B355" s="1"/>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B356" s="1"/>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B357" s="1"/>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B358" s="1"/>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B359" s="1"/>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B360" s="1"/>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B361" s="1"/>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B362" s="1"/>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B363" s="1"/>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B364" s="1"/>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B365" s="1"/>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B366" s="1"/>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B367" s="1"/>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B368" s="1"/>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B369" s="1"/>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B370" s="1"/>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B371" s="1"/>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B372" s="1"/>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B373" s="1"/>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B374" s="1"/>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B375" s="1"/>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B376" s="1"/>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B377" s="1"/>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B378" s="1"/>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B379" s="1"/>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B380" s="1"/>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B381" s="1"/>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B382" s="1"/>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B383" s="1"/>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B384" s="1"/>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B385" s="1"/>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B386" s="1"/>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B387" s="1"/>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B388" s="1"/>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B389" s="1"/>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B390" s="1"/>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B391" s="1"/>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B392" s="1"/>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B393" s="1"/>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B394" s="1"/>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B395" s="1"/>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B396" s="1"/>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B397" s="1"/>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B398" s="1"/>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B399" s="1"/>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B400" s="1"/>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B401" s="1"/>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B402" s="1"/>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B403" s="1"/>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B404" s="1"/>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B405" s="1"/>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B406" s="1"/>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B407" s="1"/>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B408" s="1"/>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B409" s="1"/>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B410" s="1"/>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B411" s="1"/>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B412" s="1"/>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B413" s="1"/>
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B414" s="1"/>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B415" s="1"/>
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B416" s="1"/>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B417" s="1"/>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B418" s="1"/>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B419" s="1"/>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B420" s="1"/>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B421" s="1"/>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B422" s="1"/>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B423" s="1"/>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B424" s="1"/>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B425" s="1"/>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B426" s="1"/>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B427" s="1"/>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B428" s="1"/>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B429" s="1"/>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B430" s="1"/>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B431" s="1"/>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B432" s="1"/>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B433" s="1"/>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B434" s="1"/>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B435" s="1"/>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B436" s="1"/>
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B437" s="1"/>
+    </row>
+    <row r="438" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B438" s="1"/>
+    </row>
+    <row r="439" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B439" s="1"/>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B440" s="1"/>
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B441" s="1"/>
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B442" s="1"/>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B443" s="1"/>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B444" s="1"/>
+    </row>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B445" s="1"/>
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B446" s="1"/>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B447" s="1"/>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B448" s="1"/>
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B449" s="1"/>
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B450" s="1"/>
+    </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B451" s="1"/>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B452" s="1"/>
+    </row>
+    <row r="453" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B453" s="1"/>
+    </row>
+    <row r="454" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B454" s="1"/>
+    </row>
+    <row r="455" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B455" s="1"/>
+    </row>
+    <row r="456" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B456" s="1"/>
+    </row>
+    <row r="457" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B457" s="1"/>
+    </row>
+    <row r="458" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B458" s="1"/>
+    </row>
+    <row r="459" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B459" s="1"/>
+    </row>
+    <row r="460" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B460" s="1"/>
+    </row>
+    <row r="461" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B461" s="1"/>
+    </row>
+    <row r="462" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B462" s="1"/>
+    </row>
+    <row r="463" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B463" s="1"/>
+    </row>
+    <row r="464" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B464" s="1"/>
+    </row>
+    <row r="465" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B465" s="1"/>
+    </row>
+    <row r="466" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B466" s="1"/>
+    </row>
+    <row r="467" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B467" s="1"/>
+    </row>
+    <row r="468" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B468" s="1"/>
+    </row>
+    <row r="469" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B469" s="1"/>
+    </row>
+    <row r="470" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B470" s="1"/>
+    </row>
+    <row r="471" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B471" s="1"/>
+    </row>
+    <row r="472" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B472" s="1"/>
+    </row>
+    <row r="473" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B473" s="1"/>
+    </row>
+    <row r="474" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B474" s="1"/>
+    </row>
+    <row r="475" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B475" s="1"/>
+    </row>
+    <row r="476" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B476" s="1"/>
+    </row>
+    <row r="477" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B477" s="1"/>
+    </row>
+    <row r="478" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B478" s="1"/>
+    </row>
+    <row r="479" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B479" s="1"/>
+    </row>
+    <row r="480" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B480" s="1"/>
+    </row>
+    <row r="481" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B481" s="1"/>
+    </row>
+    <row r="482" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B482" s="1"/>
+    </row>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B483" s="1"/>
+    </row>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B484" s="1"/>
+    </row>
+    <row r="485" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B485" s="1"/>
+    </row>
+    <row r="486" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B486" s="1"/>
+    </row>
+    <row r="487" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B487" s="1"/>
+    </row>
+    <row r="488" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B488" s="1"/>
+    </row>
+    <row r="489" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B489" s="1"/>
+    </row>
+    <row r="490" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B490" s="1"/>
+    </row>
+    <row r="491" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B491" s="1"/>
+    </row>
+    <row r="492" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B492" s="1"/>
+    </row>
+    <row r="493" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B493" s="1"/>
+    </row>
+    <row r="494" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B494" s="1"/>
+    </row>
+    <row r="495" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B495" s="1"/>
+    </row>
+    <row r="496" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B496" s="1"/>
+    </row>
+    <row r="497" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B497" s="1"/>
+    </row>
+    <row r="498" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B498" s="1"/>
+    </row>
+    <row r="499" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B499" s="1"/>
+    </row>
+    <row r="500" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B500" s="1"/>
+    </row>
+    <row r="501" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B501" s="1"/>
+    </row>
+    <row r="502" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B502" s="1"/>
+    </row>
+    <row r="503" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B503" s="1"/>
+    </row>
+    <row r="504" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B504" s="1"/>
+    </row>
+    <row r="505" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B505" s="1"/>
+    </row>
+    <row r="506" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B506" s="1"/>
+    </row>
+    <row r="507" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B507" s="1"/>
+    </row>
+    <row r="508" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B508" s="1"/>
+    </row>
+    <row r="509" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B509" s="1"/>
+    </row>
+    <row r="510" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B510" s="1"/>
+    </row>
+    <row r="511" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B511" s="1"/>
+    </row>
+    <row r="512" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B512" s="1"/>
+    </row>
+    <row r="513" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B513" s="1"/>
+    </row>
+    <row r="514" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B514" s="1"/>
+    </row>
+    <row r="515" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B515" s="1"/>
+    </row>
+    <row r="516" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B516" s="1"/>
+    </row>
+    <row r="517" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B517" s="1"/>
+    </row>
+    <row r="518" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B518" s="1"/>
+    </row>
+    <row r="519" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B519" s="1"/>
+    </row>
+    <row r="520" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B520" s="1"/>
+    </row>
+    <row r="521" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B521" s="1"/>
+    </row>
+    <row r="522" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B522" s="1"/>
+    </row>
+    <row r="523" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B523" s="1"/>
+    </row>
+    <row r="524" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B524" s="1"/>
+    </row>
+    <row r="525" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B525" s="1"/>
+    </row>
+    <row r="526" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B526" s="1"/>
+    </row>
+    <row r="527" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B527" s="1"/>
+    </row>
+    <row r="528" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B528" s="1"/>
+    </row>
+    <row r="529" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B529" s="1"/>
+    </row>
+    <row r="530" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B530" s="1"/>
+    </row>
+    <row r="531" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B531" s="1"/>
+    </row>
+    <row r="532" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B532" s="1"/>
+    </row>
+    <row r="533" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B533" s="1"/>
+    </row>
+    <row r="534" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B534" s="1"/>
+    </row>
+    <row r="535" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B535" s="1"/>
+    </row>
+    <row r="536" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B536" s="1"/>
+    </row>
+    <row r="537" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B537" s="1"/>
+    </row>
+    <row r="538" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B538" s="1"/>
+    </row>
+    <row r="539" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B539" s="1"/>
+    </row>
+    <row r="540" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B540" s="1"/>
+    </row>
+    <row r="541" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B541" s="1"/>
+    </row>
+    <row r="542" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B542" s="1"/>
+    </row>
+    <row r="543" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B543" s="1"/>
+    </row>
+    <row r="544" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B544" s="1"/>
+    </row>
+    <row r="545" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B545" s="1"/>
+    </row>
+    <row r="546" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B546" s="1"/>
+    </row>
+    <row r="547" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B547" s="1"/>
+    </row>
+    <row r="548" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B548" s="1"/>
+    </row>
+    <row r="549" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B549" s="1"/>
+    </row>
+    <row r="550" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B550" s="1"/>
+    </row>
+    <row r="551" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B551" s="1"/>
+    </row>
+    <row r="552" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B552" s="1"/>
+    </row>
+    <row r="553" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B553" s="1"/>
+    </row>
+    <row r="554" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B554" s="1"/>
+    </row>
+    <row r="555" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B555" s="1"/>
+    </row>
+    <row r="556" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B556" s="1"/>
+    </row>
+    <row r="557" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B557" s="1"/>
+    </row>
+    <row r="558" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B558" s="1"/>
+    </row>
+    <row r="559" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B559" s="1"/>
+    </row>
+    <row r="560" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B560" s="1"/>
+    </row>
+    <row r="561" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B561" s="1"/>
+    </row>
+    <row r="562" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B562" s="1"/>
+    </row>
+    <row r="563" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B563" s="1"/>
+    </row>
+    <row r="564" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B564" s="1"/>
+    </row>
+    <row r="565" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B565" s="1"/>
+    </row>
+    <row r="566" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B566" s="1"/>
+    </row>
+    <row r="567" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B567" s="1"/>
+    </row>
+    <row r="568" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B568" s="1"/>
+    </row>
+    <row r="569" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B569" s="1"/>
+    </row>
+    <row r="570" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B570" s="1"/>
+    </row>
+    <row r="571" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B571" s="1"/>
+    </row>
+    <row r="572" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B572" s="1"/>
+    </row>
+    <row r="573" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B573" s="1"/>
+    </row>
+    <row r="574" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B574" s="1"/>
+    </row>
+    <row r="575" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B575" s="1"/>
+    </row>
+    <row r="576" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B576" s="1"/>
+    </row>
+    <row r="577" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B577" s="1"/>
+    </row>
+    <row r="578" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B578" s="1"/>
+    </row>
+    <row r="579" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B579" s="1"/>
+    </row>
+    <row r="580" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B580" s="1"/>
+    </row>
+    <row r="581" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B581" s="1"/>
+    </row>
+    <row r="582" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B582" s="1"/>
+    </row>
+    <row r="583" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B583" s="1"/>
+    </row>
+    <row r="584" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B584" s="1"/>
+    </row>
+    <row r="585" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B585" s="1"/>
+    </row>
+    <row r="586" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B586" s="1"/>
+    </row>
+    <row r="587" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B587" s="1"/>
+    </row>
+    <row r="588" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B588" s="1"/>
+    </row>
+    <row r="589" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B589" s="1"/>
+    </row>
+    <row r="590" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B590" s="1"/>
+    </row>
+    <row r="591" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B591" s="1"/>
+    </row>
+    <row r="592" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B592" s="1"/>
+    </row>
+    <row r="593" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B593" s="1"/>
+    </row>
+    <row r="594" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B594" s="1"/>
+    </row>
+    <row r="595" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B595" s="1"/>
+    </row>
+    <row r="596" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B596" s="1"/>
+    </row>
+    <row r="597" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B597" s="1"/>
+    </row>
+    <row r="598" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B598" s="1"/>
+    </row>
+    <row r="599" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B599" s="1"/>
+    </row>
+    <row r="600" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B600" s="1"/>
+    </row>
+    <row r="601" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B601" s="1"/>
+    </row>
+    <row r="602" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B602" s="1"/>
+    </row>
+    <row r="603" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B603" s="1"/>
+    </row>
+    <row r="604" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B604" s="1"/>
+    </row>
+    <row r="605" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B605" s="1"/>
+    </row>
+    <row r="606" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B606" s="1"/>
+    </row>
+    <row r="607" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B607" s="1"/>
+    </row>
+    <row r="608" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B608" s="1"/>
+    </row>
+    <row r="609" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B609" s="1"/>
+    </row>
+    <row r="610" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B610" s="1"/>
+    </row>
+    <row r="611" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B611" s="1"/>
+    </row>
+    <row r="612" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B612" s="1"/>
+    </row>
+    <row r="613" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B613" s="1"/>
+    </row>
+    <row r="614" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B614" s="1"/>
+    </row>
+    <row r="615" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B615" s="1"/>
+    </row>
+    <row r="616" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B616" s="1"/>
+    </row>
+    <row r="617" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B617" s="1"/>
+    </row>
+    <row r="618" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B618" s="1"/>
+    </row>
+    <row r="619" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B619" s="1"/>
+    </row>
+    <row r="620" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B620" s="1"/>
+    </row>
+    <row r="621" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B621" s="1"/>
+    </row>
+    <row r="622" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B622" s="1"/>
+    </row>
+    <row r="623" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B623" s="1"/>
+    </row>
+    <row r="624" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B624" s="1"/>
+    </row>
+    <row r="625" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B625" s="1"/>
+    </row>
+    <row r="626" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B626" s="1"/>
+    </row>
+    <row r="627" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B627" s="1"/>
+    </row>
+    <row r="628" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B628" s="1"/>
+    </row>
+    <row r="629" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B629" s="1"/>
+    </row>
+    <row r="630" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B630" s="1"/>
+    </row>
+    <row r="631" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B631" s="1"/>
+    </row>
+    <row r="632" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B632" s="1"/>
+    </row>
+    <row r="633" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B633" s="1"/>
+    </row>
+    <row r="634" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B634" s="1"/>
+    </row>
+    <row r="635" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B635" s="1"/>
+    </row>
+    <row r="636" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B636" s="1"/>
+    </row>
+    <row r="637" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B637" s="1"/>
+    </row>
+    <row r="638" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B638" s="1"/>
+    </row>
+    <row r="639" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B639" s="1"/>
+    </row>
+    <row r="640" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B640" s="1"/>
+    </row>
+    <row r="641" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B641" s="1"/>
+    </row>
+    <row r="642" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B642" s="1"/>
+    </row>
+    <row r="643" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B643" s="1"/>
+    </row>
+    <row r="644" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B644" s="1"/>
+    </row>
+    <row r="645" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B645" s="1"/>
+    </row>
+    <row r="646" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B646" s="1"/>
+    </row>
+    <row r="647" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B647" s="1"/>
+    </row>
+    <row r="648" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B648" s="1"/>
+    </row>
+    <row r="649" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B649" s="1"/>
+    </row>
+    <row r="650" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B650" s="1"/>
+    </row>
+    <row r="651" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B651" s="1"/>
+    </row>
+    <row r="652" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B652" s="1"/>
+    </row>
+    <row r="653" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B653" s="1"/>
+    </row>
+    <row r="654" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B654" s="1"/>
+    </row>
+    <row r="655" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B655" s="1"/>
+    </row>
+    <row r="656" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B656" s="1"/>
+    </row>
+    <row r="657" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B657" s="1"/>
+    </row>
+    <row r="658" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B658" s="1"/>
+    </row>
+    <row r="659" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B659" s="1"/>
+    </row>
+    <row r="660" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B660" s="1"/>
+    </row>
+    <row r="661" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B661" s="1"/>
+    </row>
+    <row r="662" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B662" s="1"/>
+    </row>
+    <row r="663" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B663" s="1"/>
+    </row>
+    <row r="664" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B664" s="1"/>
+    </row>
+    <row r="665" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B665" s="1"/>
+    </row>
+    <row r="666" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B666" s="1"/>
+    </row>
+    <row r="667" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B667" s="1"/>
+    </row>
+    <row r="668" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B668" s="1"/>
+    </row>
+    <row r="669" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B669" s="1"/>
+    </row>
+    <row r="670" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B670" s="1"/>
+    </row>
+    <row r="671" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B671" s="1"/>
+    </row>
+    <row r="672" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B672" s="1"/>
+    </row>
+    <row r="673" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B673" s="1"/>
+    </row>
+    <row r="674" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B674" s="1"/>
+    </row>
+    <row r="675" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B675" s="1"/>
+    </row>
+    <row r="676" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B676" s="1"/>
+    </row>
+    <row r="677" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B677" s="1"/>
+    </row>
+    <row r="678" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B678" s="1"/>
+    </row>
+    <row r="679" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B679" s="1"/>
+    </row>
+    <row r="680" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B680" s="1"/>
+    </row>
+    <row r="681" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B681" s="1"/>
+    </row>
+    <row r="682" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B682" s="1"/>
+    </row>
+    <row r="683" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B683" s="1"/>
+    </row>
+    <row r="684" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B684" s="1"/>
+    </row>
+    <row r="685" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B685" s="1"/>
+    </row>
+    <row r="686" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B686" s="1"/>
+    </row>
+    <row r="687" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B687" s="1"/>
+    </row>
+    <row r="688" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B688" s="1"/>
+    </row>
+    <row r="689" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B689" s="1"/>
+    </row>
+    <row r="690" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B690" s="1"/>
+    </row>
+    <row r="691" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B691" s="1"/>
+    </row>
+    <row r="692" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B692" s="1"/>
+    </row>
+    <row r="693" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B693" s="1"/>
+    </row>
+    <row r="694" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B694" s="1"/>
+    </row>
+    <row r="695" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B695" s="1"/>
+    </row>
+    <row r="696" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B696" s="1"/>
+    </row>
+    <row r="697" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B697" s="1"/>
+    </row>
+    <row r="698" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B698" s="1"/>
+    </row>
+    <row r="699" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B699" s="1"/>
+    </row>
+    <row r="700" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B700" s="1"/>
+    </row>
+    <row r="701" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B701" s="1"/>
+    </row>
+    <row r="702" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B702" s="1"/>
+    </row>
+    <row r="703" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B703" s="1"/>
+    </row>
+    <row r="704" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B704" s="1"/>
+    </row>
+    <row r="705" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B705" s="1"/>
+    </row>
+    <row r="706" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B706" s="1"/>
+    </row>
+    <row r="707" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B707" s="1"/>
+    </row>
+    <row r="708" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B708" s="1"/>
+    </row>
+    <row r="709" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B709" s="1"/>
+    </row>
+    <row r="710" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B710" s="1"/>
+    </row>
+    <row r="711" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B711" s="1"/>
+    </row>
+    <row r="712" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B712" s="1"/>
+    </row>
+    <row r="713" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B713" s="1"/>
+    </row>
+    <row r="714" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B714" s="1"/>
+    </row>
+    <row r="715" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B715" s="1"/>
+    </row>
+    <row r="716" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B716" s="1"/>
+    </row>
+    <row r="717" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B717" s="1"/>
+    </row>
+    <row r="718" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B718" s="1"/>
+    </row>
+    <row r="719" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B719" s="1"/>
+    </row>
+    <row r="720" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B720" s="1"/>
+    </row>
+    <row r="721" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B721" s="1"/>
+    </row>
+    <row r="722" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B722" s="1"/>
+    </row>
+    <row r="723" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B723" s="1"/>
+    </row>
+    <row r="724" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B724" s="1"/>
+    </row>
+    <row r="725" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B725" s="1"/>
+    </row>
+    <row r="726" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B726" s="1"/>
+    </row>
+    <row r="727" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B727" s="1"/>
+    </row>
+    <row r="728" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B728" s="1"/>
+    </row>
+    <row r="729" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B729" s="1"/>
+    </row>
+    <row r="730" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B730" s="1"/>
+    </row>
+    <row r="731" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B731" s="1"/>
+    </row>
+    <row r="732" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B732" s="1"/>
+    </row>
+    <row r="733" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B733" s="1"/>
+    </row>
+    <row r="734" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B734" s="1"/>
+    </row>
+    <row r="735" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B735" s="1"/>
+    </row>
+    <row r="736" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B736" s="1"/>
+    </row>
+    <row r="737" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B737" s="1"/>
+    </row>
+    <row r="738" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B738" s="1"/>
+    </row>
+    <row r="739" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B739" s="1"/>
+    </row>
+    <row r="740" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B740" s="1"/>
+    </row>
+    <row r="741" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B741" s="1"/>
+    </row>
+    <row r="742" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B742" s="1"/>
+    </row>
+    <row r="743" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B743" s="1"/>
+    </row>
+    <row r="744" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B744" s="1"/>
+    </row>
+    <row r="745" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B745" s="1"/>
+    </row>
+    <row r="746" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B746" s="1"/>
+    </row>
+    <row r="747" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B747" s="1"/>
+    </row>
+    <row r="748" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B748" s="1"/>
+    </row>
+    <row r="749" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B749" s="1"/>
+    </row>
+    <row r="750" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B750" s="1"/>
+    </row>
+    <row r="751" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B751" s="1"/>
+    </row>
+    <row r="752" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B752" s="1"/>
+    </row>
+    <row r="753" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B753" s="1"/>
+    </row>
+    <row r="754" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B754" s="1"/>
+    </row>
+    <row r="755" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B755" s="1"/>
+    </row>
+    <row r="756" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B756" s="1"/>
+    </row>
+    <row r="757" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B757" s="1"/>
+    </row>
+    <row r="758" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B758" s="1"/>
+    </row>
+    <row r="759" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B759" s="1"/>
+    </row>
+    <row r="760" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B760" s="1"/>
+    </row>
+    <row r="761" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B761" s="1"/>
+    </row>
+    <row r="762" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B762" s="1"/>
+    </row>
+    <row r="763" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B763" s="1"/>
+    </row>
+    <row r="764" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B764" s="1"/>
+    </row>
+    <row r="765" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B765" s="1"/>
+    </row>
+    <row r="766" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B766" s="1"/>
+    </row>
+    <row r="767" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B767" s="1"/>
+    </row>
+    <row r="768" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B768" s="1"/>
+    </row>
+    <row r="769" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B769" s="1"/>
+    </row>
+    <row r="770" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B770" s="1"/>
+    </row>
+    <row r="771" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B771" s="1"/>
+    </row>
+    <row r="772" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B772" s="1"/>
+    </row>
+    <row r="773" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B773" s="1"/>
+    </row>
+    <row r="774" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B774" s="1"/>
+    </row>
+    <row r="775" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B775" s="1"/>
+    </row>
+    <row r="776" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B776" s="1"/>
+    </row>
+    <row r="777" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B777" s="1"/>
+    </row>
+    <row r="778" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B778" s="1"/>
+    </row>
+    <row r="779" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B779" s="1"/>
+    </row>
+    <row r="780" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B780" s="1"/>
+    </row>
+    <row r="781" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B781" s="1"/>
+    </row>
+    <row r="782" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B782" s="1"/>
+    </row>
+    <row r="783" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B783" s="1"/>
+    </row>
+    <row r="784" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B784" s="1"/>
+    </row>
+    <row r="785" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B785" s="1"/>
+    </row>
+    <row r="786" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B786" s="1"/>
+    </row>
+    <row r="787" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B787" s="1"/>
+    </row>
+    <row r="788" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B788" s="1"/>
+    </row>
+    <row r="789" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B789" s="1"/>
+    </row>
+    <row r="790" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B790" s="1"/>
+    </row>
+    <row r="791" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B791" s="1"/>
+    </row>
+    <row r="792" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B792" s="1"/>
+    </row>
+    <row r="793" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B793" s="1"/>
+    </row>
+    <row r="794" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B794" s="1"/>
+    </row>
+    <row r="795" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B795" s="1"/>
+    </row>
+    <row r="796" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B796" s="1"/>
+    </row>
+    <row r="797" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B797" s="1"/>
+    </row>
+    <row r="798" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B798" s="1"/>
+    </row>
+    <row r="799" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B799" s="1"/>
+    </row>
+    <row r="800" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B800" s="1"/>
+    </row>
+    <row r="801" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B801" s="1"/>
+    </row>
+    <row r="802" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B802" s="1"/>
+    </row>
+    <row r="803" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B803" s="1"/>
+    </row>
+    <row r="804" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B804" s="1"/>
+    </row>
+    <row r="805" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B805" s="1"/>
+    </row>
+    <row r="806" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B806" s="1"/>
+    </row>
+    <row r="807" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B807" s="1"/>
+    </row>
+    <row r="808" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B808" s="1"/>
+    </row>
+    <row r="809" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B809" s="1"/>
+    </row>
+    <row r="810" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B810" s="1"/>
+    </row>
+    <row r="811" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B811" s="1"/>
+    </row>
+    <row r="812" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B812" s="1"/>
+    </row>
+    <row r="813" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B813" s="1"/>
+    </row>
+    <row r="814" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B814" s="1"/>
+    </row>
+    <row r="815" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B815" s="1"/>
+    </row>
+    <row r="816" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B816" s="1"/>
+    </row>
+    <row r="817" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B817" s="1"/>
+    </row>
+    <row r="818" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B818" s="1"/>
+    </row>
+    <row r="819" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B819" s="1"/>
+    </row>
+    <row r="820" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B820" s="1"/>
+    </row>
+    <row r="821" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B821" s="1"/>
+    </row>
+    <row r="822" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B822" s="1"/>
+    </row>
+    <row r="823" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B823" s="1"/>
+    </row>
+    <row r="824" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B824" s="1"/>
+    </row>
+    <row r="825" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B825" s="1"/>
+    </row>
+    <row r="826" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B826" s="1"/>
+    </row>
+    <row r="827" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B827" s="1"/>
+    </row>
+    <row r="828" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B828" s="1"/>
+    </row>
+    <row r="829" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B829" s="1"/>
+    </row>
+    <row r="830" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B830" s="1"/>
+    </row>
+    <row r="831" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B831" s="1"/>
+    </row>
+    <row r="832" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B832" s="1"/>
+    </row>
+    <row r="833" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B833" s="1"/>
+    </row>
+    <row r="834" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B834" s="1"/>
+    </row>
+    <row r="835" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B835" s="1"/>
+    </row>
+    <row r="836" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B836" s="1"/>
+    </row>
+    <row r="837" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B837" s="1"/>
+    </row>
+    <row r="838" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B838" s="1"/>
+    </row>
+    <row r="839" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B839" s="1"/>
+    </row>
+    <row r="840" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B840" s="1"/>
+    </row>
+    <row r="841" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B841" s="1"/>
+    </row>
+    <row r="842" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B842" s="1"/>
+    </row>
+    <row r="843" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B843" s="1"/>
+    </row>
+    <row r="844" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B844" s="1"/>
+    </row>
+    <row r="845" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B845" s="1"/>
+    </row>
+    <row r="846" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B846" s="1"/>
+    </row>
+    <row r="847" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B847" s="1"/>
+    </row>
+    <row r="848" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B848" s="1"/>
+    </row>
+    <row r="849" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B849" s="1"/>
+    </row>
+    <row r="850" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B850" s="1"/>
+    </row>
+    <row r="851" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B851" s="1"/>
+    </row>
+    <row r="852" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B852" s="1"/>
+    </row>
+    <row r="853" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B853" s="1"/>
+    </row>
+    <row r="854" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B854" s="1"/>
+    </row>
+    <row r="855" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B855" s="1"/>
+    </row>
+    <row r="856" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B856" s="1"/>
+    </row>
+    <row r="857" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B857" s="1"/>
+    </row>
+    <row r="858" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B858" s="1"/>
+    </row>
+    <row r="859" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B859" s="1"/>
+    </row>
+    <row r="860" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B860" s="1"/>
+    </row>
+    <row r="861" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B861" s="1"/>
+    </row>
+    <row r="862" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B862" s="1"/>
+    </row>
+    <row r="863" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B863" s="1"/>
+    </row>
+    <row r="864" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B864" s="1"/>
+    </row>
+    <row r="865" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B865" s="1"/>
+    </row>
+    <row r="866" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B866" s="1"/>
+    </row>
+    <row r="867" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B867" s="1"/>
+    </row>
+    <row r="868" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B868" s="1"/>
+    </row>
+    <row r="869" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B869" s="1"/>
+    </row>
+    <row r="870" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B870" s="1"/>
+    </row>
+    <row r="871" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B871" s="1"/>
+    </row>
+    <row r="872" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B872" s="1"/>
+    </row>
+    <row r="873" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B873" s="1"/>
+    </row>
+    <row r="874" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B874" s="1"/>
+    </row>
+    <row r="875" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B875" s="1"/>
+    </row>
+    <row r="876" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B876" s="1"/>
+    </row>
+    <row r="877" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B877" s="1"/>
+    </row>
+    <row r="878" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B878" s="1"/>
+    </row>
+    <row r="879" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B879" s="1"/>
+    </row>
+    <row r="880" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B880" s="1"/>
+    </row>
+    <row r="881" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B881" s="1"/>
+    </row>
+    <row r="882" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B882" s="1"/>
+    </row>
+    <row r="883" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B883" s="1"/>
+    </row>
+    <row r="884" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B884" s="1"/>
+    </row>
+    <row r="885" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B885" s="1"/>
+    </row>
+    <row r="886" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B886" s="1"/>
+    </row>
+    <row r="887" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B887" s="1"/>
+    </row>
+    <row r="888" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B888" s="1"/>
+    </row>
+    <row r="889" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B889" s="1"/>
+    </row>
+    <row r="890" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B890" s="1"/>
+    </row>
+    <row r="891" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B891" s="1"/>
+    </row>
+    <row r="892" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B892" s="1"/>
+    </row>
+    <row r="893" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B893" s="1"/>
+    </row>
+    <row r="894" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B894" s="1"/>
+    </row>
+    <row r="895" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B895" s="1"/>
+    </row>
+    <row r="896" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B896" s="1"/>
+    </row>
+    <row r="897" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B897" s="1"/>
+    </row>
+    <row r="898" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B898" s="1"/>
+    </row>
+    <row r="899" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B899" s="1"/>
+    </row>
+    <row r="900" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B900" s="1"/>
+    </row>
+    <row r="901" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B901" s="1"/>
+    </row>
+    <row r="902" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B902" s="1"/>
+    </row>
+    <row r="903" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B903" s="1"/>
+    </row>
+    <row r="904" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B904" s="1"/>
+    </row>
+    <row r="905" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B905" s="1"/>
+    </row>
+    <row r="906" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B906" s="1"/>
+    </row>
+    <row r="907" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B907" s="1"/>
+    </row>
+    <row r="908" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B908" s="1"/>
+    </row>
+    <row r="909" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B909" s="1"/>
+    </row>
+    <row r="910" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B910" s="1"/>
+    </row>
+    <row r="911" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B911" s="1"/>
+    </row>
+    <row r="912" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B912" s="1"/>
+    </row>
+    <row r="913" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B913" s="1"/>
+    </row>
+    <row r="914" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B914" s="1"/>
+    </row>
+    <row r="915" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B915" s="1"/>
+    </row>
+    <row r="916" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B916" s="1"/>
+    </row>
+    <row r="917" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B917" s="1"/>
+    </row>
+    <row r="918" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B918" s="1"/>
+    </row>
+    <row r="919" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B919" s="1"/>
+    </row>
+    <row r="920" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B920" s="1"/>
+    </row>
+    <row r="921" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B921" s="1"/>
+    </row>
+    <row r="922" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B922" s="1"/>
+    </row>
+    <row r="923" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B923" s="1"/>
+    </row>
+    <row r="924" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B924" s="1"/>
+    </row>
+    <row r="925" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B925" s="1"/>
+    </row>
+    <row r="926" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B926" s="1"/>
+    </row>
+    <row r="927" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B927" s="1"/>
+    </row>
+    <row r="928" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B928" s="1"/>
+    </row>
+    <row r="929" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B929" s="1"/>
+    </row>
+    <row r="930" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B930" s="1"/>
+    </row>
+    <row r="931" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B931" s="1"/>
+    </row>
+    <row r="932" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B932" s="1"/>
+    </row>
+    <row r="933" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B933" s="1"/>
+    </row>
+    <row r="934" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B934" s="1"/>
+    </row>
+    <row r="935" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B935" s="1"/>
+    </row>
+    <row r="936" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B936" s="1"/>
+    </row>
+    <row r="937" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B937" s="1"/>
+    </row>
+    <row r="938" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B938" s="1"/>
+    </row>
+    <row r="939" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B939" s="1"/>
+    </row>
+    <row r="940" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B940" s="1"/>
+    </row>
+    <row r="941" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B941" s="1"/>
+    </row>
+    <row r="942" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B942" s="1"/>
+    </row>
+    <row r="943" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B943" s="1"/>
+    </row>
+    <row r="944" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B944" s="1"/>
+    </row>
+    <row r="945" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B945" s="1"/>
+    </row>
+    <row r="946" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B946" s="1"/>
+    </row>
+    <row r="947" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B947" s="1"/>
+    </row>
+    <row r="948" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B948" s="1"/>
+    </row>
+    <row r="949" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B949" s="1"/>
+    </row>
+    <row r="950" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B950" s="1"/>
+    </row>
+    <row r="951" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B951" s="1"/>
+    </row>
+    <row r="952" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B952" s="1"/>
+    </row>
+    <row r="953" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B953" s="1"/>
+    </row>
+    <row r="954" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B954" s="1"/>
+    </row>
+    <row r="955" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B955" s="1"/>
+    </row>
+    <row r="956" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B956" s="1"/>
+    </row>
+    <row r="957" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B957" s="1"/>
+    </row>
+    <row r="958" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B958" s="1"/>
+    </row>
+    <row r="959" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B959" s="1"/>
+    </row>
+    <row r="960" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B960" s="1"/>
+    </row>
+    <row r="961" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B961" s="1"/>
+    </row>
+    <row r="962" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B962" s="1"/>
+    </row>
+    <row r="963" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B963" s="1"/>
+    </row>
+    <row r="964" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B964" s="1"/>
+    </row>
+    <row r="965" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B965" s="1"/>
+    </row>
+    <row r="966" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B966" s="1"/>
+    </row>
+    <row r="967" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B967" s="1"/>
+    </row>
+    <row r="968" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B968" s="1"/>
+    </row>
+    <row r="969" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B969" s="1"/>
+    </row>
+    <row r="970" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B970" s="1"/>
+    </row>
+    <row r="971" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B971" s="1"/>
+    </row>
+    <row r="972" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B972" s="1"/>
+    </row>
+    <row r="973" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B973" s="1"/>
+    </row>
+    <row r="974" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B974" s="1"/>
+    </row>
+    <row r="975" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B975" s="1"/>
+    </row>
+    <row r="976" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B976" s="1"/>
+    </row>
+    <row r="977" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B977" s="1"/>
+    </row>
+    <row r="978" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B978" s="1"/>
+    </row>
+    <row r="979" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B979" s="1"/>
+    </row>
+    <row r="980" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B980" s="1"/>
+    </row>
+    <row r="981" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B981" s="1"/>
+    </row>
+    <row r="982" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B982" s="1"/>
+    </row>
+    <row r="983" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B983" s="1"/>
+    </row>
+    <row r="984" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B984" s="1"/>
+    </row>
+    <row r="985" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B985" s="1"/>
+    </row>
+    <row r="986" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B986" s="1"/>
+    </row>
+    <row r="987" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B987" s="1"/>
+    </row>
+    <row r="988" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B988" s="1"/>
+    </row>
+    <row r="989" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B989" s="1"/>
+    </row>
+    <row r="990" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B990" s="1"/>
+    </row>
+    <row r="991" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B991" s="1"/>
+    </row>
+    <row r="992" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B992" s="1"/>
+    </row>
+    <row r="993" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B993" s="1"/>
+    </row>
+    <row r="994" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B994" s="1"/>
+    </row>
+    <row r="995" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B995" s="1"/>
+    </row>
+    <row r="996" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B996" s="1"/>
+    </row>
+    <row r="997" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B997" s="1"/>
+    </row>
+    <row r="998" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B998" s="1"/>
+    </row>
+    <row r="999" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B999" s="1"/>
+    </row>
+    <row r="1000" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1000" s="1"/>
+    </row>
+    <row r="1001" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1001" s="1"/>
+    </row>
+    <row r="1002" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1002" s="1"/>
+    </row>
+    <row r="1003" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1003" s="1"/>
+    </row>
+    <row r="1004" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1004" s="1"/>
+    </row>
+    <row r="1005" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1005" s="1"/>
+    </row>
+    <row r="1006" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1006" s="1"/>
+    </row>
+    <row r="1007" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1007" s="1"/>
+    </row>
+    <row r="1008" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1008" s="1"/>
+    </row>
+    <row r="1009" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1009" s="1"/>
+    </row>
+    <row r="1010" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1010" s="1"/>
+    </row>
+    <row r="1011" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1011" s="1"/>
+    </row>
+    <row r="1012" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1012" s="1"/>
+    </row>
+    <row r="1013" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1013" s="1"/>
+    </row>
+    <row r="1014" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1014" s="1"/>
+    </row>
+    <row r="1015" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1015" s="1"/>
+    </row>
+    <row r="1016" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1016" s="1"/>
+    </row>
+    <row r="1017" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1017" s="1"/>
+    </row>
+    <row r="1018" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1018" s="1"/>
+    </row>
+    <row r="1019" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1019" s="1"/>
+    </row>
+    <row r="1020" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1020" s="1"/>
+    </row>
+    <row r="1021" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1021" s="1"/>
+    </row>
+    <row r="1022" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1022" s="1"/>
+    </row>
+    <row r="1023" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1023" s="1"/>
+    </row>
+    <row r="1024" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1024" s="1"/>
+    </row>
+    <row r="1025" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1025" s="1"/>
+    </row>
+    <row r="1026" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1026" s="1"/>
+    </row>
+    <row r="1027" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1027" s="1"/>
+    </row>
+    <row r="1028" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1028" s="1"/>
+    </row>
+    <row r="1029" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1029" s="1"/>
+    </row>
+    <row r="1030" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1030" s="1"/>
+    </row>
+    <row r="1031" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1031" s="1"/>
+    </row>
+    <row r="1032" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1032" s="1"/>
+    </row>
+    <row r="1033" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1033" s="1"/>
+    </row>
+    <row r="1034" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1034" s="1"/>
+    </row>
+    <row r="1035" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1035" s="1"/>
+    </row>
+    <row r="1036" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1036" s="1"/>
+    </row>
+    <row r="1037" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1037" s="1"/>
+    </row>
+    <row r="1038" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1038" s="1"/>
+    </row>
+    <row r="1039" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1039" s="1"/>
+    </row>
+    <row r="1040" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1040" s="1"/>
+    </row>
+    <row r="1041" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1041" s="1"/>
+    </row>
+    <row r="1042" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1042" s="1"/>
+    </row>
+    <row r="1043" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1043" s="1"/>
+    </row>
+    <row r="1044" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1044" s="1"/>
+    </row>
+    <row r="1045" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1045" s="1"/>
+    </row>
+    <row r="1046" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1046" s="1"/>
+    </row>
+    <row r="1047" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1047" s="1"/>
+    </row>
+    <row r="1048" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1048" s="1"/>
+    </row>
+    <row r="1049" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1049" s="1"/>
+    </row>
+    <row r="1050" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1050" s="1"/>
+    </row>
+    <row r="1051" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1051" s="1"/>
+    </row>
+    <row r="1052" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1052" s="1"/>
+    </row>
+    <row r="1053" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1053" s="1"/>
+    </row>
+    <row r="1054" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1054" s="1"/>
+    </row>
+    <row r="1055" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1055" s="1"/>
+    </row>
+    <row r="1056" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1056" s="1"/>
+    </row>
+    <row r="1057" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1057" s="1"/>
+    </row>
+    <row r="1058" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1058" s="1"/>
+    </row>
+    <row r="1059" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1059" s="1"/>
+    </row>
+    <row r="1060" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1060" s="1"/>
+    </row>
+    <row r="1061" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1061" s="1"/>
+    </row>
+    <row r="1062" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1062" s="1"/>
+    </row>
+    <row r="1063" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1063" s="1"/>
+    </row>
+    <row r="1064" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1064" s="1"/>
+    </row>
+    <row r="1065" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1065" s="1"/>
+    </row>
+    <row r="1066" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1066" s="1"/>
+    </row>
+    <row r="1067" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1067" s="1"/>
+    </row>
+    <row r="1068" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1068" s="1"/>
+    </row>
+    <row r="1069" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1069" s="1"/>
+    </row>
+    <row r="1070" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1070" s="1"/>
+    </row>
+    <row r="1071" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1071" s="1"/>
+    </row>
+    <row r="1072" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1072" s="1"/>
+    </row>
+    <row r="1073" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1073" s="1"/>
+    </row>
+    <row r="1074" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1074" s="1"/>
+    </row>
+    <row r="1075" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1075" s="1"/>
+    </row>
+    <row r="1076" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1076" s="1"/>
+    </row>
+    <row r="1077" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1077" s="1"/>
+    </row>
+    <row r="1078" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1078" s="1"/>
+    </row>
+    <row r="1079" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1079" s="1"/>
+    </row>
+    <row r="1080" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1080" s="1"/>
+    </row>
+    <row r="1081" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1081" s="1"/>
+    </row>
+    <row r="1082" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1082" s="1"/>
+    </row>
+    <row r="1083" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1083" s="1"/>
+    </row>
+    <row r="1084" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1084" s="1"/>
+    </row>
+    <row r="1085" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1085" s="1"/>
+    </row>
+    <row r="1086" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1086" s="1"/>
+    </row>
+    <row r="1087" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1087" s="1"/>
+    </row>
+    <row r="1088" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1088" s="1"/>
+    </row>
+    <row r="1089" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1089" s="1"/>
+    </row>
+    <row r="1090" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1090" s="1"/>
+    </row>
+    <row r="1091" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1091" s="1"/>
+    </row>
+    <row r="1092" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1092" s="1"/>
+    </row>
+    <row r="1093" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1093" s="1"/>
+    </row>
+    <row r="1094" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1094" s="1"/>
+    </row>
+    <row r="1095" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1095" s="1"/>
+    </row>
+    <row r="1096" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1096" s="1"/>
+    </row>
+    <row r="1097" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1097" s="1"/>
+    </row>
+    <row r="1098" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1098" s="1"/>
+    </row>
+    <row r="1099" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1099" s="1"/>
+    </row>
+    <row r="1100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1100" s="1"/>
+    </row>
+    <row r="1101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1101" s="1"/>
+    </row>
+    <row r="1102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1102" s="1"/>
+    </row>
+    <row r="1103" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1103" s="1"/>
+    </row>
+    <row r="1104" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1104" s="1"/>
+    </row>
+    <row r="1105" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1105" s="1"/>
+    </row>
+    <row r="1106" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1106" s="1"/>
+    </row>
+    <row r="1107" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1107" s="1"/>
+    </row>
+    <row r="1108" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1108" s="1"/>
+    </row>
+    <row r="1109" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1109" s="1"/>
+    </row>
+    <row r="1110" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1110" s="1"/>
+    </row>
+    <row r="1111" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1111" s="1"/>
+    </row>
+    <row r="1112" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1112" s="1"/>
+    </row>
+    <row r="1113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1113" s="1"/>
+    </row>
+    <row r="1114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1114" s="1"/>
+    </row>
+    <row r="1115" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1115" s="1"/>
+    </row>
+    <row r="1116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1116" s="1"/>
+    </row>
+    <row r="1117" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1117" s="1"/>
+    </row>
+    <row r="1118" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1118" s="1"/>
+    </row>
+    <row r="1119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1119" s="1"/>
+    </row>
+    <row r="1120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1120" s="1"/>
+    </row>
+    <row r="1121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1121" s="1"/>
+    </row>
+    <row r="1122" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1122" s="1"/>
+    </row>
+    <row r="1123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1123" s="1"/>
+    </row>
+    <row r="1124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1124" s="1"/>
+    </row>
+    <row r="1125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1125" s="1"/>
+    </row>
+    <row r="1126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1126" s="1"/>
+    </row>
+    <row r="1127" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1127" s="1"/>
+    </row>
+    <row r="1128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1128" s="1"/>
+    </row>
+    <row r="1129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1129" s="1"/>
+    </row>
+    <row r="1130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1130" s="1"/>
+    </row>
+    <row r="1131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1131" s="1"/>
+    </row>
+    <row r="1132" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1132" s="1"/>
+    </row>
+    <row r="1133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1133" s="1"/>
+    </row>
+    <row r="1134" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1134" s="1"/>
+    </row>
+    <row r="1135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1135" s="1"/>
+    </row>
+    <row r="1136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1136" s="1"/>
+    </row>
+    <row r="1137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1137" s="1"/>
+    </row>
+    <row r="1138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1138" s="1"/>
+    </row>
+    <row r="1139" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1139" s="1"/>
+    </row>
+    <row r="1140" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1140" s="1"/>
+    </row>
+    <row r="1141" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1141" s="1"/>
+    </row>
+    <row r="1142" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1142" s="1"/>
+    </row>
+    <row r="1143" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1143" s="1"/>
+    </row>
+    <row r="1144" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1144" s="1"/>
+    </row>
+    <row r="1145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1145" s="1"/>
+    </row>
+    <row r="1146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1146" s="1"/>
+    </row>
+    <row r="1147" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1147" s="1"/>
+    </row>
+    <row r="1148" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1148" s="1"/>
+    </row>
+    <row r="1149" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1149" s="1"/>
+    </row>
+    <row r="1150" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1150" s="1"/>
+    </row>
+    <row r="1151" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1151" s="1"/>
+    </row>
+    <row r="1152" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1152" s="1"/>
+    </row>
+    <row r="1153" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1153" s="1"/>
+    </row>
+    <row r="1154" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1154" s="1"/>
+    </row>
+    <row r="1155" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1155" s="1"/>
+    </row>
+    <row r="1156" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1156" s="1"/>
+    </row>
+    <row r="1157" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1157" s="1"/>
+    </row>
+    <row r="1158" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1158" s="1"/>
+    </row>
+    <row r="1159" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1159" s="1"/>
+    </row>
+    <row r="1160" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1160" s="1"/>
+    </row>
+    <row r="1161" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1161" s="1"/>
+    </row>
+    <row r="1162" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1162" s="1"/>
+    </row>
+    <row r="1163" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1163" s="1"/>
+    </row>
+    <row r="1164" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1164" s="1"/>
+    </row>
+    <row r="1165" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1165" s="1"/>
+    </row>
+    <row r="1166" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1166" s="1"/>
+    </row>
+    <row r="1167" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1167" s="1"/>
+    </row>
+    <row r="1168" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1168" s="1"/>
+    </row>
+    <row r="1169" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1169" s="1"/>
+    </row>
+    <row r="1170" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1170" s="1"/>
+    </row>
+    <row r="1171" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1171" s="1"/>
+    </row>
+    <row r="1172" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1172" s="1"/>
+    </row>
+    <row r="1173" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1173" s="1"/>
+    </row>
+    <row r="1174" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1174" s="1"/>
+    </row>
+    <row r="1175" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1175" s="1"/>
+    </row>
+    <row r="1176" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1176" s="1"/>
+    </row>
+    <row r="1177" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1177" s="1"/>
+    </row>
+    <row r="1178" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1178" s="1"/>
+    </row>
+    <row r="1179" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1179" s="1"/>
+    </row>
+    <row r="1180" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1180" s="1"/>
+    </row>
+    <row r="1181" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1181" s="1"/>
+    </row>
+    <row r="1182" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1182" s="1"/>
+    </row>
+    <row r="1183" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1183" s="1"/>
+    </row>
+    <row r="1184" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1184" s="1"/>
+    </row>
+    <row r="1185" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1185" s="1"/>
+    </row>
+    <row r="1186" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1186" s="1"/>
+    </row>
+    <row r="1187" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1187" s="1"/>
+    </row>
+    <row r="1188" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1188" s="1"/>
+    </row>
+    <row r="1189" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1189" s="1"/>
+    </row>
+    <row r="1190" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1190" s="1"/>
+    </row>
+    <row r="1191" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1191" s="1"/>
+    </row>
+    <row r="1192" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1192" s="1"/>
+    </row>
+    <row r="1193" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1193" s="1"/>
+    </row>
+    <row r="1194" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1194" s="1"/>
+    </row>
+    <row r="1195" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1195" s="1"/>
+    </row>
+    <row r="1196" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1196" s="1"/>
+    </row>
+    <row r="1197" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1197" s="1"/>
+    </row>
+    <row r="1198" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1198" s="1"/>
+    </row>
+    <row r="1199" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1199" s="1"/>
+    </row>
+    <row r="1200" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1200" s="1"/>
+    </row>
+    <row r="1201" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1201" s="1"/>
+    </row>
+    <row r="1202" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1202" s="1"/>
+    </row>
+    <row r="1203" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1203" s="1"/>
+    </row>
+    <row r="1204" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1204" s="1"/>
+    </row>
+    <row r="1205" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1205" s="1"/>
+    </row>
+    <row r="1206" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1206" s="1"/>
+    </row>
+    <row r="1207" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1207" s="1"/>
+    </row>
+    <row r="1208" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1208" s="1"/>
+    </row>
+    <row r="1209" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1209" s="1"/>
+    </row>
+    <row r="1210" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1210" s="1"/>
+    </row>
+    <row r="1211" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1211" s="1"/>
+    </row>
+    <row r="1212" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1212" s="1"/>
+    </row>
+    <row r="1213" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1213" s="1"/>
+    </row>
+    <row r="1214" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1214" s="1"/>
+    </row>
+    <row r="1215" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1215" s="1"/>
+    </row>
+    <row r="1216" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1216" s="1"/>
+    </row>
+    <row r="1217" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1217" s="1"/>
+    </row>
+    <row r="1218" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1218" s="1"/>
+    </row>
+    <row r="1219" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1219" s="1"/>
+    </row>
+    <row r="1220" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1220" s="1"/>
+    </row>
+    <row r="1221" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1221" s="1"/>
+    </row>
+    <row r="1222" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1222" s="1"/>
+    </row>
+    <row r="1223" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1223" s="1"/>
+    </row>
+    <row r="1224" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1224" s="1"/>
+    </row>
+    <row r="1225" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1225" s="1"/>
+    </row>
+    <row r="1226" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1226" s="1"/>
+    </row>
+    <row r="1227" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1227" s="1"/>
+    </row>
+    <row r="1228" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1228" s="1"/>
+    </row>
+    <row r="1229" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1229" s="1"/>
+    </row>
+    <row r="1230" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1230" s="1"/>
+    </row>
+    <row r="1231" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1231" s="1"/>
+    </row>
+    <row r="1232" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1232" s="1"/>
+    </row>
+    <row r="1233" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1233" s="1"/>
+    </row>
+    <row r="1234" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1234" s="1"/>
+    </row>
+    <row r="1235" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1235" s="1"/>
+    </row>
+    <row r="1236" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1236" s="1"/>
+    </row>
+    <row r="1237" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1237" s="1"/>
+    </row>
+    <row r="1238" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1238" s="1"/>
+    </row>
+    <row r="1239" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1239" s="1"/>
+    </row>
+    <row r="1240" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1240" s="1"/>
+    </row>
+    <row r="1241" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1241" s="1"/>
+    </row>
+    <row r="1242" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1242" s="1"/>
+    </row>
+    <row r="1243" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1243" s="1"/>
+    </row>
+    <row r="1244" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1244" s="1"/>
+    </row>
+    <row r="1245" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1245" s="1"/>
+    </row>
+    <row r="1246" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1246" s="1"/>
+    </row>
+    <row r="1247" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1247" s="1"/>
+    </row>
+    <row r="1248" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1248" s="1"/>
+    </row>
+    <row r="1249" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1249" s="1"/>
+    </row>
+    <row r="1250" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1250" s="1"/>
+    </row>
+    <row r="1251" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1251" s="1"/>
+    </row>
+    <row r="1252" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1252" s="1"/>
+    </row>
+    <row r="1253" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1253" s="1"/>
+    </row>
+    <row r="1254" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1254" s="1"/>
+    </row>
+    <row r="1255" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1255" s="1"/>
+    </row>
+    <row r="1256" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1256" s="1"/>
+    </row>
+    <row r="1257" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1257" s="1"/>
+    </row>
+    <row r="1258" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1258" s="1"/>
+    </row>
+    <row r="1259" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1259" s="1"/>
+    </row>
+    <row r="1260" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1260" s="1"/>
+    </row>
+    <row r="1261" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1261" s="1"/>
+    </row>
+    <row r="1262" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1262" s="1"/>
+    </row>
+    <row r="1263" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1263" s="1"/>
+    </row>
+    <row r="1264" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1264" s="1"/>
+    </row>
+    <row r="1265" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1265" s="1"/>
+    </row>
+    <row r="1266" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1266" s="1"/>
+    </row>
+    <row r="1267" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1267" s="1"/>
+    </row>
+    <row r="1268" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1268" s="1"/>
+    </row>
+    <row r="1269" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1269" s="1"/>
+    </row>
+    <row r="1270" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1270" s="1"/>
+    </row>
+    <row r="1271" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1271" s="1"/>
+    </row>
+    <row r="1272" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1272" s="1"/>
+    </row>
+    <row r="1273" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1273" s="1"/>
+    </row>
+    <row r="1274" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1274" s="1"/>
+    </row>
+    <row r="1275" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1275" s="1"/>
+    </row>
+    <row r="1276" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1276" s="1"/>
+    </row>
+    <row r="1277" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1277" s="1"/>
+    </row>
+    <row r="1278" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1278" s="1"/>
+    </row>
+    <row r="1279" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1279" s="1"/>
+    </row>
+    <row r="1280" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1280" s="1"/>
+    </row>
+    <row r="1281" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1281" s="1"/>
+    </row>
+    <row r="1282" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1282" s="1"/>
+    </row>
+    <row r="1283" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1283" s="1"/>
+    </row>
+    <row r="1284" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1284" s="1"/>
+    </row>
+    <row r="1285" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1285" s="1"/>
+    </row>
+    <row r="1286" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1286" s="1"/>
+    </row>
+    <row r="1287" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1287" s="1"/>
+    </row>
+    <row r="1288" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1288" s="1"/>
+    </row>
+    <row r="1289" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1289" s="1"/>
+    </row>
+    <row r="1290" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1290" s="1"/>
+    </row>
+    <row r="1291" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1291" s="1"/>
+    </row>
+    <row r="1292" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1292" s="1"/>
+    </row>
+    <row r="1293" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1293" s="1"/>
+    </row>
+    <row r="1294" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1294" s="1"/>
+    </row>
+    <row r="1295" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1295" s="1"/>
+    </row>
+    <row r="1296" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1296" s="1"/>
+    </row>
+    <row r="1297" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1297" s="1"/>
+    </row>
+    <row r="1298" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1298" s="1"/>
+    </row>
+    <row r="1299" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1299" s="1"/>
+    </row>
+    <row r="1300" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1300" s="1"/>
+    </row>
+    <row r="1301" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1301" s="1"/>
+    </row>
+    <row r="1302" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1302" s="1"/>
+    </row>
+    <row r="1303" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1303" s="1"/>
+    </row>
+    <row r="1304" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1304" s="1"/>
+    </row>
+    <row r="1305" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1305" s="1"/>
+    </row>
+    <row r="1306" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1306" s="1"/>
+    </row>
+    <row r="1307" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1307" s="1"/>
+    </row>
+    <row r="1308" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1308" s="1"/>
+    </row>
+    <row r="1309" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1309" s="1"/>
+    </row>
+    <row r="1310" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1310" s="1"/>
+    </row>
+    <row r="1311" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1311" s="1"/>
+    </row>
+    <row r="1312" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1312" s="1"/>
+    </row>
+    <row r="1313" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1313" s="1"/>
+    </row>
+    <row r="1314" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1314" s="1"/>
+    </row>
+    <row r="1315" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1315" s="1"/>
+    </row>
+    <row r="1316" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1316" s="1"/>
+    </row>
+    <row r="1317" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1317" s="1"/>
+    </row>
+    <row r="1318" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1318" s="1"/>
+    </row>
+    <row r="1319" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1319" s="1"/>
+    </row>
+    <row r="1320" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1320" s="1"/>
+    </row>
+    <row r="1321" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1321" s="1"/>
+    </row>
+    <row r="1322" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1322" s="1"/>
+    </row>
+    <row r="1323" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1323" s="1"/>
+    </row>
+    <row r="1324" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1324" s="1"/>
+    </row>
+    <row r="1325" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1325" s="1"/>
+    </row>
+    <row r="1326" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1326" s="1"/>
+    </row>
+    <row r="1327" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1327" s="1"/>
+    </row>
+    <row r="1328" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1328" s="1"/>
+    </row>
+    <row r="1329" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1329" s="1"/>
+    </row>
+    <row r="1330" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1330" s="1"/>
+    </row>
+    <row r="1331" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1331" s="1"/>
+    </row>
+    <row r="1332" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1332" s="1"/>
+    </row>
+    <row r="1333" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1333" s="1"/>
+    </row>
+    <row r="1334" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1334" s="1"/>
+    </row>
+    <row r="1335" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1335" s="1"/>
+    </row>
+    <row r="1336" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1336" s="1"/>
+    </row>
+    <row r="1337" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1337" s="1"/>
+    </row>
+    <row r="1338" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1338" s="1"/>
+    </row>
+    <row r="1339" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1339" s="1"/>
+    </row>
+    <row r="1340" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1340" s="1"/>
+    </row>
+    <row r="1341" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1341" s="1"/>
+    </row>
+    <row r="1342" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1342" s="1"/>
+    </row>
+    <row r="1343" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1343" s="1"/>
+    </row>
+    <row r="1344" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1344" s="1"/>
+    </row>
+    <row r="1345" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1345" s="1"/>
+    </row>
+    <row r="1346" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1346" s="1"/>
+    </row>
+    <row r="1347" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1347" s="1"/>
+    </row>
+    <row r="1348" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1348" s="1"/>
+    </row>
+    <row r="1349" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1349" s="1"/>
+    </row>
+    <row r="1350" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1350" s="1"/>
+    </row>
+    <row r="1351" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1351" s="1"/>
+    </row>
+    <row r="1352" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1352" s="1"/>
+    </row>
+    <row r="1353" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1353" s="1"/>
+    </row>
+    <row r="1354" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1354" s="1"/>
+    </row>
+    <row r="1355" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1355" s="1"/>
+    </row>
+    <row r="1356" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1356" s="1"/>
+    </row>
+    <row r="1357" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1357" s="1"/>
+    </row>
+    <row r="1358" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1358" s="1"/>
+    </row>
+    <row r="1359" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1359" s="1"/>
+    </row>
+    <row r="1360" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1360" s="1"/>
+    </row>
+    <row r="1361" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1361" s="1"/>
+    </row>
+    <row r="1362" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1362" s="1"/>
+    </row>
+    <row r="1363" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1363" s="1"/>
+    </row>
+    <row r="1364" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1364" s="1"/>
+    </row>
+    <row r="1365" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1365" s="1"/>
+    </row>
+    <row r="1366" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1366" s="1"/>
+    </row>
+    <row r="1367" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1367" s="1"/>
+    </row>
+    <row r="1368" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1368" s="1"/>
+    </row>
+    <row r="1369" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1369" s="1"/>
+    </row>
+    <row r="1370" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1370" s="1"/>
+    </row>
+    <row r="1371" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1371" s="1"/>
+    </row>
+    <row r="1372" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1372" s="1"/>
+    </row>
+    <row r="1373" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1373" s="1"/>
+    </row>
+    <row r="1374" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1374" s="1"/>
+    </row>
+    <row r="1375" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1375" s="1"/>
+    </row>
+    <row r="1376" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1376" s="1"/>
+    </row>
+    <row r="1377" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1377" s="1"/>
+    </row>
+    <row r="1378" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1378" s="1"/>
+    </row>
+    <row r="1379" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1379" s="1"/>
+    </row>
+    <row r="1380" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1380" s="1"/>
+    </row>
+    <row r="1381" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1381" s="1"/>
+    </row>
+    <row r="1382" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1382" s="1"/>
+    </row>
+    <row r="1383" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1383" s="1"/>
+    </row>
+    <row r="1384" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1384" s="1"/>
+    </row>
+    <row r="1385" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1385" s="1"/>
+    </row>
+    <row r="1386" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1386" s="1"/>
+    </row>
+    <row r="1387" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1387" s="1"/>
+    </row>
+    <row r="1388" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1388" s="1"/>
+    </row>
+    <row r="1389" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1389" s="1"/>
+    </row>
+    <row r="1390" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1390" s="1"/>
+    </row>
+    <row r="1391" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1391" s="1"/>
+    </row>
+    <row r="1392" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1392" s="1"/>
+    </row>
+    <row r="1393" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1393" s="1"/>
+    </row>
+    <row r="1394" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1394" s="1"/>
+    </row>
+    <row r="1395" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1395" s="1"/>
+    </row>
+    <row r="1396" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1396" s="1"/>
+    </row>
+    <row r="1397" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1397" s="1"/>
+    </row>
+    <row r="1398" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1398" s="1"/>
+    </row>
+    <row r="1399" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1399" s="1"/>
+    </row>
+    <row r="1400" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1400" s="1"/>
+    </row>
+    <row r="1401" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1401" s="1"/>
+    </row>
+    <row r="1402" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1402" s="1"/>
+    </row>
+    <row r="1403" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1403" s="1"/>
+    </row>
+    <row r="1404" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1404" s="1"/>
+    </row>
+    <row r="1405" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1405" s="1"/>
+    </row>
+    <row r="1406" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1406" s="1"/>
+    </row>
+    <row r="1407" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1407" s="1"/>
+    </row>
+    <row r="1408" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1408" s="1"/>
+    </row>
+    <row r="1409" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1409" s="1"/>
+    </row>
+    <row r="1410" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1410" s="1"/>
+    </row>
+    <row r="1411" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1411" s="1"/>
+    </row>
+    <row r="1412" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1412" s="1"/>
+    </row>
+    <row r="1413" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1413" s="1"/>
+    </row>
+    <row r="1414" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1414" s="1"/>
+    </row>
+    <row r="1415" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1415" s="1"/>
+    </row>
+    <row r="1416" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1416" s="1"/>
+    </row>
+    <row r="1417" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1417" s="1"/>
+    </row>
+    <row r="1418" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1418" s="1"/>
+    </row>
+    <row r="1419" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1419" s="1"/>
+    </row>
+    <row r="1420" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1420" s="1"/>
+    </row>
+    <row r="1421" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1421" s="1"/>
+    </row>
+    <row r="1422" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1422" s="1"/>
+    </row>
+    <row r="1423" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1423" s="1"/>
+    </row>
+    <row r="1424" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1424" s="1"/>
+    </row>
+    <row r="1425" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1425" s="1"/>
+    </row>
+    <row r="1426" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1426" s="1"/>
+    </row>
+    <row r="1427" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1427" s="1"/>
+    </row>
+    <row r="1428" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1428" s="1"/>
+    </row>
+    <row r="1429" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1429" s="1"/>
+    </row>
+    <row r="1430" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1430" s="1"/>
+    </row>
+    <row r="1431" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1431" s="1"/>
+    </row>
+    <row r="1432" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1432" s="1"/>
+    </row>
+    <row r="1433" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1433" s="1"/>
+    </row>
+    <row r="1434" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1434" s="1"/>
+    </row>
+    <row r="1435" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1435" s="1"/>
+    </row>
+    <row r="1436" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1436" s="1"/>
+    </row>
+    <row r="1437" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1437" s="1"/>
+    </row>
+    <row r="1438" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1438" s="1"/>
+    </row>
+    <row r="1439" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1439" s="1"/>
+    </row>
+    <row r="1440" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1440" s="1"/>
+    </row>
+    <row r="1441" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1441" s="1"/>
+    </row>
+    <row r="1442" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1442" s="1"/>
+    </row>
+    <row r="1443" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1443" s="1"/>
+    </row>
+    <row r="1444" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1444" s="1"/>
+    </row>
+    <row r="1445" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1445" s="1"/>
+    </row>
+    <row r="1446" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1446" s="1"/>
+    </row>
+    <row r="1447" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1447" s="1"/>
+    </row>
+    <row r="1448" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1448" s="1"/>
+    </row>
+    <row r="1449" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1449" s="1"/>
+    </row>
+    <row r="1450" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1450" s="1"/>
+    </row>
+    <row r="1451" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1451" s="1"/>
+    </row>
+    <row r="1452" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1452" s="1"/>
+    </row>
+    <row r="1453" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1453" s="1"/>
+    </row>
+    <row r="1454" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1454" s="1"/>
+    </row>
+    <row r="1455" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1455" s="1"/>
+    </row>
+    <row r="1456" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1456" s="1"/>
+    </row>
+    <row r="1457" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1457" s="1"/>
+    </row>
+    <row r="1458" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1458" s="1"/>
+    </row>
+    <row r="1459" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1459" s="1"/>
+    </row>
+    <row r="1460" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1460" s="1"/>
+    </row>
+    <row r="1461" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1461" s="1"/>
+    </row>
+    <row r="1462" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1462" s="1"/>
+    </row>
+    <row r="1463" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1463" s="1"/>
+    </row>
+    <row r="1464" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1464" s="1"/>
+    </row>
+    <row r="1465" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1465" s="1"/>
+    </row>
+    <row r="1466" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1466" s="1"/>
+    </row>
+    <row r="1467" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1467" s="1"/>
+    </row>
+    <row r="1468" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1468" s="1"/>
+    </row>
+    <row r="1469" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1469" s="1"/>
+    </row>
+    <row r="1470" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1470" s="1"/>
+    </row>
+    <row r="1471" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1471" s="1"/>
+    </row>
+    <row r="1472" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1472" s="1"/>
+    </row>
+    <row r="1473" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1473" s="1"/>
+    </row>
+    <row r="1474" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1474" s="1"/>
+    </row>
+    <row r="1475" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1475" s="1"/>
+    </row>
+    <row r="1476" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1476" s="1"/>
+    </row>
+    <row r="1477" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1477" s="1"/>
+    </row>
+    <row r="1478" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1478" s="1"/>
+    </row>
+    <row r="1479" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1479" s="1"/>
+    </row>
+    <row r="1480" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1480" s="1"/>
+    </row>
+    <row r="1481" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1481" s="1"/>
+    </row>
+    <row r="1482" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1482" s="1"/>
+    </row>
+    <row r="1483" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1483" s="1"/>
+    </row>
+    <row r="1484" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1484" s="1"/>
+    </row>
+    <row r="1485" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1485" s="1"/>
+    </row>
+    <row r="1486" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1486" s="1"/>
+    </row>
+    <row r="1487" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1487" s="1"/>
+    </row>
+    <row r="1488" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1488" s="1"/>
+    </row>
+    <row r="1489" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1489" s="1"/>
+    </row>
+    <row r="1490" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1490" s="1"/>
+    </row>
+    <row r="1491" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1491" s="1"/>
+    </row>
+    <row r="1492" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1492" s="1"/>
+    </row>
+    <row r="1493" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1493" s="1"/>
+    </row>
+    <row r="1494" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1494" s="1"/>
+    </row>
+    <row r="1495" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1495" s="1"/>
+    </row>
+    <row r="1496" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1496" s="1"/>
+    </row>
+    <row r="1497" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1497" s="1"/>
+    </row>
+    <row r="1498" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1498" s="1"/>
+    </row>
+    <row r="1499" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1499" s="1"/>
+    </row>
+    <row r="1500" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1500" s="1"/>
+    </row>
+    <row r="1501" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1501" s="1"/>
+    </row>
+    <row r="1502" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1502" s="1"/>
+    </row>
+    <row r="1503" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1503" s="1"/>
+    </row>
+    <row r="1504" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1504" s="1"/>
+    </row>
+    <row r="1505" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1505" s="1"/>
+    </row>
+    <row r="1506" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1506" s="1"/>
+    </row>
+    <row r="1507" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1507" s="1"/>
+    </row>
+    <row r="1508" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1508" s="1"/>
+    </row>
+    <row r="1509" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1509" s="1"/>
+    </row>
+    <row r="1510" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1510" s="1"/>
+    </row>
+    <row r="1511" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1511" s="1"/>
+    </row>
+    <row r="1512" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1512" s="1"/>
+    </row>
+    <row r="1513" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1513" s="1"/>
+    </row>
+    <row r="1514" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1514" s="1"/>
+    </row>
+    <row r="1515" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1515" s="1"/>
+    </row>
+    <row r="1516" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1516" s="1"/>
+    </row>
+    <row r="1517" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1517" s="1"/>
+    </row>
+    <row r="1518" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1518" s="1"/>
+    </row>
+    <row r="1519" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1519" s="1"/>
+    </row>
+    <row r="1520" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1520" s="1"/>
+    </row>
+    <row r="1521" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1521" s="1"/>
+    </row>
+    <row r="1522" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1522" s="1"/>
+    </row>
+    <row r="1523" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1523" s="1"/>
+    </row>
+    <row r="1524" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1524" s="1"/>
+    </row>
+    <row r="1525" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1525" s="1"/>
+    </row>
+    <row r="1526" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1526" s="1"/>
+    </row>
+    <row r="1527" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1527" s="1"/>
+    </row>
+    <row r="1528" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1528" s="1"/>
+    </row>
+    <row r="1529" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1529" s="1"/>
+    </row>
+    <row r="1530" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1530" s="1"/>
+    </row>
+    <row r="1531" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1531" s="1"/>
+    </row>
+    <row r="1532" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1532" s="1"/>
+    </row>
+    <row r="1533" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1533" s="1"/>
+    </row>
+    <row r="1534" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1534" s="1"/>
+    </row>
+    <row r="1535" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1535" s="1"/>
+    </row>
+    <row r="1536" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1536" s="1"/>
+    </row>
+    <row r="1537" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1537" s="1"/>
+    </row>
+    <row r="1538" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1538" s="1"/>
+    </row>
+    <row r="1539" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1539" s="1"/>
+    </row>
+    <row r="1540" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1540" s="1"/>
+    </row>
+    <row r="1541" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1541" s="1"/>
+    </row>
+    <row r="1542" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1542" s="1"/>
+    </row>
+    <row r="1543" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1543" s="1"/>
+    </row>
+    <row r="1544" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1544" s="1"/>
+    </row>
+    <row r="1545" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1545" s="1"/>
+    </row>
+    <row r="1546" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1546" s="1"/>
+    </row>
+    <row r="1547" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1547" s="1"/>
+    </row>
+    <row r="1548" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1548" s="1"/>
+    </row>
+    <row r="1549" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1549" s="1"/>
+    </row>
+    <row r="1550" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1550" s="1"/>
+    </row>
+    <row r="1551" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1551" s="1"/>
+    </row>
+    <row r="1552" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1552" s="1"/>
+    </row>
+    <row r="1553" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1553" s="1"/>
+    </row>
+    <row r="1554" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1554" s="1"/>
+    </row>
+    <row r="1555" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1555" s="1"/>
+    </row>
+    <row r="1556" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1556" s="1"/>
+    </row>
+    <row r="1557" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1557" s="1"/>
+    </row>
+    <row r="1558" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1558" s="1"/>
+    </row>
+    <row r="1559" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1559" s="1"/>
+    </row>
+    <row r="1560" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1560" s="1"/>
+    </row>
+    <row r="1561" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1561" s="1"/>
+    </row>
+    <row r="1562" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1562" s="1"/>
+    </row>
+    <row r="1563" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1563" s="1"/>
+    </row>
+    <row r="1564" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1564" s="1"/>
+    </row>
+    <row r="1565" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1565" s="1"/>
+    </row>
+    <row r="1566" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1566" s="1"/>
+    </row>
+    <row r="1567" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1567" s="1"/>
+    </row>
+    <row r="1568" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1568" s="1"/>
+    </row>
+    <row r="1569" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1569" s="1"/>
+    </row>
+    <row r="1570" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1570" s="1"/>
+    </row>
+    <row r="1571" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1571" s="1"/>
+    </row>
+    <row r="1572" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1572" s="1"/>
+    </row>
+    <row r="1573" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1573" s="1"/>
+    </row>
+    <row r="1574" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1574" s="1"/>
+    </row>
+    <row r="1575" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1575" s="1"/>
+    </row>
+    <row r="1576" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1576" s="1"/>
+    </row>
+    <row r="1577" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1577" s="1"/>
+    </row>
+    <row r="1578" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1578" s="1"/>
+    </row>
+    <row r="1579" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1579" s="1"/>
+    </row>
+    <row r="1580" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1580" s="1"/>
+    </row>
+    <row r="1581" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1581" s="1"/>
+    </row>
+    <row r="1582" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1582" s="1"/>
+    </row>
+    <row r="1583" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1583" s="1"/>
+    </row>
+    <row r="1584" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1584" s="1"/>
+    </row>
+    <row r="1585" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1585" s="1"/>
+    </row>
+    <row r="1586" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1586" s="1"/>
+    </row>
+    <row r="1587" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1587" s="1"/>
+    </row>
+    <row r="1588" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1588" s="1"/>
+    </row>
+    <row r="1589" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1589" s="1"/>
+    </row>
+    <row r="1590" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1590" s="1"/>
+    </row>
+    <row r="1591" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1591" s="1"/>
+    </row>
+    <row r="1592" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1592" s="1"/>
+    </row>
+    <row r="1593" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1593" s="1"/>
+    </row>
+    <row r="1594" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1594" s="1"/>
+    </row>
+    <row r="1595" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1595" s="1"/>
+    </row>
+    <row r="1596" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1596" s="1"/>
+    </row>
+    <row r="1597" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1597" s="1"/>
+    </row>
+    <row r="1598" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1598" s="1"/>
+    </row>
+    <row r="1599" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1599" s="1"/>
+    </row>
+    <row r="1600" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1600" s="1"/>
+    </row>
+    <row r="1601" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1601" s="1"/>
+    </row>
+    <row r="1602" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1602" s="1"/>
+    </row>
+    <row r="1603" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1603" s="1"/>
+    </row>
+    <row r="1604" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1604" s="1"/>
+    </row>
+    <row r="1605" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1605" s="1"/>
+    </row>
+    <row r="1606" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1606" s="1"/>
+    </row>
+    <row r="1607" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1607" s="1"/>
+    </row>
+    <row r="1608" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1608" s="1"/>
+    </row>
+    <row r="1609" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1609" s="1"/>
+    </row>
+    <row r="1610" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1610" s="1"/>
+    </row>
+    <row r="1611" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1611" s="1"/>
+    </row>
+    <row r="1612" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1612" s="1"/>
+    </row>
+    <row r="1613" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1613" s="1"/>
+    </row>
+    <row r="1614" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1614" s="1"/>
+    </row>
+    <row r="1615" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1615" s="1"/>
+    </row>
+    <row r="1616" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1616" s="1"/>
+    </row>
+    <row r="1617" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1617" s="1"/>
+    </row>
+    <row r="1618" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1618" s="1"/>
+    </row>
+    <row r="1619" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1619" s="1"/>
+    </row>
+    <row r="1620" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1620" s="1"/>
+    </row>
+    <row r="1621" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1621" s="1"/>
+    </row>
+    <row r="1622" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1622" s="1"/>
+    </row>
+    <row r="1623" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1623" s="1"/>
+    </row>
+    <row r="1624" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1624" s="1"/>
+    </row>
+    <row r="1625" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1625" s="1"/>
+    </row>
+    <row r="1626" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1626" s="1"/>
+    </row>
+    <row r="1627" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1627" s="1"/>
+    </row>
+    <row r="1628" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1628" s="1"/>
+    </row>
+    <row r="1629" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1629" s="1"/>
+    </row>
+    <row r="1630" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1630" s="1"/>
+    </row>
+    <row r="1631" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1631" s="1"/>
+    </row>
+    <row r="1632" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1632" s="1"/>
+    </row>
+    <row r="1633" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1633" s="1"/>
+    </row>
+    <row r="1634" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1634" s="1"/>
+    </row>
+    <row r="1635" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1635" s="1"/>
+    </row>
+    <row r="1636" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1636" s="1"/>
+    </row>
+    <row r="1637" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1637" s="1"/>
+    </row>
+    <row r="1638" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1638" s="1"/>
+    </row>
+    <row r="1639" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1639" s="1"/>
+    </row>
+    <row r="1640" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1640" s="1"/>
+    </row>
+    <row r="1641" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1641" s="1"/>
+    </row>
+    <row r="1642" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1642" s="1"/>
+    </row>
+    <row r="1643" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1643" s="1"/>
+    </row>
+    <row r="1644" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1644" s="1"/>
+    </row>
+    <row r="1645" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1645" s="1"/>
+    </row>
+    <row r="1646" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1646" s="1"/>
+    </row>
+    <row r="1647" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1647" s="1"/>
+    </row>
+    <row r="1648" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1648" s="1"/>
+    </row>
+    <row r="1649" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1649" s="1"/>
+    </row>
+    <row r="1650" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1650" s="1"/>
+    </row>
+    <row r="1651" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1651" s="1"/>
+    </row>
+    <row r="1652" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1652" s="1"/>
+    </row>
+    <row r="1653" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1653" s="1"/>
+    </row>
+    <row r="1654" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1654" s="1"/>
+    </row>
+    <row r="1655" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1655" s="1"/>
+    </row>
+    <row r="1656" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1656" s="1"/>
+    </row>
+    <row r="1657" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1657" s="1"/>
+    </row>
+    <row r="1658" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1658" s="1"/>
+    </row>
+    <row r="1659" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1659" s="1"/>
+    </row>
+    <row r="1660" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1660" s="1"/>
+    </row>
+    <row r="1661" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1661" s="1"/>
+    </row>
+    <row r="1662" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1662" s="1"/>
+    </row>
+    <row r="1663" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1663" s="1"/>
+    </row>
+    <row r="1664" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1664" s="1"/>
+    </row>
+    <row r="1665" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1665" s="1"/>
+    </row>
+    <row r="1666" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1666" s="1"/>
+    </row>
+    <row r="1667" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1667" s="1"/>
+    </row>
+    <row r="1668" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1668" s="1"/>
+    </row>
+    <row r="1669" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1669" s="1"/>
+    </row>
+    <row r="1670" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1670" s="1"/>
+    </row>
+    <row r="1671" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1671" s="1"/>
+    </row>
+    <row r="1672" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1672" s="1"/>
+    </row>
+    <row r="1673" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1673" s="1"/>
+    </row>
+    <row r="1674" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1674" s="1"/>
+    </row>
+    <row r="1675" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1675" s="1"/>
+    </row>
+    <row r="1676" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1676" s="1"/>
+    </row>
+    <row r="1677" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1677" s="1"/>
+    </row>
+    <row r="1678" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1678" s="1"/>
+    </row>
+    <row r="1679" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1679" s="1"/>
+    </row>
+    <row r="1680" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1680" s="1"/>
+    </row>
+    <row r="1681" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1681" s="1"/>
+    </row>
+    <row r="1682" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1682" s="1"/>
+    </row>
+    <row r="1683" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1683" s="1"/>
+    </row>
+    <row r="1684" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1684" s="1"/>
+    </row>
+    <row r="1685" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1685" s="1"/>
+    </row>
+    <row r="1686" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1686" s="1"/>
+    </row>
+    <row r="1687" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1687" s="1"/>
+    </row>
+    <row r="1688" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1688" s="1"/>
+    </row>
+    <row r="1689" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1689" s="1"/>
+    </row>
+    <row r="1690" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1690" s="1"/>
+    </row>
+    <row r="1691" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1691" s="1"/>
+    </row>
+    <row r="1692" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1692" s="1"/>
+    </row>
+    <row r="1693" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1693" s="1"/>
+    </row>
+    <row r="1694" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1694" s="1"/>
+    </row>
+    <row r="1695" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1695" s="1"/>
+    </row>
+    <row r="1696" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1696" s="1"/>
+    </row>
+    <row r="1697" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1697" s="1"/>
+    </row>
+    <row r="1698" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1698" s="1"/>
+    </row>
+    <row r="1699" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1699" s="1"/>
+    </row>
+    <row r="1700" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1700" s="1"/>
+    </row>
+    <row r="1701" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1701" s="1"/>
+    </row>
+    <row r="1702" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1702" s="1"/>
+    </row>
+    <row r="1703" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1703" s="1"/>
+    </row>
+    <row r="1704" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1704" s="1"/>
+    </row>
+    <row r="1705" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1705" s="1"/>
+    </row>
+    <row r="1706" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1706" s="1"/>
+    </row>
+    <row r="1707" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1707" s="1"/>
+    </row>
+    <row r="1708" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1708" s="1"/>
+    </row>
+    <row r="1709" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1709" s="1"/>
+    </row>
+    <row r="1710" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1710" s="1"/>
+    </row>
+    <row r="1711" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1711" s="1"/>
+    </row>
+    <row r="1712" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1712" s="1"/>
+    </row>
+    <row r="1713" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1713" s="1"/>
+    </row>
+    <row r="1714" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1714" s="1"/>
+    </row>
+    <row r="1715" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1715" s="1"/>
+    </row>
+    <row r="1716" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1716" s="1"/>
+    </row>
+    <row r="1717" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1717" s="1"/>
+    </row>
+    <row r="1718" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1718" s="1"/>
+    </row>
+    <row r="1719" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1719" s="1"/>
+    </row>
+    <row r="1720" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1720" s="1"/>
+    </row>
+    <row r="1721" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1721" s="1"/>
+    </row>
+    <row r="1722" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1722" s="1"/>
+    </row>
+    <row r="1723" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1723" s="1"/>
+    </row>
+    <row r="1724" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1724" s="1"/>
+    </row>
+    <row r="1725" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1725" s="1"/>
+    </row>
+    <row r="1726" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1726" s="1"/>
+    </row>
+    <row r="1727" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1727" s="1"/>
+    </row>
+    <row r="1728" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1728" s="1"/>
+    </row>
+    <row r="1729" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1729" s="1"/>
+    </row>
+    <row r="1730" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1730" s="1"/>
+    </row>
+    <row r="1731" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1731" s="1"/>
+    </row>
+    <row r="1732" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1732" s="1"/>
+    </row>
+    <row r="1733" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1733" s="1"/>
+    </row>
+    <row r="1734" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1734" s="1"/>
+    </row>
+    <row r="1735" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1735" s="1"/>
+    </row>
+    <row r="1736" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1736" s="1"/>
+    </row>
+    <row r="1737" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1737" s="1"/>
+    </row>
+    <row r="1738" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1738" s="1"/>
+    </row>
+    <row r="1739" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1739" s="1"/>
+    </row>
+    <row r="1740" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1740" s="1"/>
+    </row>
+    <row r="1741" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1741" s="1"/>
+    </row>
+    <row r="1742" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1742" s="1"/>
+    </row>
+    <row r="1743" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1743" s="1"/>
+    </row>
+    <row r="1744" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1744" s="1"/>
+    </row>
+    <row r="1745" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1745" s="1"/>
+    </row>
+    <row r="1746" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1746" s="1"/>
+    </row>
+    <row r="1747" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1747" s="1"/>
+    </row>
+    <row r="1748" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1748" s="1"/>
+    </row>
+    <row r="1749" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1749" s="1"/>
+    </row>
+    <row r="1750" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1750" s="1"/>
+    </row>
+    <row r="1751" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1751" s="1"/>
+    </row>
+    <row r="1752" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1752" s="1"/>
+    </row>
+    <row r="1753" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1753" s="1"/>
+    </row>
+    <row r="1754" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1754" s="1"/>
+    </row>
+    <row r="1755" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1755" s="1"/>
+    </row>
+    <row r="1756" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1756" s="1"/>
+    </row>
+    <row r="1757" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1757" s="1"/>
+    </row>
+    <row r="1758" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1758" s="1"/>
+    </row>
+    <row r="1759" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1759" s="1"/>
+    </row>
+    <row r="1760" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1760" s="1"/>
+    </row>
+    <row r="1761" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1761" s="1"/>
+    </row>
+    <row r="1762" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1762" s="1"/>
+    </row>
+    <row r="1763" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1763" s="1"/>
+    </row>
+    <row r="1764" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1764" s="1"/>
+    </row>
+    <row r="1765" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1765" s="1"/>
+    </row>
+    <row r="1766" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1766" s="1"/>
+    </row>
+    <row r="1767" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1767" s="1"/>
+    </row>
+    <row r="1768" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1768" s="1"/>
+    </row>
+    <row r="1769" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1769" s="1"/>
+    </row>
+    <row r="1770" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1770" s="1"/>
+    </row>
+    <row r="1771" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1771" s="1"/>
+    </row>
+    <row r="1772" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1772" s="1"/>
+    </row>
+    <row r="1773" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1773" s="1"/>
+    </row>
+    <row r="1774" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1774" s="1"/>
+    </row>
+    <row r="1775" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1775" s="1"/>
+    </row>
+    <row r="1776" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1776" s="1"/>
+    </row>
+    <row r="1777" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1777" s="1"/>
+    </row>
+    <row r="1778" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1778" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/prices.xlsx
+++ b/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedemad/Downloads/phone_price_bot test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F3D863-3B12-A649-9165-7C508D9DF863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8290057-5ADD-2446-B5E2-F3147626EEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="172">
   <si>
     <t>المتجر</t>
   </si>
@@ -485,9 +485,6 @@
   </si>
   <si>
     <t>الرام والذاكره</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t xml:space="preserve">iPhone 16 Pro Max </t>
@@ -614,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -634,9 +631,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -944,7 +939,7 @@
   <dimension ref="A1:F1611"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -982,12 +977,12 @@
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>2300000</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1002,12 +997,12 @@
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>1990000</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1022,12 +1017,12 @@
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>1630000</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1042,14 +1037,12 @@
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>151</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1062,12 +1055,12 @@
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="10">
+        <v>158</v>
+      </c>
+      <c r="C6" s="9">
         <v>2125000</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1082,12 +1075,12 @@
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="10">
+        <v>159</v>
+      </c>
+      <c r="C7" s="9">
         <v>1700000</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1102,12 +1095,12 @@
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>1550000</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1124,12 +1117,10 @@
       <c r="A9" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>151</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1142,12 +1133,12 @@
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>1345000</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1162,12 +1153,12 @@
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>1195000</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1182,12 +1173,12 @@
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>1195000</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1204,10 +1195,10 @@
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <v>1045000</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1224,10 +1215,10 @@
       <c r="A14" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>885000</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1244,10 +1235,10 @@
       <c r="A15" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>1080000</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1264,10 +1255,10 @@
       <c r="A16" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <v>600000</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1287,7 +1278,7 @@
       <c r="B17" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>2650000</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1307,9 +1298,7 @@
       <c r="B18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>151</v>
-      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
@@ -1327,7 +1316,7 @@
       <c r="B19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>1535000</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1347,7 +1336,7 @@
       <c r="B20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>1620000</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1367,7 +1356,7 @@
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>1180000</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1387,7 +1376,7 @@
       <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>1195000</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1407,7 +1396,7 @@
       <c r="B23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>1050000</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1427,7 +1416,7 @@
       <c r="B24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>710000</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1447,7 +1436,7 @@
       <c r="B25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="9">
         <v>850000</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1467,7 +1456,7 @@
       <c r="B26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>500000</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1487,7 +1476,7 @@
       <c r="B27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <v>435000</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1507,7 +1496,7 @@
       <c r="B28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="9">
         <v>495000</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1527,7 +1516,7 @@
       <c r="B29" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="9">
         <v>405000</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1547,7 +1536,7 @@
       <c r="B30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <v>595000</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1567,7 +1556,7 @@
       <c r="B31" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="9">
         <v>2499000</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1587,7 +1576,7 @@
       <c r="B32" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="9">
         <v>1479000</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1607,7 +1596,7 @@
       <c r="B33" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="9">
         <v>1450000</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1627,7 +1616,7 @@
       <c r="B34" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="9">
         <v>1300000</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1647,7 +1636,7 @@
       <c r="B35" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <v>1250000</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1667,7 +1656,7 @@
       <c r="B36" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="9">
         <v>1150000</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -1685,7 +1674,7 @@
         <v>127</v>
       </c>
       <c r="B37" s="3"/>
-      <c r="C37" s="10">
+      <c r="C37" s="9">
         <v>570000</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1700,10 +1689,10 @@
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="C38" s="10">
+      <c r="C38" s="9">
         <v>450000</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -1718,10 +1707,10 @@
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="10">
+      <c r="C39" s="9">
         <v>395000</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -1739,7 +1728,7 @@
         <v>128</v>
       </c>
       <c r="B40" s="3"/>
-      <c r="C40" s="10">
+      <c r="C40" s="9">
         <v>435000</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -1754,10 +1743,10 @@
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="10">
+      <c r="C41" s="9">
         <v>210000</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -1772,10 +1761,10 @@
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="10">
+      <c r="C42" s="9">
         <v>185000</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -1793,7 +1782,7 @@
         <v>129</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="10">
+      <c r="C43" s="9">
         <v>135000</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -1811,7 +1800,7 @@
         <v>130</v>
       </c>
       <c r="B44" s="3"/>
-      <c r="C44" s="10">
+      <c r="C44" s="9">
         <v>70000</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -1829,7 +1818,7 @@
         <v>131</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="C45" s="10">
+      <c r="C45" s="9">
         <v>70000</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -1847,7 +1836,7 @@
         <v>132</v>
       </c>
       <c r="B46" s="3"/>
-      <c r="C46" s="10">
+      <c r="C46" s="9">
         <v>30000</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -1867,7 +1856,7 @@
       <c r="B47" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="9">
         <v>1840000</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -1887,7 +1876,7 @@
       <c r="B48" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="9">
         <v>1640000</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -1907,7 +1896,7 @@
       <c r="B49" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="9">
         <v>1440000</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -1945,7 +1934,7 @@
       <c r="B51" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="9">
         <v>1520000</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -1965,7 +1954,7 @@
       <c r="B52" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="9">
         <v>1370000</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -1985,7 +1974,7 @@
       <c r="B53" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="9">
         <v>1550000</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -2005,7 +1994,7 @@
       <c r="B54" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="9">
         <v>1190000</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -2025,7 +2014,7 @@
       <c r="B55" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="9">
         <v>1390000</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -2045,7 +2034,7 @@
       <c r="B56" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="9">
         <v>1050000</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -2065,7 +2054,7 @@
       <c r="B57" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="9">
         <v>940000</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -2085,7 +2074,7 @@
       <c r="B58" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="9">
         <v>800000</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -2105,7 +2094,7 @@
       <c r="B59" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="9">
         <v>940000</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -2125,7 +2114,7 @@
       <c r="B60" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="9">
         <v>640000</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -2145,7 +2134,7 @@
       <c r="B61" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="9">
         <v>780000</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -2165,7 +2154,7 @@
       <c r="B62" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="9">
         <v>840000</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -2180,12 +2169,12 @@
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="9">
         <v>548000</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -2205,7 +2194,7 @@
       <c r="B64" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="9">
         <v>502000</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -2225,7 +2214,7 @@
       <c r="B65" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="9">
         <v>423000</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -2245,7 +2234,7 @@
       <c r="B66" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="9">
         <v>387000</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -2265,7 +2254,7 @@
       <c r="B67" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="9">
         <v>349000</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -2285,7 +2274,7 @@
       <c r="B68" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="9">
         <v>295000</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -2305,7 +2294,7 @@
       <c r="B69" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="9">
         <v>222000</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -2325,7 +2314,7 @@
       <c r="B70" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="9">
         <v>183000</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -2345,7 +2334,7 @@
       <c r="B71" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C71" s="9">
         <v>161000</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -2365,7 +2354,7 @@
       <c r="B72" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="9">
         <v>132000</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -2386,7 +2375,7 @@
         <v>143</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>9</v>
@@ -2405,7 +2394,7 @@
       <c r="B74" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="9">
         <v>98000</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -2425,7 +2414,7 @@
       <c r="B75" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C75" s="10">
+      <c r="C75" s="9">
         <v>400000</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -2445,7 +2434,7 @@
       <c r="B76" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="9">
         <v>799000</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -2465,7 +2454,7 @@
       <c r="B77" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C77" s="10">
+      <c r="C77" s="9">
         <v>398000</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -2485,7 +2474,7 @@
       <c r="B78" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="9">
         <v>335000</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -2505,7 +2494,7 @@
       <c r="B79" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C79" s="9">
         <v>205000</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -2525,7 +2514,7 @@
       <c r="B80" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C80" s="10">
+      <c r="C80" s="9">
         <v>295000</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -2545,7 +2534,7 @@
       <c r="B81" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C81" s="9">
         <v>210000</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -2565,7 +2554,7 @@
       <c r="B82" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C82" s="10">
+      <c r="C82" s="9">
         <v>182000</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -2585,7 +2574,7 @@
       <c r="B83" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C83" s="10">
+      <c r="C83" s="9">
         <v>180000</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -2605,7 +2594,7 @@
       <c r="B84" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C84" s="10">
+      <c r="C84" s="9">
         <v>114000</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -2625,7 +2614,7 @@
       <c r="B85" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C85" s="10">
+      <c r="C85" s="9">
         <v>615000</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -2643,7 +2632,7 @@
         <v>16</v>
       </c>
       <c r="B86" s="3"/>
-      <c r="C86" s="10">
+      <c r="C86" s="9">
         <v>45000</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -2663,7 +2652,7 @@
       <c r="B87" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C87" s="10">
+      <c r="C87" s="9">
         <v>1390000</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -2683,7 +2672,7 @@
       <c r="B88" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C88" s="10">
+      <c r="C88" s="9">
         <v>980000</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -2703,7 +2692,7 @@
       <c r="B89" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C89" s="10">
+      <c r="C89" s="9">
         <v>745000</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -2723,7 +2712,7 @@
       <c r="B90" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C90" s="10">
+      <c r="C90" s="9">
         <v>501000</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -2743,7 +2732,7 @@
       <c r="B91" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C91" s="10">
+      <c r="C91" s="9">
         <v>418000</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -2763,7 +2752,7 @@
       <c r="B92" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C92" s="10">
+      <c r="C92" s="9">
         <v>356000</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -2783,7 +2772,7 @@
       <c r="B93" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C93" s="10">
+      <c r="C93" s="9">
         <v>347000</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -2803,7 +2792,7 @@
       <c r="B94" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C94" s="10">
+      <c r="C94" s="9">
         <v>287000</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -2823,7 +2812,7 @@
       <c r="B95" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C95" s="10">
+      <c r="C95" s="9">
         <v>268000</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -2843,7 +2832,7 @@
       <c r="B96" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C96" s="10">
+      <c r="C96" s="9">
         <v>222000</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -2863,7 +2852,7 @@
       <c r="B97" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C97" s="10">
+      <c r="C97" s="9">
         <v>164000</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -2883,7 +2872,7 @@
       <c r="B98" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C98" s="10">
+      <c r="C98" s="9">
         <v>148000</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -2903,7 +2892,7 @@
       <c r="B99" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C99" s="10">
+      <c r="C99" s="9">
         <v>103000</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -2923,7 +2912,7 @@
       <c r="B100" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C100" s="10">
+      <c r="C100" s="9">
         <v>88000</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -2943,7 +2932,7 @@
       <c r="B101" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C101" s="10">
+      <c r="C101" s="9">
         <v>927000</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -2963,7 +2952,7 @@
       <c r="B102" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C102" s="10">
+      <c r="C102" s="9">
         <v>687000</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -2983,7 +2972,7 @@
       <c r="B103" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C103" s="10">
+      <c r="C103" s="9">
         <v>545000</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -3003,7 +2992,7 @@
       <c r="B104" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C104" s="10">
+      <c r="C104" s="9">
         <v>485000</v>
       </c>
       <c r="D104" s="1" t="s">
@@ -3023,7 +3012,7 @@
       <c r="B105" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C105" s="10">
+      <c r="C105" s="9">
         <v>459000</v>
       </c>
       <c r="D105" s="1" t="s">
@@ -3043,7 +3032,7 @@
       <c r="B106" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C106" s="10">
+      <c r="C106" s="9">
         <v>415000</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -3063,7 +3052,7 @@
       <c r="B107" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C107" s="10">
+      <c r="C107" s="9">
         <v>360000</v>
       </c>
       <c r="D107" s="1" t="s">
@@ -3083,7 +3072,7 @@
       <c r="B108" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C108" s="10">
+      <c r="C108" s="9">
         <v>304000</v>
       </c>
       <c r="D108" s="1" t="s">
@@ -3103,7 +3092,7 @@
       <c r="B109" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C109" s="10">
+      <c r="C109" s="9">
         <v>276000</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -3123,7 +3112,7 @@
       <c r="B110" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C110" s="10">
+      <c r="C110" s="9">
         <v>148000</v>
       </c>
       <c r="D110" s="1" t="s">
@@ -3143,7 +3132,7 @@
       <c r="B111" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C111" s="10">
+      <c r="C111" s="9">
         <v>105000</v>
       </c>
       <c r="D111" s="1" t="s">
@@ -3163,7 +3152,7 @@
       <c r="B112" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C112" s="10">
+      <c r="C112" s="9">
         <v>664000</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -3183,7 +3172,7 @@
       <c r="B113" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C113" s="10">
+      <c r="C113" s="9">
         <v>507000</v>
       </c>
       <c r="D113" s="1" t="s">
@@ -3203,7 +3192,7 @@
       <c r="B114" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C114" s="10">
+      <c r="C114" s="9">
         <v>461000</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -3223,7 +3212,7 @@
       <c r="B115" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C115" s="10">
+      <c r="C115" s="9">
         <v>710000</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -3243,7 +3232,7 @@
       <c r="B116" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C116" s="10">
+      <c r="C116" s="9">
         <v>321000</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -3263,7 +3252,7 @@
       <c r="B117" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C117" s="10">
+      <c r="C117" s="9">
         <v>265000</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -3283,7 +3272,7 @@
       <c r="B118" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C118" s="10">
+      <c r="C118" s="9">
         <v>252000</v>
       </c>
       <c r="D118" s="1" t="s">
@@ -3303,7 +3292,7 @@
       <c r="B119" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C119" s="10">
+      <c r="C119" s="9">
         <v>229000</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -3323,7 +3312,7 @@
       <c r="B120" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C120" s="10">
+      <c r="C120" s="9">
         <v>192000</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -3343,7 +3332,7 @@
       <c r="B121" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C121" s="10">
+      <c r="C121" s="9">
         <v>314000</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -3363,7 +3352,7 @@
       <c r="B122" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C122" s="10">
+      <c r="C122" s="9">
         <v>1495000</v>
       </c>
       <c r="D122" t="s">
@@ -3383,7 +3372,7 @@
       <c r="B123" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C123" s="10">
+      <c r="C123" s="9">
         <v>1183000</v>
       </c>
       <c r="D123" t="s">
@@ -3403,7 +3392,7 @@
       <c r="B124" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C124" s="10">
+      <c r="C124" s="9">
         <v>652000</v>
       </c>
       <c r="D124" t="s">
@@ -3423,7 +3412,7 @@
       <c r="B125" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C125" s="10">
+      <c r="C125" s="9">
         <v>435000</v>
       </c>
       <c r="D125" t="s">
@@ -3443,7 +3432,7 @@
       <c r="B126" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C126" s="10">
+      <c r="C126" s="9">
         <v>283000</v>
       </c>
       <c r="D126" t="s">
@@ -3463,7 +3452,7 @@
       <c r="B127" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C127" s="10">
+      <c r="C127" s="9">
         <v>193000</v>
       </c>
       <c r="D127" t="s">
@@ -3480,7 +3469,7 @@
       <c r="A128" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C128" s="10">
+      <c r="C128" s="9">
         <v>268000</v>
       </c>
       <c r="D128" t="s">
@@ -3497,7 +3486,7 @@
       <c r="A129" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C129" s="10">
+      <c r="C129" s="9">
         <v>170000</v>
       </c>
       <c r="D129" t="s">
@@ -3512,9 +3501,9 @@
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C130" s="10">
+        <v>165</v>
+      </c>
+      <c r="C130" s="9">
         <v>237000</v>
       </c>
       <c r="D130" t="s">
@@ -3529,9 +3518,9 @@
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C131" s="10">
+        <v>166</v>
+      </c>
+      <c r="C131" s="9">
         <v>268000</v>
       </c>
       <c r="D131" t="s">
@@ -3546,9 +3535,9 @@
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C132" s="10">
+        <v>167</v>
+      </c>
+      <c r="C132" s="9">
         <v>810000</v>
       </c>
       <c r="D132" t="s">
@@ -3563,9 +3552,9 @@
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C133" s="10">
+        <v>168</v>
+      </c>
+      <c r="C133" s="9">
         <v>590000</v>
       </c>
       <c r="D133" t="s">
@@ -3580,9 +3569,9 @@
     </row>
     <row r="134" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C134" s="10">
+        <v>169</v>
+      </c>
+      <c r="C134" s="9">
         <v>590000</v>
       </c>
       <c r="D134" t="s">
@@ -3597,9 +3586,9 @@
     </row>
     <row r="135" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C135" s="10">
+        <v>170</v>
+      </c>
+      <c r="C135" s="9">
         <v>810000</v>
       </c>
       <c r="D135" t="s">
@@ -3616,7 +3605,7 @@
       <c r="A136" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C136" s="10">
+      <c r="C136" s="9">
         <v>745000</v>
       </c>
       <c r="D136" t="s">
@@ -3634,7 +3623,7 @@
         <v>20</v>
       </c>
       <c r="B137" s="3"/>
-      <c r="C137" s="10">
+      <c r="C137" s="9">
         <v>223000</v>
       </c>
       <c r="D137" t="s">
@@ -3652,7 +3641,7 @@
         <v>21</v>
       </c>
       <c r="B138" s="3"/>
-      <c r="C138" s="10">
+      <c r="C138" s="9">
         <v>169000</v>
       </c>
       <c r="D138" t="s">
@@ -3670,7 +3659,7 @@
         <v>22</v>
       </c>
       <c r="B139" s="3"/>
-      <c r="C139" s="10">
+      <c r="C139" s="9">
         <v>125000</v>
       </c>
       <c r="D139" t="s">
@@ -3688,7 +3677,7 @@
         <v>23</v>
       </c>
       <c r="B140" s="3"/>
-      <c r="C140" s="10">
+      <c r="C140" s="9">
         <v>89000</v>
       </c>
       <c r="D140" t="s">
@@ -3706,7 +3695,7 @@
         <v>24</v>
       </c>
       <c r="B141" s="3"/>
-      <c r="C141" s="10">
+      <c r="C141" s="9">
         <v>49000</v>
       </c>
       <c r="D141" t="s">
@@ -3724,7 +3713,7 @@
         <v>25</v>
       </c>
       <c r="B142" s="3"/>
-      <c r="C142" s="10">
+      <c r="C142" s="9">
         <v>35000</v>
       </c>
       <c r="D142" t="s">
@@ -3742,7 +3731,7 @@
         <v>26</v>
       </c>
       <c r="B143" s="3"/>
-      <c r="C143" s="10">
+      <c r="C143" s="9">
         <v>184000</v>
       </c>
       <c r="D143" t="s">
@@ -3760,7 +3749,7 @@
         <v>27</v>
       </c>
       <c r="B144" s="3"/>
-      <c r="C144" s="10">
+      <c r="C144" s="9">
         <v>125000</v>
       </c>
       <c r="D144" t="s">
@@ -3778,7 +3767,7 @@
         <v>28</v>
       </c>
       <c r="B145" s="3"/>
-      <c r="C145" s="10">
+      <c r="C145" s="9">
         <v>90000</v>
       </c>
       <c r="D145" t="s">
@@ -3796,7 +3785,7 @@
         <v>29</v>
       </c>
       <c r="B146" s="3"/>
-      <c r="C146" s="10">
+      <c r="C146" s="9">
         <v>49000</v>
       </c>
       <c r="D146" t="s">
@@ -3816,7 +3805,7 @@
       <c r="B147" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C147" s="10">
+      <c r="C147" s="9">
         <v>470000</v>
       </c>
       <c r="D147" t="s">
@@ -3836,7 +3825,7 @@
       <c r="B148" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C148" s="10">
+      <c r="C148" s="9">
         <v>345000</v>
       </c>
       <c r="D148" t="s">
@@ -3856,7 +3845,7 @@
       <c r="B149" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C149" s="10">
+      <c r="C149" s="9">
         <v>315000</v>
       </c>
       <c r="D149" t="s">
@@ -3876,7 +3865,7 @@
       <c r="B150" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C150" s="10">
+      <c r="C150" s="9">
         <v>255000</v>
       </c>
       <c r="D150" t="s">
@@ -3896,7 +3885,7 @@
       <c r="B151" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C151" s="10">
+      <c r="C151" s="9">
         <v>399000</v>
       </c>
       <c r="D151" t="s">
@@ -3916,7 +3905,7 @@
       <c r="B152" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C152" s="10">
+      <c r="C152" s="9">
         <v>155000</v>
       </c>
       <c r="D152" t="s">
@@ -3936,7 +3925,7 @@
       <c r="B153" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C153" s="10">
+      <c r="C153" s="9">
         <v>145000</v>
       </c>
       <c r="D153" t="s">
@@ -3956,7 +3945,7 @@
       <c r="B154" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C154" s="10">
+      <c r="C154" s="9">
         <v>146000</v>
       </c>
       <c r="D154" t="s">
@@ -3976,7 +3965,7 @@
       <c r="B155" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C155" s="10">
+      <c r="C155" s="9">
         <v>189000</v>
       </c>
       <c r="D155" t="s">
@@ -3996,7 +3985,7 @@
       <c r="B156" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C156" s="10">
+      <c r="C156" s="9">
         <v>107000</v>
       </c>
       <c r="D156" t="s">
@@ -4016,7 +4005,7 @@
       <c r="B157" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C157" s="10">
+      <c r="C157" s="9">
         <v>95000</v>
       </c>
       <c r="D157" t="s">
@@ -4036,7 +4025,7 @@
       <c r="B158" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C158" s="10">
+      <c r="C158" s="9">
         <v>98000</v>
       </c>
       <c r="D158" t="s">
@@ -4056,7 +4045,7 @@
       <c r="B159" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C159" s="10">
+      <c r="C159" s="9">
         <v>115000</v>
       </c>
       <c r="D159" t="s">
@@ -4076,7 +4065,7 @@
       <c r="B160" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C160" s="10">
+      <c r="C160" s="9">
         <v>215000</v>
       </c>
       <c r="D160" t="s">
@@ -4096,7 +4085,7 @@
       <c r="B161" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C161" s="10">
+      <c r="C161" s="9">
         <v>136000</v>
       </c>
       <c r="D161" t="s">
@@ -4116,7 +4105,7 @@
       <c r="B162" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C162" s="10">
+      <c r="C162" s="9">
         <v>380000</v>
       </c>
       <c r="D162" t="s">
@@ -4136,7 +4125,7 @@
       <c r="B163" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C163" s="10">
+      <c r="C163" s="9">
         <v>450000</v>
       </c>
       <c r="D163" t="s">
@@ -4156,7 +4145,7 @@
       <c r="B164" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C164" s="10">
+      <c r="C164" s="9">
         <v>310000</v>
       </c>
       <c r="D164" t="s">
@@ -4176,7 +4165,7 @@
       <c r="B165" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C165" s="10">
+      <c r="C165" s="9">
         <v>293000</v>
       </c>
       <c r="D165" t="s">
@@ -4196,7 +4185,7 @@
       <c r="B166" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C166" s="10">
+      <c r="C166" s="9">
         <v>253000</v>
       </c>
       <c r="D166" t="s">
@@ -4216,7 +4205,7 @@
       <c r="B167" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C167" s="10">
+      <c r="C167" s="9">
         <v>200000</v>
       </c>
       <c r="D167" t="s">
@@ -4236,7 +4225,7 @@
       <c r="B168" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C168" s="10">
+      <c r="C168" s="9">
         <v>145000</v>
       </c>
       <c r="D168" t="s">
@@ -4256,7 +4245,7 @@
       <c r="B169" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C169" s="10">
+      <c r="C169" s="9">
         <v>138000</v>
       </c>
       <c r="D169" t="s">
@@ -4276,7 +4265,7 @@
       <c r="B170" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C170" s="10">
+      <c r="C170" s="9">
         <v>158000</v>
       </c>
       <c r="D170" t="s">
@@ -4296,7 +4285,7 @@
       <c r="B171" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C171" s="10">
+      <c r="C171" s="9">
         <v>143000</v>
       </c>
       <c r="D171" t="s">
@@ -4316,7 +4305,7 @@
       <c r="B172" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C172" s="10">
+      <c r="C172" s="9">
         <v>102000</v>
       </c>
       <c r="D172" t="s">
@@ -4336,7 +4325,7 @@
       <c r="B173" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C173" s="10">
+      <c r="C173" s="9">
         <v>89000</v>
       </c>
       <c r="D173" t="s">
@@ -4356,7 +4345,7 @@
       <c r="B174" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C174" s="10">
+      <c r="C174" s="9">
         <v>127000</v>
       </c>
       <c r="D174" t="s">
@@ -4376,7 +4365,7 @@
       <c r="B175" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C175" s="10">
+      <c r="C175" s="9">
         <v>465000</v>
       </c>
       <c r="D175" t="s">

--- a/prices.xlsx
+++ b/prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedemad/Downloads/phone_price_bot test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8290057-5ADD-2446-B5E2-F3147626EEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ACF5A4-E174-D348-8D53-B8B16A1A742E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="171">
   <si>
     <t>المتجر</t>
   </si>
@@ -545,9 +545,6 @@
   </si>
   <si>
     <t>HUAWE WATCH 5 42mm Stainless Gold</t>
-  </si>
-  <si>
-    <t>115,000|</t>
   </si>
 </sst>
 </file>
@@ -611,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -631,7 +628,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -939,7 +935,7 @@
   <dimension ref="A1:F1611"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -982,7 +978,7 @@
       <c r="B2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="1">
         <v>2300000</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1002,7 +998,7 @@
       <c r="B3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="1">
         <v>1990000</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1022,7 +1018,7 @@
       <c r="B4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="1">
         <v>1630000</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1042,7 +1038,7 @@
       <c r="B5" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1060,7 +1056,7 @@
       <c r="B6" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="1">
         <v>2125000</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1080,7 +1076,7 @@
       <c r="B7" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="1">
         <v>1700000</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1100,7 +1096,7 @@
       <c r="B8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="1">
         <v>1550000</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1120,7 +1116,7 @@
       <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1138,7 +1134,7 @@
       <c r="B10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="1">
         <v>1345000</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1158,7 +1154,7 @@
       <c r="B11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="1">
         <v>1195000</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1178,7 +1174,7 @@
       <c r="B12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="1">
         <v>1195000</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1198,7 +1194,7 @@
       <c r="B13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="1">
         <v>1045000</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1218,7 +1214,7 @@
       <c r="B14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="1">
         <v>885000</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1238,7 +1234,7 @@
       <c r="B15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="1">
         <v>1080000</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1258,7 +1254,7 @@
       <c r="B16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="1">
         <v>600000</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1278,7 +1274,7 @@
       <c r="B17" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="1">
         <v>2650000</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1298,7 +1294,7 @@
       <c r="B18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
@@ -1316,7 +1312,7 @@
       <c r="B19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="1">
         <v>1535000</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1336,7 +1332,7 @@
       <c r="B20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="1">
         <v>1620000</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1356,7 +1352,7 @@
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="1">
         <v>1180000</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1376,7 +1372,7 @@
       <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="1">
         <v>1195000</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1396,7 +1392,7 @@
       <c r="B23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="1">
         <v>1050000</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1416,7 +1412,7 @@
       <c r="B24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="1">
         <v>710000</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1436,7 +1432,7 @@
       <c r="B25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="1">
         <v>850000</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1456,7 +1452,7 @@
       <c r="B26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="1">
         <v>500000</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1476,7 +1472,7 @@
       <c r="B27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="1">
         <v>435000</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1496,7 +1492,7 @@
       <c r="B28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="1">
         <v>495000</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1516,7 +1512,7 @@
       <c r="B29" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="1">
         <v>405000</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1536,7 +1532,7 @@
       <c r="B30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="1">
         <v>595000</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1556,7 +1552,7 @@
       <c r="B31" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="1">
         <v>2499000</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1576,7 +1572,7 @@
       <c r="B32" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="1">
         <v>1479000</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1596,7 +1592,7 @@
       <c r="B33" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="1">
         <v>1450000</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1616,7 +1612,7 @@
       <c r="B34" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="1">
         <v>1300000</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1636,7 +1632,7 @@
       <c r="B35" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="1">
         <v>1250000</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1656,7 +1652,7 @@
       <c r="B36" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="1">
         <v>1150000</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -1674,7 +1670,7 @@
         <v>127</v>
       </c>
       <c r="B37" s="3"/>
-      <c r="C37" s="9">
+      <c r="C37" s="1">
         <v>570000</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1692,7 +1688,7 @@
         <v>160</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="C38" s="9">
+      <c r="C38" s="1">
         <v>450000</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -1710,7 +1706,7 @@
         <v>161</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="9">
+      <c r="C39" s="1">
         <v>395000</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -1728,7 +1724,7 @@
         <v>128</v>
       </c>
       <c r="B40" s="3"/>
-      <c r="C40" s="9">
+      <c r="C40" s="1">
         <v>435000</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -1746,7 +1742,7 @@
         <v>162</v>
       </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="9">
+      <c r="C41" s="1">
         <v>210000</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -1764,7 +1760,7 @@
         <v>163</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="9">
+      <c r="C42" s="1">
         <v>185000</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -1782,7 +1778,7 @@
         <v>129</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="9">
+      <c r="C43" s="1">
         <v>135000</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -1800,7 +1796,7 @@
         <v>130</v>
       </c>
       <c r="B44" s="3"/>
-      <c r="C44" s="9">
+      <c r="C44" s="1">
         <v>70000</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -1818,7 +1814,7 @@
         <v>131</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="C45" s="9">
+      <c r="C45" s="1">
         <v>70000</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -1836,7 +1832,7 @@
         <v>132</v>
       </c>
       <c r="B46" s="3"/>
-      <c r="C46" s="9">
+      <c r="C46" s="1">
         <v>30000</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -1856,7 +1852,7 @@
       <c r="B47" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="1">
         <v>1840000</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -1876,7 +1872,7 @@
       <c r="B48" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="1">
         <v>1640000</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -1896,7 +1892,7 @@
       <c r="B49" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="1">
         <v>1440000</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -1916,7 +1912,7 @@
       <c r="B50" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
         <v>9</v>
       </c>
@@ -1934,7 +1930,7 @@
       <c r="B51" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="1">
         <v>1520000</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -1954,7 +1950,7 @@
       <c r="B52" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="1">
         <v>1370000</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -1974,7 +1970,7 @@
       <c r="B53" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="1">
         <v>1550000</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -1994,7 +1990,7 @@
       <c r="B54" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="1">
         <v>1190000</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -2014,7 +2010,7 @@
       <c r="B55" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="1">
         <v>1390000</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -2034,7 +2030,7 @@
       <c r="B56" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="1">
         <v>1050000</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -2054,7 +2050,7 @@
       <c r="B57" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="1">
         <v>940000</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -2074,7 +2070,7 @@
       <c r="B58" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="1">
         <v>800000</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -2094,7 +2090,7 @@
       <c r="B59" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="1">
         <v>940000</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -2114,7 +2110,7 @@
       <c r="B60" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="1">
         <v>640000</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -2134,7 +2130,7 @@
       <c r="B61" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="1">
         <v>780000</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -2154,7 +2150,7 @@
       <c r="B62" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="1">
         <v>840000</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -2174,7 +2170,7 @@
       <c r="B63" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="1">
         <v>548000</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -2194,7 +2190,7 @@
       <c r="B64" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="1">
         <v>502000</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -2214,7 +2210,7 @@
       <c r="B65" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="1">
         <v>423000</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -2234,7 +2230,7 @@
       <c r="B66" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="1">
         <v>387000</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -2254,7 +2250,7 @@
       <c r="B67" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="1">
         <v>349000</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -2274,7 +2270,7 @@
       <c r="B68" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="1">
         <v>295000</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -2294,7 +2290,7 @@
       <c r="B69" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="1">
         <v>222000</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -2314,7 +2310,7 @@
       <c r="B70" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="1">
         <v>183000</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -2334,7 +2330,7 @@
       <c r="B71" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="1">
         <v>161000</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -2354,7 +2350,7 @@
       <c r="B72" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="1">
         <v>132000</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -2374,8 +2370,8 @@
       <c r="B73" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>171</v>
+      <c r="C73" s="1">
+        <v>115000</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>9</v>
@@ -2394,7 +2390,7 @@
       <c r="B74" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="1">
         <v>98000</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -2414,7 +2410,7 @@
       <c r="B75" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="1">
         <v>400000</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -2434,7 +2430,7 @@
       <c r="B76" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="1">
         <v>799000</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -2454,7 +2450,7 @@
       <c r="B77" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="1">
         <v>398000</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -2474,7 +2470,7 @@
       <c r="B78" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="1">
         <v>335000</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -2494,7 +2490,7 @@
       <c r="B79" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="1">
         <v>205000</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -2514,7 +2510,7 @@
       <c r="B80" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="1">
         <v>295000</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -2534,7 +2530,7 @@
       <c r="B81" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="1">
         <v>210000</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -2554,7 +2550,7 @@
       <c r="B82" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="1">
         <v>182000</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -2574,7 +2570,7 @@
       <c r="B83" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="1">
         <v>180000</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -2594,7 +2590,7 @@
       <c r="B84" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="1">
         <v>114000</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -2614,7 +2610,7 @@
       <c r="B85" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="1">
         <v>615000</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -2632,7 +2628,7 @@
         <v>16</v>
       </c>
       <c r="B86" s="3"/>
-      <c r="C86" s="9">
+      <c r="C86" s="1">
         <v>45000</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -2652,7 +2648,7 @@
       <c r="B87" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="1">
         <v>1390000</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -2672,7 +2668,7 @@
       <c r="B88" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88" s="1">
         <v>980000</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -2692,7 +2688,7 @@
       <c r="B89" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C89" s="1">
         <v>745000</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -2712,7 +2708,7 @@
       <c r="B90" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="1">
         <v>501000</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -2732,7 +2728,7 @@
       <c r="B91" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C91" s="1">
         <v>418000</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -2752,7 +2748,7 @@
       <c r="B92" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="1">
         <v>356000</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -2772,7 +2768,7 @@
       <c r="B93" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="1">
         <v>347000</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -2792,7 +2788,7 @@
       <c r="B94" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="1">
         <v>287000</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -2812,7 +2808,7 @@
       <c r="B95" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C95" s="1">
         <v>268000</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -2832,7 +2828,7 @@
       <c r="B96" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C96" s="1">
         <v>222000</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -2852,7 +2848,7 @@
       <c r="B97" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C97" s="9">
+      <c r="C97" s="1">
         <v>164000</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -2872,7 +2868,7 @@
       <c r="B98" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C98" s="9">
+      <c r="C98" s="1">
         <v>148000</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -2892,7 +2888,7 @@
       <c r="B99" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C99" s="1">
         <v>103000</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -2912,7 +2908,7 @@
       <c r="B100" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C100" s="9">
+      <c r="C100" s="1">
         <v>88000</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -2932,7 +2928,7 @@
       <c r="B101" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C101" s="9">
+      <c r="C101" s="1">
         <v>927000</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -2952,7 +2948,7 @@
       <c r="B102" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C102" s="1">
         <v>687000</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -2972,7 +2968,7 @@
       <c r="B103" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C103" s="9">
+      <c r="C103" s="1">
         <v>545000</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -2992,7 +2988,7 @@
       <c r="B104" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C104" s="9">
+      <c r="C104" s="1">
         <v>485000</v>
       </c>
       <c r="D104" s="1" t="s">
@@ -3012,7 +3008,7 @@
       <c r="B105" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C105" s="9">
+      <c r="C105" s="1">
         <v>459000</v>
       </c>
       <c r="D105" s="1" t="s">
@@ -3032,7 +3028,7 @@
       <c r="B106" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C106" s="9">
+      <c r="C106" s="1">
         <v>415000</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -3052,7 +3048,7 @@
       <c r="B107" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C107" s="1">
         <v>360000</v>
       </c>
       <c r="D107" s="1" t="s">
@@ -3072,7 +3068,7 @@
       <c r="B108" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C108" s="9">
+      <c r="C108" s="1">
         <v>304000</v>
       </c>
       <c r="D108" s="1" t="s">
@@ -3092,7 +3088,7 @@
       <c r="B109" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C109" s="9">
+      <c r="C109" s="1">
         <v>276000</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -3112,7 +3108,7 @@
       <c r="B110" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C110" s="9">
+      <c r="C110" s="1">
         <v>148000</v>
       </c>
       <c r="D110" s="1" t="s">
@@ -3132,7 +3128,7 @@
       <c r="B111" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C111" s="9">
+      <c r="C111" s="1">
         <v>105000</v>
       </c>
       <c r="D111" s="1" t="s">
@@ -3152,7 +3148,7 @@
       <c r="B112" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C112" s="9">
+      <c r="C112" s="1">
         <v>664000</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -3172,7 +3168,7 @@
       <c r="B113" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C113" s="9">
+      <c r="C113" s="1">
         <v>507000</v>
       </c>
       <c r="D113" s="1" t="s">
@@ -3192,7 +3188,7 @@
       <c r="B114" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C114" s="9">
+      <c r="C114" s="1">
         <v>461000</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -3212,7 +3208,7 @@
       <c r="B115" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C115" s="9">
+      <c r="C115" s="1">
         <v>710000</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -3232,7 +3228,7 @@
       <c r="B116" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C116" s="9">
+      <c r="C116" s="1">
         <v>321000</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -3252,7 +3248,7 @@
       <c r="B117" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C117" s="9">
+      <c r="C117" s="1">
         <v>265000</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -3272,7 +3268,7 @@
       <c r="B118" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C118" s="9">
+      <c r="C118" s="1">
         <v>252000</v>
       </c>
       <c r="D118" s="1" t="s">
@@ -3292,7 +3288,7 @@
       <c r="B119" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C119" s="9">
+      <c r="C119" s="1">
         <v>229000</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -3312,7 +3308,7 @@
       <c r="B120" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C120" s="9">
+      <c r="C120" s="1">
         <v>192000</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -3332,7 +3328,7 @@
       <c r="B121" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C121" s="9">
+      <c r="C121" s="1">
         <v>314000</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -3352,7 +3348,7 @@
       <c r="B122" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C122" s="9">
+      <c r="C122" s="1">
         <v>1495000</v>
       </c>
       <c r="D122" t="s">
@@ -3372,7 +3368,7 @@
       <c r="B123" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C123" s="9">
+      <c r="C123" s="1">
         <v>1183000</v>
       </c>
       <c r="D123" t="s">
@@ -3392,7 +3388,7 @@
       <c r="B124" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C124" s="9">
+      <c r="C124" s="1">
         <v>652000</v>
       </c>
       <c r="D124" t="s">
@@ -3412,7 +3408,7 @@
       <c r="B125" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C125" s="9">
+      <c r="C125" s="1">
         <v>435000</v>
       </c>
       <c r="D125" t="s">
@@ -3432,7 +3428,7 @@
       <c r="B126" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C126" s="9">
+      <c r="C126" s="1">
         <v>283000</v>
       </c>
       <c r="D126" t="s">
@@ -3452,7 +3448,7 @@
       <c r="B127" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C127" s="9">
+      <c r="C127" s="1">
         <v>193000</v>
       </c>
       <c r="D127" t="s">
@@ -3469,7 +3465,7 @@
       <c r="A128" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C128" s="9">
+      <c r="C128" s="1">
         <v>268000</v>
       </c>
       <c r="D128" t="s">
@@ -3486,7 +3482,7 @@
       <c r="A129" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C129" s="9">
+      <c r="C129" s="1">
         <v>170000</v>
       </c>
       <c r="D129" t="s">
@@ -3503,7 +3499,7 @@
       <c r="A130" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C130" s="9">
+      <c r="C130" s="1">
         <v>237000</v>
       </c>
       <c r="D130" t="s">
@@ -3520,7 +3516,7 @@
       <c r="A131" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C131" s="9">
+      <c r="C131" s="1">
         <v>268000</v>
       </c>
       <c r="D131" t="s">
@@ -3537,7 +3533,7 @@
       <c r="A132" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C132" s="9">
+      <c r="C132" s="1">
         <v>810000</v>
       </c>
       <c r="D132" t="s">
@@ -3554,7 +3550,7 @@
       <c r="A133" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C133" s="9">
+      <c r="C133" s="1">
         <v>590000</v>
       </c>
       <c r="D133" t="s">
@@ -3571,7 +3567,7 @@
       <c r="A134" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C134" s="9">
+      <c r="C134" s="1">
         <v>590000</v>
       </c>
       <c r="D134" t="s">
@@ -3588,7 +3584,7 @@
       <c r="A135" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C135" s="9">
+      <c r="C135" s="1">
         <v>810000</v>
       </c>
       <c r="D135" t="s">
@@ -3605,7 +3601,7 @@
       <c r="A136" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C136" s="9">
+      <c r="C136" s="1">
         <v>745000</v>
       </c>
       <c r="D136" t="s">
@@ -3623,7 +3619,7 @@
         <v>20</v>
       </c>
       <c r="B137" s="3"/>
-      <c r="C137" s="9">
+      <c r="C137" s="1">
         <v>223000</v>
       </c>
       <c r="D137" t="s">
@@ -3641,7 +3637,7 @@
         <v>21</v>
       </c>
       <c r="B138" s="3"/>
-      <c r="C138" s="9">
+      <c r="C138" s="1">
         <v>169000</v>
       </c>
       <c r="D138" t="s">
@@ -3659,7 +3655,7 @@
         <v>22</v>
       </c>
       <c r="B139" s="3"/>
-      <c r="C139" s="9">
+      <c r="C139" s="1">
         <v>125000</v>
       </c>
       <c r="D139" t="s">
@@ -3677,7 +3673,7 @@
         <v>23</v>
       </c>
       <c r="B140" s="3"/>
-      <c r="C140" s="9">
+      <c r="C140" s="1">
         <v>89000</v>
       </c>
       <c r="D140" t="s">
@@ -3695,7 +3691,7 @@
         <v>24</v>
       </c>
       <c r="B141" s="3"/>
-      <c r="C141" s="9">
+      <c r="C141" s="1">
         <v>49000</v>
       </c>
       <c r="D141" t="s">
@@ -3713,7 +3709,7 @@
         <v>25</v>
       </c>
       <c r="B142" s="3"/>
-      <c r="C142" s="9">
+      <c r="C142" s="1">
         <v>35000</v>
       </c>
       <c r="D142" t="s">
@@ -3731,7 +3727,7 @@
         <v>26</v>
       </c>
       <c r="B143" s="3"/>
-      <c r="C143" s="9">
+      <c r="C143" s="1">
         <v>184000</v>
       </c>
       <c r="D143" t="s">
@@ -3749,7 +3745,7 @@
         <v>27</v>
       </c>
       <c r="B144" s="3"/>
-      <c r="C144" s="9">
+      <c r="C144" s="1">
         <v>125000</v>
       </c>
       <c r="D144" t="s">
@@ -3767,7 +3763,7 @@
         <v>28</v>
       </c>
       <c r="B145" s="3"/>
-      <c r="C145" s="9">
+      <c r="C145" s="1">
         <v>90000</v>
       </c>
       <c r="D145" t="s">
@@ -3785,7 +3781,7 @@
         <v>29</v>
       </c>
       <c r="B146" s="3"/>
-      <c r="C146" s="9">
+      <c r="C146" s="1">
         <v>49000</v>
       </c>
       <c r="D146" t="s">
@@ -3805,7 +3801,7 @@
       <c r="B147" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C147" s="9">
+      <c r="C147" s="1">
         <v>470000</v>
       </c>
       <c r="D147" t="s">
@@ -3825,7 +3821,7 @@
       <c r="B148" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C148" s="9">
+      <c r="C148" s="1">
         <v>345000</v>
       </c>
       <c r="D148" t="s">
@@ -3845,7 +3841,7 @@
       <c r="B149" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C149" s="9">
+      <c r="C149" s="1">
         <v>315000</v>
       </c>
       <c r="D149" t="s">
@@ -3865,7 +3861,7 @@
       <c r="B150" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C150" s="9">
+      <c r="C150" s="1">
         <v>255000</v>
       </c>
       <c r="D150" t="s">
@@ -3885,7 +3881,7 @@
       <c r="B151" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C151" s="9">
+      <c r="C151" s="1">
         <v>399000</v>
       </c>
       <c r="D151" t="s">
@@ -3905,7 +3901,7 @@
       <c r="B152" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C152" s="9">
+      <c r="C152" s="1">
         <v>155000</v>
       </c>
       <c r="D152" t="s">
@@ -3925,7 +3921,7 @@
       <c r="B153" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C153" s="9">
+      <c r="C153" s="1">
         <v>145000</v>
       </c>
       <c r="D153" t="s">
@@ -3945,7 +3941,7 @@
       <c r="B154" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C154" s="9">
+      <c r="C154" s="1">
         <v>146000</v>
       </c>
       <c r="D154" t="s">
@@ -3965,7 +3961,7 @@
       <c r="B155" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C155" s="9">
+      <c r="C155" s="1">
         <v>189000</v>
       </c>
       <c r="D155" t="s">
@@ -3985,7 +3981,7 @@
       <c r="B156" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C156" s="9">
+      <c r="C156" s="1">
         <v>107000</v>
       </c>
       <c r="D156" t="s">
@@ -4005,7 +4001,7 @@
       <c r="B157" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C157" s="9">
+      <c r="C157" s="1">
         <v>95000</v>
       </c>
       <c r="D157" t="s">
@@ -4025,7 +4021,7 @@
       <c r="B158" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C158" s="9">
+      <c r="C158" s="1">
         <v>98000</v>
       </c>
       <c r="D158" t="s">
@@ -4045,7 +4041,7 @@
       <c r="B159" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C159" s="9">
+      <c r="C159" s="1">
         <v>115000</v>
       </c>
       <c r="D159" t="s">
@@ -4065,7 +4061,7 @@
       <c r="B160" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C160" s="9">
+      <c r="C160" s="1">
         <v>215000</v>
       </c>
       <c r="D160" t="s">
@@ -4085,7 +4081,7 @@
       <c r="B161" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C161" s="9">
+      <c r="C161" s="1">
         <v>136000</v>
       </c>
       <c r="D161" t="s">
@@ -4105,7 +4101,7 @@
       <c r="B162" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C162" s="9">
+      <c r="C162" s="1">
         <v>380000</v>
       </c>
       <c r="D162" t="s">
@@ -4125,7 +4121,7 @@
       <c r="B163" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C163" s="9">
+      <c r="C163" s="1">
         <v>450000</v>
       </c>
       <c r="D163" t="s">
@@ -4145,7 +4141,7 @@
       <c r="B164" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C164" s="9">
+      <c r="C164" s="1">
         <v>310000</v>
       </c>
       <c r="D164" t="s">
@@ -4165,7 +4161,7 @@
       <c r="B165" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C165" s="9">
+      <c r="C165" s="1">
         <v>293000</v>
       </c>
       <c r="D165" t="s">
@@ -4185,7 +4181,7 @@
       <c r="B166" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C166" s="9">
+      <c r="C166" s="1">
         <v>253000</v>
       </c>
       <c r="D166" t="s">
@@ -4205,7 +4201,7 @@
       <c r="B167" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C167" s="9">
+      <c r="C167" s="1">
         <v>200000</v>
       </c>
       <c r="D167" t="s">
@@ -4225,7 +4221,7 @@
       <c r="B168" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C168" s="9">
+      <c r="C168" s="1">
         <v>145000</v>
       </c>
       <c r="D168" t="s">
@@ -4245,7 +4241,7 @@
       <c r="B169" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C169" s="9">
+      <c r="C169" s="1">
         <v>138000</v>
       </c>
       <c r="D169" t="s">
@@ -4265,7 +4261,7 @@
       <c r="B170" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C170" s="9">
+      <c r="C170" s="1">
         <v>158000</v>
       </c>
       <c r="D170" t="s">
@@ -4285,7 +4281,7 @@
       <c r="B171" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C171" s="9">
+      <c r="C171" s="1">
         <v>143000</v>
       </c>
       <c r="D171" t="s">
@@ -4305,7 +4301,7 @@
       <c r="B172" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C172" s="9">
+      <c r="C172" s="1">
         <v>102000</v>
       </c>
       <c r="D172" t="s">
@@ -4325,7 +4321,7 @@
       <c r="B173" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C173" s="9">
+      <c r="C173" s="1">
         <v>89000</v>
       </c>
       <c r="D173" t="s">
@@ -4345,7 +4341,7 @@
       <c r="B174" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C174" s="9">
+      <c r="C174" s="1">
         <v>127000</v>
       </c>
       <c r="D174" t="s">
@@ -4365,7 +4361,7 @@
       <c r="B175" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C175" s="9">
+      <c r="C175" s="1">
         <v>465000</v>
       </c>
       <c r="D175" t="s">

--- a/prices.xlsx
+++ b/prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedemad/Downloads/phone_price_bot test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ACF5A4-E174-D348-8D53-B8B16A1A742E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E8BD0B-19A8-9448-87C3-725AE5540F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="177">
   <si>
     <t>المتجر</t>
   </si>
@@ -388,21 +388,6 @@
     <t>iPhone 13</t>
   </si>
   <si>
-    <t>iPad Pro 13-inch M4 chip</t>
-  </si>
-  <si>
-    <t>iPad Pro 11-inch M4 chip</t>
-  </si>
-  <si>
-    <t>iPad Air 13-inch M3 chip</t>
-  </si>
-  <si>
-    <t>iPad Air 11-inch M3 chip</t>
-  </si>
-  <si>
-    <t>iPad 11-inch A16 chip</t>
-  </si>
-  <si>
     <t>iPad Mini 7</t>
   </si>
   <si>
@@ -436,9 +421,6 @@
     <t>infinix GT 30 PRO 5G</t>
   </si>
   <si>
-    <t>2TB</t>
-  </si>
-  <si>
     <t>64GB</t>
   </si>
   <si>
@@ -545,6 +527,42 @@
   </si>
   <si>
     <t>HUAWE WATCH 5 42mm Stainless Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPad 11-inch </t>
+  </si>
+  <si>
+    <t>2TB.   M4 chip</t>
+  </si>
+  <si>
+    <t>512GB.    M4 chip</t>
+  </si>
+  <si>
+    <t>256GB     M4 chip</t>
+  </si>
+  <si>
+    <t>256GB.    M4 chip</t>
+  </si>
+  <si>
+    <t>256GB.    M3 chip</t>
+  </si>
+  <si>
+    <t>128GB.    M3 chip</t>
+  </si>
+  <si>
+    <t>iPad Air 11-inch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPad Air 11-inch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPad Air 13-inch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPad Pro 11-inch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPad Pro 13-inch </t>
   </si>
 </sst>
 </file>
@@ -934,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1611"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -956,7 +974,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>3</v>
@@ -973,7 +991,7 @@
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>52</v>
@@ -993,7 +1011,7 @@
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>53</v>
@@ -1013,7 +1031,7 @@
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>50</v>
@@ -1033,10 +1051,10 @@
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -1051,10 +1069,10 @@
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C6" s="1">
         <v>2125000</v>
@@ -1071,10 +1089,10 @@
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C7" s="1">
         <v>1700000</v>
@@ -1091,7 +1109,7 @@
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>50</v>
@@ -1129,7 +1147,7 @@
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>50</v>
@@ -1149,7 +1167,7 @@
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>51</v>
@@ -1169,7 +1187,7 @@
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>50</v>
@@ -1269,10 +1287,10 @@
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="C17" s="1">
         <v>2650000</v>
@@ -1289,10 +1307,10 @@
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -1307,10 +1325,10 @@
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="C19" s="1">
         <v>1535000</v>
@@ -1327,10 +1345,10 @@
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="C20" s="1">
         <v>1620000</v>
@@ -1347,10 +1365,10 @@
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="C21" s="1">
         <v>1180000</v>
@@ -1367,10 +1385,10 @@
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="C22" s="1">
         <v>1195000</v>
@@ -1387,10 +1405,10 @@
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="C23" s="1">
         <v>1050000</v>
@@ -1407,10 +1425,10 @@
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="C24" s="1">
         <v>710000</v>
@@ -1427,10 +1445,10 @@
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="C25" s="1">
         <v>850000</v>
@@ -1447,7 +1465,7 @@
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>50</v>
@@ -1467,7 +1485,7 @@
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>51</v>
@@ -1510,7 +1528,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C29" s="1">
         <v>405000</v>
@@ -1527,7 +1545,7 @@
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>51</v>
@@ -1547,10 +1565,10 @@
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C31" s="1">
         <v>2499000</v>
@@ -1567,10 +1585,10 @@
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C32" s="1">
         <v>1479000</v>
@@ -1590,7 +1608,7 @@
         <v>44</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C33" s="1">
         <v>1450000</v>
@@ -1610,7 +1628,7 @@
         <v>44</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C34" s="1">
         <v>1300000</v>
@@ -1627,10 +1645,10 @@
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C35" s="1">
         <v>1250000</v>
@@ -1647,10 +1665,10 @@
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C36" s="1">
         <v>1150000</v>
@@ -1667,7 +1685,7 @@
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="1">
@@ -1685,7 +1703,7 @@
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="1">
@@ -1703,7 +1721,7 @@
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="1">
@@ -1721,7 +1739,7 @@
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="1">
@@ -1739,7 +1757,7 @@
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="1">
@@ -1757,7 +1775,7 @@
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="1">
@@ -1775,7 +1793,7 @@
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="1">
@@ -1793,7 +1811,7 @@
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="1">
@@ -1811,7 +1829,7 @@
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="1">
@@ -1829,7 +1847,7 @@
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="1">
@@ -1850,7 +1868,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C47" s="1">
         <v>1840000</v>
@@ -1870,7 +1888,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C48" s="1">
         <v>1640000</v>
@@ -1890,7 +1908,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C49" s="1">
         <v>1440000</v>
@@ -1910,7 +1928,7 @@
         <v>54</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
@@ -1928,7 +1946,7 @@
         <v>54</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C51" s="1">
         <v>1520000</v>
@@ -1948,7 +1966,7 @@
         <v>54</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C52" s="1">
         <v>1370000</v>
@@ -1968,7 +1986,7 @@
         <v>55</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C53" s="1">
         <v>1550000</v>
@@ -1988,7 +2006,7 @@
         <v>56</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C54" s="1">
         <v>1190000</v>
@@ -2008,7 +2026,7 @@
         <v>57</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C55" s="1">
         <v>1390000</v>
@@ -2028,7 +2046,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C56" s="1">
         <v>1050000</v>
@@ -2048,7 +2066,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C57" s="1">
         <v>940000</v>
@@ -2068,7 +2086,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C58" s="1">
         <v>800000</v>
@@ -2088,7 +2106,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C59" s="1">
         <v>940000</v>
@@ -2108,7 +2126,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C60" s="1">
         <v>640000</v>
@@ -2128,7 +2146,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C61" s="1">
         <v>780000</v>
@@ -2148,7 +2166,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C62" s="1">
         <v>840000</v>
@@ -2165,10 +2183,10 @@
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C63" s="1">
         <v>548000</v>
@@ -2188,7 +2206,7 @@
         <v>43</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C64" s="1">
         <v>502000</v>
@@ -2208,7 +2226,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C65" s="1">
         <v>423000</v>
@@ -2228,7 +2246,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C66" s="1">
         <v>387000</v>
@@ -2248,7 +2266,7 @@
         <v>42</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C67" s="1">
         <v>349000</v>
@@ -2268,7 +2286,7 @@
         <v>42</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C68" s="1">
         <v>295000</v>
@@ -2288,7 +2306,7 @@
         <v>41</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C69" s="1">
         <v>222000</v>
@@ -2308,7 +2326,7 @@
         <v>41</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C70" s="1">
         <v>183000</v>
@@ -2328,7 +2346,7 @@
         <v>41</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C71" s="1">
         <v>161000</v>
@@ -2348,7 +2366,7 @@
         <v>40</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C72" s="1">
         <v>132000</v>
@@ -2368,7 +2386,7 @@
         <v>40</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C73" s="1">
         <v>115000</v>
@@ -2388,7 +2406,7 @@
         <v>40</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C74" s="1">
         <v>98000</v>
@@ -2408,7 +2426,7 @@
         <v>63</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C75" s="1">
         <v>400000</v>
@@ -2428,7 +2446,7 @@
         <v>64</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C76" s="1">
         <v>799000</v>
@@ -2448,7 +2466,7 @@
         <v>65</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C77" s="1">
         <v>398000</v>
@@ -2468,7 +2486,7 @@
         <v>66</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C78" s="1">
         <v>335000</v>
@@ -2488,7 +2506,7 @@
         <v>67</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C79" s="1">
         <v>205000</v>
@@ -2508,7 +2526,7 @@
         <v>68</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C80" s="1">
         <v>295000</v>
@@ -2528,7 +2546,7 @@
         <v>69</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C81" s="1">
         <v>210000</v>
@@ -2548,7 +2566,7 @@
         <v>70</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C82" s="1">
         <v>182000</v>
@@ -2568,7 +2586,7 @@
         <v>71</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C83" s="1">
         <v>180000</v>
@@ -2588,7 +2606,7 @@
         <v>72</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C84" s="1">
         <v>114000</v>
@@ -2608,7 +2626,7 @@
         <v>73</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C85" s="1">
         <v>615000</v>
@@ -2646,7 +2664,7 @@
         <v>74</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C87" s="1">
         <v>1390000</v>
@@ -2666,7 +2684,7 @@
         <v>75</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C88" s="1">
         <v>980000</v>
@@ -2686,7 +2704,7 @@
         <v>76</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C89" s="1">
         <v>745000</v>
@@ -2706,7 +2724,7 @@
         <v>36</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C90" s="1">
         <v>501000</v>
@@ -2726,7 +2744,7 @@
         <v>35</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C91" s="1">
         <v>418000</v>
@@ -2746,7 +2764,7 @@
         <v>35</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C92" s="1">
         <v>356000</v>
@@ -2766,7 +2784,7 @@
         <v>34</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C93" s="1">
         <v>347000</v>
@@ -2786,7 +2804,7 @@
         <v>34</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C94" s="1">
         <v>287000</v>
@@ -2806,7 +2824,7 @@
         <v>77</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C95" s="1">
         <v>268000</v>
@@ -2826,7 +2844,7 @@
         <v>33</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C96" s="1">
         <v>222000</v>
@@ -2846,7 +2864,7 @@
         <v>78</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C97" s="1">
         <v>164000</v>
@@ -2866,7 +2884,7 @@
         <v>79</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C98" s="1">
         <v>148000</v>
@@ -2886,7 +2904,7 @@
         <v>32</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C99" s="1">
         <v>103000</v>
@@ -2906,7 +2924,7 @@
         <v>32</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C100" s="1">
         <v>88000</v>
@@ -2926,7 +2944,7 @@
         <v>80</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C101" s="1">
         <v>927000</v>
@@ -2946,7 +2964,7 @@
         <v>81</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C102" s="1">
         <v>687000</v>
@@ -2966,7 +2984,7 @@
         <v>82</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C103" s="1">
         <v>545000</v>
@@ -2986,7 +3004,7 @@
         <v>82</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C104" s="1">
         <v>485000</v>
@@ -3006,7 +3024,7 @@
         <v>83</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C105" s="1">
         <v>459000</v>
@@ -3026,7 +3044,7 @@
         <v>83</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C106" s="1">
         <v>415000</v>
@@ -3046,7 +3064,7 @@
         <v>84</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C107" s="1">
         <v>360000</v>
@@ -3066,7 +3084,7 @@
         <v>84</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C108" s="1">
         <v>304000</v>
@@ -3086,7 +3104,7 @@
         <v>85</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C109" s="1">
         <v>276000</v>
@@ -3106,7 +3124,7 @@
         <v>86</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C110" s="1">
         <v>148000</v>
@@ -3126,7 +3144,7 @@
         <v>87</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C111" s="1">
         <v>105000</v>
@@ -3146,7 +3164,7 @@
         <v>88</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C112" s="1">
         <v>664000</v>
@@ -3166,7 +3184,7 @@
         <v>89</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C113" s="1">
         <v>507000</v>
@@ -3186,7 +3204,7 @@
         <v>89</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C114" s="1">
         <v>461000</v>
@@ -3206,7 +3224,7 @@
         <v>90</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C115" s="1">
         <v>710000</v>
@@ -3226,7 +3244,7 @@
         <v>39</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C116" s="1">
         <v>321000</v>
@@ -3246,7 +3264,7 @@
         <v>39</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C117" s="1">
         <v>265000</v>
@@ -3266,7 +3284,7 @@
         <v>37</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C118" s="1">
         <v>252000</v>
@@ -3286,7 +3304,7 @@
         <v>38</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C119" s="1">
         <v>229000</v>
@@ -3306,7 +3324,7 @@
         <v>38</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C120" s="1">
         <v>192000</v>
@@ -3326,7 +3344,7 @@
         <v>91</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C121" s="1">
         <v>314000</v>
@@ -3346,7 +3364,7 @@
         <v>92</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C122" s="1">
         <v>1495000</v>
@@ -3366,7 +3384,7 @@
         <v>93</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C123" s="1">
         <v>1183000</v>
@@ -3386,7 +3404,7 @@
         <v>94</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C124" s="1">
         <v>652000</v>
@@ -3406,7 +3424,7 @@
         <v>95</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C125" s="1">
         <v>435000</v>
@@ -3426,7 +3444,7 @@
         <v>96</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C126" s="1">
         <v>283000</v>
@@ -3446,7 +3464,7 @@
         <v>96</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C127" s="1">
         <v>193000</v>
@@ -3497,7 +3515,7 @@
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C130" s="1">
         <v>237000</v>
@@ -3514,7 +3532,7 @@
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C131" s="1">
         <v>268000</v>
@@ -3531,7 +3549,7 @@
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C132" s="1">
         <v>810000</v>
@@ -3548,7 +3566,7 @@
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C133" s="1">
         <v>590000</v>
@@ -3565,7 +3583,7 @@
     </row>
     <row r="134" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C134" s="1">
         <v>590000</v>
@@ -3582,7 +3600,7 @@
     </row>
     <row r="135" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C135" s="1">
         <v>810000</v>
@@ -3799,7 +3817,7 @@
         <v>97</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C147" s="1">
         <v>470000</v>
@@ -3819,7 +3837,7 @@
         <v>98</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C148" s="1">
         <v>345000</v>
@@ -3839,7 +3857,7 @@
         <v>98</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C149" s="1">
         <v>315000</v>
@@ -3859,7 +3877,7 @@
         <v>46</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C150" s="1">
         <v>255000</v>
@@ -3879,7 +3897,7 @@
         <v>99</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C151" s="1">
         <v>399000</v>
@@ -3899,7 +3917,7 @@
         <v>47</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C152" s="1">
         <v>155000</v>
@@ -3919,7 +3937,7 @@
         <v>47</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C153" s="1">
         <v>145000</v>
@@ -3939,7 +3957,7 @@
         <v>100</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C154" s="1">
         <v>146000</v>
@@ -3959,7 +3977,7 @@
         <v>101</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C155" s="1">
         <v>189000</v>
@@ -3979,7 +3997,7 @@
         <v>49</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C156" s="1">
         <v>107000</v>
@@ -3999,7 +4017,7 @@
         <v>49</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C157" s="1">
         <v>95000</v>
@@ -4019,7 +4037,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C158" s="1">
         <v>98000</v>
@@ -4039,7 +4057,7 @@
         <v>48</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C159" s="1">
         <v>115000</v>
@@ -4059,7 +4077,7 @@
         <v>102</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C160" s="1">
         <v>215000</v>
@@ -4079,7 +4097,7 @@
         <v>103</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C161" s="1">
         <v>136000</v>
@@ -4096,10 +4114,10 @@
     </row>
     <row r="162" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C162" s="1">
         <v>380000</v>
@@ -4119,7 +4137,7 @@
         <v>104</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C163" s="1">
         <v>450000</v>
@@ -4139,7 +4157,7 @@
         <v>105</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C164" s="1">
         <v>310000</v>
@@ -4159,7 +4177,7 @@
         <v>105</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C165" s="1">
         <v>293000</v>
@@ -4179,7 +4197,7 @@
         <v>106</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C166" s="1">
         <v>253000</v>
@@ -4199,7 +4217,7 @@
         <v>107</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C167" s="1">
         <v>200000</v>
@@ -4219,7 +4237,7 @@
         <v>108</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C168" s="1">
         <v>145000</v>
@@ -4239,7 +4257,7 @@
         <v>109</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C169" s="1">
         <v>138000</v>
@@ -4259,7 +4277,7 @@
         <v>110</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C170" s="1">
         <v>158000</v>
@@ -4279,7 +4297,7 @@
         <v>110</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C171" s="1">
         <v>143000</v>
@@ -4299,7 +4317,7 @@
         <v>111</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C172" s="1">
         <v>102000</v>
@@ -4319,7 +4337,7 @@
         <v>111</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C173" s="1">
         <v>89000</v>
@@ -4339,7 +4357,7 @@
         <v>112</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C174" s="1">
         <v>127000</v>
@@ -4359,7 +4377,7 @@
         <v>113</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C175" s="1">
         <v>465000</v>
